--- a/MP Workbook LAUNCHPAD.xlsx
+++ b/MP Workbook LAUNCHPAD.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Custom HV &amp; WD" sheetId="6" r:id="rId2"/>
     <sheet name="Generic HV &amp; WD" sheetId="8" r:id="rId3"/>
     <sheet name="Constraints" sheetId="10" r:id="rId4"/>
-    <sheet name="Script Input" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621" refMode="R1C1"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="297">
   <si>
     <t>Scenario</t>
   </si>
@@ -879,22 +878,7 @@
     <t>mp</t>
   </si>
   <si>
-    <t>Minimum Habitat Areas (for each guild)</t>
-  </si>
-  <si>
     <t>square miles</t>
-  </si>
-  <si>
-    <t>User-defined Variables for Analysis</t>
-  </si>
-  <si>
-    <t>Soft Transitions - DCM List</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Analysis Variables</t>
@@ -903,13 +887,7 @@
     <t>Soft Transition DCMS</t>
   </si>
   <si>
-    <t>decimal % of Base Area</t>
-  </si>
-  <si>
     <t>Brine Area Limit (per step)</t>
-  </si>
-  <si>
-    <t>Sand Fence Area Limit (total)</t>
   </si>
   <si>
     <t>Hard Transition Limit (per step)</t>
@@ -931,6 +909,18 @@
   <si>
     <t>Soft Transition
 Area (sq mi)</t>
+  </si>
+  <si>
+    <t>Sand Fences Area Limit (lakewide total)</t>
+  </si>
+  <si>
+    <t>decimal % of Base Acreage</t>
+  </si>
+  <si>
+    <t>Habitat Acreage Target (each guild)</t>
+  </si>
+  <si>
+    <t>Transition Type</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1321,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="6"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1461,10 +1451,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="52" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="52" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1537,6 +1523,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -1626,7 +1615,64 @@
     <cellStyle name="Percent 5" xfId="82"/>
     <cellStyle name="Style 1" xfId="83"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1978,131 +2024,131 @@
   <dimension ref="A1:CP200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="76" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" style="77" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="76" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="76" customWidth="1"/>
-    <col min="7" max="7" width="14" style="76" customWidth="1"/>
+    <col min="1" max="1" width="16" style="72" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="72" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="72" customWidth="1"/>
+    <col min="7" max="7" width="14" style="72" customWidth="1"/>
     <col min="8" max="8" width="16.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="76" customWidth="1"/>
-    <col min="10" max="11" width="10.42578125" style="76" customWidth="1"/>
-    <col min="12" max="12" width="40.5703125" style="76" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="76" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" style="76" customWidth="1"/>
-    <col min="16" max="20" width="10.42578125" style="76" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="78" customWidth="1"/>
-    <col min="22" max="22" width="2.28515625" style="77" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" style="76" customWidth="1"/>
-    <col min="24" max="28" width="8.7109375" style="76" customWidth="1"/>
-    <col min="29" max="29" width="5.28515625" style="76" customWidth="1"/>
-    <col min="30" max="32" width="8.7109375" style="76" customWidth="1"/>
-    <col min="33" max="33" width="11.140625" style="76" customWidth="1"/>
-    <col min="34" max="34" width="8.7109375" style="76" customWidth="1"/>
-    <col min="35" max="35" width="10" style="76" customWidth="1"/>
-    <col min="36" max="36" width="2.140625" style="79" customWidth="1"/>
-    <col min="37" max="42" width="8.7109375" style="76" customWidth="1"/>
-    <col min="43" max="43" width="6.140625" style="76" customWidth="1"/>
-    <col min="44" max="48" width="8.7109375" style="76" customWidth="1"/>
-    <col min="49" max="49" width="10" style="76" customWidth="1"/>
-    <col min="50" max="50" width="1.85546875" style="77" customWidth="1"/>
-    <col min="51" max="56" width="8.7109375" style="76" customWidth="1"/>
-    <col min="57" max="57" width="5.140625" style="76" customWidth="1"/>
-    <col min="58" max="62" width="8.7109375" style="76" customWidth="1"/>
-    <col min="63" max="63" width="10" style="76" customWidth="1"/>
-    <col min="64" max="64" width="8.140625" style="79" customWidth="1"/>
-    <col min="65" max="73" width="8.85546875" style="76"/>
-    <col min="74" max="74" width="9.42578125" style="76" customWidth="1"/>
-    <col min="75" max="86" width="8.7109375" style="76" customWidth="1"/>
-    <col min="87" max="94" width="8.7109375" style="80" customWidth="1"/>
-    <col min="95" max="16384" width="8.85546875" style="76"/>
+    <col min="9" max="9" width="16.7109375" style="72" customWidth="1"/>
+    <col min="10" max="11" width="10.42578125" style="72" customWidth="1"/>
+    <col min="12" max="12" width="40.5703125" style="72" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="72" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" style="72" customWidth="1"/>
+    <col min="16" max="20" width="10.42578125" style="72" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="74" customWidth="1"/>
+    <col min="22" max="22" width="2.28515625" style="73" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" style="72" customWidth="1"/>
+    <col min="24" max="28" width="8.7109375" style="72" customWidth="1"/>
+    <col min="29" max="29" width="5.28515625" style="72" customWidth="1"/>
+    <col min="30" max="32" width="8.7109375" style="72" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" style="72" customWidth="1"/>
+    <col min="34" max="34" width="8.7109375" style="72" customWidth="1"/>
+    <col min="35" max="35" width="10" style="72" customWidth="1"/>
+    <col min="36" max="36" width="2.140625" style="75" customWidth="1"/>
+    <col min="37" max="42" width="8.7109375" style="72" customWidth="1"/>
+    <col min="43" max="43" width="6.140625" style="72" customWidth="1"/>
+    <col min="44" max="48" width="8.7109375" style="72" customWidth="1"/>
+    <col min="49" max="49" width="10" style="72" customWidth="1"/>
+    <col min="50" max="50" width="1.85546875" style="73" customWidth="1"/>
+    <col min="51" max="56" width="8.7109375" style="72" customWidth="1"/>
+    <col min="57" max="57" width="5.140625" style="72" customWidth="1"/>
+    <col min="58" max="62" width="8.7109375" style="72" customWidth="1"/>
+    <col min="63" max="63" width="10" style="72" customWidth="1"/>
+    <col min="64" max="64" width="8.140625" style="75" customWidth="1"/>
+    <col min="65" max="73" width="8.85546875" style="72"/>
+    <col min="74" max="74" width="9.42578125" style="72" customWidth="1"/>
+    <col min="75" max="86" width="8.7109375" style="72" customWidth="1"/>
+    <col min="87" max="94" width="8.7109375" style="76" customWidth="1"/>
+    <col min="95" max="16384" width="8.85546875" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="CI1" s="76"/>
-      <c r="CJ1" s="76"/>
-      <c r="CK1" s="76"/>
-      <c r="CL1" s="76"/>
-      <c r="CM1" s="76"/>
-      <c r="CN1" s="76"/>
-      <c r="CO1" s="76"/>
-      <c r="CP1" s="76"/>
+      <c r="CI1" s="72"/>
+      <c r="CJ1" s="72"/>
+      <c r="CK1" s="72"/>
+      <c r="CL1" s="72"/>
+      <c r="CM1" s="72"/>
+      <c r="CN1" s="72"/>
+      <c r="CO1" s="72"/>
+      <c r="CP1" s="72"/>
     </row>
     <row r="2" spans="1:94" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="73" t="s">
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="74" t="s">
-        <v>297</v>
-      </c>
-      <c r="H2" s="74" t="s">
-        <v>298</v>
-      </c>
-      <c r="I2" s="74" t="s">
-        <v>299</v>
-      </c>
-      <c r="L2" s="67" t="s">
-        <v>289</v>
-      </c>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="76"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="76"/>
-      <c r="BK2" s="77"/>
-      <c r="BL2" s="76"/>
-      <c r="CI2" s="76"/>
-      <c r="CJ2" s="76"/>
-      <c r="CK2" s="76"/>
-      <c r="CL2" s="76"/>
-      <c r="CM2" s="76"/>
-      <c r="CN2" s="76"/>
-      <c r="CO2" s="76"/>
-      <c r="CP2" s="76"/>
+      <c r="G2" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="L2" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="72"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="72"/>
+      <c r="BK2" s="73"/>
+      <c r="BL2" s="72"/>
+      <c r="CI2" s="72"/>
+      <c r="CJ2" s="72"/>
+      <c r="CK2" s="72"/>
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="72"/>
+      <c r="CN2" s="72"/>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="72"/>
     </row>
     <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81">
+      <c r="B3" s="77">
         <f t="shared" ref="B3:G3" si="0">P22</f>
         <v>0</v>
       </c>
-      <c r="C3" s="81">
+      <c r="C3" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D3" s="81">
+      <c r="D3" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="81">
+      <c r="E3" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="81">
+      <c r="F3" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2112,58 +2158,55 @@
       <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="76" t="str">
-        <f>'Script Input'!A3</f>
-        <v>Hard Transition Limit (per step)</v>
-      </c>
-      <c r="M3" s="66">
-        <f>'Script Input'!B3</f>
+      <c r="L3" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="M3" s="62">
         <v>3</v>
       </c>
-      <c r="N3" s="76" t="str">
-        <f>'Script Input'!C3</f>
-        <v>square miles</v>
-      </c>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="76"/>
-      <c r="AW3" s="77"/>
-      <c r="AX3" s="76"/>
-      <c r="BK3" s="77"/>
-      <c r="BL3" s="76"/>
-      <c r="CI3" s="76"/>
-      <c r="CJ3" s="76"/>
-      <c r="CK3" s="76"/>
-      <c r="CL3" s="76"/>
-      <c r="CM3" s="76"/>
-      <c r="CN3" s="76"/>
-      <c r="CO3" s="76"/>
-      <c r="CP3" s="76"/>
+      <c r="N3" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="72"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="72"/>
+      <c r="BK3" s="73"/>
+      <c r="BL3" s="72"/>
+      <c r="CI3" s="72"/>
+      <c r="CJ3" s="72"/>
+      <c r="CK3" s="72"/>
+      <c r="CL3" s="72"/>
+      <c r="CM3" s="72"/>
+      <c r="CN3" s="72"/>
+      <c r="CO3" s="72"/>
+      <c r="CP3" s="72"/>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="81">
+      <c r="B4" s="77">
         <f t="shared" ref="B4:G4" si="1">AR22</f>
         <v>0</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2173,803 +2216,782 @@
       <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="76" t="str">
-        <f>'Script Input'!A4</f>
-        <v>Soft Transition Limit (per step)</v>
-      </c>
-      <c r="M4" s="66">
-        <f>'Script Input'!B4</f>
+      <c r="L4" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="M4" s="62">
         <v>3</v>
       </c>
-      <c r="N4" s="76" t="str">
-        <f>'Script Input'!C4</f>
-        <v>square miles</v>
-      </c>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="76"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="76"/>
-      <c r="BK4" s="77"/>
-      <c r="BL4" s="76"/>
-      <c r="CI4" s="76"/>
-      <c r="CJ4" s="76"/>
-      <c r="CK4" s="76"/>
-      <c r="CL4" s="76"/>
-      <c r="CM4" s="76"/>
-      <c r="CN4" s="76"/>
-      <c r="CO4" s="76"/>
-      <c r="CP4" s="76"/>
+      <c r="N4" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="72"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="72"/>
+      <c r="BK4" s="73"/>
+      <c r="BL4" s="72"/>
+      <c r="CI4" s="72"/>
+      <c r="CJ4" s="72"/>
+      <c r="CK4" s="72"/>
+      <c r="CL4" s="72"/>
+      <c r="CM4" s="72"/>
+      <c r="CN4" s="72"/>
+      <c r="CO4" s="72"/>
+      <c r="CP4" s="72"/>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="81">
+      <c r="B5" s="77">
         <f t="shared" ref="B5:G9" si="2">SUMIF($H$22:$H$181, "&gt;"&amp;$A5, AR$24:AR$183) + SUMIF($H$22:$H$181, "&lt;="&amp;$A5, BF$24:BF$183)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H5" s="38" t="e">
-        <f>SUMIFS($B$22:$B$181, $H$22:$H$181, "="&amp;$A5,#REF!, "hard") * 0.0015625</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I5" s="38" t="e">
-        <f>SUMIFS($B$22:$B$181, $H$22:$H$181, "="&amp;$A5,#REF!, "soft") * 0.0015625</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L5" s="76" t="str">
-        <f>'Script Input'!A5</f>
-        <v>Minimum Habitat Areas (for each guild)</v>
-      </c>
-      <c r="M5" s="66">
-        <f>'Script Input'!B5</f>
+      <c r="H5" s="38">
+        <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A5,$I$22:$I$181, "hard")</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="38">
+        <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A5,$I$22:$I$181, "soft")</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="M5" s="62">
         <v>0.9</v>
       </c>
-      <c r="N5" s="76" t="str">
-        <f>'Script Input'!C5</f>
-        <v>decimal % of Base Area</v>
-      </c>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="76"/>
-      <c r="AW5" s="77"/>
-      <c r="AX5" s="76"/>
-      <c r="BK5" s="77"/>
-      <c r="BL5" s="76"/>
-      <c r="CI5" s="76"/>
-      <c r="CJ5" s="76"/>
-      <c r="CK5" s="76"/>
-      <c r="CL5" s="76"/>
-      <c r="CM5" s="76"/>
-      <c r="CN5" s="76"/>
-      <c r="CO5" s="76"/>
-      <c r="CP5" s="76"/>
+      <c r="N5" s="72" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="72"/>
+      <c r="AW5" s="73"/>
+      <c r="AX5" s="72"/>
+      <c r="BK5" s="73"/>
+      <c r="BL5" s="72"/>
+      <c r="CI5" s="72"/>
+      <c r="CJ5" s="72"/>
+      <c r="CK5" s="72"/>
+      <c r="CL5" s="72"/>
+      <c r="CM5" s="72"/>
+      <c r="CN5" s="72"/>
+      <c r="CO5" s="72"/>
+      <c r="CP5" s="72"/>
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="38" t="e">
-        <f>SUMIFS($B$22:$B$181, $H$22:$H$181, "="&amp;$A6,#REF!, "hard") * 0.0015625</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I6" s="38" t="e">
-        <f>SUMIFS($B$22:$B$181, $H$22:$H$181, "="&amp;$A6,#REF!, "soft") * 0.0015625</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L6" s="76" t="str">
-        <f>'Script Input'!A6</f>
-        <v>Brine Area Limit (per step)</v>
-      </c>
-      <c r="M6" s="66">
-        <f>'Script Input'!B6</f>
-        <v>2</v>
-      </c>
-      <c r="N6" s="76" t="str">
-        <f>'Script Input'!C6</f>
-        <v>square miles</v>
-      </c>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="76"/>
-      <c r="AW6" s="77"/>
-      <c r="AX6" s="76"/>
-      <c r="BK6" s="77"/>
-      <c r="BL6" s="76"/>
-      <c r="CI6" s="76"/>
-      <c r="CJ6" s="76"/>
-      <c r="CK6" s="76"/>
-      <c r="CL6" s="76"/>
-      <c r="CM6" s="76"/>
-      <c r="CN6" s="76"/>
-      <c r="CO6" s="76"/>
-      <c r="CP6" s="76"/>
+      <c r="H6" s="38">
+        <f t="shared" ref="H6:H9" si="3">SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A6,$I$22:$I$181, "hard")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="38">
+        <f t="shared" ref="I6:I9" si="4">SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A6,$I$22:$I$181, "soft")</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="M6" s="62">
+        <v>100</v>
+      </c>
+      <c r="N6" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="72"/>
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="72"/>
+      <c r="BK6" s="73"/>
+      <c r="BL6" s="72"/>
+      <c r="CI6" s="72"/>
+      <c r="CJ6" s="72"/>
+      <c r="CK6" s="72"/>
+      <c r="CL6" s="72"/>
+      <c r="CM6" s="72"/>
+      <c r="CN6" s="72"/>
+      <c r="CO6" s="72"/>
+      <c r="CP6" s="72"/>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="38" t="e">
-        <f>SUMIFS($B$22:$B$181, $H$22:$H$181, "="&amp;$A7,#REF!, "hard") * 0.0015625</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="38" t="e">
-        <f>SUMIFS($B$22:$B$181, $H$22:$H$181, "="&amp;$A7,#REF!, "soft") * 0.0015625</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="76" t="str">
-        <f>'Script Input'!A7</f>
-        <v>Sand Fence Area Limit (total)</v>
-      </c>
-      <c r="M7" s="66">
-        <f>'Script Input'!B7</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="76" t="str">
-        <f>'Script Input'!C7</f>
-        <v>square miles</v>
-      </c>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="76"/>
-      <c r="AW7" s="77"/>
-      <c r="AX7" s="76"/>
-      <c r="BK7" s="77"/>
-      <c r="BL7" s="76"/>
-      <c r="CI7" s="76"/>
-      <c r="CJ7" s="76"/>
-      <c r="CK7" s="76"/>
-      <c r="CL7" s="76"/>
-      <c r="CM7" s="76"/>
-      <c r="CN7" s="76"/>
-      <c r="CO7" s="76"/>
-      <c r="CP7" s="76"/>
+      <c r="H7" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="M7" s="62">
+        <v>100</v>
+      </c>
+      <c r="N7" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="72"/>
+      <c r="AW7" s="73"/>
+      <c r="AX7" s="72"/>
+      <c r="BK7" s="73"/>
+      <c r="BL7" s="72"/>
+      <c r="CI7" s="72"/>
+      <c r="CJ7" s="72"/>
+      <c r="CK7" s="72"/>
+      <c r="CL7" s="72"/>
+      <c r="CM7" s="72"/>
+      <c r="CN7" s="72"/>
+      <c r="CO7" s="72"/>
+      <c r="CP7" s="72"/>
     </row>
     <row r="8" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="81">
+      <c r="G8" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="38" t="e">
-        <f>SUMIFS($B$22:$B$181, $H$22:$H$181, "="&amp;$A8,#REF!, "hard") * 0.0015625</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I8" s="38" t="e">
-        <f>SUMIFS($B$22:$B$181, $H$22:$H$181, "="&amp;$A8,#REF!, "soft") * 0.0015625</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="76"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="76"/>
-      <c r="BK8" s="77"/>
-      <c r="BL8" s="76"/>
-      <c r="CI8" s="76"/>
-      <c r="CJ8" s="76"/>
-      <c r="CK8" s="76"/>
-      <c r="CL8" s="76"/>
-      <c r="CM8" s="76"/>
-      <c r="CN8" s="76"/>
-      <c r="CO8" s="76"/>
-      <c r="CP8" s="76"/>
+      <c r="H8" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="73"/>
+      <c r="AJ8" s="72"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="72"/>
+      <c r="BK8" s="73"/>
+      <c r="BL8" s="72"/>
+      <c r="CI8" s="72"/>
+      <c r="CJ8" s="72"/>
+      <c r="CK8" s="72"/>
+      <c r="CL8" s="72"/>
+      <c r="CM8" s="72"/>
+      <c r="CN8" s="72"/>
+      <c r="CO8" s="72"/>
+      <c r="CP8" s="72"/>
     </row>
     <row r="9" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="38" t="e">
-        <f>SUMIFS($B$22:$B$181, $H$22:$H$181, "="&amp;$A9,#REF!, "hard") * 0.0015625</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="38" t="e">
-        <f>SUMIFS($B$22:$B$181, $H$22:$H$181, "="&amp;$A9,#REF!, "soft") * 0.0015625</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="76"/>
-      <c r="AW9" s="77"/>
-      <c r="AX9" s="76"/>
-      <c r="BK9" s="77"/>
-      <c r="BL9" s="76"/>
-      <c r="CI9" s="76"/>
-      <c r="CJ9" s="76"/>
-      <c r="CK9" s="76"/>
-      <c r="CL9" s="76"/>
-      <c r="CM9" s="76"/>
-      <c r="CN9" s="76"/>
-      <c r="CO9" s="76"/>
-      <c r="CP9" s="76"/>
+      <c r="H9" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="38">
+        <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A9,$I$22:$I$181, "soft")</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="72"/>
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="72"/>
+      <c r="BK9" s="73"/>
+      <c r="BL9" s="72"/>
+      <c r="CI9" s="72"/>
+      <c r="CJ9" s="72"/>
+      <c r="CK9" s="72"/>
+      <c r="CL9" s="72"/>
+      <c r="CM9" s="72"/>
+      <c r="CN9" s="72"/>
+      <c r="CO9" s="72"/>
+      <c r="CP9" s="72"/>
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="84"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="76"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="76"/>
-      <c r="BK10" s="77"/>
-      <c r="BL10" s="76"/>
-      <c r="CI10" s="76"/>
-      <c r="CJ10" s="76"/>
-      <c r="CK10" s="76"/>
-      <c r="CL10" s="76"/>
-      <c r="CM10" s="76"/>
-      <c r="CN10" s="76"/>
-      <c r="CO10" s="76"/>
-      <c r="CP10" s="76"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="72"/>
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="72"/>
+      <c r="BK10" s="73"/>
+      <c r="BL10" s="72"/>
+      <c r="CI10" s="72"/>
+      <c r="CJ10" s="72"/>
+      <c r="CK10" s="72"/>
+      <c r="CL10" s="72"/>
+      <c r="CM10" s="72"/>
+      <c r="CN10" s="72"/>
+      <c r="CO10" s="72"/>
+      <c r="CP10" s="72"/>
     </row>
     <row r="11" spans="1:94" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="73" t="s">
+      <c r="A11" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="72" t="s">
-        <v>296</v>
-      </c>
-      <c r="J11" s="80"/>
-      <c r="L11" s="65" t="s">
-        <v>290</v>
-      </c>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="76"/>
-      <c r="AW11" s="77"/>
-      <c r="AX11" s="76"/>
-      <c r="BK11" s="77"/>
-      <c r="BL11" s="76"/>
-      <c r="CI11" s="76"/>
-      <c r="CJ11" s="76"/>
-      <c r="CK11" s="76"/>
-      <c r="CL11" s="76"/>
-      <c r="CM11" s="76"/>
-      <c r="CN11" s="76"/>
-      <c r="CO11" s="76"/>
-      <c r="CP11" s="76"/>
+      <c r="H11" s="68" t="s">
+        <v>289</v>
+      </c>
+      <c r="J11" s="76"/>
+      <c r="L11" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="72"/>
+      <c r="AW11" s="73"/>
+      <c r="AX11" s="72"/>
+      <c r="BK11" s="73"/>
+      <c r="BL11" s="72"/>
+      <c r="CI11" s="72"/>
+      <c r="CJ11" s="72"/>
+      <c r="CK11" s="72"/>
+      <c r="CL11" s="72"/>
+      <c r="CM11" s="72"/>
+      <c r="CN11" s="72"/>
+      <c r="CO11" s="72"/>
+      <c r="CP11" s="72"/>
     </row>
     <row r="12" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="85" t="e">
-        <f t="shared" ref="B12:G18" si="3">B3/B$3</f>
+      <c r="B12" s="81" t="e">
+        <f t="shared" ref="B12:G18" si="5">B3/B$3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C12" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="C12" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D12" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="D12" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="E12" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="F12" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="G12" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" ref="H12:H18" si="4">G$3-G3</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="86" t="str">
-        <f>'Script Input'!G4</f>
-        <v>Brine</v>
-      </c>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="76"/>
-      <c r="AW12" s="77"/>
-      <c r="AX12" s="76"/>
-      <c r="BK12" s="77"/>
-      <c r="BL12" s="76"/>
-      <c r="CI12" s="76"/>
-      <c r="CJ12" s="76"/>
-      <c r="CK12" s="76"/>
-      <c r="CL12" s="76"/>
-      <c r="CM12" s="76"/>
-      <c r="CN12" s="76"/>
-      <c r="CO12" s="76"/>
-      <c r="CP12" s="76"/>
+        <f t="shared" ref="H12:H18" si="6">G$3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="72"/>
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="72"/>
+      <c r="BK12" s="73"/>
+      <c r="BL12" s="72"/>
+      <c r="CI12" s="72"/>
+      <c r="CJ12" s="72"/>
+      <c r="CK12" s="72"/>
+      <c r="CL12" s="72"/>
+      <c r="CM12" s="72"/>
+      <c r="CN12" s="72"/>
+      <c r="CO12" s="72"/>
+      <c r="CP12" s="72"/>
     </row>
     <row r="13" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0</v>
       </c>
-      <c r="B13" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="B13" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C13" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="C13" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D13" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="D13" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="E13" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="F13" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="G13" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="80"/>
-      <c r="L13" s="86" t="str">
-        <f>'Script Input'!G5</f>
-        <v>Sand Fences</v>
-      </c>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="76"/>
-      <c r="AW13" s="77"/>
-      <c r="AX13" s="76"/>
-      <c r="BK13" s="77"/>
-      <c r="BL13" s="76"/>
-      <c r="CI13" s="76"/>
-      <c r="CJ13" s="76"/>
-      <c r="CK13" s="76"/>
-      <c r="CL13" s="76"/>
-      <c r="CM13" s="76"/>
-      <c r="CN13" s="76"/>
-      <c r="CO13" s="76"/>
-      <c r="CP13" s="76"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="76"/>
+      <c r="L13" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="72"/>
+      <c r="AW13" s="73"/>
+      <c r="AX13" s="72"/>
+      <c r="BK13" s="73"/>
+      <c r="BL13" s="72"/>
+      <c r="CI13" s="72"/>
+      <c r="CJ13" s="72"/>
+      <c r="CK13" s="72"/>
+      <c r="CL13" s="72"/>
+      <c r="CM13" s="72"/>
+      <c r="CN13" s="72"/>
+      <c r="CO13" s="72"/>
+      <c r="CP13" s="72"/>
     </row>
     <row r="14" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="B14" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C14" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="C14" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D14" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="D14" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="E14" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="F14" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="G14" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="86" t="str">
-        <f>'Script Input'!G6</f>
-        <v>Tillage</v>
-      </c>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="76"/>
-      <c r="AW14" s="77"/>
-      <c r="AX14" s="76"/>
-      <c r="BK14" s="77"/>
-      <c r="BL14" s="76"/>
-      <c r="CI14" s="76"/>
-      <c r="CJ14" s="76"/>
-      <c r="CK14" s="76"/>
-      <c r="CL14" s="76"/>
-      <c r="CM14" s="76"/>
-      <c r="CN14" s="76"/>
-      <c r="CO14" s="76"/>
-      <c r="CP14" s="76"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI14" s="73"/>
+      <c r="AJ14" s="72"/>
+      <c r="AW14" s="73"/>
+      <c r="AX14" s="72"/>
+      <c r="BK14" s="73"/>
+      <c r="BL14" s="72"/>
+      <c r="CI14" s="72"/>
+      <c r="CJ14" s="72"/>
+      <c r="CK14" s="72"/>
+      <c r="CL14" s="72"/>
+      <c r="CM14" s="72"/>
+      <c r="CN14" s="72"/>
+      <c r="CO14" s="72"/>
+      <c r="CP14" s="72"/>
     </row>
     <row r="15" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="B15" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C15" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="C15" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D15" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="D15" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="E15" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="F15" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="G15" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="86" t="str">
-        <f>'Script Input'!G7</f>
-        <v>Till-Brine</v>
-      </c>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="76"/>
-      <c r="AW15" s="77"/>
-      <c r="AX15" s="76"/>
-      <c r="BK15" s="77"/>
-      <c r="BL15" s="76"/>
-      <c r="CI15" s="76"/>
-      <c r="CJ15" s="76"/>
-      <c r="CK15" s="76"/>
-      <c r="CL15" s="76"/>
-      <c r="CM15" s="76"/>
-      <c r="CN15" s="76"/>
-      <c r="CO15" s="76"/>
-      <c r="CP15" s="76"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI15" s="73"/>
+      <c r="AJ15" s="72"/>
+      <c r="AW15" s="73"/>
+      <c r="AX15" s="72"/>
+      <c r="BK15" s="73"/>
+      <c r="BL15" s="72"/>
+      <c r="CI15" s="72"/>
+      <c r="CJ15" s="72"/>
+      <c r="CK15" s="72"/>
+      <c r="CL15" s="72"/>
+      <c r="CM15" s="72"/>
+      <c r="CN15" s="72"/>
+      <c r="CO15" s="72"/>
+      <c r="CP15" s="72"/>
     </row>
     <row r="16" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="B16" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C16" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="C16" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D16" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="D16" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E16" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="E16" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="F16" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="G16" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="76"/>
-      <c r="AW16" s="77"/>
-      <c r="AX16" s="76"/>
-      <c r="BK16" s="77"/>
-      <c r="BL16" s="76"/>
-      <c r="CI16" s="76"/>
-      <c r="CJ16" s="76"/>
-      <c r="CK16" s="76"/>
-      <c r="CL16" s="76"/>
-      <c r="CM16" s="76"/>
-      <c r="CN16" s="76"/>
-      <c r="CO16" s="76"/>
-      <c r="CP16" s="76"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI16" s="73"/>
+      <c r="AJ16" s="72"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="72"/>
+      <c r="BK16" s="73"/>
+      <c r="BL16" s="72"/>
+      <c r="CI16" s="72"/>
+      <c r="CJ16" s="72"/>
+      <c r="CK16" s="72"/>
+      <c r="CL16" s="72"/>
+      <c r="CM16" s="72"/>
+      <c r="CN16" s="72"/>
+      <c r="CO16" s="72"/>
+      <c r="CP16" s="72"/>
     </row>
     <row r="17" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="B17" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C17" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="C17" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D17" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="D17" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E17" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="E17" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="F17" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="G17" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="86">
-        <f>'Script Input'!G8</f>
-        <v>0</v>
-      </c>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="76"/>
-      <c r="AW17" s="77"/>
-      <c r="AX17" s="76"/>
-      <c r="BK17" s="77"/>
-      <c r="BL17" s="76"/>
-      <c r="CI17" s="76"/>
-      <c r="CJ17" s="76"/>
-      <c r="CK17" s="76"/>
-      <c r="CL17" s="76"/>
-      <c r="CM17" s="76"/>
-      <c r="CN17" s="76"/>
-      <c r="CO17" s="76"/>
-      <c r="CP17" s="76"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI17" s="73"/>
+      <c r="AJ17" s="72"/>
+      <c r="AW17" s="73"/>
+      <c r="AX17" s="72"/>
+      <c r="BK17" s="73"/>
+      <c r="BL17" s="72"/>
+      <c r="CI17" s="72"/>
+      <c r="CJ17" s="72"/>
+      <c r="CK17" s="72"/>
+      <c r="CL17" s="72"/>
+      <c r="CM17" s="72"/>
+      <c r="CN17" s="72"/>
+      <c r="CO17" s="72"/>
+      <c r="CP17" s="72"/>
     </row>
     <row r="18" spans="1:94" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="B18" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C18" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="C18" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="D18" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="E18" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="F18" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="85" t="e">
-        <f t="shared" si="3"/>
+      <c r="G18" s="81" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="86">
-        <f>'Script Input'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="76"/>
-      <c r="AW18" s="77"/>
-      <c r="AX18" s="76"/>
-      <c r="BK18" s="77"/>
-      <c r="BL18" s="76"/>
-      <c r="CI18" s="76"/>
-      <c r="CJ18" s="76"/>
-      <c r="CK18" s="76"/>
-      <c r="CL18" s="76"/>
-      <c r="CM18" s="76"/>
-      <c r="CN18" s="76"/>
-      <c r="CO18" s="76"/>
-      <c r="CP18" s="76"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI18" s="73"/>
+      <c r="AJ18" s="72"/>
+      <c r="AW18" s="73"/>
+      <c r="AX18" s="72"/>
+      <c r="BK18" s="73"/>
+      <c r="BL18" s="72"/>
+      <c r="CI18" s="72"/>
+      <c r="CJ18" s="72"/>
+      <c r="CK18" s="72"/>
+      <c r="CL18" s="72"/>
+      <c r="CM18" s="72"/>
+      <c r="CN18" s="72"/>
+      <c r="CO18" s="72"/>
+      <c r="CP18" s="72"/>
     </row>
     <row r="19" spans="1:94" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="9"/>
-      <c r="L19" s="86">
-        <f>'Script Input'!G10</f>
-        <v>0</v>
-      </c>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="76"/>
-      <c r="AW19" s="77"/>
-      <c r="AX19" s="76"/>
-      <c r="BK19" s="77"/>
-      <c r="BL19" s="76"/>
-      <c r="CI19" s="76"/>
-      <c r="CJ19" s="76"/>
-      <c r="CK19" s="76"/>
-      <c r="CL19" s="76"/>
-      <c r="CM19" s="76"/>
-      <c r="CN19" s="76"/>
-      <c r="CO19" s="76"/>
-      <c r="CP19" s="76"/>
+      <c r="L19" s="82"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="72"/>
+      <c r="AW19" s="73"/>
+      <c r="AX19" s="72"/>
+      <c r="BK19" s="73"/>
+      <c r="BL19" s="72"/>
+      <c r="CI19" s="72"/>
+      <c r="CJ19" s="72"/>
+      <c r="CK19" s="72"/>
+      <c r="CL19" s="72"/>
+      <c r="CM19" s="72"/>
+      <c r="CN19" s="72"/>
+      <c r="CO19" s="72"/>
+      <c r="CP19" s="72"/>
     </row>
     <row r="20" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
-      <c r="L20" s="86">
-        <f>'Script Input'!G11</f>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="76"/>
-      <c r="AW20" s="77"/>
-      <c r="AX20" s="76"/>
-      <c r="BK20" s="77"/>
-      <c r="BL20" s="76"/>
-      <c r="CI20" s="76"/>
-      <c r="CJ20" s="76"/>
-      <c r="CK20" s="76"/>
-      <c r="CL20" s="76"/>
-      <c r="CM20" s="76"/>
-      <c r="CN20" s="76"/>
-      <c r="CO20" s="76"/>
-      <c r="CP20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
+      <c r="L20" s="82"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="72"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="72"/>
+      <c r="BK20" s="73"/>
+      <c r="BL20" s="72"/>
+      <c r="CI20" s="72"/>
+      <c r="CJ20" s="72"/>
+      <c r="CK20" s="72"/>
+      <c r="CL20" s="72"/>
+      <c r="CM20" s="72"/>
+      <c r="CN20" s="72"/>
+      <c r="CO20" s="72"/>
+      <c r="CP20" s="72"/>
     </row>
     <row r="21" spans="1:94" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
@@ -2996,93 +3018,95 @@
       <c r="H21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I21"/>
+      <c r="I21" s="98" t="s">
+        <v>296</v>
+      </c>
       <c r="J21"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="86">
-        <f>'Script Input'!G11</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="69"/>
-      <c r="AK21" s="68"/>
-      <c r="AL21" s="69"/>
-      <c r="AM21" s="69"/>
-      <c r="AN21" s="69"/>
-      <c r="AO21" s="69"/>
-      <c r="AP21" s="69"/>
-      <c r="AQ21" s="69"/>
-      <c r="AR21" s="69"/>
-      <c r="AS21" s="69"/>
-      <c r="AT21" s="69"/>
-      <c r="AU21" s="69"/>
-      <c r="AV21" s="69"/>
-      <c r="AW21" s="69"/>
-      <c r="AX21" s="79"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="69"/>
-      <c r="BA21" s="69"/>
-      <c r="BB21" s="69"/>
-      <c r="BC21" s="69"/>
-      <c r="BD21" s="69"/>
-      <c r="BE21" s="69"/>
-      <c r="BF21" s="69"/>
-      <c r="BG21" s="69"/>
-      <c r="BH21" s="69"/>
-      <c r="BI21" s="69"/>
-      <c r="BJ21" s="69"/>
-      <c r="BK21" s="69"/>
-      <c r="CI21" s="76"/>
-      <c r="CJ21" s="76"/>
-      <c r="CK21" s="76"/>
-      <c r="CL21" s="76"/>
-      <c r="CM21" s="76"/>
-      <c r="CN21" s="76"/>
-      <c r="CO21" s="76"/>
-      <c r="CP21" s="76"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="65"/>
+      <c r="AK21" s="64"/>
+      <c r="AL21" s="65"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="65"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="65"/>
+      <c r="AT21" s="65"/>
+      <c r="AU21" s="65"/>
+      <c r="AV21" s="65"/>
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="75"/>
+      <c r="AY21" s="64"/>
+      <c r="AZ21" s="65"/>
+      <c r="BA21" s="65"/>
+      <c r="BB21" s="65"/>
+      <c r="BC21" s="65"/>
+      <c r="BD21" s="65"/>
+      <c r="BE21" s="65"/>
+      <c r="BF21" s="65"/>
+      <c r="BG21" s="65"/>
+      <c r="BH21" s="65"/>
+      <c r="BI21" s="65"/>
+      <c r="BJ21" s="65"/>
+      <c r="BK21" s="65"/>
+      <c r="CI21" s="72"/>
+      <c r="CJ21" s="72"/>
+      <c r="CK21" s="72"/>
+      <c r="CL21" s="72"/>
+      <c r="CM21" s="72"/>
+      <c r="CN21" s="72"/>
+      <c r="CO21" s="72"/>
+      <c r="CP21" s="72"/>
     </row>
     <row r="22" spans="1:94" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="88">
+      <c r="B22" s="84">
         <v>133</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="85">
         <f>B22*0.0015625</f>
         <v>0.20781250000000001</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="90" t="s">
+      <c r="E22" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="93" t="s">
+      <c r="F22" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="94"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="46"/>
-      <c r="I22"/>
+      <c r="I22" t="str">
+        <f>IF(ISNUMBER(MATCH(G22, $L$12:$L$18, 0)), "soft", IF(EXACT(F22, G22), "none", "hard"))</f>
+        <v>hard</v>
+      </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -3170,28 +3194,31 @@
       <c r="CP22"/>
     </row>
     <row r="23" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="88">
+      <c r="B23" s="84">
         <v>197</v>
       </c>
-      <c r="C23" s="89">
-        <f t="shared" ref="C23:C86" si="5">B23*0.0015625</f>
+      <c r="C23" s="85">
+        <f t="shared" ref="C23:C86" si="7">B23*0.0015625</f>
         <v>0.30781250000000004</v>
       </c>
-      <c r="D23" s="90" t="s">
+      <c r="D23" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="90" t="s">
+      <c r="E23" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="93" t="s">
+      <c r="F23" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="94"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="46"/>
-      <c r="I23"/>
+      <c r="I23" t="str">
+        <f t="shared" ref="I23:I86" si="8">IF(ISNUMBER(MATCH(G23, $L$12:$L$18, 0)), "soft", IF(EXACT(F23, G23), "none", "hard"))</f>
+        <v>hard</v>
+      </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
@@ -3279,28 +3306,31 @@
       <c r="CP23"/>
     </row>
     <row r="24" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="88">
+      <c r="B24" s="84">
         <v>87.9</v>
       </c>
-      <c r="C24" s="89">
-        <f t="shared" si="5"/>
+      <c r="C24" s="85">
+        <f t="shared" si="7"/>
         <v>0.13734375000000001</v>
       </c>
-      <c r="D24" s="90" t="s">
+      <c r="D24" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="90" t="s">
+      <c r="E24" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="93" t="s">
+      <c r="F24" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="94"/>
+      <c r="G24" s="90"/>
       <c r="H24" s="46"/>
-      <c r="I24"/>
+      <c r="I24" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -3388,28 +3418,31 @@
       <c r="CP24"/>
     </row>
     <row r="25" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="88">
+      <c r="B25" s="84">
         <v>1291.7</v>
       </c>
-      <c r="C25" s="89">
-        <f t="shared" si="5"/>
+      <c r="C25" s="85">
+        <f t="shared" si="7"/>
         <v>2.0182812500000002</v>
       </c>
-      <c r="D25" s="90" t="s">
+      <c r="D25" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="90" t="s">
+      <c r="E25" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="94"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="46"/>
-      <c r="I25"/>
+      <c r="I25" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
@@ -3497,28 +3530,31 @@
       <c r="CP25"/>
     </row>
     <row r="26" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="88">
+      <c r="B26" s="84">
         <v>447.9</v>
       </c>
-      <c r="C26" s="89">
-        <f t="shared" si="5"/>
+      <c r="C26" s="85">
+        <f t="shared" si="7"/>
         <v>0.69984374999999999</v>
       </c>
-      <c r="D26" s="90" t="s">
+      <c r="D26" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="90" t="s">
+      <c r="E26" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="94"/>
+      <c r="G26" s="90"/>
       <c r="H26" s="46"/>
-      <c r="I26"/>
+      <c r="I26" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -3606,28 +3642,31 @@
       <c r="CP26"/>
     </row>
     <row r="27" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="88">
+      <c r="B27" s="84">
         <v>201</v>
       </c>
-      <c r="C27" s="89">
-        <f t="shared" si="5"/>
+      <c r="C27" s="85">
+        <f t="shared" si="7"/>
         <v>0.31406250000000002</v>
       </c>
-      <c r="D27" s="90" t="s">
+      <c r="D27" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="90" t="s">
+      <c r="E27" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="93" t="s">
+      <c r="F27" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="94"/>
+      <c r="G27" s="90"/>
       <c r="H27" s="46"/>
-      <c r="I27"/>
+      <c r="I27" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
@@ -3715,28 +3754,31 @@
       <c r="CP27"/>
     </row>
     <row r="28" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="88">
+      <c r="B28" s="84">
         <v>698</v>
       </c>
-      <c r="C28" s="89">
-        <f t="shared" si="5"/>
+      <c r="C28" s="85">
+        <f t="shared" si="7"/>
         <v>1.090625</v>
       </c>
-      <c r="D28" s="90" t="s">
+      <c r="D28" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="90" t="s">
+      <c r="E28" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="93" t="s">
+      <c r="F28" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="94"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="46"/>
-      <c r="I28"/>
+      <c r="I28" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
@@ -3824,28 +3866,31 @@
       <c r="CP28"/>
     </row>
     <row r="29" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="88">
+      <c r="B29" s="84">
         <v>177.8</v>
       </c>
-      <c r="C29" s="89">
-        <f t="shared" si="5"/>
+      <c r="C29" s="85">
+        <f t="shared" si="7"/>
         <v>0.27781250000000002</v>
       </c>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="90" t="s">
+      <c r="E29" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="93" t="s">
+      <c r="F29" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="94"/>
+      <c r="G29" s="90"/>
       <c r="H29" s="46"/>
-      <c r="I29"/>
+      <c r="I29" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
@@ -3933,28 +3978,31 @@
       <c r="CP29"/>
     </row>
     <row r="30" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="88">
+      <c r="B30" s="84">
         <v>102.8</v>
       </c>
-      <c r="C30" s="89">
-        <f t="shared" si="5"/>
+      <c r="C30" s="85">
+        <f t="shared" si="7"/>
         <v>0.16062500000000002</v>
       </c>
-      <c r="D30" s="90" t="s">
+      <c r="D30" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="90" t="s">
+      <c r="E30" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="93" t="s">
+      <c r="F30" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="94"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="46"/>
-      <c r="I30"/>
+      <c r="I30" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
@@ -4042,28 +4090,31 @@
       <c r="CP30"/>
     </row>
     <row r="31" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="88">
+      <c r="B31" s="84">
         <v>431</v>
       </c>
-      <c r="C31" s="89">
-        <f t="shared" si="5"/>
+      <c r="C31" s="85">
+        <f t="shared" si="7"/>
         <v>0.67343750000000002</v>
       </c>
-      <c r="D31" s="90" t="s">
+      <c r="D31" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="E31" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="93" t="s">
+      <c r="F31" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="94"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="46"/>
-      <c r="I31"/>
+      <c r="I31" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
@@ -4151,28 +4202,31 @@
       <c r="CP31"/>
     </row>
     <row r="32" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="88">
+      <c r="B32" s="84">
         <v>152.4</v>
       </c>
-      <c r="C32" s="89">
-        <f t="shared" si="5"/>
+      <c r="C32" s="85">
+        <f t="shared" si="7"/>
         <v>0.23812500000000003</v>
       </c>
-      <c r="D32" s="90" t="s">
+      <c r="D32" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="90" t="s">
+      <c r="E32" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="94"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="46"/>
-      <c r="I32"/>
+      <c r="I32" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
@@ -4260,28 +4314,31 @@
       <c r="CP32"/>
     </row>
     <row r="33" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="88">
+      <c r="B33" s="84">
         <v>215.7</v>
       </c>
-      <c r="C33" s="89">
-        <f t="shared" si="5"/>
+      <c r="C33" s="85">
+        <f t="shared" si="7"/>
         <v>0.33703125</v>
       </c>
-      <c r="D33" s="90" t="s">
+      <c r="D33" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="90" t="s">
+      <c r="E33" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="93" t="s">
+      <c r="F33" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="94"/>
+      <c r="G33" s="90"/>
       <c r="H33" s="46"/>
-      <c r="I33"/>
+      <c r="I33" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
@@ -4369,28 +4426,31 @@
       <c r="CP33"/>
     </row>
     <row r="34" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="88">
+      <c r="B34" s="84">
         <v>425.9</v>
       </c>
-      <c r="C34" s="89">
-        <f t="shared" si="5"/>
+      <c r="C34" s="85">
+        <f t="shared" si="7"/>
         <v>0.66546875000000005</v>
       </c>
-      <c r="D34" s="90" t="s">
+      <c r="D34" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="90" t="s">
+      <c r="E34" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="93" t="s">
+      <c r="F34" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="94"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="46"/>
-      <c r="I34"/>
+      <c r="I34" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
@@ -4478,28 +4538,31 @@
       <c r="CP34"/>
     </row>
     <row r="35" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="88">
+      <c r="B35" s="84">
         <v>319.2</v>
       </c>
-      <c r="C35" s="89">
-        <f t="shared" si="5"/>
+      <c r="C35" s="85">
+        <f t="shared" si="7"/>
         <v>0.49875000000000003</v>
       </c>
-      <c r="D35" s="90" t="s">
+      <c r="D35" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="90" t="s">
+      <c r="E35" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="93" t="s">
+      <c r="F35" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="94"/>
+      <c r="G35" s="90"/>
       <c r="H35" s="46"/>
-      <c r="I35"/>
+      <c r="I35" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
@@ -4587,28 +4650,31 @@
       <c r="CP35"/>
     </row>
     <row r="36" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="88">
+      <c r="B36" s="84">
         <v>79.7</v>
       </c>
-      <c r="C36" s="89">
-        <f t="shared" si="5"/>
+      <c r="C36" s="85">
+        <f t="shared" si="7"/>
         <v>0.12453125000000001</v>
       </c>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="90" t="s">
+      <c r="E36" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="93" t="s">
+      <c r="F36" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="94"/>
+      <c r="G36" s="90"/>
       <c r="H36" s="46"/>
-      <c r="I36"/>
+      <c r="I36" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
@@ -4696,28 +4762,31 @@
       <c r="CP36"/>
     </row>
     <row r="37" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="88">
+      <c r="B37" s="84">
         <v>251.6</v>
       </c>
-      <c r="C37" s="89">
-        <f t="shared" si="5"/>
+      <c r="C37" s="85">
+        <f t="shared" si="7"/>
         <v>0.393125</v>
       </c>
-      <c r="D37" s="90" t="s">
+      <c r="D37" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="90" t="s">
+      <c r="E37" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="93" t="s">
+      <c r="F37" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="94"/>
+      <c r="G37" s="90"/>
       <c r="H37" s="46"/>
-      <c r="I37"/>
+      <c r="I37" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
@@ -4805,28 +4874,31 @@
       <c r="CP37"/>
     </row>
     <row r="38" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="88">
+      <c r="B38" s="84">
         <v>136.9</v>
       </c>
-      <c r="C38" s="89">
-        <f t="shared" si="5"/>
+      <c r="C38" s="85">
+        <f t="shared" si="7"/>
         <v>0.21390625000000002</v>
       </c>
-      <c r="D38" s="90" t="s">
+      <c r="D38" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="90" t="s">
+      <c r="E38" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="93" t="s">
+      <c r="F38" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="94"/>
+      <c r="G38" s="90"/>
       <c r="H38" s="46"/>
-      <c r="I38"/>
+      <c r="I38" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
@@ -4914,28 +4986,31 @@
       <c r="CP38"/>
     </row>
     <row r="39" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="88">
+      <c r="B39" s="84">
         <v>436.6</v>
       </c>
-      <c r="C39" s="89">
-        <f t="shared" si="5"/>
+      <c r="C39" s="85">
+        <f t="shared" si="7"/>
         <v>0.68218750000000006</v>
       </c>
-      <c r="D39" s="90" t="s">
+      <c r="D39" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="90" t="s">
+      <c r="E39" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="93" t="s">
+      <c r="F39" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="94"/>
+      <c r="G39" s="90"/>
       <c r="H39" s="46"/>
-      <c r="I39"/>
+      <c r="I39" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
@@ -5023,28 +5098,31 @@
       <c r="CP39"/>
     </row>
     <row r="40" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="88">
+      <c r="B40" s="84">
         <v>1082.5</v>
       </c>
-      <c r="C40" s="89">
-        <f t="shared" si="5"/>
+      <c r="C40" s="85">
+        <f t="shared" si="7"/>
         <v>1.69140625</v>
       </c>
-      <c r="D40" s="90" t="s">
+      <c r="D40" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="90" t="s">
+      <c r="E40" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="93" t="s">
+      <c r="F40" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="94"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="46"/>
-      <c r="I40"/>
+      <c r="I40" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
@@ -5132,28 +5210,31 @@
       <c r="CP40"/>
     </row>
     <row r="41" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="88">
+      <c r="B41" s="84">
         <v>523.9</v>
       </c>
-      <c r="C41" s="89">
-        <f t="shared" si="5"/>
+      <c r="C41" s="85">
+        <f t="shared" si="7"/>
         <v>0.81859375000000001</v>
       </c>
-      <c r="D41" s="90" t="s">
+      <c r="D41" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="90" t="s">
+      <c r="E41" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="93" t="s">
+      <c r="F41" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="94"/>
+      <c r="G41" s="90"/>
       <c r="H41" s="46"/>
-      <c r="I41"/>
+      <c r="I41" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
@@ -5241,28 +5322,31 @@
       <c r="CP41"/>
     </row>
     <row r="42" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="88">
+      <c r="B42" s="84">
         <v>600.79999999999995</v>
       </c>
-      <c r="C42" s="89">
-        <f t="shared" si="5"/>
+      <c r="C42" s="85">
+        <f t="shared" si="7"/>
         <v>0.93874999999999997</v>
       </c>
-      <c r="D42" s="90" t="s">
+      <c r="D42" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="90" t="s">
+      <c r="E42" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="93" t="s">
+      <c r="F42" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="94"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="46"/>
-      <c r="I42"/>
+      <c r="I42" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
@@ -5350,28 +5434,31 @@
       <c r="CP42"/>
     </row>
     <row r="43" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="88">
+      <c r="B43" s="84">
         <v>341.5</v>
       </c>
-      <c r="C43" s="89">
-        <f t="shared" si="5"/>
+      <c r="C43" s="85">
+        <f t="shared" si="7"/>
         <v>0.53359374999999998</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="D43" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="90" t="s">
+      <c r="E43" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="93" t="s">
+      <c r="F43" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="94"/>
+      <c r="G43" s="90"/>
       <c r="H43" s="46"/>
-      <c r="I43"/>
+      <c r="I43" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
@@ -5459,28 +5546,31 @@
       <c r="CP43"/>
     </row>
     <row r="44" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="88">
+      <c r="B44" s="84">
         <v>544.70000000000005</v>
       </c>
-      <c r="C44" s="89">
-        <f t="shared" si="5"/>
+      <c r="C44" s="85">
+        <f t="shared" si="7"/>
         <v>0.85109375000000009</v>
       </c>
-      <c r="D44" s="90" t="s">
+      <c r="D44" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="90" t="s">
+      <c r="E44" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="93" t="s">
+      <c r="F44" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="94"/>
+      <c r="G44" s="90"/>
       <c r="H44" s="46"/>
-      <c r="I44"/>
+      <c r="I44" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
@@ -5568,28 +5658,31 @@
       <c r="CP44"/>
     </row>
     <row r="45" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="88">
+      <c r="B45" s="84">
         <v>21.3</v>
       </c>
-      <c r="C45" s="89">
-        <f t="shared" si="5"/>
+      <c r="C45" s="85">
+        <f t="shared" si="7"/>
         <v>3.3281250000000005E-2</v>
       </c>
-      <c r="D45" s="90" t="s">
+      <c r="D45" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="90" t="s">
+      <c r="E45" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="93" t="s">
+      <c r="F45" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="94"/>
+      <c r="G45" s="90"/>
       <c r="H45" s="46"/>
-      <c r="I45"/>
+      <c r="I45" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
@@ -5677,28 +5770,31 @@
       <c r="CP45"/>
     </row>
     <row r="46" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="88">
+      <c r="B46" s="84">
         <v>1161.7</v>
       </c>
-      <c r="C46" s="89">
-        <f t="shared" si="5"/>
+      <c r="C46" s="85">
+        <f t="shared" si="7"/>
         <v>1.8151562500000002</v>
       </c>
-      <c r="D46" s="90" t="s">
+      <c r="D46" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="90" t="s">
+      <c r="E46" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="93" t="s">
+      <c r="F46" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="94"/>
+      <c r="G46" s="90"/>
       <c r="H46" s="46"/>
-      <c r="I46"/>
+      <c r="I46" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
@@ -5786,28 +5882,31 @@
       <c r="CP46"/>
     </row>
     <row r="47" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="87" t="s">
+      <c r="A47" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="88">
+      <c r="B47" s="84">
         <v>248.4</v>
       </c>
-      <c r="C47" s="89">
-        <f t="shared" si="5"/>
+      <c r="C47" s="85">
+        <f t="shared" si="7"/>
         <v>0.38812500000000005</v>
       </c>
-      <c r="D47" s="90" t="s">
+      <c r="D47" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="90" t="s">
+      <c r="E47" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="93" t="s">
+      <c r="F47" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="94"/>
+      <c r="G47" s="90"/>
       <c r="H47" s="46"/>
-      <c r="I47"/>
+      <c r="I47" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
@@ -5895,28 +5994,31 @@
       <c r="CP47"/>
     </row>
     <row r="48" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="88">
+      <c r="B48" s="84">
         <v>701</v>
       </c>
-      <c r="C48" s="89">
-        <f t="shared" si="5"/>
+      <c r="C48" s="85">
+        <f t="shared" si="7"/>
         <v>1.0953125000000001</v>
       </c>
-      <c r="D48" s="90" t="s">
+      <c r="D48" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="90" t="s">
+      <c r="E48" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="G48" s="94"/>
+      <c r="F48" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="90"/>
       <c r="H48" s="46"/>
-      <c r="I48"/>
+      <c r="I48" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
@@ -6004,28 +6106,31 @@
       <c r="CP48"/>
     </row>
     <row r="49" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="88">
+      <c r="B49" s="84">
         <v>506.2</v>
       </c>
-      <c r="C49" s="89">
-        <f t="shared" si="5"/>
+      <c r="C49" s="85">
+        <f t="shared" si="7"/>
         <v>0.79093750000000007</v>
       </c>
-      <c r="D49" s="90" t="s">
+      <c r="D49" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="90" t="s">
+      <c r="E49" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="93" t="s">
+      <c r="F49" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="94"/>
+      <c r="G49" s="90"/>
       <c r="H49" s="46"/>
-      <c r="I49"/>
+      <c r="I49" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
@@ -6113,28 +6218,31 @@
       <c r="CP49"/>
     </row>
     <row r="50" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="88">
+      <c r="B50" s="84">
         <v>615.1</v>
       </c>
-      <c r="C50" s="89">
-        <f t="shared" si="5"/>
+      <c r="C50" s="85">
+        <f t="shared" si="7"/>
         <v>0.96109375000000008</v>
       </c>
-      <c r="D50" s="90" t="s">
+      <c r="D50" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="90" t="s">
+      <c r="E50" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="93" t="s">
+      <c r="F50" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="G50" s="94"/>
+      <c r="G50" s="90"/>
       <c r="H50" s="46"/>
-      <c r="I50"/>
+      <c r="I50" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
@@ -6222,28 +6330,31 @@
       <c r="CP50"/>
     </row>
     <row r="51" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="87" t="s">
+      <c r="A51" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="88">
+      <c r="B51" s="84">
         <v>332.6</v>
       </c>
-      <c r="C51" s="89">
-        <f t="shared" si="5"/>
+      <c r="C51" s="85">
+        <f t="shared" si="7"/>
         <v>0.51968750000000008</v>
       </c>
-      <c r="D51" s="90" t="s">
+      <c r="D51" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="90" t="s">
+      <c r="E51" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="93" t="s">
+      <c r="F51" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="94"/>
+      <c r="G51" s="90"/>
       <c r="H51" s="46"/>
-      <c r="I51"/>
+      <c r="I51" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
@@ -6331,28 +6442,31 @@
       <c r="CP51"/>
     </row>
     <row r="52" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="88">
+      <c r="B52" s="84">
         <v>183.4</v>
       </c>
-      <c r="C52" s="89">
-        <f t="shared" si="5"/>
+      <c r="C52" s="85">
+        <f t="shared" si="7"/>
         <v>0.2865625</v>
       </c>
-      <c r="D52" s="90" t="s">
+      <c r="D52" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="90" t="s">
+      <c r="E52" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="93" t="s">
+      <c r="F52" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G52" s="94"/>
+      <c r="G52" s="90"/>
       <c r="H52" s="46"/>
-      <c r="I52"/>
+      <c r="I52" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
@@ -6440,28 +6554,31 @@
       <c r="CP52"/>
     </row>
     <row r="53" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="88">
+      <c r="B53" s="84">
         <v>275.39999999999998</v>
       </c>
-      <c r="C53" s="89">
-        <f t="shared" si="5"/>
+      <c r="C53" s="85">
+        <f t="shared" si="7"/>
         <v>0.43031249999999999</v>
       </c>
-      <c r="D53" s="90" t="s">
+      <c r="D53" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="90" t="s">
+      <c r="E53" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="93" t="s">
+      <c r="F53" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G53" s="94"/>
+      <c r="G53" s="90"/>
       <c r="H53" s="46"/>
-      <c r="I53"/>
+      <c r="I53" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
@@ -6549,28 +6666,31 @@
       <c r="CP53"/>
     </row>
     <row r="54" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="87" t="s">
+      <c r="A54" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="88">
+      <c r="B54" s="84">
         <v>43.2</v>
       </c>
-      <c r="C54" s="89">
-        <f t="shared" si="5"/>
+      <c r="C54" s="85">
+        <f t="shared" si="7"/>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="D54" s="90" t="s">
+      <c r="D54" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="90" t="s">
+      <c r="E54" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="93" t="s">
+      <c r="F54" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="G54" s="94"/>
+      <c r="G54" s="90"/>
       <c r="H54" s="46"/>
-      <c r="I54"/>
+      <c r="I54" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
@@ -6658,28 +6778,31 @@
       <c r="CP54"/>
     </row>
     <row r="55" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="88">
+      <c r="B55" s="84">
         <v>133.30000000000001</v>
       </c>
-      <c r="C55" s="89">
-        <f t="shared" si="5"/>
+      <c r="C55" s="85">
+        <f t="shared" si="7"/>
         <v>0.20828125000000003</v>
       </c>
-      <c r="D55" s="90" t="s">
+      <c r="D55" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="90" t="s">
+      <c r="E55" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="93" t="s">
+      <c r="F55" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="94"/>
+      <c r="G55" s="90"/>
       <c r="H55" s="46"/>
-      <c r="I55"/>
+      <c r="I55" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
@@ -6767,28 +6890,31 @@
       <c r="CP55"/>
     </row>
     <row r="56" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="88">
+      <c r="B56" s="84">
         <v>74.7</v>
       </c>
-      <c r="C56" s="89">
-        <f t="shared" si="5"/>
+      <c r="C56" s="85">
+        <f t="shared" si="7"/>
         <v>0.11671875000000001</v>
       </c>
-      <c r="D56" s="90" t="s">
+      <c r="D56" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="90" t="s">
+      <c r="E56" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F56" s="93" t="s">
+      <c r="F56" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G56" s="94"/>
+      <c r="G56" s="90"/>
       <c r="H56" s="46"/>
-      <c r="I56"/>
+      <c r="I56" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
@@ -6876,28 +7002,31 @@
       <c r="CP56"/>
     </row>
     <row r="57" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="87" t="s">
+      <c r="A57" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="88">
+      <c r="B57" s="84">
         <v>199.2</v>
       </c>
-      <c r="C57" s="89">
-        <f t="shared" si="5"/>
+      <c r="C57" s="85">
+        <f t="shared" si="7"/>
         <v>0.31125000000000003</v>
       </c>
-      <c r="D57" s="90" t="s">
+      <c r="D57" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="90" t="s">
+      <c r="E57" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="93" t="s">
+      <c r="F57" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="94"/>
+      <c r="G57" s="90"/>
       <c r="H57" s="46"/>
-      <c r="I57"/>
+      <c r="I57" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
@@ -6984,29 +7113,32 @@
       <c r="CO57"/>
       <c r="CP57"/>
     </row>
-    <row r="58" spans="1:94" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="87" t="s">
+    <row r="58" spans="1:94" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="88">
+      <c r="B58" s="84">
         <v>251.4</v>
       </c>
-      <c r="C58" s="89">
-        <f t="shared" si="5"/>
+      <c r="C58" s="85">
+        <f t="shared" si="7"/>
         <v>0.39281250000000001</v>
       </c>
-      <c r="D58" s="90" t="s">
+      <c r="D58" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="90" t="s">
+      <c r="E58" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="93" t="s">
+      <c r="F58" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G58" s="94"/>
+      <c r="G58" s="90"/>
       <c r="H58" s="46"/>
-      <c r="I58"/>
+      <c r="I58" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
@@ -7094,28 +7226,31 @@
       <c r="CP58"/>
     </row>
     <row r="59" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="87" t="s">
+      <c r="A59" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="88">
+      <c r="B59" s="84">
         <v>220.1</v>
       </c>
-      <c r="C59" s="89">
-        <f t="shared" si="5"/>
+      <c r="C59" s="85">
+        <f t="shared" si="7"/>
         <v>0.34390625000000002</v>
       </c>
-      <c r="D59" s="90" t="s">
+      <c r="D59" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="90" t="s">
+      <c r="E59" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="93" t="s">
+      <c r="F59" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G59" s="94"/>
+      <c r="G59" s="90"/>
       <c r="H59" s="46"/>
-      <c r="I59"/>
+      <c r="I59" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
@@ -7203,28 +7338,31 @@
       <c r="CP59"/>
     </row>
     <row r="60" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="88">
+      <c r="B60" s="84">
         <v>475.8</v>
       </c>
-      <c r="C60" s="89">
-        <f t="shared" si="5"/>
+      <c r="C60" s="85">
+        <f t="shared" si="7"/>
         <v>0.74343750000000008</v>
       </c>
-      <c r="D60" s="90" t="s">
+      <c r="D60" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="90" t="s">
+      <c r="E60" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="91" t="s">
+      <c r="F60" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="G60" s="94"/>
+      <c r="G60" s="90"/>
       <c r="H60" s="46"/>
-      <c r="I60"/>
+      <c r="I60" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
@@ -7312,28 +7450,31 @@
       <c r="CP60"/>
     </row>
     <row r="61" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="87" t="s">
+      <c r="A61" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="88">
+      <c r="B61" s="84">
         <v>225.4</v>
       </c>
-      <c r="C61" s="89">
-        <f t="shared" si="5"/>
+      <c r="C61" s="85">
+        <f t="shared" si="7"/>
         <v>0.35218750000000004</v>
       </c>
-      <c r="D61" s="90" t="s">
+      <c r="D61" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="90" t="s">
+      <c r="E61" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F61" s="93" t="s">
+      <c r="F61" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G61" s="94"/>
+      <c r="G61" s="90"/>
       <c r="H61" s="46"/>
-      <c r="I61"/>
+      <c r="I61" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
@@ -7421,28 +7562,31 @@
       <c r="CP61"/>
     </row>
     <row r="62" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="87" t="s">
+      <c r="A62" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="88">
+      <c r="B62" s="84">
         <v>1099.7</v>
       </c>
-      <c r="C62" s="89">
-        <f t="shared" si="5"/>
+      <c r="C62" s="85">
+        <f t="shared" si="7"/>
         <v>1.7182812500000002</v>
       </c>
-      <c r="D62" s="90" t="s">
+      <c r="D62" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="90" t="s">
+      <c r="E62" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="93" t="s">
+      <c r="F62" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G62" s="94"/>
+      <c r="G62" s="90"/>
       <c r="H62" s="46"/>
-      <c r="I62"/>
+      <c r="I62" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
@@ -7530,28 +7674,31 @@
       <c r="CP62"/>
     </row>
     <row r="63" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="87" t="s">
+      <c r="A63" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="88">
+      <c r="B63" s="84">
         <v>180.3</v>
       </c>
-      <c r="C63" s="89">
-        <f t="shared" si="5"/>
+      <c r="C63" s="85">
+        <f t="shared" si="7"/>
         <v>0.28171875000000002</v>
       </c>
-      <c r="D63" s="90" t="s">
+      <c r="D63" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="90" t="s">
+      <c r="E63" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F63" s="93" t="s">
+      <c r="F63" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="94"/>
+      <c r="G63" s="90"/>
       <c r="H63" s="46"/>
-      <c r="I63"/>
+      <c r="I63" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
@@ -7639,28 +7786,31 @@
       <c r="CP63"/>
     </row>
     <row r="64" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="87" t="s">
+      <c r="A64" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="88">
+      <c r="B64" s="84">
         <v>42.3</v>
       </c>
-      <c r="C64" s="89">
-        <f t="shared" si="5"/>
+      <c r="C64" s="85">
+        <f t="shared" si="7"/>
         <v>6.6093749999999993E-2</v>
       </c>
-      <c r="D64" s="90" t="s">
+      <c r="D64" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="90" t="s">
+      <c r="E64" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F64" s="93" t="s">
+      <c r="F64" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="94"/>
+      <c r="G64" s="90"/>
       <c r="H64" s="46"/>
-      <c r="I64"/>
+      <c r="I64" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
@@ -7748,28 +7898,31 @@
       <c r="CP64"/>
     </row>
     <row r="65" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="87" t="s">
+      <c r="A65" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="88">
+      <c r="B65" s="84">
         <v>65.2</v>
       </c>
-      <c r="C65" s="89">
-        <f t="shared" si="5"/>
+      <c r="C65" s="85">
+        <f t="shared" si="7"/>
         <v>0.10187500000000001</v>
       </c>
-      <c r="D65" s="90" t="s">
+      <c r="D65" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="90" t="s">
+      <c r="E65" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="93" t="s">
+      <c r="F65" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G65" s="94"/>
+      <c r="G65" s="90"/>
       <c r="H65" s="46"/>
-      <c r="I65"/>
+      <c r="I65" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
@@ -7857,28 +8010,31 @@
       <c r="CP65"/>
     </row>
     <row r="66" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="87" t="s">
+      <c r="A66" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="88">
+      <c r="B66" s="84">
         <v>170.2</v>
       </c>
-      <c r="C66" s="89">
-        <f t="shared" si="5"/>
+      <c r="C66" s="85">
+        <f t="shared" si="7"/>
         <v>0.26593749999999999</v>
       </c>
-      <c r="D66" s="90" t="s">
+      <c r="D66" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="90" t="s">
+      <c r="E66" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="93" t="s">
+      <c r="F66" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="G66" s="94"/>
+      <c r="G66" s="90"/>
       <c r="H66" s="46"/>
-      <c r="I66"/>
+      <c r="I66" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
@@ -7966,28 +8122,31 @@
       <c r="CP66"/>
     </row>
     <row r="67" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="87" t="s">
+      <c r="A67" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="88">
+      <c r="B67" s="84">
         <v>257.3</v>
       </c>
-      <c r="C67" s="89">
-        <f t="shared" si="5"/>
+      <c r="C67" s="85">
+        <f t="shared" si="7"/>
         <v>0.40203125000000006</v>
       </c>
-      <c r="D67" s="90" t="s">
+      <c r="D67" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="90" t="s">
+      <c r="E67" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="93" t="s">
+      <c r="F67" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G67" s="94"/>
+      <c r="G67" s="90"/>
       <c r="H67" s="46"/>
-      <c r="I67"/>
+      <c r="I67" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
@@ -8075,28 +8234,31 @@
       <c r="CP67"/>
     </row>
     <row r="68" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="87" t="s">
+      <c r="A68" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="88">
+      <c r="B68" s="84">
         <v>818.3</v>
       </c>
-      <c r="C68" s="89">
-        <f t="shared" si="5"/>
+      <c r="C68" s="85">
+        <f t="shared" si="7"/>
         <v>1.27859375</v>
       </c>
-      <c r="D68" s="90" t="s">
+      <c r="D68" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="90" t="s">
+      <c r="E68" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F68" s="93" t="s">
+      <c r="F68" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G68" s="94"/>
+      <c r="G68" s="90"/>
       <c r="H68" s="46"/>
-      <c r="I68"/>
+      <c r="I68" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
@@ -8184,28 +8346,31 @@
       <c r="CP68"/>
     </row>
     <row r="69" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="87" t="s">
+      <c r="A69" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="88">
+      <c r="B69" s="84">
         <v>851.2</v>
       </c>
-      <c r="C69" s="89">
-        <f t="shared" si="5"/>
+      <c r="C69" s="85">
+        <f t="shared" si="7"/>
         <v>1.33</v>
       </c>
-      <c r="D69" s="90" t="s">
+      <c r="D69" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="90" t="s">
+      <c r="E69" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F69" s="93" t="s">
+      <c r="F69" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G69" s="94"/>
+      <c r="G69" s="90"/>
       <c r="H69" s="46"/>
-      <c r="I69"/>
+      <c r="I69" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
@@ -8293,28 +8458,31 @@
       <c r="CP69"/>
     </row>
     <row r="70" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="87" t="s">
+      <c r="A70" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="88">
+      <c r="B70" s="84">
         <v>50.4</v>
       </c>
-      <c r="C70" s="89">
-        <f t="shared" si="5"/>
+      <c r="C70" s="85">
+        <f t="shared" si="7"/>
         <v>7.8750000000000001E-2</v>
       </c>
-      <c r="D70" s="90" t="s">
+      <c r="D70" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="90" t="s">
+      <c r="E70" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="93" t="s">
+      <c r="F70" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G70" s="94"/>
+      <c r="G70" s="90"/>
       <c r="H70" s="46"/>
-      <c r="I70"/>
+      <c r="I70" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
@@ -8402,28 +8570,31 @@
       <c r="CP70"/>
     </row>
     <row r="71" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="87" t="s">
+      <c r="A71" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="88">
+      <c r="B71" s="84">
         <v>547.6</v>
       </c>
-      <c r="C71" s="89">
-        <f t="shared" si="5"/>
+      <c r="C71" s="85">
+        <f t="shared" si="7"/>
         <v>0.85562500000000008</v>
       </c>
-      <c r="D71" s="90" t="s">
+      <c r="D71" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="90" t="s">
+      <c r="E71" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="93" t="s">
+      <c r="F71" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G71" s="94"/>
+      <c r="G71" s="90"/>
       <c r="H71" s="46"/>
-      <c r="I71"/>
+      <c r="I71" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
@@ -8511,28 +8682,31 @@
       <c r="CP71"/>
     </row>
     <row r="72" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="87" t="s">
+      <c r="A72" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="88">
+      <c r="B72" s="84">
         <v>545.29999999999995</v>
       </c>
-      <c r="C72" s="89">
-        <f t="shared" si="5"/>
+      <c r="C72" s="85">
+        <f t="shared" si="7"/>
         <v>0.85203125000000002</v>
       </c>
-      <c r="D72" s="90" t="s">
+      <c r="D72" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="90" t="s">
+      <c r="E72" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F72" s="93" t="s">
+      <c r="F72" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G72" s="94"/>
+      <c r="G72" s="90"/>
       <c r="H72" s="46"/>
-      <c r="I72"/>
+      <c r="I72" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
@@ -8620,28 +8794,31 @@
       <c r="CP72"/>
     </row>
     <row r="73" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="87" t="s">
+      <c r="A73" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="88">
+      <c r="B73" s="84">
         <v>453</v>
       </c>
-      <c r="C73" s="89">
-        <f t="shared" si="5"/>
+      <c r="C73" s="85">
+        <f t="shared" si="7"/>
         <v>0.70781250000000007</v>
       </c>
-      <c r="D73" s="90" t="s">
+      <c r="D73" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="90" t="s">
+      <c r="E73" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F73" s="93" t="s">
+      <c r="F73" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="94"/>
+      <c r="G73" s="90"/>
       <c r="H73" s="46"/>
-      <c r="I73"/>
+      <c r="I73" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
@@ -8729,28 +8906,31 @@
       <c r="CP73"/>
     </row>
     <row r="74" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="88">
+      <c r="B74" s="84">
         <v>300</v>
       </c>
-      <c r="C74" s="89">
-        <f t="shared" si="5"/>
+      <c r="C74" s="85">
+        <f t="shared" si="7"/>
         <v>0.46875</v>
       </c>
-      <c r="D74" s="90" t="s">
+      <c r="D74" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E74" s="90" t="s">
+      <c r="E74" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F74" s="93" t="s">
+      <c r="F74" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G74" s="94"/>
+      <c r="G74" s="90"/>
       <c r="H74" s="46"/>
-      <c r="I74"/>
+      <c r="I74" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
@@ -8838,28 +9018,31 @@
       <c r="CP74"/>
     </row>
     <row r="75" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="87" t="s">
+      <c r="A75" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="88">
+      <c r="B75" s="84">
         <v>219.8</v>
       </c>
-      <c r="C75" s="89">
-        <f t="shared" si="5"/>
+      <c r="C75" s="85">
+        <f t="shared" si="7"/>
         <v>0.34343750000000006</v>
       </c>
-      <c r="D75" s="90" t="s">
+      <c r="D75" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="90" t="s">
+      <c r="E75" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="93" t="s">
+      <c r="F75" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G75" s="94"/>
+      <c r="G75" s="90"/>
       <c r="H75" s="46"/>
-      <c r="I75"/>
+      <c r="I75" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
@@ -8947,28 +9130,31 @@
       <c r="CP75"/>
     </row>
     <row r="76" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="87" t="s">
+      <c r="A76" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="88">
+      <c r="B76" s="84">
         <v>479.5</v>
       </c>
-      <c r="C76" s="89">
-        <f t="shared" si="5"/>
+      <c r="C76" s="85">
+        <f t="shared" si="7"/>
         <v>0.74921875000000004</v>
       </c>
-      <c r="D76" s="90" t="s">
+      <c r="D76" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E76" s="90" t="s">
+      <c r="E76" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="93" t="s">
+      <c r="F76" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="94"/>
+      <c r="G76" s="90"/>
       <c r="H76" s="46"/>
-      <c r="I76"/>
+      <c r="I76" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
@@ -9056,28 +9242,31 @@
       <c r="CP76"/>
     </row>
     <row r="77" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="87" t="s">
+      <c r="A77" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="88">
+      <c r="B77" s="84">
         <v>258.10000000000002</v>
       </c>
-      <c r="C77" s="89">
-        <f t="shared" si="5"/>
+      <c r="C77" s="85">
+        <f t="shared" si="7"/>
         <v>0.40328125000000004</v>
       </c>
-      <c r="D77" s="90" t="s">
+      <c r="D77" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="90" t="s">
+      <c r="E77" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F77" s="93" t="s">
+      <c r="F77" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G77" s="94"/>
+      <c r="G77" s="90"/>
       <c r="H77" s="46"/>
-      <c r="I77"/>
+      <c r="I77" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
@@ -9165,28 +9354,31 @@
       <c r="CP77"/>
     </row>
     <row r="78" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="87" t="s">
+      <c r="A78" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="88">
+      <c r="B78" s="84">
         <v>163.30000000000001</v>
       </c>
-      <c r="C78" s="89">
-        <f t="shared" si="5"/>
+      <c r="C78" s="85">
+        <f t="shared" si="7"/>
         <v>0.25515625000000003</v>
       </c>
-      <c r="D78" s="90" t="s">
+      <c r="D78" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="90" t="s">
+      <c r="E78" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F78" s="93" t="s">
+      <c r="F78" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G78" s="94"/>
+      <c r="G78" s="90"/>
       <c r="H78" s="46"/>
-      <c r="I78"/>
+      <c r="I78" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
@@ -9274,28 +9466,31 @@
       <c r="CP78"/>
     </row>
     <row r="79" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="87" t="s">
+      <c r="A79" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="88">
+      <c r="B79" s="84">
         <v>689.3</v>
       </c>
-      <c r="C79" s="89">
-        <f t="shared" si="5"/>
+      <c r="C79" s="85">
+        <f t="shared" si="7"/>
         <v>1.0770312499999999</v>
       </c>
-      <c r="D79" s="90" t="s">
+      <c r="D79" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="90" t="s">
+      <c r="E79" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="93" t="s">
+      <c r="F79" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="G79" s="94"/>
+      <c r="G79" s="90"/>
       <c r="H79" s="46"/>
-      <c r="I79"/>
+      <c r="I79" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
@@ -9383,28 +9578,31 @@
       <c r="CP79"/>
     </row>
     <row r="80" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="87" t="s">
+      <c r="A80" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="B80" s="88">
+      <c r="B80" s="84">
         <v>316.89999999999998</v>
       </c>
-      <c r="C80" s="89">
-        <f t="shared" si="5"/>
+      <c r="C80" s="85">
+        <f t="shared" si="7"/>
         <v>0.49515624999999996</v>
       </c>
-      <c r="D80" s="90" t="s">
+      <c r="D80" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E80" s="90" t="s">
+      <c r="E80" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F80" s="93" t="s">
+      <c r="F80" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G80" s="94"/>
+      <c r="G80" s="90"/>
       <c r="H80" s="46"/>
-      <c r="I80"/>
+      <c r="I80" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
@@ -9492,28 +9690,31 @@
       <c r="CP80"/>
     </row>
     <row r="81" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="87" t="s">
+      <c r="A81" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="88">
+      <c r="B81" s="84">
         <v>172.8</v>
       </c>
-      <c r="C81" s="89">
-        <f t="shared" si="5"/>
+      <c r="C81" s="85">
+        <f t="shared" si="7"/>
         <v>0.27</v>
       </c>
-      <c r="D81" s="90" t="s">
+      <c r="D81" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E81" s="90" t="s">
+      <c r="E81" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F81" s="93" t="s">
+      <c r="F81" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G81" s="94"/>
+      <c r="G81" s="90"/>
       <c r="H81" s="46"/>
-      <c r="I81"/>
+      <c r="I81" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81"/>
@@ -9601,28 +9802,31 @@
       <c r="CP81"/>
     </row>
     <row r="82" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="87" t="s">
+      <c r="A82" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="88">
+      <c r="B82" s="84">
         <v>112.2</v>
       </c>
-      <c r="C82" s="89">
-        <f t="shared" si="5"/>
+      <c r="C82" s="85">
+        <f t="shared" si="7"/>
         <v>0.17531250000000001</v>
       </c>
-      <c r="D82" s="90" t="s">
+      <c r="D82" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E82" s="90" t="s">
+      <c r="E82" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F82" s="93" t="s">
+      <c r="F82" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G82" s="94"/>
+      <c r="G82" s="90"/>
       <c r="H82" s="46"/>
-      <c r="I82"/>
+      <c r="I82" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82"/>
@@ -9710,28 +9914,31 @@
       <c r="CP82"/>
     </row>
     <row r="83" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="87" t="s">
+      <c r="A83" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="88">
+      <c r="B83" s="84">
         <v>67.3</v>
       </c>
-      <c r="C83" s="89">
-        <f t="shared" si="5"/>
+      <c r="C83" s="85">
+        <f t="shared" si="7"/>
         <v>0.10515625000000001</v>
       </c>
-      <c r="D83" s="90" t="s">
+      <c r="D83" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="90" t="s">
+      <c r="E83" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F83" s="93" t="s">
+      <c r="F83" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G83" s="94"/>
+      <c r="G83" s="90"/>
       <c r="H83" s="46"/>
-      <c r="I83"/>
+      <c r="I83" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
@@ -9819,28 +10026,31 @@
       <c r="CP83"/>
     </row>
     <row r="84" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="88">
+      <c r="B84" s="84">
         <v>91.6</v>
       </c>
-      <c r="C84" s="89">
-        <f t="shared" si="5"/>
+      <c r="C84" s="85">
+        <f t="shared" si="7"/>
         <v>0.143125</v>
       </c>
-      <c r="D84" s="90" t="s">
+      <c r="D84" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E84" s="90" t="s">
+      <c r="E84" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F84" s="93" t="s">
+      <c r="F84" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G84" s="94"/>
+      <c r="G84" s="90"/>
       <c r="H84" s="46"/>
-      <c r="I84"/>
+      <c r="I84" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84"/>
@@ -9928,28 +10138,31 @@
       <c r="CP84"/>
     </row>
     <row r="85" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="87" t="s">
+      <c r="A85" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B85" s="88">
+      <c r="B85" s="84">
         <v>288.39999999999998</v>
       </c>
-      <c r="C85" s="89">
-        <f t="shared" si="5"/>
+      <c r="C85" s="85">
+        <f t="shared" si="7"/>
         <v>0.450625</v>
       </c>
-      <c r="D85" s="90" t="s">
+      <c r="D85" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="90" t="s">
+      <c r="E85" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F85" s="93" t="s">
+      <c r="F85" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="94"/>
+      <c r="G85" s="90"/>
       <c r="H85" s="46"/>
-      <c r="I85"/>
+      <c r="I85" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
@@ -10037,28 +10250,31 @@
       <c r="CP85"/>
     </row>
     <row r="86" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="87" t="s">
+      <c r="A86" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="B86" s="88">
+      <c r="B86" s="84">
         <v>357.2</v>
       </c>
-      <c r="C86" s="89">
-        <f t="shared" si="5"/>
+      <c r="C86" s="85">
+        <f t="shared" si="7"/>
         <v>0.55812499999999998</v>
       </c>
-      <c r="D86" s="90" t="s">
+      <c r="D86" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E86" s="90" t="s">
+      <c r="E86" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F86" s="93" t="s">
+      <c r="F86" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G86" s="94"/>
+      <c r="G86" s="90"/>
       <c r="H86" s="46"/>
-      <c r="I86"/>
+      <c r="I86" t="str">
+        <f t="shared" si="8"/>
+        <v>hard</v>
+      </c>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
@@ -10146,28 +10362,31 @@
       <c r="CP86"/>
     </row>
     <row r="87" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="87" t="s">
+      <c r="A87" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="B87" s="88">
+      <c r="B87" s="84">
         <v>275.8</v>
       </c>
-      <c r="C87" s="89">
-        <f t="shared" ref="C87:C150" si="6">B87*0.0015625</f>
+      <c r="C87" s="85">
+        <f t="shared" ref="C87:C150" si="9">B87*0.0015625</f>
         <v>0.43093750000000003</v>
       </c>
-      <c r="D87" s="90" t="s">
+      <c r="D87" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E87" s="90" t="s">
+      <c r="E87" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F87" s="93" t="s">
+      <c r="F87" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G87" s="94"/>
+      <c r="G87" s="90"/>
       <c r="H87" s="46"/>
-      <c r="I87"/>
+      <c r="I87" t="str">
+        <f t="shared" ref="I87:I150" si="10">IF(ISNUMBER(MATCH(G87, $L$12:$L$18, 0)), "soft", IF(EXACT(F87, G87), "none", "hard"))</f>
+        <v>hard</v>
+      </c>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
@@ -10255,28 +10474,31 @@
       <c r="CP87"/>
     </row>
     <row r="88" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="87" t="s">
+      <c r="A88" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="B88" s="88">
+      <c r="B88" s="84">
         <v>391.6</v>
       </c>
-      <c r="C88" s="89">
-        <f t="shared" si="6"/>
+      <c r="C88" s="85">
+        <f t="shared" si="9"/>
         <v>0.61187500000000006</v>
       </c>
-      <c r="D88" s="90" t="s">
+      <c r="D88" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E88" s="90" t="s">
+      <c r="E88" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F88" s="93" t="s">
+      <c r="F88" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G88" s="94"/>
+      <c r="G88" s="90"/>
       <c r="H88" s="46"/>
-      <c r="I88"/>
+      <c r="I88" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88"/>
@@ -10364,28 +10586,31 @@
       <c r="CP88"/>
     </row>
     <row r="89" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="87" t="s">
+      <c r="A89" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="B89" s="88">
+      <c r="B89" s="84">
         <v>21.4</v>
       </c>
-      <c r="C89" s="89">
-        <f t="shared" si="6"/>
+      <c r="C89" s="85">
+        <f t="shared" si="9"/>
         <v>3.3437500000000002E-2</v>
       </c>
-      <c r="D89" s="90" t="s">
+      <c r="D89" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E89" s="90" t="s">
+      <c r="E89" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="F89" s="93" t="s">
+      <c r="F89" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G89" s="94"/>
+      <c r="G89" s="90"/>
       <c r="H89" s="46"/>
-      <c r="I89"/>
+      <c r="I89" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89"/>
@@ -10473,28 +10698,31 @@
       <c r="CP89"/>
     </row>
     <row r="90" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="87" t="s">
+      <c r="A90" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="88">
+      <c r="B90" s="84">
         <v>143.1</v>
       </c>
-      <c r="C90" s="89">
-        <f t="shared" si="6"/>
+      <c r="C90" s="85">
+        <f t="shared" si="9"/>
         <v>0.22359375000000001</v>
       </c>
-      <c r="D90" s="90" t="s">
+      <c r="D90" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E90" s="90" t="s">
+      <c r="E90" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="F90" s="93" t="s">
+      <c r="F90" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G90" s="94"/>
+      <c r="G90" s="90"/>
       <c r="H90" s="46"/>
-      <c r="I90"/>
+      <c r="I90" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90"/>
@@ -10582,28 +10810,31 @@
       <c r="CP90"/>
     </row>
     <row r="91" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="87" t="s">
+      <c r="A91" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="B91" s="88">
+      <c r="B91" s="84">
         <v>82.6</v>
       </c>
-      <c r="C91" s="89">
-        <f t="shared" si="6"/>
+      <c r="C91" s="85">
+        <f t="shared" si="9"/>
         <v>0.1290625</v>
       </c>
-      <c r="D91" s="90" t="s">
+      <c r="D91" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E91" s="90" t="s">
+      <c r="E91" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="F91" s="93" t="s">
+      <c r="F91" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G91" s="94"/>
+      <c r="G91" s="90"/>
       <c r="H91" s="46"/>
-      <c r="I91"/>
+      <c r="I91" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91"/>
@@ -10691,28 +10922,31 @@
       <c r="CP91"/>
     </row>
     <row r="92" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="87" t="s">
+      <c r="A92" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="B92" s="88">
+      <c r="B92" s="84">
         <v>377.8</v>
       </c>
-      <c r="C92" s="89">
-        <f t="shared" si="6"/>
+      <c r="C92" s="85">
+        <f t="shared" si="9"/>
         <v>0.59031250000000002</v>
       </c>
-      <c r="D92" s="90" t="s">
+      <c r="D92" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E92" s="90" t="s">
+      <c r="E92" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F92" s="93" t="s">
+      <c r="F92" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="G92" s="94"/>
+      <c r="G92" s="90"/>
       <c r="H92" s="46"/>
-      <c r="I92"/>
+      <c r="I92" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J92"/>
       <c r="K92"/>
       <c r="L92"/>
@@ -10800,28 +11034,31 @@
       <c r="CP92"/>
     </row>
     <row r="93" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="87" t="s">
+      <c r="A93" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="B93" s="88">
+      <c r="B93" s="84">
         <v>149.19999999999999</v>
       </c>
-      <c r="C93" s="89">
-        <f t="shared" si="6"/>
+      <c r="C93" s="85">
+        <f t="shared" si="9"/>
         <v>0.233125</v>
       </c>
-      <c r="D93" s="90" t="s">
+      <c r="D93" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E93" s="90" t="s">
+      <c r="E93" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F93" s="93" t="s">
+      <c r="F93" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G93" s="94"/>
+      <c r="G93" s="90"/>
       <c r="H93" s="46"/>
-      <c r="I93"/>
+      <c r="I93" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93"/>
@@ -10909,28 +11146,31 @@
       <c r="CP93"/>
     </row>
     <row r="94" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="87" t="s">
+      <c r="A94" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B94" s="88">
+      <c r="B94" s="84">
         <v>318.7</v>
       </c>
-      <c r="C94" s="89">
-        <f t="shared" si="6"/>
+      <c r="C94" s="85">
+        <f t="shared" si="9"/>
         <v>0.49796875000000002</v>
       </c>
-      <c r="D94" s="90" t="s">
+      <c r="D94" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E94" s="90" t="s">
+      <c r="E94" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F94" s="93" t="s">
+      <c r="F94" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G94" s="94"/>
+      <c r="G94" s="90"/>
       <c r="H94" s="46"/>
-      <c r="I94"/>
+      <c r="I94" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94"/>
@@ -11018,28 +11258,31 @@
       <c r="CP94"/>
     </row>
     <row r="95" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="87" t="s">
+      <c r="A95" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B95" s="88">
+      <c r="B95" s="84">
         <v>77.5</v>
       </c>
-      <c r="C95" s="89">
-        <f t="shared" si="6"/>
+      <c r="C95" s="85">
+        <f t="shared" si="9"/>
         <v>0.12109375</v>
       </c>
-      <c r="D95" s="90" t="s">
+      <c r="D95" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E95" s="90" t="s">
+      <c r="E95" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F95" s="93" t="s">
+      <c r="F95" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G95" s="94"/>
+      <c r="G95" s="90"/>
       <c r="H95" s="46"/>
-      <c r="I95"/>
+      <c r="I95" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95"/>
@@ -11127,28 +11370,31 @@
       <c r="CP95"/>
     </row>
     <row r="96" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="87" t="s">
+      <c r="A96" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B96" s="88">
+      <c r="B96" s="84">
         <v>386.5</v>
       </c>
-      <c r="C96" s="89">
-        <f t="shared" si="6"/>
+      <c r="C96" s="85">
+        <f t="shared" si="9"/>
         <v>0.60390625000000009</v>
       </c>
-      <c r="D96" s="90" t="s">
+      <c r="D96" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="90" t="s">
+      <c r="E96" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F96" s="93" t="s">
+      <c r="F96" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G96" s="94"/>
+      <c r="G96" s="90"/>
       <c r="H96" s="46"/>
-      <c r="I96"/>
+      <c r="I96" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96"/>
@@ -11236,28 +11482,31 @@
       <c r="CP96"/>
     </row>
     <row r="97" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="87" t="s">
+      <c r="A97" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B97" s="88">
+      <c r="B97" s="84">
         <v>149.4</v>
       </c>
-      <c r="C97" s="89">
-        <f t="shared" si="6"/>
+      <c r="C97" s="85">
+        <f t="shared" si="9"/>
         <v>0.23343750000000002</v>
       </c>
-      <c r="D97" s="90" t="s">
+      <c r="D97" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E97" s="90" t="s">
+      <c r="E97" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F97" s="93" t="s">
+      <c r="F97" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G97" s="94"/>
+      <c r="G97" s="90"/>
       <c r="H97" s="46"/>
-      <c r="I97"/>
+      <c r="I97" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
@@ -11345,28 +11594,31 @@
       <c r="CP97"/>
     </row>
     <row r="98" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="87" t="s">
+      <c r="A98" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="B98" s="88">
+      <c r="B98" s="84">
         <v>87.4</v>
       </c>
-      <c r="C98" s="89">
-        <f t="shared" si="6"/>
+      <c r="C98" s="85">
+        <f t="shared" si="9"/>
         <v>0.1365625</v>
       </c>
-      <c r="D98" s="90" t="s">
+      <c r="D98" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="90" t="s">
+      <c r="E98" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F98" s="93" t="s">
+      <c r="F98" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G98" s="94"/>
+      <c r="G98" s="90"/>
       <c r="H98" s="46"/>
-      <c r="I98"/>
+      <c r="I98" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98"/>
@@ -11454,28 +11706,31 @@
       <c r="CP98"/>
     </row>
     <row r="99" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="87" t="s">
+      <c r="A99" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="B99" s="88">
+      <c r="B99" s="84">
         <v>161.5</v>
       </c>
-      <c r="C99" s="89">
-        <f t="shared" si="6"/>
+      <c r="C99" s="85">
+        <f t="shared" si="9"/>
         <v>0.25234375000000003</v>
       </c>
-      <c r="D99" s="90" t="s">
+      <c r="D99" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E99" s="90" t="s">
+      <c r="E99" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F99" s="93" t="s">
+      <c r="F99" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G99" s="94"/>
+      <c r="G99" s="90"/>
       <c r="H99" s="46"/>
-      <c r="I99"/>
+      <c r="I99" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99"/>
@@ -11563,28 +11818,31 @@
       <c r="CP99"/>
     </row>
     <row r="100" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="87" t="s">
+      <c r="A100" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="B100" s="88">
+      <c r="B100" s="84">
         <v>67.2</v>
       </c>
-      <c r="C100" s="89">
-        <f t="shared" si="6"/>
+      <c r="C100" s="85">
+        <f t="shared" si="9"/>
         <v>0.10500000000000001</v>
       </c>
-      <c r="D100" s="90" t="s">
+      <c r="D100" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E100" s="90" t="s">
+      <c r="E100" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F100" s="93" t="s">
+      <c r="F100" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G100" s="94"/>
+      <c r="G100" s="90"/>
       <c r="H100" s="46"/>
-      <c r="I100"/>
+      <c r="I100" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100"/>
@@ -11672,28 +11930,31 @@
       <c r="CP100"/>
     </row>
     <row r="101" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="87" t="s">
+      <c r="A101" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="B101" s="88">
+      <c r="B101" s="84">
         <v>86.4</v>
       </c>
-      <c r="C101" s="89">
-        <f t="shared" si="6"/>
+      <c r="C101" s="85">
+        <f t="shared" si="9"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="D101" s="90" t="s">
+      <c r="D101" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E101" s="90" t="s">
+      <c r="E101" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F101" s="93" t="s">
+      <c r="F101" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="94"/>
+      <c r="G101" s="90"/>
       <c r="H101" s="46"/>
-      <c r="I101"/>
+      <c r="I101" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J101"/>
       <c r="K101"/>
       <c r="L101"/>
@@ -11781,28 +12042,31 @@
       <c r="CP101"/>
     </row>
     <row r="102" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="87" t="s">
+      <c r="A102" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="B102" s="88">
+      <c r="B102" s="84">
         <v>19.899999999999999</v>
       </c>
-      <c r="C102" s="89">
-        <f t="shared" si="6"/>
+      <c r="C102" s="85">
+        <f t="shared" si="9"/>
         <v>3.109375E-2</v>
       </c>
-      <c r="D102" s="90" t="s">
+      <c r="D102" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="E102" s="90" t="s">
+      <c r="E102" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="F102" s="93" t="s">
+      <c r="F102" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="G102" s="94"/>
+      <c r="G102" s="90"/>
       <c r="H102" s="46"/>
-      <c r="I102"/>
+      <c r="I102" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102"/>
@@ -11890,28 +12154,31 @@
       <c r="CP102"/>
     </row>
     <row r="103" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="87" t="s">
+      <c r="A103" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="B103" s="88">
+      <c r="B103" s="84">
         <v>19.8</v>
       </c>
-      <c r="C103" s="89">
-        <f t="shared" si="6"/>
+      <c r="C103" s="85">
+        <f t="shared" si="9"/>
         <v>3.0937500000000003E-2</v>
       </c>
-      <c r="D103" s="90" t="s">
+      <c r="D103" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E103" s="90" t="s">
+      <c r="E103" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F103" s="93" t="s">
+      <c r="F103" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G103" s="94"/>
+      <c r="G103" s="90"/>
       <c r="H103" s="46"/>
-      <c r="I103"/>
+      <c r="I103" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103"/>
@@ -11999,28 +12266,31 @@
       <c r="CP103"/>
     </row>
     <row r="104" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="87" t="s">
+      <c r="A104" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="B104" s="88">
+      <c r="B104" s="84">
         <v>139.19999999999999</v>
       </c>
-      <c r="C104" s="89">
-        <f t="shared" si="6"/>
+      <c r="C104" s="85">
+        <f t="shared" si="9"/>
         <v>0.2175</v>
       </c>
-      <c r="D104" s="90" t="s">
+      <c r="D104" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="E104" s="90" t="s">
+      <c r="E104" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F104" s="93" t="s">
+      <c r="F104" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="G104" s="94"/>
+      <c r="G104" s="90"/>
       <c r="H104" s="46"/>
-      <c r="I104"/>
+      <c r="I104" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J104"/>
       <c r="K104"/>
       <c r="L104"/>
@@ -12108,28 +12378,31 @@
       <c r="CP104"/>
     </row>
     <row r="105" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="87" t="s">
+      <c r="A105" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="B105" s="88">
+      <c r="B105" s="84">
         <v>80.599999999999994</v>
       </c>
-      <c r="C105" s="89">
-        <f t="shared" si="6"/>
+      <c r="C105" s="85">
+        <f t="shared" si="9"/>
         <v>0.12593750000000001</v>
       </c>
-      <c r="D105" s="90" t="s">
+      <c r="D105" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E105" s="90" t="s">
+      <c r="E105" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F105" s="93" t="s">
+      <c r="F105" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G105" s="94"/>
+      <c r="G105" s="90"/>
       <c r="H105" s="46"/>
-      <c r="I105"/>
+      <c r="I105" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105"/>
@@ -12217,28 +12490,31 @@
       <c r="CP105"/>
     </row>
     <row r="106" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="87" t="s">
+      <c r="A106" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="B106" s="88">
+      <c r="B106" s="84">
         <v>40</v>
       </c>
-      <c r="C106" s="89">
-        <f t="shared" si="6"/>
+      <c r="C106" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D106" s="90" t="s">
+      <c r="D106" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E106" s="90" t="s">
+      <c r="E106" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F106" s="93" t="s">
+      <c r="F106" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G106" s="94"/>
+      <c r="G106" s="90"/>
       <c r="H106" s="46"/>
-      <c r="I106"/>
+      <c r="I106" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106"/>
@@ -12326,28 +12602,31 @@
       <c r="CP106"/>
     </row>
     <row r="107" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="87" t="s">
+      <c r="A107" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="B107" s="88">
+      <c r="B107" s="84">
         <v>19.7</v>
       </c>
-      <c r="C107" s="89">
-        <f t="shared" si="6"/>
+      <c r="C107" s="85">
+        <f t="shared" si="9"/>
         <v>3.078125E-2</v>
       </c>
-      <c r="D107" s="90" t="s">
+      <c r="D107" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E107" s="90" t="s">
+      <c r="E107" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F107" s="93" t="s">
+      <c r="F107" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G107" s="94"/>
+      <c r="G107" s="90"/>
       <c r="H107" s="46"/>
-      <c r="I107"/>
+      <c r="I107" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J107"/>
       <c r="K107"/>
       <c r="L107"/>
@@ -12435,28 +12714,31 @@
       <c r="CP107"/>
     </row>
     <row r="108" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="87" t="s">
+      <c r="A108" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="B108" s="88">
+      <c r="B108" s="84">
         <v>43.4</v>
       </c>
-      <c r="C108" s="89">
-        <f t="shared" si="6"/>
+      <c r="C108" s="85">
+        <f t="shared" si="9"/>
         <v>6.7812499999999998E-2</v>
       </c>
-      <c r="D108" s="90" t="s">
+      <c r="D108" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E108" s="90" t="s">
+      <c r="E108" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F108" s="93" t="s">
+      <c r="F108" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G108" s="94"/>
+      <c r="G108" s="90"/>
       <c r="H108" s="46"/>
-      <c r="I108"/>
+      <c r="I108" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108"/>
@@ -12544,28 +12826,31 @@
       <c r="CP108"/>
     </row>
     <row r="109" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="87" t="s">
+      <c r="A109" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="B109" s="88">
+      <c r="B109" s="84">
         <v>40</v>
       </c>
-      <c r="C109" s="89">
-        <f t="shared" si="6"/>
+      <c r="C109" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D109" s="90" t="s">
+      <c r="D109" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="90" t="s">
+      <c r="E109" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F109" s="93" t="s">
+      <c r="F109" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G109" s="94"/>
+      <c r="G109" s="90"/>
       <c r="H109" s="46"/>
-      <c r="I109"/>
+      <c r="I109" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109"/>
@@ -12653,28 +12938,31 @@
       <c r="CP109"/>
     </row>
     <row r="110" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="87" t="s">
+      <c r="A110" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="B110" s="88">
+      <c r="B110" s="84">
         <v>40</v>
       </c>
-      <c r="C110" s="89">
-        <f t="shared" si="6"/>
+      <c r="C110" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D110" s="90" t="s">
+      <c r="D110" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E110" s="90" t="s">
+      <c r="E110" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F110" s="93" t="s">
+      <c r="F110" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G110" s="94"/>
+      <c r="G110" s="90"/>
       <c r="H110" s="46"/>
-      <c r="I110"/>
+      <c r="I110" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110"/>
@@ -12762,28 +13050,31 @@
       <c r="CP110"/>
     </row>
     <row r="111" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="87" t="s">
+      <c r="A111" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="B111" s="88">
+      <c r="B111" s="84">
         <v>40</v>
       </c>
-      <c r="C111" s="89">
-        <f t="shared" si="6"/>
+      <c r="C111" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D111" s="90" t="s">
+      <c r="D111" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E111" s="90" t="s">
+      <c r="E111" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F111" s="93" t="s">
+      <c r="F111" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G111" s="94"/>
+      <c r="G111" s="90"/>
       <c r="H111" s="46"/>
-      <c r="I111"/>
+      <c r="I111" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111"/>
@@ -12871,28 +13162,31 @@
       <c r="CP111"/>
     </row>
     <row r="112" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="87" t="s">
+      <c r="A112" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="B112" s="88">
+      <c r="B112" s="84">
         <v>40</v>
       </c>
-      <c r="C112" s="89">
-        <f t="shared" si="6"/>
+      <c r="C112" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D112" s="90" t="s">
+      <c r="D112" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E112" s="90" t="s">
+      <c r="E112" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F112" s="93" t="s">
+      <c r="F112" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G112" s="94"/>
+      <c r="G112" s="90"/>
       <c r="H112" s="46"/>
-      <c r="I112"/>
+      <c r="I112" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112"/>
@@ -12980,28 +13274,31 @@
       <c r="CP112"/>
     </row>
     <row r="113" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="87" t="s">
+      <c r="A113" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="B113" s="88">
+      <c r="B113" s="84">
         <v>40</v>
       </c>
-      <c r="C113" s="89">
-        <f t="shared" si="6"/>
+      <c r="C113" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D113" s="90" t="s">
+      <c r="D113" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E113" s="90" t="s">
+      <c r="E113" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F113" s="93" t="s">
+      <c r="F113" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G113" s="94"/>
+      <c r="G113" s="90"/>
       <c r="H113" s="46"/>
-      <c r="I113"/>
+      <c r="I113" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J113"/>
       <c r="K113"/>
       <c r="L113"/>
@@ -13089,28 +13386,31 @@
       <c r="CP113"/>
     </row>
     <row r="114" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="87" t="s">
+      <c r="A114" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="B114" s="88">
+      <c r="B114" s="84">
         <v>40</v>
       </c>
-      <c r="C114" s="89">
-        <f t="shared" si="6"/>
+      <c r="C114" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D114" s="90" t="s">
+      <c r="D114" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E114" s="90" t="s">
+      <c r="E114" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F114" s="93" t="s">
+      <c r="F114" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G114" s="94"/>
+      <c r="G114" s="90"/>
       <c r="H114" s="46"/>
-      <c r="I114"/>
+      <c r="I114" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114"/>
@@ -13198,28 +13498,31 @@
       <c r="CP114"/>
     </row>
     <row r="115" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="87" t="s">
+      <c r="A115" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="B115" s="88">
+      <c r="B115" s="84">
         <v>40</v>
       </c>
-      <c r="C115" s="89">
-        <f t="shared" si="6"/>
+      <c r="C115" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D115" s="90" t="s">
+      <c r="D115" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E115" s="90" t="s">
+      <c r="E115" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F115" s="93" t="s">
+      <c r="F115" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G115" s="94"/>
+      <c r="G115" s="90"/>
       <c r="H115" s="46"/>
-      <c r="I115"/>
+      <c r="I115" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115"/>
@@ -13307,28 +13610,31 @@
       <c r="CP115"/>
     </row>
     <row r="116" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="87" t="s">
+      <c r="A116" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="B116" s="88">
+      <c r="B116" s="84">
         <v>40</v>
       </c>
-      <c r="C116" s="89">
-        <f t="shared" si="6"/>
+      <c r="C116" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D116" s="90" t="s">
+      <c r="D116" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E116" s="90" t="s">
+      <c r="E116" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F116" s="93" t="s">
+      <c r="F116" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G116" s="94"/>
+      <c r="G116" s="90"/>
       <c r="H116" s="46"/>
-      <c r="I116"/>
+      <c r="I116" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116"/>
@@ -13416,28 +13722,31 @@
       <c r="CP116"/>
     </row>
     <row r="117" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="87" t="s">
+      <c r="A117" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="B117" s="88">
+      <c r="B117" s="84">
         <v>40</v>
       </c>
-      <c r="C117" s="89">
-        <f t="shared" si="6"/>
+      <c r="C117" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D117" s="90" t="s">
+      <c r="D117" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E117" s="90" t="s">
+      <c r="E117" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F117" s="93" t="s">
+      <c r="F117" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G117" s="94"/>
+      <c r="G117" s="90"/>
       <c r="H117" s="46"/>
-      <c r="I117"/>
+      <c r="I117" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117"/>
@@ -13525,28 +13834,31 @@
       <c r="CP117"/>
     </row>
     <row r="118" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="87" t="s">
+      <c r="A118" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="B118" s="88">
+      <c r="B118" s="84">
         <v>40</v>
       </c>
-      <c r="C118" s="89">
-        <f t="shared" si="6"/>
+      <c r="C118" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D118" s="90" t="s">
+      <c r="D118" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E118" s="90" t="s">
+      <c r="E118" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F118" s="93" t="s">
+      <c r="F118" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G118" s="94"/>
+      <c r="G118" s="90"/>
       <c r="H118" s="46"/>
-      <c r="I118"/>
+      <c r="I118" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118"/>
@@ -13634,28 +13946,31 @@
       <c r="CP118"/>
     </row>
     <row r="119" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="87" t="s">
+      <c r="A119" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="B119" s="88">
+      <c r="B119" s="84">
         <v>40</v>
       </c>
-      <c r="C119" s="89">
-        <f t="shared" si="6"/>
+      <c r="C119" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D119" s="90" t="s">
+      <c r="D119" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E119" s="90" t="s">
+      <c r="E119" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F119" s="93" t="s">
+      <c r="F119" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G119" s="94"/>
+      <c r="G119" s="90"/>
       <c r="H119" s="46"/>
-      <c r="I119"/>
+      <c r="I119" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119"/>
@@ -13743,28 +14058,31 @@
       <c r="CP119"/>
     </row>
     <row r="120" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="87" t="s">
+      <c r="A120" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="B120" s="88">
+      <c r="B120" s="84">
         <v>40</v>
       </c>
-      <c r="C120" s="89">
-        <f t="shared" si="6"/>
+      <c r="C120" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D120" s="90" t="s">
+      <c r="D120" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E120" s="90" t="s">
+      <c r="E120" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F120" s="93" t="s">
+      <c r="F120" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G120" s="94"/>
+      <c r="G120" s="90"/>
       <c r="H120" s="46"/>
-      <c r="I120"/>
+      <c r="I120" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120"/>
@@ -13852,28 +14170,31 @@
       <c r="CP120"/>
     </row>
     <row r="121" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="87" t="s">
+      <c r="A121" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="B121" s="88">
+      <c r="B121" s="84">
         <v>40</v>
       </c>
-      <c r="C121" s="89">
-        <f t="shared" si="6"/>
+      <c r="C121" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D121" s="90" t="s">
+      <c r="D121" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E121" s="90" t="s">
+      <c r="E121" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F121" s="93" t="s">
+      <c r="F121" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G121" s="94"/>
+      <c r="G121" s="90"/>
       <c r="H121" s="46"/>
-      <c r="I121"/>
+      <c r="I121" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121"/>
@@ -13961,28 +14282,31 @@
       <c r="CP121"/>
     </row>
     <row r="122" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="87" t="s">
+      <c r="A122" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="B122" s="88">
+      <c r="B122" s="84">
         <v>40</v>
       </c>
-      <c r="C122" s="89">
-        <f t="shared" si="6"/>
+      <c r="C122" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D122" s="90" t="s">
+      <c r="D122" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E122" s="90" t="s">
+      <c r="E122" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F122" s="93" t="s">
+      <c r="F122" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G122" s="94"/>
+      <c r="G122" s="90"/>
       <c r="H122" s="46"/>
-      <c r="I122"/>
+      <c r="I122" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122"/>
@@ -14070,28 +14394,31 @@
       <c r="CP122"/>
     </row>
     <row r="123" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="87" t="s">
+      <c r="A123" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="B123" s="88">
+      <c r="B123" s="84">
         <v>40</v>
       </c>
-      <c r="C123" s="89">
-        <f t="shared" si="6"/>
+      <c r="C123" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D123" s="90" t="s">
+      <c r="D123" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E123" s="90" t="s">
+      <c r="E123" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F123" s="93" t="s">
+      <c r="F123" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G123" s="94"/>
+      <c r="G123" s="90"/>
       <c r="H123" s="46"/>
-      <c r="I123"/>
+      <c r="I123" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123"/>
@@ -14179,28 +14506,31 @@
       <c r="CP123"/>
     </row>
     <row r="124" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="87" t="s">
+      <c r="A124" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="B124" s="88">
+      <c r="B124" s="84">
         <v>40</v>
       </c>
-      <c r="C124" s="89">
-        <f t="shared" si="6"/>
+      <c r="C124" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D124" s="90" t="s">
+      <c r="D124" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E124" s="90" t="s">
+      <c r="E124" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F124" s="93" t="s">
+      <c r="F124" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G124" s="94"/>
+      <c r="G124" s="90"/>
       <c r="H124" s="46"/>
-      <c r="I124"/>
+      <c r="I124" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124"/>
@@ -14288,28 +14618,31 @@
       <c r="CP124"/>
     </row>
     <row r="125" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="87" t="s">
+      <c r="A125" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="B125" s="88">
+      <c r="B125" s="84">
         <v>40</v>
       </c>
-      <c r="C125" s="89">
-        <f t="shared" si="6"/>
+      <c r="C125" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D125" s="90" t="s">
+      <c r="D125" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E125" s="90" t="s">
+      <c r="E125" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F125" s="93" t="s">
+      <c r="F125" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G125" s="94"/>
+      <c r="G125" s="90"/>
       <c r="H125" s="46"/>
-      <c r="I125"/>
+      <c r="I125" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125"/>
@@ -14397,28 +14730,31 @@
       <c r="CP125"/>
     </row>
     <row r="126" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="87" t="s">
+      <c r="A126" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="B126" s="88">
+      <c r="B126" s="84">
         <v>40</v>
       </c>
-      <c r="C126" s="89">
-        <f t="shared" si="6"/>
+      <c r="C126" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D126" s="90" t="s">
+      <c r="D126" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E126" s="90" t="s">
+      <c r="E126" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F126" s="93" t="s">
+      <c r="F126" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G126" s="94"/>
+      <c r="G126" s="90"/>
       <c r="H126" s="46"/>
-      <c r="I126"/>
+      <c r="I126" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J126"/>
       <c r="K126"/>
       <c r="L126"/>
@@ -14506,28 +14842,31 @@
       <c r="CP126"/>
     </row>
     <row r="127" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="87" t="s">
+      <c r="A127" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B127" s="88">
+      <c r="B127" s="84">
         <v>40</v>
       </c>
-      <c r="C127" s="89">
-        <f t="shared" si="6"/>
+      <c r="C127" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D127" s="90" t="s">
+      <c r="D127" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E127" s="90" t="s">
+      <c r="E127" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F127" s="93" t="s">
+      <c r="F127" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G127" s="94"/>
+      <c r="G127" s="90"/>
       <c r="H127" s="46"/>
-      <c r="I127"/>
+      <c r="I127" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127"/>
@@ -14615,28 +14954,31 @@
       <c r="CP127"/>
     </row>
     <row r="128" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="87" t="s">
+      <c r="A128" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="B128" s="88">
+      <c r="B128" s="84">
         <v>40</v>
       </c>
-      <c r="C128" s="89">
-        <f t="shared" si="6"/>
+      <c r="C128" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D128" s="90" t="s">
+      <c r="D128" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E128" s="90" t="s">
+      <c r="E128" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F128" s="93" t="s">
+      <c r="F128" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G128" s="94"/>
+      <c r="G128" s="90"/>
       <c r="H128" s="46"/>
-      <c r="I128"/>
+      <c r="I128" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J128"/>
       <c r="K128"/>
       <c r="L128"/>
@@ -14724,28 +15066,31 @@
       <c r="CP128"/>
     </row>
     <row r="129" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="87" t="s">
+      <c r="A129" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="B129" s="88">
+      <c r="B129" s="84">
         <v>40</v>
       </c>
-      <c r="C129" s="89">
-        <f t="shared" si="6"/>
+      <c r="C129" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D129" s="90" t="s">
+      <c r="D129" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E129" s="90" t="s">
+      <c r="E129" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F129" s="93" t="s">
+      <c r="F129" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G129" s="94"/>
+      <c r="G129" s="90"/>
       <c r="H129" s="46"/>
-      <c r="I129"/>
+      <c r="I129" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J129"/>
       <c r="K129"/>
       <c r="L129"/>
@@ -14833,28 +15178,31 @@
       <c r="CP129"/>
     </row>
     <row r="130" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="87" t="s">
+      <c r="A130" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="B130" s="88">
+      <c r="B130" s="84">
         <v>40</v>
       </c>
-      <c r="C130" s="89">
-        <f t="shared" si="6"/>
+      <c r="C130" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D130" s="90" t="s">
+      <c r="D130" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E130" s="90" t="s">
+      <c r="E130" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F130" s="93" t="s">
+      <c r="F130" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G130" s="94"/>
+      <c r="G130" s="90"/>
       <c r="H130" s="46"/>
-      <c r="I130"/>
+      <c r="I130" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J130"/>
       <c r="K130"/>
       <c r="L130"/>
@@ -14942,28 +15290,31 @@
       <c r="CP130"/>
     </row>
     <row r="131" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="87" t="s">
+      <c r="A131" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="B131" s="88">
+      <c r="B131" s="84">
         <v>40</v>
       </c>
-      <c r="C131" s="89">
-        <f t="shared" si="6"/>
+      <c r="C131" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D131" s="90" t="s">
+      <c r="D131" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E131" s="90" t="s">
+      <c r="E131" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F131" s="93" t="s">
+      <c r="F131" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G131" s="94"/>
+      <c r="G131" s="90"/>
       <c r="H131" s="46"/>
-      <c r="I131"/>
+      <c r="I131" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J131"/>
       <c r="K131"/>
       <c r="L131"/>
@@ -15051,28 +15402,31 @@
       <c r="CP131"/>
     </row>
     <row r="132" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="87" t="s">
+      <c r="A132" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="B132" s="88">
+      <c r="B132" s="84">
         <v>40</v>
       </c>
-      <c r="C132" s="89">
-        <f t="shared" si="6"/>
+      <c r="C132" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D132" s="90" t="s">
+      <c r="D132" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E132" s="90" t="s">
+      <c r="E132" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F132" s="93" t="s">
+      <c r="F132" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G132" s="94"/>
+      <c r="G132" s="90"/>
       <c r="H132" s="46"/>
-      <c r="I132"/>
+      <c r="I132" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J132"/>
       <c r="K132"/>
       <c r="L132"/>
@@ -15160,28 +15514,31 @@
       <c r="CP132"/>
     </row>
     <row r="133" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="87" t="s">
+      <c r="A133" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="B133" s="88">
+      <c r="B133" s="84">
         <v>40</v>
       </c>
-      <c r="C133" s="89">
-        <f t="shared" si="6"/>
+      <c r="C133" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D133" s="90" t="s">
+      <c r="D133" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E133" s="90" t="s">
+      <c r="E133" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F133" s="93" t="s">
+      <c r="F133" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G133" s="94"/>
+      <c r="G133" s="90"/>
       <c r="H133" s="46"/>
-      <c r="I133"/>
+      <c r="I133" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J133"/>
       <c r="K133"/>
       <c r="L133"/>
@@ -15269,28 +15626,31 @@
       <c r="CP133"/>
     </row>
     <row r="134" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="87" t="s">
+      <c r="A134" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="B134" s="88">
+      <c r="B134" s="84">
         <v>40</v>
       </c>
-      <c r="C134" s="89">
-        <f t="shared" si="6"/>
+      <c r="C134" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D134" s="90" t="s">
+      <c r="D134" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E134" s="90" t="s">
+      <c r="E134" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F134" s="93" t="s">
+      <c r="F134" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G134" s="94"/>
+      <c r="G134" s="90"/>
       <c r="H134" s="46"/>
-      <c r="I134"/>
+      <c r="I134" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J134"/>
       <c r="K134"/>
       <c r="L134"/>
@@ -15378,28 +15738,31 @@
       <c r="CP134"/>
     </row>
     <row r="135" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="87" t="s">
+      <c r="A135" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="B135" s="88">
+      <c r="B135" s="84">
         <v>40</v>
       </c>
-      <c r="C135" s="89">
-        <f t="shared" si="6"/>
+      <c r="C135" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D135" s="90" t="s">
+      <c r="D135" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E135" s="90" t="s">
+      <c r="E135" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F135" s="93" t="s">
+      <c r="F135" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G135" s="94"/>
+      <c r="G135" s="90"/>
       <c r="H135" s="46"/>
-      <c r="I135"/>
+      <c r="I135" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J135"/>
       <c r="K135"/>
       <c r="L135"/>
@@ -15487,28 +15850,31 @@
       <c r="CP135"/>
     </row>
     <row r="136" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="87" t="s">
+      <c r="A136" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="B136" s="88">
+      <c r="B136" s="84">
         <v>40</v>
       </c>
-      <c r="C136" s="89">
-        <f t="shared" si="6"/>
+      <c r="C136" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D136" s="90" t="s">
+      <c r="D136" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E136" s="90" t="s">
+      <c r="E136" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F136" s="93" t="s">
+      <c r="F136" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G136" s="94"/>
+      <c r="G136" s="90"/>
       <c r="H136" s="46"/>
-      <c r="I136"/>
+      <c r="I136" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J136"/>
       <c r="K136"/>
       <c r="L136"/>
@@ -15596,28 +15962,31 @@
       <c r="CP136"/>
     </row>
     <row r="137" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="87" t="s">
+      <c r="A137" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="B137" s="88">
+      <c r="B137" s="84">
         <v>40</v>
       </c>
-      <c r="C137" s="89">
-        <f t="shared" si="6"/>
+      <c r="C137" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D137" s="90" t="s">
+      <c r="D137" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E137" s="90" t="s">
+      <c r="E137" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F137" s="93" t="s">
+      <c r="F137" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G137" s="94"/>
+      <c r="G137" s="90"/>
       <c r="H137" s="46"/>
-      <c r="I137"/>
+      <c r="I137" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J137"/>
       <c r="K137"/>
       <c r="L137"/>
@@ -15705,28 +16074,31 @@
       <c r="CP137"/>
     </row>
     <row r="138" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="87" t="s">
+      <c r="A138" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="B138" s="88">
+      <c r="B138" s="84">
         <v>40</v>
       </c>
-      <c r="C138" s="89">
-        <f t="shared" si="6"/>
+      <c r="C138" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D138" s="90" t="s">
+      <c r="D138" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E138" s="90" t="s">
+      <c r="E138" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F138" s="93" t="s">
+      <c r="F138" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G138" s="94"/>
+      <c r="G138" s="90"/>
       <c r="H138" s="46"/>
-      <c r="I138"/>
+      <c r="I138" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J138"/>
       <c r="K138"/>
       <c r="L138"/>
@@ -15814,28 +16186,31 @@
       <c r="CP138"/>
     </row>
     <row r="139" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="87" t="s">
+      <c r="A139" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="B139" s="88">
+      <c r="B139" s="84">
         <v>40</v>
       </c>
-      <c r="C139" s="89">
-        <f t="shared" si="6"/>
+      <c r="C139" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D139" s="90" t="s">
+      <c r="D139" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E139" s="90" t="s">
+      <c r="E139" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F139" s="93" t="s">
+      <c r="F139" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G139" s="94"/>
+      <c r="G139" s="90"/>
       <c r="H139" s="46"/>
-      <c r="I139"/>
+      <c r="I139" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J139"/>
       <c r="K139"/>
       <c r="L139"/>
@@ -15923,28 +16298,31 @@
       <c r="CP139"/>
     </row>
     <row r="140" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="87" t="s">
+      <c r="A140" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="B140" s="88">
+      <c r="B140" s="84">
         <v>40</v>
       </c>
-      <c r="C140" s="89">
-        <f t="shared" si="6"/>
+      <c r="C140" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D140" s="90" t="s">
+      <c r="D140" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E140" s="90" t="s">
+      <c r="E140" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F140" s="93" t="s">
+      <c r="F140" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G140" s="94"/>
+      <c r="G140" s="90"/>
       <c r="H140" s="46"/>
-      <c r="I140"/>
+      <c r="I140" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J140"/>
       <c r="K140"/>
       <c r="L140"/>
@@ -16032,28 +16410,31 @@
       <c r="CP140"/>
     </row>
     <row r="141" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="87" t="s">
+      <c r="A141" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="B141" s="88">
+      <c r="B141" s="84">
         <v>40</v>
       </c>
-      <c r="C141" s="89">
-        <f t="shared" si="6"/>
+      <c r="C141" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D141" s="90" t="s">
+      <c r="D141" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E141" s="90" t="s">
+      <c r="E141" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F141" s="93" t="s">
+      <c r="F141" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G141" s="94"/>
+      <c r="G141" s="90"/>
       <c r="H141" s="46"/>
-      <c r="I141"/>
+      <c r="I141" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J141"/>
       <c r="K141"/>
       <c r="L141"/>
@@ -16141,28 +16522,31 @@
       <c r="CP141"/>
     </row>
     <row r="142" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="87" t="s">
+      <c r="A142" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="B142" s="88">
+      <c r="B142" s="84">
         <v>40</v>
       </c>
-      <c r="C142" s="89">
-        <f t="shared" si="6"/>
+      <c r="C142" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D142" s="90" t="s">
+      <c r="D142" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E142" s="90" t="s">
+      <c r="E142" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F142" s="93" t="s">
+      <c r="F142" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G142" s="94"/>
+      <c r="G142" s="90"/>
       <c r="H142" s="46"/>
-      <c r="I142"/>
+      <c r="I142" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J142"/>
       <c r="K142"/>
       <c r="L142"/>
@@ -16250,28 +16634,31 @@
       <c r="CP142"/>
     </row>
     <row r="143" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="87" t="s">
+      <c r="A143" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="B143" s="88">
+      <c r="B143" s="84">
         <v>40</v>
       </c>
-      <c r="C143" s="89">
-        <f t="shared" si="6"/>
+      <c r="C143" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D143" s="90" t="s">
+      <c r="D143" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E143" s="90" t="s">
+      <c r="E143" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F143" s="93" t="s">
+      <c r="F143" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G143" s="94"/>
+      <c r="G143" s="90"/>
       <c r="H143" s="46"/>
-      <c r="I143"/>
+      <c r="I143" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J143"/>
       <c r="K143"/>
       <c r="L143"/>
@@ -16359,28 +16746,31 @@
       <c r="CP143"/>
     </row>
     <row r="144" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="87" t="s">
+      <c r="A144" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="B144" s="88">
+      <c r="B144" s="84">
         <v>40</v>
       </c>
-      <c r="C144" s="89">
-        <f t="shared" si="6"/>
+      <c r="C144" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D144" s="90" t="s">
+      <c r="D144" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E144" s="90" t="s">
+      <c r="E144" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F144" s="93" t="s">
+      <c r="F144" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G144" s="94"/>
+      <c r="G144" s="90"/>
       <c r="H144" s="46"/>
-      <c r="I144"/>
+      <c r="I144" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J144"/>
       <c r="K144"/>
       <c r="L144"/>
@@ -16468,28 +16858,31 @@
       <c r="CP144"/>
     </row>
     <row r="145" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="87" t="s">
+      <c r="A145" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="B145" s="88">
+      <c r="B145" s="84">
         <v>40</v>
       </c>
-      <c r="C145" s="89">
-        <f t="shared" si="6"/>
+      <c r="C145" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D145" s="90" t="s">
+      <c r="D145" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E145" s="90" t="s">
+      <c r="E145" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F145" s="93" t="s">
+      <c r="F145" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G145" s="94"/>
+      <c r="G145" s="90"/>
       <c r="H145" s="46"/>
-      <c r="I145"/>
+      <c r="I145" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J145"/>
       <c r="K145"/>
       <c r="L145"/>
@@ -16577,28 +16970,31 @@
       <c r="CP145"/>
     </row>
     <row r="146" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="87" t="s">
+      <c r="A146" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="B146" s="88">
+      <c r="B146" s="84">
         <v>40</v>
       </c>
-      <c r="C146" s="89">
-        <f t="shared" si="6"/>
+      <c r="C146" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D146" s="90" t="s">
+      <c r="D146" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E146" s="90" t="s">
+      <c r="E146" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F146" s="93" t="s">
+      <c r="F146" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G146" s="94"/>
+      <c r="G146" s="90"/>
       <c r="H146" s="46"/>
-      <c r="I146"/>
+      <c r="I146" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J146"/>
       <c r="K146"/>
       <c r="L146"/>
@@ -16686,28 +17082,31 @@
       <c r="CP146"/>
     </row>
     <row r="147" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="87" t="s">
+      <c r="A147" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="B147" s="88">
+      <c r="B147" s="84">
         <v>40</v>
       </c>
-      <c r="C147" s="89">
-        <f t="shared" si="6"/>
+      <c r="C147" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D147" s="90" t="s">
+      <c r="D147" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E147" s="90" t="s">
+      <c r="E147" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F147" s="93" t="s">
+      <c r="F147" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G147" s="94"/>
+      <c r="G147" s="90"/>
       <c r="H147" s="46"/>
-      <c r="I147"/>
+      <c r="I147" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J147"/>
       <c r="K147"/>
       <c r="L147"/>
@@ -16795,28 +17194,31 @@
       <c r="CP147"/>
     </row>
     <row r="148" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="87" t="s">
+      <c r="A148" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="B148" s="88">
+      <c r="B148" s="84">
         <v>39.9</v>
       </c>
-      <c r="C148" s="89">
-        <f t="shared" si="6"/>
+      <c r="C148" s="85">
+        <f t="shared" si="9"/>
         <v>6.2343750000000003E-2</v>
       </c>
-      <c r="D148" s="90" t="s">
+      <c r="D148" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E148" s="90" t="s">
+      <c r="E148" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F148" s="93" t="s">
+      <c r="F148" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G148" s="94"/>
+      <c r="G148" s="90"/>
       <c r="H148" s="46"/>
-      <c r="I148"/>
+      <c r="I148" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J148"/>
       <c r="K148"/>
       <c r="L148"/>
@@ -16904,28 +17306,31 @@
       <c r="CP148"/>
     </row>
     <row r="149" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="87" t="s">
+      <c r="A149" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="B149" s="88">
+      <c r="B149" s="84">
         <v>40</v>
       </c>
-      <c r="C149" s="89">
-        <f t="shared" si="6"/>
+      <c r="C149" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D149" s="90" t="s">
+      <c r="D149" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E149" s="90" t="s">
+      <c r="E149" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F149" s="93" t="s">
+      <c r="F149" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G149" s="94"/>
+      <c r="G149" s="90"/>
       <c r="H149" s="46"/>
-      <c r="I149"/>
+      <c r="I149" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J149"/>
       <c r="K149"/>
       <c r="L149"/>
@@ -17013,28 +17418,31 @@
       <c r="CP149"/>
     </row>
     <row r="150" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="87" t="s">
+      <c r="A150" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="B150" s="88">
+      <c r="B150" s="84">
         <v>40</v>
       </c>
-      <c r="C150" s="89">
-        <f t="shared" si="6"/>
+      <c r="C150" s="85">
+        <f t="shared" si="9"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D150" s="90" t="s">
+      <c r="D150" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E150" s="90" t="s">
+      <c r="E150" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F150" s="93" t="s">
+      <c r="F150" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G150" s="94"/>
+      <c r="G150" s="90"/>
       <c r="H150" s="46"/>
-      <c r="I150"/>
+      <c r="I150" t="str">
+        <f t="shared" si="10"/>
+        <v>hard</v>
+      </c>
       <c r="J150"/>
       <c r="K150"/>
       <c r="L150"/>
@@ -17122,28 +17530,31 @@
       <c r="CP150"/>
     </row>
     <row r="151" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="87" t="s">
+      <c r="A151" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="B151" s="88">
+      <c r="B151" s="84">
         <v>39.700000000000003</v>
       </c>
-      <c r="C151" s="89">
-        <f t="shared" ref="C151:C181" si="7">B151*0.0015625</f>
+      <c r="C151" s="85">
+        <f t="shared" ref="C151:C181" si="11">B151*0.0015625</f>
         <v>6.203125000000001E-2</v>
       </c>
-      <c r="D151" s="90" t="s">
+      <c r="D151" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E151" s="90" t="s">
+      <c r="E151" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F151" s="93" t="s">
+      <c r="F151" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G151" s="94"/>
+      <c r="G151" s="90"/>
       <c r="H151" s="46"/>
-      <c r="I151"/>
+      <c r="I151" t="str">
+        <f t="shared" ref="I151:I181" si="12">IF(ISNUMBER(MATCH(G151, $L$12:$L$18, 0)), "soft", IF(EXACT(F151, G151), "none", "hard"))</f>
+        <v>hard</v>
+      </c>
       <c r="J151"/>
       <c r="K151"/>
       <c r="L151"/>
@@ -17231,28 +17642,31 @@
       <c r="CP151"/>
     </row>
     <row r="152" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="87" t="s">
+      <c r="A152" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="B152" s="88">
+      <c r="B152" s="84">
         <v>40</v>
       </c>
-      <c r="C152" s="89">
-        <f t="shared" si="7"/>
+      <c r="C152" s="85">
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D152" s="90" t="s">
+      <c r="D152" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E152" s="90" t="s">
+      <c r="E152" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F152" s="93" t="s">
+      <c r="F152" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G152" s="94"/>
+      <c r="G152" s="90"/>
       <c r="H152" s="46"/>
-      <c r="I152"/>
+      <c r="I152" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J152"/>
       <c r="K152"/>
       <c r="L152"/>
@@ -17340,28 +17754,31 @@
       <c r="CP152"/>
     </row>
     <row r="153" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="87" t="s">
+      <c r="A153" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="B153" s="88">
+      <c r="B153" s="84">
         <v>40</v>
       </c>
-      <c r="C153" s="89">
-        <f t="shared" si="7"/>
+      <c r="C153" s="85">
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D153" s="90" t="s">
+      <c r="D153" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E153" s="90" t="s">
+      <c r="E153" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F153" s="93" t="s">
+      <c r="F153" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G153" s="94"/>
+      <c r="G153" s="90"/>
       <c r="H153" s="46"/>
-      <c r="I153"/>
+      <c r="I153" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J153"/>
       <c r="K153"/>
       <c r="L153"/>
@@ -17449,28 +17866,31 @@
       <c r="CP153"/>
     </row>
     <row r="154" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="87" t="s">
+      <c r="A154" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="B154" s="88">
+      <c r="B154" s="84">
         <v>40</v>
       </c>
-      <c r="C154" s="89">
-        <f t="shared" si="7"/>
+      <c r="C154" s="85">
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D154" s="90" t="s">
+      <c r="D154" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E154" s="90" t="s">
+      <c r="E154" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F154" s="93" t="s">
+      <c r="F154" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G154" s="94"/>
+      <c r="G154" s="90"/>
       <c r="H154" s="46"/>
-      <c r="I154"/>
+      <c r="I154" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J154"/>
       <c r="K154"/>
       <c r="L154"/>
@@ -17558,28 +17978,31 @@
       <c r="CP154"/>
     </row>
     <row r="155" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="87" t="s">
+      <c r="A155" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="B155" s="88">
+      <c r="B155" s="84">
         <v>40.4</v>
       </c>
-      <c r="C155" s="89">
-        <f t="shared" si="7"/>
+      <c r="C155" s="85">
+        <f t="shared" si="11"/>
         <v>6.3125000000000001E-2</v>
       </c>
-      <c r="D155" s="90" t="s">
+      <c r="D155" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E155" s="90" t="s">
+      <c r="E155" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F155" s="93" t="s">
+      <c r="F155" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G155" s="94"/>
+      <c r="G155" s="90"/>
       <c r="H155" s="46"/>
-      <c r="I155"/>
+      <c r="I155" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J155"/>
       <c r="K155"/>
       <c r="L155"/>
@@ -17667,28 +18090,31 @@
       <c r="CP155"/>
     </row>
     <row r="156" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="87" t="s">
+      <c r="A156" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="B156" s="88">
+      <c r="B156" s="84">
         <v>39.700000000000003</v>
       </c>
-      <c r="C156" s="89">
-        <f t="shared" si="7"/>
+      <c r="C156" s="85">
+        <f t="shared" si="11"/>
         <v>6.203125000000001E-2</v>
       </c>
-      <c r="D156" s="90" t="s">
+      <c r="D156" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E156" s="90" t="s">
+      <c r="E156" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F156" s="93" t="s">
+      <c r="F156" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G156" s="94"/>
+      <c r="G156" s="90"/>
       <c r="H156" s="46"/>
-      <c r="I156"/>
+      <c r="I156" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J156"/>
       <c r="K156"/>
       <c r="L156"/>
@@ -17776,28 +18202,31 @@
       <c r="CP156"/>
     </row>
     <row r="157" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="87" t="s">
+      <c r="A157" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="B157" s="88">
+      <c r="B157" s="84">
         <v>40</v>
       </c>
-      <c r="C157" s="89">
-        <f t="shared" si="7"/>
+      <c r="C157" s="85">
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D157" s="90" t="s">
+      <c r="D157" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E157" s="90" t="s">
+      <c r="E157" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F157" s="93" t="s">
+      <c r="F157" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G157" s="94"/>
+      <c r="G157" s="90"/>
       <c r="H157" s="46"/>
-      <c r="I157"/>
+      <c r="I157" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J157"/>
       <c r="K157"/>
       <c r="L157"/>
@@ -17885,28 +18314,31 @@
       <c r="CP157"/>
     </row>
     <row r="158" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="87" t="s">
+      <c r="A158" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="B158" s="88">
+      <c r="B158" s="84">
         <v>40</v>
       </c>
-      <c r="C158" s="89">
-        <f t="shared" si="7"/>
+      <c r="C158" s="85">
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D158" s="90" t="s">
+      <c r="D158" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E158" s="90" t="s">
+      <c r="E158" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F158" s="93" t="s">
+      <c r="F158" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G158" s="94"/>
+      <c r="G158" s="90"/>
       <c r="H158" s="46"/>
-      <c r="I158"/>
+      <c r="I158" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J158"/>
       <c r="K158"/>
       <c r="L158"/>
@@ -17994,28 +18426,31 @@
       <c r="CP158"/>
     </row>
     <row r="159" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="87" t="s">
+      <c r="A159" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="B159" s="88">
+      <c r="B159" s="84">
         <v>40</v>
       </c>
-      <c r="C159" s="89">
-        <f t="shared" si="7"/>
+      <c r="C159" s="85">
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D159" s="90" t="s">
+      <c r="D159" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E159" s="90" t="s">
+      <c r="E159" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F159" s="93" t="s">
+      <c r="F159" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G159" s="94"/>
+      <c r="G159" s="90"/>
       <c r="H159" s="46"/>
-      <c r="I159"/>
+      <c r="I159" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J159"/>
       <c r="K159"/>
       <c r="L159"/>
@@ -18103,28 +18538,31 @@
       <c r="CP159"/>
     </row>
     <row r="160" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="87" t="s">
+      <c r="A160" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="B160" s="88">
+      <c r="B160" s="84">
         <v>40</v>
       </c>
-      <c r="C160" s="89">
-        <f t="shared" si="7"/>
+      <c r="C160" s="85">
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D160" s="90" t="s">
+      <c r="D160" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E160" s="90" t="s">
+      <c r="E160" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F160" s="93" t="s">
+      <c r="F160" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G160" s="94"/>
+      <c r="G160" s="90"/>
       <c r="H160" s="46"/>
-      <c r="I160"/>
+      <c r="I160" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J160"/>
       <c r="K160"/>
       <c r="L160"/>
@@ -18212,28 +18650,31 @@
       <c r="CP160"/>
     </row>
     <row r="161" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="87" t="s">
+      <c r="A161" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="B161" s="88">
+      <c r="B161" s="84">
         <v>40</v>
       </c>
-      <c r="C161" s="89">
-        <f t="shared" si="7"/>
+      <c r="C161" s="85">
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
-      <c r="D161" s="90" t="s">
+      <c r="D161" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E161" s="90" t="s">
+      <c r="E161" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F161" s="93" t="s">
+      <c r="F161" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G161" s="94"/>
+      <c r="G161" s="90"/>
       <c r="H161" s="46"/>
-      <c r="I161"/>
+      <c r="I161" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J161"/>
       <c r="K161"/>
       <c r="L161"/>
@@ -18321,28 +18762,31 @@
       <c r="CP161"/>
     </row>
     <row r="162" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="87" t="s">
+      <c r="A162" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="B162" s="88">
+      <c r="B162" s="84">
         <v>41.5</v>
       </c>
-      <c r="C162" s="89">
-        <f t="shared" si="7"/>
+      <c r="C162" s="85">
+        <f t="shared" si="11"/>
         <v>6.4843750000000006E-2</v>
       </c>
-      <c r="D162" s="90" t="s">
+      <c r="D162" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E162" s="90" t="s">
+      <c r="E162" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F162" s="93" t="s">
+      <c r="F162" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G162" s="94"/>
+      <c r="G162" s="90"/>
       <c r="H162" s="46"/>
-      <c r="I162"/>
+      <c r="I162" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J162"/>
       <c r="K162"/>
       <c r="L162"/>
@@ -18430,28 +18874,31 @@
       <c r="CP162"/>
     </row>
     <row r="163" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="87" t="s">
+      <c r="A163" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="B163" s="88">
+      <c r="B163" s="84">
         <v>43</v>
       </c>
-      <c r="C163" s="89">
-        <f t="shared" si="7"/>
+      <c r="C163" s="85">
+        <f t="shared" si="11"/>
         <v>6.7187499999999997E-2</v>
       </c>
-      <c r="D163" s="90" t="s">
+      <c r="D163" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E163" s="90" t="s">
+      <c r="E163" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="F163" s="93" t="s">
+      <c r="F163" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="G163" s="94"/>
+      <c r="G163" s="90"/>
       <c r="H163" s="46"/>
-      <c r="I163"/>
+      <c r="I163" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J163"/>
       <c r="K163"/>
       <c r="L163"/>
@@ -18539,28 +18986,31 @@
       <c r="CP163"/>
     </row>
     <row r="164" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="87" t="s">
+      <c r="A164" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="B164" s="88">
+      <c r="B164" s="84">
         <v>124.6</v>
       </c>
-      <c r="C164" s="89">
-        <f t="shared" si="7"/>
+      <c r="C164" s="85">
+        <f t="shared" si="11"/>
         <v>0.19468750000000001</v>
       </c>
-      <c r="D164" s="90" t="s">
+      <c r="D164" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E164" s="90" t="s">
+      <c r="E164" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="F164" s="93" t="s">
+      <c r="F164" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G164" s="94"/>
+      <c r="G164" s="90"/>
       <c r="H164" s="46"/>
-      <c r="I164"/>
+      <c r="I164" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J164"/>
       <c r="K164"/>
       <c r="L164"/>
@@ -18648,28 +19098,31 @@
       <c r="CP164"/>
     </row>
     <row r="165" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="87" t="s">
+      <c r="A165" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="B165" s="88">
+      <c r="B165" s="84">
         <v>292.8</v>
       </c>
-      <c r="C165" s="89">
-        <f t="shared" si="7"/>
+      <c r="C165" s="85">
+        <f t="shared" si="11"/>
         <v>0.45750000000000002</v>
       </c>
-      <c r="D165" s="90" t="s">
+      <c r="D165" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E165" s="90" t="s">
+      <c r="E165" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="F165" s="93" t="s">
+      <c r="F165" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="G165" s="94"/>
+      <c r="G165" s="90"/>
       <c r="H165" s="46"/>
-      <c r="I165"/>
+      <c r="I165" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J165"/>
       <c r="K165"/>
       <c r="L165"/>
@@ -18757,28 +19210,31 @@
       <c r="CP165"/>
     </row>
     <row r="166" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="87" t="s">
+      <c r="A166" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="B166" s="88">
+      <c r="B166" s="84">
         <v>50.171183999999997</v>
       </c>
-      <c r="C166" s="89">
-        <f t="shared" si="7"/>
+      <c r="C166" s="85">
+        <f t="shared" si="11"/>
         <v>7.8392475000000003E-2</v>
       </c>
-      <c r="D166" s="90" t="s">
+      <c r="D166" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E166" s="90" t="s">
+      <c r="E166" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F166" s="93" t="s">
+      <c r="F166" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="G166" s="94"/>
+      <c r="G166" s="90"/>
       <c r="H166" s="46"/>
-      <c r="I166"/>
+      <c r="I166" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J166"/>
       <c r="K166"/>
       <c r="L166"/>
@@ -18866,28 +19322,31 @@
       <c r="CP166"/>
     </row>
     <row r="167" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="87" t="s">
+      <c r="A167" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="B167" s="88">
+      <c r="B167" s="84">
         <v>110.435041</v>
       </c>
-      <c r="C167" s="89">
-        <f t="shared" si="7"/>
+      <c r="C167" s="85">
+        <f t="shared" si="11"/>
         <v>0.1725547515625</v>
       </c>
-      <c r="D167" s="90" t="s">
+      <c r="D167" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E167" s="90" t="s">
+      <c r="E167" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F167" s="93" t="s">
+      <c r="F167" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="G167" s="94"/>
+      <c r="G167" s="90"/>
       <c r="H167" s="46"/>
-      <c r="I167"/>
+      <c r="I167" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J167"/>
       <c r="K167"/>
       <c r="L167"/>
@@ -18975,28 +19434,31 @@
       <c r="CP167"/>
     </row>
     <row r="168" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="87" t="s">
+      <c r="A168" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="B168" s="88">
+      <c r="B168" s="84">
         <v>41.073974</v>
       </c>
-      <c r="C168" s="89">
-        <f t="shared" si="7"/>
+      <c r="C168" s="85">
+        <f t="shared" si="11"/>
         <v>6.4178084375E-2</v>
       </c>
-      <c r="D168" s="90" t="s">
+      <c r="D168" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E168" s="90" t="s">
+      <c r="E168" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F168" s="93" t="s">
+      <c r="F168" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="G168" s="94"/>
+      <c r="G168" s="90"/>
       <c r="H168" s="46"/>
-      <c r="I168"/>
+      <c r="I168" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J168"/>
       <c r="K168"/>
       <c r="L168"/>
@@ -19084,28 +19546,31 @@
       <c r="CP168"/>
     </row>
     <row r="169" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="87" t="s">
+      <c r="A169" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="B169" s="88">
+      <c r="B169" s="84">
         <v>76.115142000000006</v>
       </c>
-      <c r="C169" s="89">
-        <f t="shared" si="7"/>
+      <c r="C169" s="85">
+        <f t="shared" si="11"/>
         <v>0.11892990937500002</v>
       </c>
-      <c r="D169" s="90" t="s">
+      <c r="D169" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E169" s="90" t="s">
+      <c r="E169" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F169" s="93" t="s">
+      <c r="F169" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G169" s="94"/>
+      <c r="G169" s="90"/>
       <c r="H169" s="46"/>
-      <c r="I169"/>
+      <c r="I169" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J169"/>
       <c r="K169"/>
       <c r="L169"/>
@@ -19193,28 +19658,31 @@
       <c r="CP169"/>
     </row>
     <row r="170" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="87" t="s">
+      <c r="A170" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="B170" s="88">
+      <c r="B170" s="84">
         <v>366.048768</v>
       </c>
-      <c r="C170" s="89">
-        <f t="shared" si="7"/>
+      <c r="C170" s="85">
+        <f t="shared" si="11"/>
         <v>0.57195119999999999</v>
       </c>
-      <c r="D170" s="90" t="s">
+      <c r="D170" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E170" s="90" t="s">
+      <c r="E170" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F170" s="93" t="s">
+      <c r="F170" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G170" s="94"/>
+      <c r="G170" s="90"/>
       <c r="H170" s="46"/>
-      <c r="I170"/>
+      <c r="I170" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J170"/>
       <c r="K170"/>
       <c r="L170"/>
@@ -19302,28 +19770,31 @@
       <c r="CP170"/>
     </row>
     <row r="171" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="87" t="s">
+      <c r="A171" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="B171" s="88">
+      <c r="B171" s="84">
         <v>138.452519</v>
       </c>
-      <c r="C171" s="89">
-        <f t="shared" si="7"/>
+      <c r="C171" s="85">
+        <f t="shared" si="11"/>
         <v>0.21633206093750001</v>
       </c>
-      <c r="D171" s="90" t="s">
+      <c r="D171" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E171" s="90" t="s">
+      <c r="E171" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F171" s="93" t="s">
+      <c r="F171" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G171" s="94"/>
+      <c r="G171" s="90"/>
       <c r="H171" s="46"/>
-      <c r="I171"/>
+      <c r="I171" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J171"/>
       <c r="K171"/>
       <c r="L171"/>
@@ -19411,28 +19882,31 @@
       <c r="CP171"/>
     </row>
     <row r="172" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="87" t="s">
+      <c r="A172" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="B172" s="88">
+      <c r="B172" s="84">
         <v>601.16265199999998</v>
       </c>
-      <c r="C172" s="89">
-        <f t="shared" si="7"/>
+      <c r="C172" s="85">
+        <f t="shared" si="11"/>
         <v>0.93931664375000001</v>
       </c>
-      <c r="D172" s="90" t="s">
+      <c r="D172" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E172" s="90" t="s">
+      <c r="E172" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F172" s="93" t="s">
+      <c r="F172" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G172" s="94"/>
+      <c r="G172" s="90"/>
       <c r="H172" s="46"/>
-      <c r="I172"/>
+      <c r="I172" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J172"/>
       <c r="K172"/>
       <c r="L172"/>
@@ -19520,28 +19994,31 @@
       <c r="CP172"/>
     </row>
     <row r="173" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="87" t="s">
+      <c r="A173" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="B173" s="88">
+      <c r="B173" s="84">
         <v>30.981491999999999</v>
       </c>
-      <c r="C173" s="89">
-        <f t="shared" si="7"/>
+      <c r="C173" s="85">
+        <f t="shared" si="11"/>
         <v>4.8408581249999999E-2</v>
       </c>
-      <c r="D173" s="90" t="s">
+      <c r="D173" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E173" s="90" t="s">
+      <c r="E173" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F173" s="93" t="s">
+      <c r="F173" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G173" s="94"/>
+      <c r="G173" s="90"/>
       <c r="H173" s="46"/>
-      <c r="I173"/>
+      <c r="I173" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J173"/>
       <c r="K173"/>
       <c r="L173"/>
@@ -19629,28 +20106,31 @@
       <c r="CP173"/>
     </row>
     <row r="174" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="87" t="s">
+      <c r="A174" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="B174" s="88">
+      <c r="B174" s="84">
         <v>115.6</v>
       </c>
-      <c r="C174" s="89">
-        <f t="shared" si="7"/>
+      <c r="C174" s="85">
+        <f t="shared" si="11"/>
         <v>0.18062500000000001</v>
       </c>
-      <c r="D174" s="90" t="s">
+      <c r="D174" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E174" s="90" t="s">
+      <c r="E174" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F174" s="93" t="s">
+      <c r="F174" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G174" s="94"/>
+      <c r="G174" s="90"/>
       <c r="H174" s="46"/>
-      <c r="I174"/>
+      <c r="I174" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J174"/>
       <c r="K174"/>
       <c r="L174"/>
@@ -19738,28 +20218,31 @@
       <c r="CP174"/>
     </row>
     <row r="175" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="87" t="s">
+      <c r="A175" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="B175" s="88">
+      <c r="B175" s="84">
         <v>116.251661</v>
       </c>
-      <c r="C175" s="89">
-        <f t="shared" si="7"/>
+      <c r="C175" s="85">
+        <f t="shared" si="11"/>
         <v>0.18164322031250002</v>
       </c>
-      <c r="D175" s="90" t="s">
+      <c r="D175" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E175" s="90" t="s">
+      <c r="E175" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F175" s="93" t="s">
+      <c r="F175" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="G175" s="94"/>
+      <c r="G175" s="90"/>
       <c r="H175" s="46"/>
-      <c r="I175"/>
+      <c r="I175" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J175"/>
       <c r="K175"/>
       <c r="L175"/>
@@ -19847,28 +20330,31 @@
       <c r="CP175"/>
     </row>
     <row r="176" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="87" t="s">
+      <c r="A176" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="B176" s="88">
+      <c r="B176" s="84">
         <v>41.566608000000002</v>
       </c>
-      <c r="C176" s="89">
-        <f t="shared" si="7"/>
+      <c r="C176" s="85">
+        <f t="shared" si="11"/>
         <v>6.4947825000000001E-2</v>
       </c>
-      <c r="D176" s="90" t="s">
+      <c r="D176" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E176" s="90" t="s">
+      <c r="E176" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F176" s="93" t="s">
+      <c r="F176" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="G176" s="94"/>
+      <c r="G176" s="90"/>
       <c r="H176" s="46"/>
-      <c r="I176"/>
+      <c r="I176" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J176"/>
       <c r="K176"/>
       <c r="L176"/>
@@ -19956,28 +20442,31 @@
       <c r="CP176"/>
     </row>
     <row r="177" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="87" t="s">
+      <c r="A177" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="B177" s="88">
+      <c r="B177" s="84">
         <v>31.267749999999999</v>
       </c>
-      <c r="C177" s="89">
-        <f t="shared" si="7"/>
+      <c r="C177" s="85">
+        <f t="shared" si="11"/>
         <v>4.8855859375000005E-2</v>
       </c>
-      <c r="D177" s="90" t="s">
+      <c r="D177" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E177" s="90" t="s">
+      <c r="E177" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F177" s="93" t="s">
+      <c r="F177" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="G177" s="94"/>
+      <c r="G177" s="90"/>
       <c r="H177" s="46"/>
-      <c r="I177"/>
+      <c r="I177" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J177"/>
       <c r="K177"/>
       <c r="L177"/>
@@ -20065,28 +20554,31 @@
       <c r="CP177"/>
     </row>
     <row r="178" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="87" t="s">
+      <c r="A178" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="B178" s="88">
+      <c r="B178" s="84">
         <v>120.05146499999999</v>
       </c>
-      <c r="C178" s="89">
-        <f t="shared" si="7"/>
+      <c r="C178" s="85">
+        <f t="shared" si="11"/>
         <v>0.18758041406250001</v>
       </c>
-      <c r="D178" s="90" t="s">
+      <c r="D178" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E178" s="90" t="s">
+      <c r="E178" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F178" s="93" t="s">
+      <c r="F178" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="G178" s="94"/>
+      <c r="G178" s="90"/>
       <c r="H178" s="46"/>
-      <c r="I178"/>
+      <c r="I178" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J178"/>
       <c r="K178"/>
       <c r="L178"/>
@@ -20174,28 +20666,31 @@
       <c r="CP178"/>
     </row>
     <row r="179" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="87" t="s">
+      <c r="A179" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="B179" s="88">
+      <c r="B179" s="84">
         <v>315.03304400000002</v>
       </c>
-      <c r="C179" s="89">
-        <f t="shared" si="7"/>
+      <c r="C179" s="85">
+        <f t="shared" si="11"/>
         <v>0.49223913125000007</v>
       </c>
-      <c r="D179" s="90" t="s">
+      <c r="D179" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E179" s="90" t="s">
+      <c r="E179" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F179" s="93" t="s">
+      <c r="F179" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G179" s="94"/>
+      <c r="G179" s="90"/>
       <c r="H179" s="46"/>
-      <c r="I179"/>
+      <c r="I179" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J179"/>
       <c r="K179"/>
       <c r="L179"/>
@@ -20283,28 +20778,31 @@
       <c r="CP179"/>
     </row>
     <row r="180" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="87" t="s">
+      <c r="A180" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="B180" s="88">
+      <c r="B180" s="84">
         <v>103.825344</v>
       </c>
-      <c r="C180" s="89">
-        <f t="shared" si="7"/>
+      <c r="C180" s="85">
+        <f t="shared" si="11"/>
         <v>0.16222710000000001</v>
       </c>
-      <c r="D180" s="90" t="s">
+      <c r="D180" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E180" s="90" t="s">
+      <c r="E180" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F180" s="93" t="s">
+      <c r="F180" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G180" s="94"/>
+      <c r="G180" s="90"/>
       <c r="H180" s="46"/>
-      <c r="I180"/>
+      <c r="I180" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J180"/>
       <c r="K180"/>
       <c r="L180"/>
@@ -20392,28 +20890,31 @@
       <c r="CP180"/>
     </row>
     <row r="181" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="92" t="s">
+      <c r="A181" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="B181" s="88">
+      <c r="B181" s="84">
         <v>55.579112000000002</v>
       </c>
-      <c r="C181" s="89">
-        <f t="shared" si="7"/>
+      <c r="C181" s="85">
+        <f t="shared" si="11"/>
         <v>8.6842362500000006E-2</v>
       </c>
-      <c r="D181" s="90" t="s">
+      <c r="D181" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E181" s="90" t="s">
+      <c r="E181" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F181" s="93" t="s">
+      <c r="F181" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G181" s="94"/>
+      <c r="G181" s="90"/>
       <c r="H181" s="46"/>
-      <c r="I181"/>
+      <c r="I181" t="str">
+        <f t="shared" si="12"/>
+        <v>hard</v>
+      </c>
       <c r="J181"/>
       <c r="K181"/>
       <c r="L181"/>
@@ -20677,176 +21178,176 @@
       <c r="CP183"/>
     </row>
     <row r="184" spans="1:94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="76"/>
-      <c r="B184" s="77"/>
-      <c r="C184" s="77"/>
-      <c r="D184" s="76"/>
-      <c r="E184" s="76"/>
-      <c r="F184" s="76"/>
-      <c r="G184" s="76"/>
+      <c r="A184" s="72"/>
+      <c r="B184" s="73"/>
+      <c r="C184" s="73"/>
+      <c r="D184" s="72"/>
+      <c r="E184" s="72"/>
+      <c r="F184" s="72"/>
+      <c r="G184" s="72"/>
       <c r="H184" s="2"/>
     </row>
     <row r="185" spans="1:94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="76"/>
-      <c r="B185" s="77"/>
-      <c r="C185" s="77"/>
-      <c r="D185" s="76"/>
-      <c r="E185" s="76"/>
-      <c r="F185" s="76"/>
-      <c r="G185" s="76"/>
+      <c r="A185" s="72"/>
+      <c r="B185" s="73"/>
+      <c r="C185" s="73"/>
+      <c r="D185" s="72"/>
+      <c r="E185" s="72"/>
+      <c r="F185" s="72"/>
+      <c r="G185" s="72"/>
       <c r="H185" s="2"/>
     </row>
     <row r="186" spans="1:94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="76"/>
-      <c r="B186" s="77"/>
-      <c r="C186" s="77"/>
-      <c r="D186" s="76"/>
-      <c r="E186" s="76"/>
-      <c r="F186" s="76"/>
-      <c r="G186" s="76"/>
+      <c r="A186" s="72"/>
+      <c r="B186" s="73"/>
+      <c r="C186" s="73"/>
+      <c r="D186" s="72"/>
+      <c r="E186" s="72"/>
+      <c r="F186" s="72"/>
+      <c r="G186" s="72"/>
       <c r="H186" s="2"/>
     </row>
     <row r="187" spans="1:94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="76"/>
-      <c r="B187" s="77"/>
-      <c r="C187" s="77"/>
-      <c r="D187" s="76"/>
-      <c r="E187" s="76"/>
-      <c r="F187" s="76"/>
-      <c r="G187" s="76"/>
+      <c r="A187" s="72"/>
+      <c r="B187" s="73"/>
+      <c r="C187" s="73"/>
+      <c r="D187" s="72"/>
+      <c r="E187" s="72"/>
+      <c r="F187" s="72"/>
+      <c r="G187" s="72"/>
       <c r="H187" s="2"/>
     </row>
     <row r="188" spans="1:94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="76"/>
-      <c r="B188" s="77"/>
-      <c r="C188" s="77"/>
-      <c r="D188" s="76"/>
-      <c r="E188" s="76"/>
-      <c r="F188" s="76"/>
-      <c r="G188" s="76"/>
+      <c r="A188" s="72"/>
+      <c r="B188" s="73"/>
+      <c r="C188" s="73"/>
+      <c r="D188" s="72"/>
+      <c r="E188" s="72"/>
+      <c r="F188" s="72"/>
+      <c r="G188" s="72"/>
       <c r="H188" s="2"/>
     </row>
     <row r="189" spans="1:94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="76"/>
-      <c r="B189" s="77"/>
-      <c r="C189" s="77"/>
-      <c r="D189" s="76"/>
-      <c r="E189" s="76"/>
-      <c r="F189" s="76"/>
-      <c r="G189" s="76"/>
+      <c r="A189" s="72"/>
+      <c r="B189" s="73"/>
+      <c r="C189" s="73"/>
+      <c r="D189" s="72"/>
+      <c r="E189" s="72"/>
+      <c r="F189" s="72"/>
+      <c r="G189" s="72"/>
       <c r="H189" s="2"/>
     </row>
     <row r="190" spans="1:94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="76"/>
-      <c r="B190" s="77"/>
-      <c r="C190" s="77"/>
-      <c r="D190" s="76"/>
-      <c r="E190" s="76"/>
-      <c r="F190" s="76"/>
-      <c r="G190" s="76"/>
+      <c r="A190" s="72"/>
+      <c r="B190" s="73"/>
+      <c r="C190" s="73"/>
+      <c r="D190" s="72"/>
+      <c r="E190" s="72"/>
+      <c r="F190" s="72"/>
+      <c r="G190" s="72"/>
       <c r="H190" s="2"/>
     </row>
     <row r="191" spans="1:94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="76"/>
-      <c r="B191" s="77"/>
-      <c r="C191" s="77"/>
-      <c r="D191" s="76"/>
-      <c r="E191" s="76"/>
-      <c r="F191" s="76"/>
-      <c r="G191" s="76"/>
+      <c r="A191" s="72"/>
+      <c r="B191" s="73"/>
+      <c r="C191" s="73"/>
+      <c r="D191" s="72"/>
+      <c r="E191" s="72"/>
+      <c r="F191" s="72"/>
+      <c r="G191" s="72"/>
       <c r="H191" s="2"/>
     </row>
     <row r="192" spans="1:94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="76"/>
-      <c r="B192" s="77"/>
-      <c r="C192" s="77"/>
-      <c r="D192" s="76"/>
-      <c r="E192" s="76"/>
-      <c r="F192" s="76"/>
-      <c r="G192" s="76"/>
+      <c r="A192" s="72"/>
+      <c r="B192" s="73"/>
+      <c r="C192" s="73"/>
+      <c r="D192" s="72"/>
+      <c r="E192" s="72"/>
+      <c r="F192" s="72"/>
+      <c r="G192" s="72"/>
       <c r="H192" s="2"/>
     </row>
     <row r="193" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="76"/>
-      <c r="B193" s="77"/>
-      <c r="C193" s="77"/>
-      <c r="D193" s="76"/>
-      <c r="E193" s="76"/>
-      <c r="F193" s="76"/>
-      <c r="G193" s="76"/>
+      <c r="A193" s="72"/>
+      <c r="B193" s="73"/>
+      <c r="C193" s="73"/>
+      <c r="D193" s="72"/>
+      <c r="E193" s="72"/>
+      <c r="F193" s="72"/>
+      <c r="G193" s="72"/>
       <c r="H193" s="2"/>
     </row>
     <row r="194" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="76"/>
-      <c r="B194" s="77"/>
-      <c r="C194" s="77"/>
-      <c r="D194" s="76"/>
-      <c r="E194" s="76"/>
-      <c r="F194" s="76"/>
-      <c r="G194" s="76"/>
+      <c r="A194" s="72"/>
+      <c r="B194" s="73"/>
+      <c r="C194" s="73"/>
+      <c r="D194" s="72"/>
+      <c r="E194" s="72"/>
+      <c r="F194" s="72"/>
+      <c r="G194" s="72"/>
       <c r="H194" s="2"/>
     </row>
     <row r="195" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="76"/>
-      <c r="B195" s="77"/>
-      <c r="C195" s="77"/>
-      <c r="D195" s="76"/>
-      <c r="E195" s="76"/>
-      <c r="F195" s="76"/>
-      <c r="G195" s="76"/>
+      <c r="A195" s="72"/>
+      <c r="B195" s="73"/>
+      <c r="C195" s="73"/>
+      <c r="D195" s="72"/>
+      <c r="E195" s="72"/>
+      <c r="F195" s="72"/>
+      <c r="G195" s="72"/>
       <c r="H195" s="2"/>
     </row>
     <row r="196" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="76"/>
-      <c r="B196" s="77"/>
-      <c r="C196" s="77"/>
-      <c r="D196" s="76"/>
-      <c r="E196" s="76"/>
-      <c r="F196" s="76"/>
-      <c r="G196" s="76"/>
+      <c r="A196" s="72"/>
+      <c r="B196" s="73"/>
+      <c r="C196" s="73"/>
+      <c r="D196" s="72"/>
+      <c r="E196" s="72"/>
+      <c r="F196" s="72"/>
+      <c r="G196" s="72"/>
       <c r="H196" s="2"/>
     </row>
     <row r="197" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="76"/>
-      <c r="B197" s="77"/>
-      <c r="C197" s="77"/>
-      <c r="D197" s="76"/>
-      <c r="E197" s="76"/>
-      <c r="F197" s="76"/>
-      <c r="G197" s="76"/>
+      <c r="A197" s="72"/>
+      <c r="B197" s="73"/>
+      <c r="C197" s="73"/>
+      <c r="D197" s="72"/>
+      <c r="E197" s="72"/>
+      <c r="F197" s="72"/>
+      <c r="G197" s="72"/>
       <c r="H197" s="2"/>
     </row>
     <row r="198" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="76"/>
-      <c r="B198" s="77"/>
-      <c r="C198" s="77"/>
-      <c r="D198" s="76"/>
-      <c r="E198" s="76"/>
-      <c r="F198" s="76"/>
-      <c r="G198" s="76"/>
+      <c r="A198" s="72"/>
+      <c r="B198" s="73"/>
+      <c r="C198" s="73"/>
+      <c r="D198" s="72"/>
+      <c r="E198" s="72"/>
+      <c r="F198" s="72"/>
+      <c r="G198" s="72"/>
       <c r="H198" s="2"/>
     </row>
     <row r="199" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="76"/>
-      <c r="B199" s="77"/>
-      <c r="C199" s="77"/>
-      <c r="D199" s="76"/>
-      <c r="E199" s="76"/>
-      <c r="F199" s="76"/>
-      <c r="G199" s="76"/>
+      <c r="A199" s="72"/>
+      <c r="B199" s="73"/>
+      <c r="C199" s="73"/>
+      <c r="D199" s="72"/>
+      <c r="E199" s="72"/>
+      <c r="F199" s="72"/>
+      <c r="G199" s="72"/>
       <c r="H199" s="2"/>
     </row>
     <row r="200" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="76"/>
-      <c r="B200" s="77"/>
-      <c r="C200" s="77"/>
-      <c r="D200" s="76"/>
-      <c r="E200" s="76"/>
-      <c r="F200" s="76"/>
-      <c r="G200" s="76"/>
+      <c r="A200" s="72"/>
+      <c r="B200" s="73"/>
+      <c r="C200" s="73"/>
+      <c r="D200" s="72"/>
+      <c r="E200" s="72"/>
+      <c r="F200" s="72"/>
+      <c r="G200" s="72"/>
       <c r="H200" s="2"/>
-      <c r="I200" s="76"/>
-      <c r="J200" s="76"/>
+      <c r="I200" s="72"/>
+      <c r="J200" s="72"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -20856,6 +21357,18 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;P&amp;R&amp;D</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Generic HV &amp; WD'!$A$4:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>L12:L18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -20905,14 +21418,14 @@
       <c r="I1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
@@ -20947,12 +21460,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -20984,12 +21497,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
     </row>
     <row r="4" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -21020,12 +21533,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
     </row>
     <row r="5" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -21056,12 +21569,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
     </row>
     <row r="6" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -21092,12 +21605,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
     </row>
     <row r="7" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -21128,12 +21641,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
     </row>
     <row r="8" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -21164,12 +21677,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
     </row>
     <row r="9" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -21200,12 +21713,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
     </row>
     <row r="10" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -21236,12 +21749,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
     </row>
     <row r="11" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -21272,12 +21785,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
     </row>
     <row r="12" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -21308,12 +21821,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
     </row>
     <row r="13" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -25966,16 +26479,16 @@
       <c r="I162" s="14">
         <v>1.5475000000000001</v>
       </c>
-      <c r="J162" s="97" t="s">
+      <c r="J162" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="K162" s="98"/>
-      <c r="L162" s="98"/>
-      <c r="M162" s="98"/>
-      <c r="N162" s="98"/>
-      <c r="O162" s="98"/>
-      <c r="P162" s="98"/>
-      <c r="Q162" s="98"/>
+      <c r="K162" s="94"/>
+      <c r="L162" s="94"/>
+      <c r="M162" s="94"/>
+      <c r="N162" s="94"/>
+      <c r="O162" s="94"/>
+      <c r="P162" s="94"/>
+      <c r="Q162" s="94"/>
       <c r="W162" s="1"/>
     </row>
     <row r="163" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26006,14 +26519,14 @@
       <c r="I163" s="14">
         <v>0.98</v>
       </c>
-      <c r="J163" s="98"/>
-      <c r="K163" s="98"/>
-      <c r="L163" s="98"/>
-      <c r="M163" s="98"/>
-      <c r="N163" s="98"/>
-      <c r="O163" s="98"/>
-      <c r="P163" s="98"/>
-      <c r="Q163" s="98"/>
+      <c r="J163" s="94"/>
+      <c r="K163" s="94"/>
+      <c r="L163" s="94"/>
+      <c r="M163" s="94"/>
+      <c r="N163" s="94"/>
+      <c r="O163" s="94"/>
+      <c r="P163" s="94"/>
+      <c r="Q163" s="94"/>
       <c r="W163" s="1"/>
     </row>
     <row r="164" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26044,14 +26557,14 @@
       <c r="I164" s="14">
         <v>0.98</v>
       </c>
-      <c r="J164" s="98"/>
-      <c r="K164" s="98"/>
-      <c r="L164" s="98"/>
-      <c r="M164" s="98"/>
-      <c r="N164" s="98"/>
-      <c r="O164" s="98"/>
-      <c r="P164" s="98"/>
-      <c r="Q164" s="98"/>
+      <c r="J164" s="94"/>
+      <c r="K164" s="94"/>
+      <c r="L164" s="94"/>
+      <c r="M164" s="94"/>
+      <c r="N164" s="94"/>
+      <c r="O164" s="94"/>
+      <c r="P164" s="94"/>
+      <c r="Q164" s="94"/>
       <c r="W164" s="1"/>
     </row>
     <row r="165" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26082,14 +26595,14 @@
       <c r="I165" s="14">
         <v>0.98</v>
       </c>
-      <c r="J165" s="98"/>
-      <c r="K165" s="98"/>
-      <c r="L165" s="98"/>
-      <c r="M165" s="98"/>
-      <c r="N165" s="98"/>
-      <c r="O165" s="98"/>
-      <c r="P165" s="98"/>
-      <c r="Q165" s="98"/>
+      <c r="J165" s="94"/>
+      <c r="K165" s="94"/>
+      <c r="L165" s="94"/>
+      <c r="M165" s="94"/>
+      <c r="N165" s="94"/>
+      <c r="O165" s="94"/>
+      <c r="P165" s="94"/>
+      <c r="Q165" s="94"/>
       <c r="W165" s="1"/>
     </row>
     <row r="166" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26120,14 +26633,14 @@
       <c r="I166" s="14">
         <v>0</v>
       </c>
-      <c r="J166" s="98"/>
-      <c r="K166" s="98"/>
-      <c r="L166" s="98"/>
-      <c r="M166" s="98"/>
-      <c r="N166" s="98"/>
-      <c r="O166" s="98"/>
-      <c r="P166" s="98"/>
-      <c r="Q166" s="98"/>
+      <c r="J166" s="94"/>
+      <c r="K166" s="94"/>
+      <c r="L166" s="94"/>
+      <c r="M166" s="94"/>
+      <c r="N166" s="94"/>
+      <c r="O166" s="94"/>
+      <c r="P166" s="94"/>
+      <c r="Q166" s="94"/>
       <c r="W166" s="1"/>
     </row>
     <row r="167" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26158,14 +26671,14 @@
       <c r="I167" s="14">
         <v>1.07</v>
       </c>
-      <c r="J167" s="98"/>
-      <c r="K167" s="98"/>
-      <c r="L167" s="98"/>
-      <c r="M167" s="98"/>
-      <c r="N167" s="98"/>
-      <c r="O167" s="98"/>
-      <c r="P167" s="98"/>
-      <c r="Q167" s="98"/>
+      <c r="J167" s="94"/>
+      <c r="K167" s="94"/>
+      <c r="L167" s="94"/>
+      <c r="M167" s="94"/>
+      <c r="N167" s="94"/>
+      <c r="O167" s="94"/>
+      <c r="P167" s="94"/>
+      <c r="Q167" s="94"/>
       <c r="W167" s="1"/>
     </row>
     <row r="168" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26196,14 +26709,14 @@
       <c r="I168" s="14">
         <v>0.98</v>
       </c>
-      <c r="J168" s="98"/>
-      <c r="K168" s="98"/>
-      <c r="L168" s="98"/>
-      <c r="M168" s="98"/>
-      <c r="N168" s="98"/>
-      <c r="O168" s="98"/>
-      <c r="P168" s="98"/>
-      <c r="Q168" s="98"/>
+      <c r="J168" s="94"/>
+      <c r="K168" s="94"/>
+      <c r="L168" s="94"/>
+      <c r="M168" s="94"/>
+      <c r="N168" s="94"/>
+      <c r="O168" s="94"/>
+      <c r="P168" s="94"/>
+      <c r="Q168" s="94"/>
       <c r="W168" s="1"/>
     </row>
     <row r="169" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26234,14 +26747,14 @@
       <c r="I169" s="14">
         <v>3.9275000000000002</v>
       </c>
-      <c r="J169" s="98"/>
-      <c r="K169" s="98"/>
-      <c r="L169" s="98"/>
-      <c r="M169" s="98"/>
-      <c r="N169" s="98"/>
-      <c r="O169" s="98"/>
-      <c r="P169" s="98"/>
-      <c r="Q169" s="98"/>
+      <c r="J169" s="94"/>
+      <c r="K169" s="94"/>
+      <c r="L169" s="94"/>
+      <c r="M169" s="94"/>
+      <c r="N169" s="94"/>
+      <c r="O169" s="94"/>
+      <c r="P169" s="94"/>
+      <c r="Q169" s="94"/>
       <c r="W169" s="1"/>
     </row>
     <row r="170" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26272,14 +26785,14 @@
       <c r="I170" s="14">
         <v>3.9275000000000002</v>
       </c>
-      <c r="J170" s="98"/>
-      <c r="K170" s="98"/>
-      <c r="L170" s="98"/>
-      <c r="M170" s="98"/>
-      <c r="N170" s="98"/>
-      <c r="O170" s="98"/>
-      <c r="P170" s="98"/>
-      <c r="Q170" s="98"/>
+      <c r="J170" s="94"/>
+      <c r="K170" s="94"/>
+      <c r="L170" s="94"/>
+      <c r="M170" s="94"/>
+      <c r="N170" s="94"/>
+      <c r="O170" s="94"/>
+      <c r="P170" s="94"/>
+      <c r="Q170" s="94"/>
       <c r="W170" s="1"/>
     </row>
     <row r="171" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26310,14 +26823,14 @@
       <c r="I171" s="14">
         <v>0.98</v>
       </c>
-      <c r="J171" s="98"/>
-      <c r="K171" s="98"/>
-      <c r="L171" s="98"/>
-      <c r="M171" s="98"/>
-      <c r="N171" s="98"/>
-      <c r="O171" s="98"/>
-      <c r="P171" s="98"/>
-      <c r="Q171" s="98"/>
+      <c r="J171" s="94"/>
+      <c r="K171" s="94"/>
+      <c r="L171" s="94"/>
+      <c r="M171" s="94"/>
+      <c r="N171" s="94"/>
+      <c r="O171" s="94"/>
+      <c r="P171" s="94"/>
+      <c r="Q171" s="94"/>
       <c r="W171" s="1"/>
     </row>
     <row r="172" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26348,14 +26861,14 @@
       <c r="I172" s="14">
         <v>4.0674999999999999</v>
       </c>
-      <c r="J172" s="98"/>
-      <c r="K172" s="98"/>
-      <c r="L172" s="98"/>
-      <c r="M172" s="98"/>
-      <c r="N172" s="98"/>
-      <c r="O172" s="98"/>
-      <c r="P172" s="98"/>
-      <c r="Q172" s="98"/>
+      <c r="J172" s="94"/>
+      <c r="K172" s="94"/>
+      <c r="L172" s="94"/>
+      <c r="M172" s="94"/>
+      <c r="N172" s="94"/>
+      <c r="O172" s="94"/>
+      <c r="P172" s="94"/>
+      <c r="Q172" s="94"/>
       <c r="W172" s="1"/>
     </row>
     <row r="173" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26386,14 +26899,14 @@
       <c r="I173" s="14">
         <v>4.0674999999999999</v>
       </c>
-      <c r="J173" s="98"/>
-      <c r="K173" s="98"/>
-      <c r="L173" s="98"/>
-      <c r="M173" s="98"/>
-      <c r="N173" s="98"/>
-      <c r="O173" s="98"/>
-      <c r="P173" s="98"/>
-      <c r="Q173" s="98"/>
+      <c r="J173" s="94"/>
+      <c r="K173" s="94"/>
+      <c r="L173" s="94"/>
+      <c r="M173" s="94"/>
+      <c r="N173" s="94"/>
+      <c r="O173" s="94"/>
+      <c r="P173" s="94"/>
+      <c r="Q173" s="94"/>
       <c r="W173" s="1"/>
     </row>
     <row r="174" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26424,14 +26937,14 @@
       <c r="I174" s="14">
         <v>0.98</v>
       </c>
-      <c r="J174" s="98"/>
-      <c r="K174" s="98"/>
-      <c r="L174" s="98"/>
-      <c r="M174" s="98"/>
-      <c r="N174" s="98"/>
-      <c r="O174" s="98"/>
-      <c r="P174" s="98"/>
-      <c r="Q174" s="98"/>
+      <c r="J174" s="94"/>
+      <c r="K174" s="94"/>
+      <c r="L174" s="94"/>
+      <c r="M174" s="94"/>
+      <c r="N174" s="94"/>
+      <c r="O174" s="94"/>
+      <c r="P174" s="94"/>
+      <c r="Q174" s="94"/>
       <c r="W174" s="1"/>
     </row>
     <row r="175" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26462,14 +26975,14 @@
       <c r="I175" s="14">
         <v>0.98</v>
       </c>
-      <c r="J175" s="98"/>
-      <c r="K175" s="98"/>
-      <c r="L175" s="98"/>
-      <c r="M175" s="98"/>
-      <c r="N175" s="98"/>
-      <c r="O175" s="98"/>
-      <c r="P175" s="98"/>
-      <c r="Q175" s="98"/>
+      <c r="J175" s="94"/>
+      <c r="K175" s="94"/>
+      <c r="L175" s="94"/>
+      <c r="M175" s="94"/>
+      <c r="N175" s="94"/>
+      <c r="O175" s="94"/>
+      <c r="P175" s="94"/>
+      <c r="Q175" s="94"/>
       <c r="W175" s="1"/>
     </row>
     <row r="176" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -26500,14 +27013,14 @@
       <c r="I176" s="14">
         <v>4.3599999999999994</v>
       </c>
-      <c r="J176" s="98"/>
-      <c r="K176" s="98"/>
-      <c r="L176" s="98"/>
-      <c r="M176" s="98"/>
-      <c r="N176" s="98"/>
-      <c r="O176" s="98"/>
-      <c r="P176" s="98"/>
-      <c r="Q176" s="98"/>
+      <c r="J176" s="94"/>
+      <c r="K176" s="94"/>
+      <c r="L176" s="94"/>
+      <c r="M176" s="94"/>
+      <c r="N176" s="94"/>
+      <c r="O176" s="94"/>
+      <c r="P176" s="94"/>
+      <c r="Q176" s="94"/>
       <c r="W176" s="1"/>
     </row>
     <row r="177" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -28994,7 +29507,7 @@
   </sheetPr>
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
@@ -29014,26 +29527,26 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:27" s="17" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="28"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="R2" s="101" t="s">
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="R2" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="S2" s="96"/>
+      <c r="S2" s="92"/>
     </row>
     <row r="3" spans="1:27" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -31182,8 +31695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI171"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="R4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM20" sqref="AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32378,7 +32891,7 @@
         <v>9</v>
       </c>
       <c r="AI18" s="53" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:35" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32482,7 +32995,7 @@
         <v>10</v>
       </c>
       <c r="AI19" s="53" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:35" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32586,7 +33099,7 @@
         <v>11</v>
       </c>
       <c r="AI20" s="53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32690,7 +33203,7 @@
         <v>12</v>
       </c>
       <c r="AI21" s="53" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:35" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32794,7 +33307,7 @@
         <v>13</v>
       </c>
       <c r="AI22" s="53" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:35" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32898,7 +33411,7 @@
         <v>14</v>
       </c>
       <c r="AI23" s="53" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:35" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33002,7 +33515,7 @@
         <v>15</v>
       </c>
       <c r="AI24" s="53" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:35" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33106,7 +33619,7 @@
         <v>16</v>
       </c>
       <c r="AI25" s="53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33210,7 +33723,7 @@
         <v>17</v>
       </c>
       <c r="AI26" s="53" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:35" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33314,7 +33827,7 @@
         <v>18</v>
       </c>
       <c r="AI27" s="53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:35" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33418,7 +33931,7 @@
         <v>19</v>
       </c>
       <c r="AI28" s="53" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:35" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33522,7 +34035,7 @@
         <v>20</v>
       </c>
       <c r="AI29" s="53" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:35" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33624,9 +34137,6 @@
       </c>
       <c r="AH30" s="54">
         <v>21</v>
-      </c>
-      <c r="AI30" s="53" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:35" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -47278,171 +47788,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="W1" s="64" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="W2" s="64" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="62">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4" s="62">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="62">
-        <v>0.9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" s="62">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>284</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" s="62">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G9" s="46"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G10" s="46"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G12" s="46"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G13" s="46"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="46"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="46"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="46"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="46"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="46"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Generic HV &amp; WD'!$A$4:$A$34</xm:f>
-          </x14:formula1>
-          <xm:sqref>G4:G24</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/MP Workbook LAUNCHPAD.xlsx
+++ b/MP Workbook LAUNCHPAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="360" windowWidth="14430" windowHeight="11355"/>
+    <workbookView xWindow="1995" yWindow="360" windowWidth="14430" windowHeight="11355" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MP_new" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="312">
   <si>
     <t>Scenario</t>
   </si>
@@ -949,6 +949,24 @@
   <si>
     <t>Waterless DCM Preference List</t>
   </si>
+  <si>
+    <t>More durable, long-term control measure. Supply limited.</t>
+  </si>
+  <si>
+    <t>Lowest capital cost, highest maintenance cost.</t>
+  </si>
+  <si>
+    <t>Limited by soil capacity (not viable close to brine pool).</t>
+  </si>
+  <si>
+    <t>Mainteance issues, lakewide area limitation.</t>
+  </si>
+  <si>
+    <t>Already accounted for as separate Tillage and Brine DCMs.</t>
+  </si>
+  <si>
+    <t>T1A-2 to stay as BWF</t>
+  </si>
 </sst>
 </file>
 
@@ -1523,6 +1541,54 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="39" fontId="4" fillId="11" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1544,54 +1610,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="39" fontId="4" fillId="11" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -2031,8 +2049,8 @@
   </sheetPr>
   <dimension ref="A1:CP200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,10 +2134,10 @@
       <c r="I2" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="100" t="s">
         <v>284</v>
       </c>
-      <c r="L2" s="97"/>
+      <c r="L2" s="101"/>
       <c r="M2" s="66"/>
       <c r="AI2" s="63"/>
       <c r="AJ2" s="62"/>
@@ -2140,27 +2158,27 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="88">
+      <c r="B3" s="81">
         <f t="shared" ref="B3:G3" si="0">P22</f>
         <v>0</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D3" s="88">
+      <c r="D3" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="88">
+      <c r="E3" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="88">
+      <c r="F3" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" s="88">
+      <c r="G3" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2170,10 +2188,10 @@
       <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="93" t="s">
+      <c r="K3" s="86" t="s">
         <v>287</v>
       </c>
-      <c r="L3" s="94">
+      <c r="L3" s="87">
         <v>3</v>
       </c>
       <c r="M3" s="62" t="s">
@@ -2198,27 +2216,27 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="81">
         <f t="shared" ref="B4:G4" si="1">AR22</f>
         <v>0</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D4" s="88">
+      <c r="D4" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E4" s="88">
+      <c r="E4" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4" s="88">
+      <c r="F4" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4" s="88">
+      <c r="G4" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2228,10 +2246,10 @@
       <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="86" t="s">
         <v>288</v>
       </c>
-      <c r="L4" s="94">
+      <c r="L4" s="87">
         <v>3</v>
       </c>
       <c r="M4" s="62" t="s">
@@ -2256,42 +2274,42 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="88">
+      <c r="B5" s="81">
         <f t="shared" ref="B5:G9" si="2">SUMIF($H$22:$H$181, "&gt;"&amp;$A5, AR$24:AR$183) + SUMIF($H$22:$H$181, "&lt;="&amp;$A5, BF$24:BF$183)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="88">
+      <c r="C5" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E5" s="88">
+      <c r="E5" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F5" s="88">
+      <c r="F5" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G5" s="88">
+      <c r="G5" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H5" s="87">
+      <c r="H5" s="80">
         <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A5,$I$22:$I$181, "hard")</f>
         <v>0</v>
       </c>
-      <c r="I5" s="87">
+      <c r="I5" s="80">
         <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A5,$I$22:$I$181, "soft")</f>
         <v>0</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="K5" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="L5" s="94">
+      <c r="L5" s="87">
         <v>0.9</v>
       </c>
       <c r="M5" s="62" t="s">
@@ -2316,42 +2334,42 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B6" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="88">
+      <c r="F6" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="87">
+      <c r="H6" s="80">
         <f t="shared" ref="H6:H9" si="3">SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A6,$I$22:$I$181, "hard")</f>
         <v>0</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="80">
         <f t="shared" ref="I6:I8" si="4">SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A6,$I$22:$I$181, "soft")</f>
         <v>0</v>
       </c>
-      <c r="K6" s="93" t="s">
+      <c r="K6" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="L6" s="94">
+      <c r="L6" s="87">
         <v>100</v>
       </c>
       <c r="M6" s="62" t="s">
@@ -2376,42 +2394,42 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B7" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E7" s="88">
+      <c r="E7" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I7" s="87">
+      <c r="I7" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="L7" s="94">
+      <c r="L7" s="87">
         <v>100</v>
       </c>
       <c r="M7" s="62" t="s">
@@ -2436,35 +2454,35 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D8" s="88">
+      <c r="D8" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="88">
+      <c r="F8" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I8" s="87">
+      <c r="I8" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2487,35 +2505,35 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="88">
+      <c r="F9" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="87">
+      <c r="H9" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I9" s="87">
+      <c r="I9" s="80">
         <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A9,$I$22:$I$181, "soft")</f>
         <v>0</v>
       </c>
@@ -2587,11 +2605,13 @@
       <c r="K11" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="M11" s="106" t="s">
+      <c r="M11" s="98" t="s">
         <v>305</v>
       </c>
-      <c r="N11" s="107"/>
-      <c r="O11" s="66"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="66" t="s">
+        <v>225</v>
+      </c>
       <c r="AI11" s="63"/>
       <c r="AJ11" s="62"/>
       <c r="AW11" s="63"/>
@@ -2611,44 +2631,46 @@
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="92" t="e">
+      <c r="B12" s="85" t="e">
         <f t="shared" ref="B12:G18" si="5">B3/B$3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C12" s="92" t="e">
+      <c r="C12" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D12" s="92" t="e">
+      <c r="D12" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="92" t="e">
+      <c r="E12" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="92" t="e">
+      <c r="F12" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="92" t="e">
+      <c r="G12" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="82">
         <f t="shared" ref="H12:H18" si="6">G$3-G3</f>
         <v>0</v>
       </c>
-      <c r="K12" s="95" t="s">
+      <c r="K12" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="108" t="s">
-        <v>58</v>
+      <c r="M12" s="97" t="s">
+        <v>38</v>
       </c>
       <c r="N12" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="O12"/>
+      <c r="O12" t="s">
+        <v>306</v>
+      </c>
       <c r="AI12" s="63"/>
       <c r="AJ12" s="62"/>
       <c r="AW12" s="63"/>
@@ -2668,44 +2690,46 @@
       <c r="A13" s="3">
         <v>0</v>
       </c>
-      <c r="B13" s="92" t="e">
+      <c r="B13" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C13" s="92" t="e">
+      <c r="C13" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D13" s="92" t="e">
+      <c r="D13" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="92" t="e">
+      <c r="E13" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="92" t="e">
+      <c r="F13" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="92" t="e">
+      <c r="G13" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="89">
+      <c r="H13" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K13" s="95" t="s">
+      <c r="K13" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="108" t="s">
-        <v>26</v>
+      <c r="M13" s="97" t="s">
+        <v>34</v>
       </c>
       <c r="N13" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="O13"/>
+      <c r="O13" t="s">
+        <v>307</v>
+      </c>
       <c r="AI13" s="63"/>
       <c r="AJ13" s="62"/>
       <c r="AW13" s="63"/>
@@ -2725,44 +2749,46 @@
       <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="92" t="e">
+      <c r="B14" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C14" s="92" t="e">
+      <c r="C14" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D14" s="92" t="e">
+      <c r="D14" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="92" t="e">
+      <c r="E14" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="92" t="e">
+      <c r="F14" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="92" t="e">
+      <c r="G14" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="89">
+      <c r="H14" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K14" s="95" t="s">
+      <c r="K14" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="108" t="s">
-        <v>34</v>
+      <c r="M14" s="97" t="s">
+        <v>26</v>
       </c>
       <c r="N14" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="O14"/>
+      <c r="O14" t="s">
+        <v>308</v>
+      </c>
       <c r="AI14" s="63"/>
       <c r="AJ14" s="62"/>
       <c r="AW14" s="63"/>
@@ -2782,44 +2808,46 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="92" t="e">
+      <c r="B15" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C15" s="92" t="e">
+      <c r="C15" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D15" s="92" t="e">
+      <c r="D15" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="92" t="e">
+      <c r="E15" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="92" t="e">
+      <c r="F15" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="92" t="e">
+      <c r="G15" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="89">
+      <c r="H15" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K15" s="95" t="s">
+      <c r="K15" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="108" t="s">
-        <v>38</v>
+      <c r="M15" s="97" t="s">
+        <v>63</v>
       </c>
       <c r="N15" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="O15"/>
+      <c r="O15" t="s">
+        <v>309</v>
+      </c>
       <c r="AI15" s="63"/>
       <c r="AJ15" s="62"/>
       <c r="AW15" s="63"/>
@@ -2839,44 +2867,46 @@
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="92" t="e">
+      <c r="B16" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C16" s="92" t="e">
+      <c r="C16" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D16" s="92" t="e">
+      <c r="D16" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E16" s="92" t="e">
+      <c r="E16" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="92" t="e">
+      <c r="F16" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="92" t="e">
+      <c r="G16" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="89">
+      <c r="H16" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K16" s="95" t="s">
+      <c r="K16" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="108" t="s">
-        <v>63</v>
+      <c r="M16" s="97" t="s">
+        <v>58</v>
       </c>
       <c r="N16" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="O16"/>
+      <c r="O16" t="s">
+        <v>310</v>
+      </c>
       <c r="AI16" s="63"/>
       <c r="AJ16" s="62"/>
       <c r="AW16" s="63"/>
@@ -2896,35 +2926,35 @@
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="92" t="e">
+      <c r="B17" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C17" s="92" t="e">
+      <c r="C17" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D17" s="92" t="e">
+      <c r="D17" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E17" s="92" t="e">
+      <c r="E17" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="92" t="e">
+      <c r="F17" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="92" t="e">
+      <c r="G17" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="89">
+      <c r="H17" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K17" s="95" t="s">
+      <c r="K17" s="88" t="s">
         <v>43</v>
       </c>
       <c r="AI17" s="63"/>
@@ -2946,35 +2976,35 @@
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="92" t="e">
+      <c r="B18" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C18" s="92" t="e">
+      <c r="C18" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="92" t="e">
+      <c r="D18" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="92" t="e">
+      <c r="E18" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="92" t="e">
+      <c r="F18" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="92" t="e">
+      <c r="G18" s="85" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="89">
+      <c r="H18" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K18" s="95" t="s">
+      <c r="K18" s="88" t="s">
         <v>43</v>
       </c>
       <c r="AI18" s="63"/>
@@ -3042,31 +3072,31 @@
       <c r="CP20" s="62"/>
     </row>
     <row r="21" spans="1:94" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="100" t="s">
+      <c r="F21" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="100" t="s">
+      <c r="G21" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="101" t="s">
+      <c r="H21" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="102" t="s">
+      <c r="I21" s="93" t="s">
         <v>296</v>
       </c>
       <c r="J21"/>
@@ -3149,18 +3179,18 @@
       <c r="F22" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G22, $K$12:$K$18, 0)), "soft", IF(EXACT(F22, G22), "none", "hard"))</f>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="79" t="str">
+        <f t="shared" ref="I22:I53" si="7">IF(ISNUMBER(MATCH(G22, $K$12:$K$18, 0)), "soft", IF(EXACT(F22, G22), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J22"/>
-      <c r="K22" s="103" t="s">
+      <c r="K22" s="94" t="s">
         <v>299</v>
       </c>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
@@ -3251,7 +3281,7 @@
         <v>197</v>
       </c>
       <c r="C23" s="73">
-        <f t="shared" ref="C23:C86" si="7">B23*0.0015625</f>
+        <f t="shared" ref="C23:C86" si="8">B23*0.0015625</f>
         <v>0.30781250000000004</v>
       </c>
       <c r="D23" s="74" t="s">
@@ -3263,18 +3293,18 @@
       <c r="F23" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G23, $K$12:$K$18, 0)), "soft", IF(EXACT(F23, G23), "none", "hard"))</f>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J23"/>
-      <c r="K23" s="104" t="s">
+      <c r="K23" s="95" t="s">
         <v>297</v>
       </c>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
@@ -3365,7 +3395,7 @@
         <v>87.9</v>
       </c>
       <c r="C24" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13734375000000001</v>
       </c>
       <c r="D24" s="74" t="s">
@@ -3377,18 +3407,18 @@
       <c r="F24" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G24, $K$12:$K$18, 0)), "soft", IF(EXACT(F24, G24), "none", "hard"))</f>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J24"/>
-      <c r="K24" s="105" t="s">
+      <c r="K24" s="96" t="s">
         <v>298</v>
       </c>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
@@ -3479,7 +3509,7 @@
         <v>1291.7</v>
       </c>
       <c r="C25" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0182812500000002</v>
       </c>
       <c r="D25" s="74" t="s">
@@ -3491,10 +3521,10 @@
       <c r="F25" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G25, $K$12:$K$18, 0)), "soft", IF(EXACT(F25, G25), "none", "hard"))</f>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J25"/>
@@ -3591,7 +3621,7 @@
         <v>447.9</v>
       </c>
       <c r="C26" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.69984374999999999</v>
       </c>
       <c r="D26" s="74" t="s">
@@ -3603,10 +3633,10 @@
       <c r="F26" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G26, $K$12:$K$18, 0)), "soft", IF(EXACT(F26, G26), "none", "hard"))</f>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J26"/>
@@ -3703,7 +3733,7 @@
         <v>201</v>
       </c>
       <c r="C27" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.31406250000000002</v>
       </c>
       <c r="D27" s="74" t="s">
@@ -3715,10 +3745,10 @@
       <c r="F27" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="90"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G27, $K$12:$K$18, 0)), "soft", IF(EXACT(F27, G27), "none", "hard"))</f>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J27"/>
@@ -3815,7 +3845,7 @@
         <v>698</v>
       </c>
       <c r="C28" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.090625</v>
       </c>
       <c r="D28" s="74" t="s">
@@ -3827,10 +3857,10 @@
       <c r="F28" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="90"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G28, $K$12:$K$18, 0)), "soft", IF(EXACT(F28, G28), "none", "hard"))</f>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J28"/>
@@ -3927,7 +3957,7 @@
         <v>177.8</v>
       </c>
       <c r="C29" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27781250000000002</v>
       </c>
       <c r="D29" s="74" t="s">
@@ -3939,10 +3969,10 @@
       <c r="F29" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="90"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G29, $K$12:$K$18, 0)), "soft", IF(EXACT(F29, G29), "none", "hard"))</f>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J29"/>
@@ -4039,7 +4069,7 @@
         <v>102.8</v>
       </c>
       <c r="C30" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.16062500000000002</v>
       </c>
       <c r="D30" s="74" t="s">
@@ -4051,10 +4081,10 @@
       <c r="F30" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="90"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G30, $K$12:$K$18, 0)), "soft", IF(EXACT(F30, G30), "none", "hard"))</f>
+      <c r="G30" s="83"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J30"/>
@@ -4151,7 +4181,7 @@
         <v>431</v>
       </c>
       <c r="C31" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.67343750000000002</v>
       </c>
       <c r="D31" s="74" t="s">
@@ -4163,10 +4193,10 @@
       <c r="F31" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="90"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G31, $K$12:$K$18, 0)), "soft", IF(EXACT(F31, G31), "none", "hard"))</f>
+      <c r="G31" s="83"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J31"/>
@@ -4263,7 +4293,7 @@
         <v>152.4</v>
       </c>
       <c r="C32" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.23812500000000003</v>
       </c>
       <c r="D32" s="74" t="s">
@@ -4275,10 +4305,10 @@
       <c r="F32" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="90"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G32, $K$12:$K$18, 0)), "soft", IF(EXACT(F32, G32), "none", "hard"))</f>
+      <c r="G32" s="83"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J32"/>
@@ -4375,7 +4405,7 @@
         <v>215.7</v>
       </c>
       <c r="C33" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33703125</v>
       </c>
       <c r="D33" s="74" t="s">
@@ -4387,10 +4417,10 @@
       <c r="F33" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="90"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G33, $K$12:$K$18, 0)), "soft", IF(EXACT(F33, G33), "none", "hard"))</f>
+      <c r="G33" s="83"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J33"/>
@@ -4487,7 +4517,7 @@
         <v>425.9</v>
       </c>
       <c r="C34" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66546875000000005</v>
       </c>
       <c r="D34" s="74" t="s">
@@ -4499,10 +4529,10 @@
       <c r="F34" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="90"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G34, $K$12:$K$18, 0)), "soft", IF(EXACT(F34, G34), "none", "hard"))</f>
+      <c r="G34" s="83"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J34"/>
@@ -4599,7 +4629,7 @@
         <v>319.2</v>
       </c>
       <c r="C35" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.49875000000000003</v>
       </c>
       <c r="D35" s="74" t="s">
@@ -4611,10 +4641,10 @@
       <c r="F35" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="90"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G35, $K$12:$K$18, 0)), "soft", IF(EXACT(F35, G35), "none", "hard"))</f>
+      <c r="G35" s="83"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J35"/>
@@ -4711,7 +4741,7 @@
         <v>79.7</v>
       </c>
       <c r="C36" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12453125000000001</v>
       </c>
       <c r="D36" s="74" t="s">
@@ -4723,10 +4753,10 @@
       <c r="F36" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="90"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G36, $K$12:$K$18, 0)), "soft", IF(EXACT(F36, G36), "none", "hard"))</f>
+      <c r="G36" s="83"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J36"/>
@@ -4823,7 +4853,7 @@
         <v>251.6</v>
       </c>
       <c r="C37" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.393125</v>
       </c>
       <c r="D37" s="74" t="s">
@@ -4835,10 +4865,10 @@
       <c r="F37" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="90"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G37, $K$12:$K$18, 0)), "soft", IF(EXACT(F37, G37), "none", "hard"))</f>
+      <c r="G37" s="83"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J37"/>
@@ -4935,7 +4965,7 @@
         <v>136.9</v>
       </c>
       <c r="C38" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.21390625000000002</v>
       </c>
       <c r="D38" s="74" t="s">
@@ -4947,10 +4977,10 @@
       <c r="F38" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="90"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G38, $K$12:$K$18, 0)), "soft", IF(EXACT(F38, G38), "none", "hard"))</f>
+      <c r="G38" s="83"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J38"/>
@@ -5047,7 +5077,7 @@
         <v>436.6</v>
       </c>
       <c r="C39" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.68218750000000006</v>
       </c>
       <c r="D39" s="74" t="s">
@@ -5059,10 +5089,10 @@
       <c r="F39" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="90"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G39, $K$12:$K$18, 0)), "soft", IF(EXACT(F39, G39), "none", "hard"))</f>
+      <c r="G39" s="83"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J39"/>
@@ -5159,7 +5189,7 @@
         <v>1082.5</v>
       </c>
       <c r="C40" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.69140625</v>
       </c>
       <c r="D40" s="74" t="s">
@@ -5171,10 +5201,10 @@
       <c r="F40" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G40, $K$12:$K$18, 0)), "soft", IF(EXACT(F40, G40), "none", "hard"))</f>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J40"/>
@@ -5271,7 +5301,7 @@
         <v>523.9</v>
       </c>
       <c r="C41" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.81859375000000001</v>
       </c>
       <c r="D41" s="74" t="s">
@@ -5283,10 +5313,10 @@
       <c r="F41" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G41, $K$12:$K$18, 0)), "soft", IF(EXACT(F41, G41), "none", "hard"))</f>
+      <c r="G41" s="83"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J41"/>
@@ -5383,7 +5413,7 @@
         <v>600.79999999999995</v>
       </c>
       <c r="C42" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93874999999999997</v>
       </c>
       <c r="D42" s="74" t="s">
@@ -5395,10 +5425,10 @@
       <c r="F42" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="90"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G42, $K$12:$K$18, 0)), "soft", IF(EXACT(F42, G42), "none", "hard"))</f>
+      <c r="G42" s="83"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J42"/>
@@ -5495,7 +5525,7 @@
         <v>341.5</v>
       </c>
       <c r="C43" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.53359374999999998</v>
       </c>
       <c r="D43" s="74" t="s">
@@ -5507,10 +5537,10 @@
       <c r="F43" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="90"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G43, $K$12:$K$18, 0)), "soft", IF(EXACT(F43, G43), "none", "hard"))</f>
+      <c r="G43" s="83"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J43"/>
@@ -5607,7 +5637,7 @@
         <v>544.70000000000005</v>
       </c>
       <c r="C44" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.85109375000000009</v>
       </c>
       <c r="D44" s="74" t="s">
@@ -5619,10 +5649,10 @@
       <c r="F44" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="90"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G44, $K$12:$K$18, 0)), "soft", IF(EXACT(F44, G44), "none", "hard"))</f>
+      <c r="G44" s="83"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J44"/>
@@ -5719,7 +5749,7 @@
         <v>21.3</v>
       </c>
       <c r="C45" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3281250000000005E-2</v>
       </c>
       <c r="D45" s="74" t="s">
@@ -5731,10 +5761,10 @@
       <c r="F45" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="90"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G45, $K$12:$K$18, 0)), "soft", IF(EXACT(F45, G45), "none", "hard"))</f>
+      <c r="G45" s="83"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J45"/>
@@ -5831,7 +5861,7 @@
         <v>1161.7</v>
       </c>
       <c r="C46" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8151562500000002</v>
       </c>
       <c r="D46" s="74" t="s">
@@ -5843,10 +5873,10 @@
       <c r="F46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="90"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G46, $K$12:$K$18, 0)), "soft", IF(EXACT(F46, G46), "none", "hard"))</f>
+      <c r="G46" s="83"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J46"/>
@@ -5943,7 +5973,7 @@
         <v>248.4</v>
       </c>
       <c r="C47" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.38812500000000005</v>
       </c>
       <c r="D47" s="74" t="s">
@@ -5955,10 +5985,10 @@
       <c r="F47" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="90"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G47, $K$12:$K$18, 0)), "soft", IF(EXACT(F47, G47), "none", "hard"))</f>
+      <c r="G47" s="83"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J47"/>
@@ -6055,7 +6085,7 @@
         <v>701</v>
       </c>
       <c r="C48" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0953125000000001</v>
       </c>
       <c r="D48" s="74" t="s">
@@ -6067,10 +6097,10 @@
       <c r="F48" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="G48" s="90"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G48, $K$12:$K$18, 0)), "soft", IF(EXACT(F48, G48), "none", "hard"))</f>
+      <c r="G48" s="83"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J48"/>
@@ -6167,7 +6197,7 @@
         <v>506.2</v>
       </c>
       <c r="C49" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.79093750000000007</v>
       </c>
       <c r="D49" s="74" t="s">
@@ -6179,10 +6209,10 @@
       <c r="F49" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="90"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G49, $K$12:$K$18, 0)), "soft", IF(EXACT(F49, G49), "none", "hard"))</f>
+      <c r="G49" s="83"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J49"/>
@@ -6279,7 +6309,7 @@
         <v>615.1</v>
       </c>
       <c r="C50" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.96109375000000008</v>
       </c>
       <c r="D50" s="74" t="s">
@@ -6291,10 +6321,10 @@
       <c r="F50" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G50" s="90"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G50, $K$12:$K$18, 0)), "soft", IF(EXACT(F50, G50), "none", "hard"))</f>
+      <c r="G50" s="83"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J50"/>
@@ -6391,7 +6421,7 @@
         <v>332.6</v>
       </c>
       <c r="C51" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.51968750000000008</v>
       </c>
       <c r="D51" s="74" t="s">
@@ -6403,10 +6433,10 @@
       <c r="F51" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="90"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G51, $K$12:$K$18, 0)), "soft", IF(EXACT(F51, G51), "none", "hard"))</f>
+      <c r="G51" s="83"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J51"/>
@@ -6503,7 +6533,7 @@
         <v>183.4</v>
       </c>
       <c r="C52" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2865625</v>
       </c>
       <c r="D52" s="74" t="s">
@@ -6515,10 +6545,10 @@
       <c r="F52" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G52" s="90"/>
-      <c r="H52" s="91"/>
-      <c r="I52" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G52, $K$12:$K$18, 0)), "soft", IF(EXACT(F52, G52), "none", "hard"))</f>
+      <c r="G52" s="83"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J52"/>
@@ -6615,7 +6645,7 @@
         <v>275.39999999999998</v>
       </c>
       <c r="C53" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.43031249999999999</v>
       </c>
       <c r="D53" s="74" t="s">
@@ -6627,10 +6657,10 @@
       <c r="F53" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G53" s="90"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G53, $K$12:$K$18, 0)), "soft", IF(EXACT(F53, G53), "none", "hard"))</f>
+      <c r="G53" s="83"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="79" t="str">
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J53"/>
@@ -6727,7 +6757,7 @@
         <v>43.2</v>
       </c>
       <c r="C54" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="D54" s="74" t="s">
@@ -6739,10 +6769,10 @@
       <c r="F54" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G54" s="90"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G54, $K$12:$K$18, 0)), "soft", IF(EXACT(F54, G54), "none", "hard"))</f>
+      <c r="G54" s="83"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="79" t="str">
+        <f t="shared" ref="I54:I85" si="9">IF(ISNUMBER(MATCH(G54, $K$12:$K$18, 0)), "soft", IF(EXACT(F54, G54), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J54"/>
@@ -6839,7 +6869,7 @@
         <v>133.30000000000001</v>
       </c>
       <c r="C55" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.20828125000000003</v>
       </c>
       <c r="D55" s="74" t="s">
@@ -6851,10 +6881,10 @@
       <c r="F55" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="90"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G55, $K$12:$K$18, 0)), "soft", IF(EXACT(F55, G55), "none", "hard"))</f>
+      <c r="G55" s="83"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J55"/>
@@ -6951,7 +6981,7 @@
         <v>74.7</v>
       </c>
       <c r="C56" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11671875000000001</v>
       </c>
       <c r="D56" s="74" t="s">
@@ -6963,10 +6993,10 @@
       <c r="F56" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G56" s="90"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G56, $K$12:$K$18, 0)), "soft", IF(EXACT(F56, G56), "none", "hard"))</f>
+      <c r="G56" s="83"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J56"/>
@@ -7063,7 +7093,7 @@
         <v>199.2</v>
       </c>
       <c r="C57" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.31125000000000003</v>
       </c>
       <c r="D57" s="74" t="s">
@@ -7075,10 +7105,10 @@
       <c r="F57" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="90"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G57, $K$12:$K$18, 0)), "soft", IF(EXACT(F57, G57), "none", "hard"))</f>
+      <c r="G57" s="83"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J57"/>
@@ -7175,7 +7205,7 @@
         <v>251.4</v>
       </c>
       <c r="C58" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.39281250000000001</v>
       </c>
       <c r="D58" s="74" t="s">
@@ -7187,10 +7217,10 @@
       <c r="F58" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G58" s="90"/>
-      <c r="H58" s="91"/>
-      <c r="I58" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G58, $K$12:$K$18, 0)), "soft", IF(EXACT(F58, G58), "none", "hard"))</f>
+      <c r="G58" s="83"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J58"/>
@@ -7287,7 +7317,7 @@
         <v>220.1</v>
       </c>
       <c r="C59" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34390625000000002</v>
       </c>
       <c r="D59" s="74" t="s">
@@ -7299,10 +7329,10 @@
       <c r="F59" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G59" s="90"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G59, $K$12:$K$18, 0)), "soft", IF(EXACT(F59, G59), "none", "hard"))</f>
+      <c r="G59" s="83"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J59"/>
@@ -7399,7 +7429,7 @@
         <v>475.8</v>
       </c>
       <c r="C60" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.74343750000000008</v>
       </c>
       <c r="D60" s="74" t="s">
@@ -7411,10 +7441,10 @@
       <c r="F60" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="G60" s="90"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G60, $K$12:$K$18, 0)), "soft", IF(EXACT(F60, G60), "none", "hard"))</f>
+      <c r="G60" s="83"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J60"/>
@@ -7511,7 +7541,7 @@
         <v>225.4</v>
       </c>
       <c r="C61" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.35218750000000004</v>
       </c>
       <c r="D61" s="74" t="s">
@@ -7523,10 +7553,10 @@
       <c r="F61" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G61" s="90"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G61, $K$12:$K$18, 0)), "soft", IF(EXACT(F61, G61), "none", "hard"))</f>
+      <c r="G61" s="83"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J61"/>
@@ -7623,7 +7653,7 @@
         <v>1099.7</v>
       </c>
       <c r="C62" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7182812500000002</v>
       </c>
       <c r="D62" s="74" t="s">
@@ -7635,10 +7665,10 @@
       <c r="F62" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G62" s="90"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G62, $K$12:$K$18, 0)), "soft", IF(EXACT(F62, G62), "none", "hard"))</f>
+      <c r="G62" s="83"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J62"/>
@@ -7735,7 +7765,7 @@
         <v>180.3</v>
       </c>
       <c r="C63" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28171875000000002</v>
       </c>
       <c r="D63" s="74" t="s">
@@ -7747,10 +7777,10 @@
       <c r="F63" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="90"/>
-      <c r="H63" s="91"/>
-      <c r="I63" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G63, $K$12:$K$18, 0)), "soft", IF(EXACT(F63, G63), "none", "hard"))</f>
+      <c r="G63" s="83"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J63"/>
@@ -7847,7 +7877,7 @@
         <v>42.3</v>
       </c>
       <c r="C64" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.6093749999999993E-2</v>
       </c>
       <c r="D64" s="74" t="s">
@@ -7859,10 +7889,10 @@
       <c r="F64" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="90"/>
-      <c r="H64" s="91"/>
-      <c r="I64" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G64, $K$12:$K$18, 0)), "soft", IF(EXACT(F64, G64), "none", "hard"))</f>
+      <c r="G64" s="83"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J64"/>
@@ -7959,7 +7989,7 @@
         <v>65.2</v>
       </c>
       <c r="C65" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10187500000000001</v>
       </c>
       <c r="D65" s="74" t="s">
@@ -7971,10 +8001,10 @@
       <c r="F65" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G65" s="90"/>
-      <c r="H65" s="91"/>
-      <c r="I65" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G65, $K$12:$K$18, 0)), "soft", IF(EXACT(F65, G65), "none", "hard"))</f>
+      <c r="G65" s="83"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J65"/>
@@ -8071,7 +8101,7 @@
         <v>170.2</v>
       </c>
       <c r="C66" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.26593749999999999</v>
       </c>
       <c r="D66" s="74" t="s">
@@ -8083,10 +8113,10 @@
       <c r="F66" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G66" s="90"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G66, $K$12:$K$18, 0)), "soft", IF(EXACT(F66, G66), "none", "hard"))</f>
+      <c r="G66" s="83"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J66"/>
@@ -8183,7 +8213,7 @@
         <v>257.3</v>
       </c>
       <c r="C67" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.40203125000000006</v>
       </c>
       <c r="D67" s="74" t="s">
@@ -8195,10 +8225,10 @@
       <c r="F67" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G67" s="90"/>
-      <c r="H67" s="91"/>
-      <c r="I67" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G67, $K$12:$K$18, 0)), "soft", IF(EXACT(F67, G67), "none", "hard"))</f>
+      <c r="G67" s="83"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J67"/>
@@ -8295,7 +8325,7 @@
         <v>818.3</v>
       </c>
       <c r="C68" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.27859375</v>
       </c>
       <c r="D68" s="74" t="s">
@@ -8307,10 +8337,10 @@
       <c r="F68" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G68" s="90"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G68, $K$12:$K$18, 0)), "soft", IF(EXACT(F68, G68), "none", "hard"))</f>
+      <c r="G68" s="83"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J68"/>
@@ -8407,7 +8437,7 @@
         <v>851.2</v>
       </c>
       <c r="C69" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.33</v>
       </c>
       <c r="D69" s="74" t="s">
@@ -8419,10 +8449,10 @@
       <c r="F69" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G69" s="90"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G69, $K$12:$K$18, 0)), "soft", IF(EXACT(F69, G69), "none", "hard"))</f>
+      <c r="G69" s="83"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J69"/>
@@ -8519,7 +8549,7 @@
         <v>50.4</v>
       </c>
       <c r="C70" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.8750000000000001E-2</v>
       </c>
       <c r="D70" s="74" t="s">
@@ -8531,10 +8561,10 @@
       <c r="F70" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G70" s="90"/>
-      <c r="H70" s="91"/>
-      <c r="I70" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G70, $K$12:$K$18, 0)), "soft", IF(EXACT(F70, G70), "none", "hard"))</f>
+      <c r="G70" s="83"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J70"/>
@@ -8631,7 +8661,7 @@
         <v>547.6</v>
       </c>
       <c r="C71" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.85562500000000008</v>
       </c>
       <c r="D71" s="74" t="s">
@@ -8643,10 +8673,10 @@
       <c r="F71" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G71" s="90"/>
-      <c r="H71" s="91"/>
-      <c r="I71" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G71, $K$12:$K$18, 0)), "soft", IF(EXACT(F71, G71), "none", "hard"))</f>
+      <c r="G71" s="83"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J71"/>
@@ -8743,7 +8773,7 @@
         <v>545.29999999999995</v>
       </c>
       <c r="C72" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.85203125000000002</v>
       </c>
       <c r="D72" s="74" t="s">
@@ -8755,10 +8785,10 @@
       <c r="F72" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G72" s="90"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G72, $K$12:$K$18, 0)), "soft", IF(EXACT(F72, G72), "none", "hard"))</f>
+      <c r="G72" s="83"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J72"/>
@@ -8855,7 +8885,7 @@
         <v>453</v>
       </c>
       <c r="C73" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.70781250000000007</v>
       </c>
       <c r="D73" s="74" t="s">
@@ -8867,10 +8897,10 @@
       <c r="F73" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="90"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G73, $K$12:$K$18, 0)), "soft", IF(EXACT(F73, G73), "none", "hard"))</f>
+      <c r="G73" s="83"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J73"/>
@@ -8967,7 +8997,7 @@
         <v>300</v>
       </c>
       <c r="C74" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.46875</v>
       </c>
       <c r="D74" s="74" t="s">
@@ -8979,10 +9009,10 @@
       <c r="F74" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G74" s="90"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G74, $K$12:$K$18, 0)), "soft", IF(EXACT(F74, G74), "none", "hard"))</f>
+      <c r="G74" s="83"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J74"/>
@@ -9079,7 +9109,7 @@
         <v>219.8</v>
       </c>
       <c r="C75" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34343750000000006</v>
       </c>
       <c r="D75" s="74" t="s">
@@ -9091,10 +9121,10 @@
       <c r="F75" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G75" s="90"/>
-      <c r="H75" s="91"/>
-      <c r="I75" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G75, $K$12:$K$18, 0)), "soft", IF(EXACT(F75, G75), "none", "hard"))</f>
+      <c r="G75" s="83"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J75"/>
@@ -9191,7 +9221,7 @@
         <v>479.5</v>
       </c>
       <c r="C76" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.74921875000000004</v>
       </c>
       <c r="D76" s="74" t="s">
@@ -9203,10 +9233,10 @@
       <c r="F76" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="90"/>
-      <c r="H76" s="91"/>
-      <c r="I76" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G76, $K$12:$K$18, 0)), "soft", IF(EXACT(F76, G76), "none", "hard"))</f>
+      <c r="G76" s="83"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J76"/>
@@ -9303,7 +9333,7 @@
         <v>258.10000000000002</v>
       </c>
       <c r="C77" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.40328125000000004</v>
       </c>
       <c r="D77" s="74" t="s">
@@ -9315,10 +9345,10 @@
       <c r="F77" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G77" s="90"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G77, $K$12:$K$18, 0)), "soft", IF(EXACT(F77, G77), "none", "hard"))</f>
+      <c r="G77" s="83"/>
+      <c r="H77" s="84"/>
+      <c r="I77" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J77"/>
@@ -9415,7 +9445,7 @@
         <v>163.30000000000001</v>
       </c>
       <c r="C78" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25515625000000003</v>
       </c>
       <c r="D78" s="74" t="s">
@@ -9427,10 +9457,10 @@
       <c r="F78" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G78" s="90"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G78, $K$12:$K$18, 0)), "soft", IF(EXACT(F78, G78), "none", "hard"))</f>
+      <c r="G78" s="83"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J78"/>
@@ -9527,7 +9557,7 @@
         <v>689.3</v>
       </c>
       <c r="C79" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0770312499999999</v>
       </c>
       <c r="D79" s="74" t="s">
@@ -9539,10 +9569,10 @@
       <c r="F79" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="G79" s="90"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G79, $K$12:$K$18, 0)), "soft", IF(EXACT(F79, G79), "none", "hard"))</f>
+      <c r="G79" s="83"/>
+      <c r="H79" s="84"/>
+      <c r="I79" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J79"/>
@@ -9639,7 +9669,7 @@
         <v>316.89999999999998</v>
       </c>
       <c r="C80" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.49515624999999996</v>
       </c>
       <c r="D80" s="74" t="s">
@@ -9651,10 +9681,10 @@
       <c r="F80" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G80" s="90"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G80, $K$12:$K$18, 0)), "soft", IF(EXACT(F80, G80), "none", "hard"))</f>
+      <c r="G80" s="83"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J80"/>
@@ -9751,7 +9781,7 @@
         <v>172.8</v>
       </c>
       <c r="C81" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27</v>
       </c>
       <c r="D81" s="74" t="s">
@@ -9763,10 +9793,10 @@
       <c r="F81" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G81" s="90"/>
-      <c r="H81" s="91"/>
-      <c r="I81" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G81, $K$12:$K$18, 0)), "soft", IF(EXACT(F81, G81), "none", "hard"))</f>
+      <c r="G81" s="83"/>
+      <c r="H81" s="84"/>
+      <c r="I81" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J81"/>
@@ -9863,7 +9893,7 @@
         <v>112.2</v>
       </c>
       <c r="C82" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.17531250000000001</v>
       </c>
       <c r="D82" s="74" t="s">
@@ -9875,10 +9905,10 @@
       <c r="F82" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G82" s="90"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G82, $K$12:$K$18, 0)), "soft", IF(EXACT(F82, G82), "none", "hard"))</f>
+      <c r="G82" s="83"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J82"/>
@@ -9975,7 +10005,7 @@
         <v>67.3</v>
       </c>
       <c r="C83" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10515625000000001</v>
       </c>
       <c r="D83" s="74" t="s">
@@ -9987,10 +10017,10 @@
       <c r="F83" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G83" s="90"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G83, $K$12:$K$18, 0)), "soft", IF(EXACT(F83, G83), "none", "hard"))</f>
+      <c r="G83" s="83"/>
+      <c r="H83" s="84"/>
+      <c r="I83" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J83"/>
@@ -10087,7 +10117,7 @@
         <v>91.6</v>
       </c>
       <c r="C84" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.143125</v>
       </c>
       <c r="D84" s="74" t="s">
@@ -10099,10 +10129,10 @@
       <c r="F84" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G84" s="90"/>
-      <c r="H84" s="91"/>
-      <c r="I84" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G84, $K$12:$K$18, 0)), "soft", IF(EXACT(F84, G84), "none", "hard"))</f>
+      <c r="G84" s="83"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J84"/>
@@ -10199,7 +10229,7 @@
         <v>288.39999999999998</v>
       </c>
       <c r="C85" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.450625</v>
       </c>
       <c r="D85" s="74" t="s">
@@ -10211,10 +10241,10 @@
       <c r="F85" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="90"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G85, $K$12:$K$18, 0)), "soft", IF(EXACT(F85, G85), "none", "hard"))</f>
+      <c r="G85" s="83"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="79" t="str">
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J85"/>
@@ -10311,7 +10341,7 @@
         <v>357.2</v>
       </c>
       <c r="C86" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.55812499999999998</v>
       </c>
       <c r="D86" s="74" t="s">
@@ -10323,10 +10353,10 @@
       <c r="F86" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G86" s="90"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G86, $K$12:$K$18, 0)), "soft", IF(EXACT(F86, G86), "none", "hard"))</f>
+      <c r="G86" s="83"/>
+      <c r="H86" s="84"/>
+      <c r="I86" s="79" t="str">
+        <f t="shared" ref="I86:I117" si="10">IF(ISNUMBER(MATCH(G86, $K$12:$K$18, 0)), "soft", IF(EXACT(F86, G86), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J86"/>
@@ -10423,7 +10453,7 @@
         <v>275.8</v>
       </c>
       <c r="C87" s="73">
-        <f t="shared" ref="C87:C150" si="8">B87*0.0015625</f>
+        <f t="shared" ref="C87:C150" si="11">B87*0.0015625</f>
         <v>0.43093750000000003</v>
       </c>
       <c r="D87" s="74" t="s">
@@ -10435,10 +10465,10 @@
       <c r="F87" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G87" s="90"/>
-      <c r="H87" s="91"/>
-      <c r="I87" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G87, $K$12:$K$18, 0)), "soft", IF(EXACT(F87, G87), "none", "hard"))</f>
+      <c r="G87" s="83"/>
+      <c r="H87" s="84"/>
+      <c r="I87" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J87"/>
@@ -10535,7 +10565,7 @@
         <v>391.6</v>
       </c>
       <c r="C88" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.61187500000000006</v>
       </c>
       <c r="D88" s="74" t="s">
@@ -10547,10 +10577,10 @@
       <c r="F88" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G88" s="90"/>
-      <c r="H88" s="91"/>
-      <c r="I88" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G88, $K$12:$K$18, 0)), "soft", IF(EXACT(F88, G88), "none", "hard"))</f>
+      <c r="G88" s="83"/>
+      <c r="H88" s="84"/>
+      <c r="I88" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J88"/>
@@ -10647,7 +10677,7 @@
         <v>21.4</v>
       </c>
       <c r="C89" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.3437500000000002E-2</v>
       </c>
       <c r="D89" s="74" t="s">
@@ -10659,10 +10689,10 @@
       <c r="F89" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G89" s="90"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G89, $K$12:$K$18, 0)), "soft", IF(EXACT(F89, G89), "none", "hard"))</f>
+      <c r="G89" s="83"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J89"/>
@@ -10759,7 +10789,7 @@
         <v>143.1</v>
       </c>
       <c r="C90" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.22359375000000001</v>
       </c>
       <c r="D90" s="74" t="s">
@@ -10771,10 +10801,10 @@
       <c r="F90" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G90" s="90"/>
-      <c r="H90" s="91"/>
-      <c r="I90" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G90, $K$12:$K$18, 0)), "soft", IF(EXACT(F90, G90), "none", "hard"))</f>
+      <c r="G90" s="83"/>
+      <c r="H90" s="84"/>
+      <c r="I90" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J90"/>
@@ -10871,7 +10901,7 @@
         <v>82.6</v>
       </c>
       <c r="C91" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.1290625</v>
       </c>
       <c r="D91" s="74" t="s">
@@ -10883,10 +10913,10 @@
       <c r="F91" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G91" s="90"/>
-      <c r="H91" s="91"/>
-      <c r="I91" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G91, $K$12:$K$18, 0)), "soft", IF(EXACT(F91, G91), "none", "hard"))</f>
+      <c r="G91" s="83"/>
+      <c r="H91" s="84"/>
+      <c r="I91" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J91"/>
@@ -10983,7 +11013,7 @@
         <v>377.8</v>
       </c>
       <c r="C92" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.59031250000000002</v>
       </c>
       <c r="D92" s="74" t="s">
@@ -10995,10 +11025,10 @@
       <c r="F92" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G92" s="90"/>
-      <c r="H92" s="91"/>
-      <c r="I92" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G92, $K$12:$K$18, 0)), "soft", IF(EXACT(F92, G92), "none", "hard"))</f>
+      <c r="G92" s="83"/>
+      <c r="H92" s="84"/>
+      <c r="I92" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J92"/>
@@ -11095,7 +11125,7 @@
         <v>149.19999999999999</v>
       </c>
       <c r="C93" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.233125</v>
       </c>
       <c r="D93" s="74" t="s">
@@ -11107,10 +11137,10 @@
       <c r="F93" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G93" s="90"/>
-      <c r="H93" s="91"/>
-      <c r="I93" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G93, $K$12:$K$18, 0)), "soft", IF(EXACT(F93, G93), "none", "hard"))</f>
+      <c r="G93" s="83"/>
+      <c r="H93" s="84"/>
+      <c r="I93" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J93"/>
@@ -11207,7 +11237,7 @@
         <v>318.7</v>
       </c>
       <c r="C94" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.49796875000000002</v>
       </c>
       <c r="D94" s="74" t="s">
@@ -11219,10 +11249,10 @@
       <c r="F94" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G94" s="90"/>
-      <c r="H94" s="91"/>
-      <c r="I94" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G94, $K$12:$K$18, 0)), "soft", IF(EXACT(F94, G94), "none", "hard"))</f>
+      <c r="G94" s="83"/>
+      <c r="H94" s="84"/>
+      <c r="I94" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J94"/>
@@ -11319,7 +11349,7 @@
         <v>77.5</v>
       </c>
       <c r="C95" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.12109375</v>
       </c>
       <c r="D95" s="74" t="s">
@@ -11331,10 +11361,10 @@
       <c r="F95" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G95" s="90"/>
-      <c r="H95" s="91"/>
-      <c r="I95" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G95, $K$12:$K$18, 0)), "soft", IF(EXACT(F95, G95), "none", "hard"))</f>
+      <c r="G95" s="83"/>
+      <c r="H95" s="84"/>
+      <c r="I95" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J95"/>
@@ -11431,7 +11461,7 @@
         <v>386.5</v>
       </c>
       <c r="C96" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.60390625000000009</v>
       </c>
       <c r="D96" s="74" t="s">
@@ -11443,10 +11473,10 @@
       <c r="F96" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G96" s="90"/>
-      <c r="H96" s="91"/>
-      <c r="I96" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G96, $K$12:$K$18, 0)), "soft", IF(EXACT(F96, G96), "none", "hard"))</f>
+      <c r="G96" s="83"/>
+      <c r="H96" s="84"/>
+      <c r="I96" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J96"/>
@@ -11543,7 +11573,7 @@
         <v>149.4</v>
       </c>
       <c r="C97" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.23343750000000002</v>
       </c>
       <c r="D97" s="74" t="s">
@@ -11555,10 +11585,10 @@
       <c r="F97" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G97" s="90"/>
-      <c r="H97" s="91"/>
-      <c r="I97" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G97, $K$12:$K$18, 0)), "soft", IF(EXACT(F97, G97), "none", "hard"))</f>
+      <c r="G97" s="83"/>
+      <c r="H97" s="84"/>
+      <c r="I97" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J97"/>
@@ -11655,7 +11685,7 @@
         <v>87.4</v>
       </c>
       <c r="C98" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.1365625</v>
       </c>
       <c r="D98" s="74" t="s">
@@ -11667,10 +11697,10 @@
       <c r="F98" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G98" s="90"/>
-      <c r="H98" s="91"/>
-      <c r="I98" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G98, $K$12:$K$18, 0)), "soft", IF(EXACT(F98, G98), "none", "hard"))</f>
+      <c r="G98" s="83"/>
+      <c r="H98" s="84"/>
+      <c r="I98" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J98"/>
@@ -11767,7 +11797,7 @@
         <v>161.5</v>
       </c>
       <c r="C99" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.25234375000000003</v>
       </c>
       <c r="D99" s="74" t="s">
@@ -11779,10 +11809,10 @@
       <c r="F99" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G99" s="90"/>
-      <c r="H99" s="91"/>
-      <c r="I99" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G99, $K$12:$K$18, 0)), "soft", IF(EXACT(F99, G99), "none", "hard"))</f>
+      <c r="G99" s="83"/>
+      <c r="H99" s="84"/>
+      <c r="I99" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J99"/>
@@ -11879,7 +11909,7 @@
         <v>67.2</v>
       </c>
       <c r="C100" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.10500000000000001</v>
       </c>
       <c r="D100" s="74" t="s">
@@ -11891,10 +11921,10 @@
       <c r="F100" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G100" s="90"/>
-      <c r="H100" s="91"/>
-      <c r="I100" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G100, $K$12:$K$18, 0)), "soft", IF(EXACT(F100, G100), "none", "hard"))</f>
+      <c r="G100" s="83"/>
+      <c r="H100" s="84"/>
+      <c r="I100" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J100"/>
@@ -11991,7 +12021,7 @@
         <v>86.4</v>
       </c>
       <c r="C101" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="D101" s="74" t="s">
@@ -12003,10 +12033,10 @@
       <c r="F101" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="90"/>
-      <c r="H101" s="91"/>
-      <c r="I101" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G101, $K$12:$K$18, 0)), "soft", IF(EXACT(F101, G101), "none", "hard"))</f>
+      <c r="G101" s="83"/>
+      <c r="H101" s="84"/>
+      <c r="I101" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J101"/>
@@ -12103,7 +12133,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="C102" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.109375E-2</v>
       </c>
       <c r="D102" s="74" t="s">
@@ -12115,10 +12145,10 @@
       <c r="F102" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="G102" s="90"/>
-      <c r="H102" s="91"/>
-      <c r="I102" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G102, $K$12:$K$18, 0)), "soft", IF(EXACT(F102, G102), "none", "hard"))</f>
+      <c r="G102" s="83"/>
+      <c r="H102" s="84"/>
+      <c r="I102" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J102"/>
@@ -12215,7 +12245,7 @@
         <v>19.8</v>
       </c>
       <c r="C103" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.0937500000000003E-2</v>
       </c>
       <c r="D103" s="74" t="s">
@@ -12227,10 +12257,10 @@
       <c r="F103" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G103" s="90"/>
-      <c r="H103" s="91"/>
-      <c r="I103" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G103, $K$12:$K$18, 0)), "soft", IF(EXACT(F103, G103), "none", "hard"))</f>
+      <c r="G103" s="83"/>
+      <c r="H103" s="84"/>
+      <c r="I103" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J103"/>
@@ -12327,7 +12357,7 @@
         <v>139.19999999999999</v>
       </c>
       <c r="C104" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.2175</v>
       </c>
       <c r="D104" s="74" t="s">
@@ -12339,10 +12369,10 @@
       <c r="F104" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G104" s="90"/>
-      <c r="H104" s="91"/>
-      <c r="I104" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G104, $K$12:$K$18, 0)), "soft", IF(EXACT(F104, G104), "none", "hard"))</f>
+      <c r="G104" s="83"/>
+      <c r="H104" s="84"/>
+      <c r="I104" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J104"/>
@@ -12439,7 +12469,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="C105" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.12593750000000001</v>
       </c>
       <c r="D105" s="74" t="s">
@@ -12451,10 +12481,10 @@
       <c r="F105" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G105" s="90"/>
-      <c r="H105" s="91"/>
-      <c r="I105" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G105, $K$12:$K$18, 0)), "soft", IF(EXACT(F105, G105), "none", "hard"))</f>
+      <c r="G105" s="83"/>
+      <c r="H105" s="84"/>
+      <c r="I105" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J105"/>
@@ -12551,7 +12581,7 @@
         <v>40</v>
       </c>
       <c r="C106" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D106" s="74" t="s">
@@ -12563,10 +12593,10 @@
       <c r="F106" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G106" s="90"/>
-      <c r="H106" s="91"/>
-      <c r="I106" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G106, $K$12:$K$18, 0)), "soft", IF(EXACT(F106, G106), "none", "hard"))</f>
+      <c r="G106" s="83"/>
+      <c r="H106" s="84"/>
+      <c r="I106" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J106"/>
@@ -12663,7 +12693,7 @@
         <v>19.7</v>
       </c>
       <c r="C107" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.078125E-2</v>
       </c>
       <c r="D107" s="74" t="s">
@@ -12675,10 +12705,10 @@
       <c r="F107" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G107" s="90"/>
-      <c r="H107" s="91"/>
-      <c r="I107" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G107, $K$12:$K$18, 0)), "soft", IF(EXACT(F107, G107), "none", "hard"))</f>
+      <c r="G107" s="83"/>
+      <c r="H107" s="84"/>
+      <c r="I107" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J107"/>
@@ -12775,7 +12805,7 @@
         <v>43.4</v>
       </c>
       <c r="C108" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.7812499999999998E-2</v>
       </c>
       <c r="D108" s="74" t="s">
@@ -12787,10 +12817,10 @@
       <c r="F108" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G108" s="90"/>
-      <c r="H108" s="91"/>
-      <c r="I108" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G108, $K$12:$K$18, 0)), "soft", IF(EXACT(F108, G108), "none", "hard"))</f>
+      <c r="G108" s="83"/>
+      <c r="H108" s="84"/>
+      <c r="I108" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J108"/>
@@ -12887,7 +12917,7 @@
         <v>40</v>
       </c>
       <c r="C109" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D109" s="74" t="s">
@@ -12899,10 +12929,10 @@
       <c r="F109" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G109" s="90"/>
-      <c r="H109" s="91"/>
-      <c r="I109" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G109, $K$12:$K$18, 0)), "soft", IF(EXACT(F109, G109), "none", "hard"))</f>
+      <c r="G109" s="83"/>
+      <c r="H109" s="84"/>
+      <c r="I109" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J109"/>
@@ -12999,7 +13029,7 @@
         <v>40</v>
       </c>
       <c r="C110" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D110" s="74" t="s">
@@ -13011,10 +13041,10 @@
       <c r="F110" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G110" s="90"/>
-      <c r="H110" s="91"/>
-      <c r="I110" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G110, $K$12:$K$18, 0)), "soft", IF(EXACT(F110, G110), "none", "hard"))</f>
+      <c r="G110" s="83"/>
+      <c r="H110" s="84"/>
+      <c r="I110" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J110"/>
@@ -13111,7 +13141,7 @@
         <v>40</v>
       </c>
       <c r="C111" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D111" s="74" t="s">
@@ -13123,10 +13153,10 @@
       <c r="F111" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G111" s="90"/>
-      <c r="H111" s="91"/>
-      <c r="I111" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G111, $K$12:$K$18, 0)), "soft", IF(EXACT(F111, G111), "none", "hard"))</f>
+      <c r="G111" s="83"/>
+      <c r="H111" s="84"/>
+      <c r="I111" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J111"/>
@@ -13223,7 +13253,7 @@
         <v>40</v>
       </c>
       <c r="C112" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D112" s="74" t="s">
@@ -13235,10 +13265,10 @@
       <c r="F112" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G112" s="90"/>
-      <c r="H112" s="91"/>
-      <c r="I112" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G112, $K$12:$K$18, 0)), "soft", IF(EXACT(F112, G112), "none", "hard"))</f>
+      <c r="G112" s="83"/>
+      <c r="H112" s="84"/>
+      <c r="I112" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J112"/>
@@ -13335,7 +13365,7 @@
         <v>40</v>
       </c>
       <c r="C113" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D113" s="74" t="s">
@@ -13347,10 +13377,10 @@
       <c r="F113" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G113" s="90"/>
-      <c r="H113" s="91"/>
-      <c r="I113" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G113, $K$12:$K$18, 0)), "soft", IF(EXACT(F113, G113), "none", "hard"))</f>
+      <c r="G113" s="83"/>
+      <c r="H113" s="84"/>
+      <c r="I113" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J113"/>
@@ -13447,7 +13477,7 @@
         <v>40</v>
       </c>
       <c r="C114" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D114" s="74" t="s">
@@ -13459,10 +13489,10 @@
       <c r="F114" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G114" s="90"/>
-      <c r="H114" s="91"/>
-      <c r="I114" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G114, $K$12:$K$18, 0)), "soft", IF(EXACT(F114, G114), "none", "hard"))</f>
+      <c r="G114" s="83"/>
+      <c r="H114" s="84"/>
+      <c r="I114" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J114"/>
@@ -13559,7 +13589,7 @@
         <v>40</v>
       </c>
       <c r="C115" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D115" s="74" t="s">
@@ -13571,10 +13601,10 @@
       <c r="F115" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G115" s="90"/>
-      <c r="H115" s="91"/>
-      <c r="I115" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G115, $K$12:$K$18, 0)), "soft", IF(EXACT(F115, G115), "none", "hard"))</f>
+      <c r="G115" s="83"/>
+      <c r="H115" s="84"/>
+      <c r="I115" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J115"/>
@@ -13671,7 +13701,7 @@
         <v>40</v>
       </c>
       <c r="C116" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D116" s="74" t="s">
@@ -13683,10 +13713,10 @@
       <c r="F116" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G116" s="90"/>
-      <c r="H116" s="91"/>
-      <c r="I116" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G116, $K$12:$K$18, 0)), "soft", IF(EXACT(F116, G116), "none", "hard"))</f>
+      <c r="G116" s="83"/>
+      <c r="H116" s="84"/>
+      <c r="I116" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J116"/>
@@ -13783,7 +13813,7 @@
         <v>40</v>
       </c>
       <c r="C117" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D117" s="74" t="s">
@@ -13795,10 +13825,10 @@
       <c r="F117" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G117" s="90"/>
-      <c r="H117" s="91"/>
-      <c r="I117" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G117, $K$12:$K$18, 0)), "soft", IF(EXACT(F117, G117), "none", "hard"))</f>
+      <c r="G117" s="83"/>
+      <c r="H117" s="84"/>
+      <c r="I117" s="79" t="str">
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J117"/>
@@ -13895,7 +13925,7 @@
         <v>40</v>
       </c>
       <c r="C118" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D118" s="74" t="s">
@@ -13907,10 +13937,10 @@
       <c r="F118" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G118" s="90"/>
-      <c r="H118" s="91"/>
-      <c r="I118" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G118, $K$12:$K$18, 0)), "soft", IF(EXACT(F118, G118), "none", "hard"))</f>
+      <c r="G118" s="83"/>
+      <c r="H118" s="84"/>
+      <c r="I118" s="79" t="str">
+        <f t="shared" ref="I118:I149" si="12">IF(ISNUMBER(MATCH(G118, $K$12:$K$18, 0)), "soft", IF(EXACT(F118, G118), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J118"/>
@@ -14007,7 +14037,7 @@
         <v>40</v>
       </c>
       <c r="C119" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D119" s="74" t="s">
@@ -14019,10 +14049,10 @@
       <c r="F119" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G119" s="90"/>
-      <c r="H119" s="91"/>
-      <c r="I119" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G119, $K$12:$K$18, 0)), "soft", IF(EXACT(F119, G119), "none", "hard"))</f>
+      <c r="G119" s="83"/>
+      <c r="H119" s="84"/>
+      <c r="I119" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J119"/>
@@ -14119,7 +14149,7 @@
         <v>40</v>
       </c>
       <c r="C120" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D120" s="74" t="s">
@@ -14131,10 +14161,10 @@
       <c r="F120" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G120" s="90"/>
-      <c r="H120" s="91"/>
-      <c r="I120" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G120, $K$12:$K$18, 0)), "soft", IF(EXACT(F120, G120), "none", "hard"))</f>
+      <c r="G120" s="83"/>
+      <c r="H120" s="84"/>
+      <c r="I120" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J120"/>
@@ -14231,7 +14261,7 @@
         <v>40</v>
       </c>
       <c r="C121" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D121" s="74" t="s">
@@ -14243,10 +14273,10 @@
       <c r="F121" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G121" s="90"/>
-      <c r="H121" s="91"/>
-      <c r="I121" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G121, $K$12:$K$18, 0)), "soft", IF(EXACT(F121, G121), "none", "hard"))</f>
+      <c r="G121" s="83"/>
+      <c r="H121" s="84"/>
+      <c r="I121" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J121"/>
@@ -14343,7 +14373,7 @@
         <v>40</v>
       </c>
       <c r="C122" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D122" s="74" t="s">
@@ -14355,10 +14385,10 @@
       <c r="F122" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G122" s="90"/>
-      <c r="H122" s="91"/>
-      <c r="I122" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G122, $K$12:$K$18, 0)), "soft", IF(EXACT(F122, G122), "none", "hard"))</f>
+      <c r="G122" s="83"/>
+      <c r="H122" s="84"/>
+      <c r="I122" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J122"/>
@@ -14455,7 +14485,7 @@
         <v>40</v>
       </c>
       <c r="C123" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D123" s="74" t="s">
@@ -14467,10 +14497,10 @@
       <c r="F123" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G123" s="90"/>
-      <c r="H123" s="91"/>
-      <c r="I123" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G123, $K$12:$K$18, 0)), "soft", IF(EXACT(F123, G123), "none", "hard"))</f>
+      <c r="G123" s="83"/>
+      <c r="H123" s="84"/>
+      <c r="I123" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J123"/>
@@ -14567,7 +14597,7 @@
         <v>40</v>
       </c>
       <c r="C124" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D124" s="74" t="s">
@@ -14579,10 +14609,10 @@
       <c r="F124" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G124" s="90"/>
-      <c r="H124" s="91"/>
-      <c r="I124" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G124, $K$12:$K$18, 0)), "soft", IF(EXACT(F124, G124), "none", "hard"))</f>
+      <c r="G124" s="83"/>
+      <c r="H124" s="84"/>
+      <c r="I124" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J124"/>
@@ -14679,7 +14709,7 @@
         <v>40</v>
       </c>
       <c r="C125" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D125" s="74" t="s">
@@ -14691,10 +14721,10 @@
       <c r="F125" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G125" s="90"/>
-      <c r="H125" s="91"/>
-      <c r="I125" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G125, $K$12:$K$18, 0)), "soft", IF(EXACT(F125, G125), "none", "hard"))</f>
+      <c r="G125" s="83"/>
+      <c r="H125" s="84"/>
+      <c r="I125" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J125"/>
@@ -14791,7 +14821,7 @@
         <v>40</v>
       </c>
       <c r="C126" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D126" s="74" t="s">
@@ -14803,10 +14833,10 @@
       <c r="F126" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G126" s="90"/>
-      <c r="H126" s="91"/>
-      <c r="I126" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G126, $K$12:$K$18, 0)), "soft", IF(EXACT(F126, G126), "none", "hard"))</f>
+      <c r="G126" s="83"/>
+      <c r="H126" s="84"/>
+      <c r="I126" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J126"/>
@@ -14903,7 +14933,7 @@
         <v>40</v>
       </c>
       <c r="C127" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D127" s="74" t="s">
@@ -14915,10 +14945,10 @@
       <c r="F127" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G127" s="90"/>
-      <c r="H127" s="91"/>
-      <c r="I127" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G127, $K$12:$K$18, 0)), "soft", IF(EXACT(F127, G127), "none", "hard"))</f>
+      <c r="G127" s="83"/>
+      <c r="H127" s="84"/>
+      <c r="I127" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J127"/>
@@ -15015,7 +15045,7 @@
         <v>40</v>
       </c>
       <c r="C128" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D128" s="74" t="s">
@@ -15027,10 +15057,10 @@
       <c r="F128" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G128" s="90"/>
-      <c r="H128" s="91"/>
-      <c r="I128" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G128, $K$12:$K$18, 0)), "soft", IF(EXACT(F128, G128), "none", "hard"))</f>
+      <c r="G128" s="83"/>
+      <c r="H128" s="84"/>
+      <c r="I128" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J128"/>
@@ -15127,7 +15157,7 @@
         <v>40</v>
       </c>
       <c r="C129" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D129" s="74" t="s">
@@ -15139,10 +15169,10 @@
       <c r="F129" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G129" s="90"/>
-      <c r="H129" s="91"/>
-      <c r="I129" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G129, $K$12:$K$18, 0)), "soft", IF(EXACT(F129, G129), "none", "hard"))</f>
+      <c r="G129" s="83"/>
+      <c r="H129" s="84"/>
+      <c r="I129" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J129"/>
@@ -15239,7 +15269,7 @@
         <v>40</v>
       </c>
       <c r="C130" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D130" s="74" t="s">
@@ -15251,10 +15281,10 @@
       <c r="F130" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G130" s="90"/>
-      <c r="H130" s="91"/>
-      <c r="I130" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G130, $K$12:$K$18, 0)), "soft", IF(EXACT(F130, G130), "none", "hard"))</f>
+      <c r="G130" s="83"/>
+      <c r="H130" s="84"/>
+      <c r="I130" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J130"/>
@@ -15351,7 +15381,7 @@
         <v>40</v>
       </c>
       <c r="C131" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D131" s="74" t="s">
@@ -15363,10 +15393,10 @@
       <c r="F131" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G131" s="90"/>
-      <c r="H131" s="91"/>
-      <c r="I131" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G131, $K$12:$K$18, 0)), "soft", IF(EXACT(F131, G131), "none", "hard"))</f>
+      <c r="G131" s="83"/>
+      <c r="H131" s="84"/>
+      <c r="I131" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J131"/>
@@ -15463,7 +15493,7 @@
         <v>40</v>
       </c>
       <c r="C132" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D132" s="74" t="s">
@@ -15475,10 +15505,10 @@
       <c r="F132" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G132" s="90"/>
-      <c r="H132" s="91"/>
-      <c r="I132" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G132, $K$12:$K$18, 0)), "soft", IF(EXACT(F132, G132), "none", "hard"))</f>
+      <c r="G132" s="83"/>
+      <c r="H132" s="84"/>
+      <c r="I132" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J132"/>
@@ -15575,7 +15605,7 @@
         <v>40</v>
       </c>
       <c r="C133" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D133" s="74" t="s">
@@ -15587,10 +15617,10 @@
       <c r="F133" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G133" s="90"/>
-      <c r="H133" s="91"/>
-      <c r="I133" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G133, $K$12:$K$18, 0)), "soft", IF(EXACT(F133, G133), "none", "hard"))</f>
+      <c r="G133" s="83"/>
+      <c r="H133" s="84"/>
+      <c r="I133" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J133"/>
@@ -15687,7 +15717,7 @@
         <v>40</v>
       </c>
       <c r="C134" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D134" s="74" t="s">
@@ -15699,10 +15729,10 @@
       <c r="F134" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G134" s="90"/>
-      <c r="H134" s="91"/>
-      <c r="I134" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G134, $K$12:$K$18, 0)), "soft", IF(EXACT(F134, G134), "none", "hard"))</f>
+      <c r="G134" s="83"/>
+      <c r="H134" s="84"/>
+      <c r="I134" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J134"/>
@@ -15799,7 +15829,7 @@
         <v>40</v>
       </c>
       <c r="C135" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D135" s="74" t="s">
@@ -15811,10 +15841,10 @@
       <c r="F135" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G135" s="90"/>
-      <c r="H135" s="91"/>
-      <c r="I135" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G135, $K$12:$K$18, 0)), "soft", IF(EXACT(F135, G135), "none", "hard"))</f>
+      <c r="G135" s="83"/>
+      <c r="H135" s="84"/>
+      <c r="I135" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J135"/>
@@ -15911,7 +15941,7 @@
         <v>40</v>
       </c>
       <c r="C136" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D136" s="74" t="s">
@@ -15923,10 +15953,10 @@
       <c r="F136" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G136" s="90"/>
-      <c r="H136" s="91"/>
-      <c r="I136" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G136, $K$12:$K$18, 0)), "soft", IF(EXACT(F136, G136), "none", "hard"))</f>
+      <c r="G136" s="83"/>
+      <c r="H136" s="84"/>
+      <c r="I136" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J136"/>
@@ -16023,7 +16053,7 @@
         <v>40</v>
       </c>
       <c r="C137" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D137" s="74" t="s">
@@ -16035,10 +16065,10 @@
       <c r="F137" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G137" s="90"/>
-      <c r="H137" s="91"/>
-      <c r="I137" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G137, $K$12:$K$18, 0)), "soft", IF(EXACT(F137, G137), "none", "hard"))</f>
+      <c r="G137" s="83"/>
+      <c r="H137" s="84"/>
+      <c r="I137" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J137"/>
@@ -16135,7 +16165,7 @@
         <v>40</v>
       </c>
       <c r="C138" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D138" s="74" t="s">
@@ -16147,10 +16177,10 @@
       <c r="F138" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G138" s="90"/>
-      <c r="H138" s="91"/>
-      <c r="I138" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G138, $K$12:$K$18, 0)), "soft", IF(EXACT(F138, G138), "none", "hard"))</f>
+      <c r="G138" s="83"/>
+      <c r="H138" s="84"/>
+      <c r="I138" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J138"/>
@@ -16247,7 +16277,7 @@
         <v>40</v>
       </c>
       <c r="C139" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D139" s="74" t="s">
@@ -16259,10 +16289,10 @@
       <c r="F139" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G139" s="90"/>
-      <c r="H139" s="91"/>
-      <c r="I139" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G139, $K$12:$K$18, 0)), "soft", IF(EXACT(F139, G139), "none", "hard"))</f>
+      <c r="G139" s="83"/>
+      <c r="H139" s="84"/>
+      <c r="I139" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J139"/>
@@ -16359,7 +16389,7 @@
         <v>40</v>
       </c>
       <c r="C140" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D140" s="74" t="s">
@@ -16371,10 +16401,10 @@
       <c r="F140" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G140" s="90"/>
-      <c r="H140" s="91"/>
-      <c r="I140" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G140, $K$12:$K$18, 0)), "soft", IF(EXACT(F140, G140), "none", "hard"))</f>
+      <c r="G140" s="83"/>
+      <c r="H140" s="84"/>
+      <c r="I140" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J140"/>
@@ -16471,7 +16501,7 @@
         <v>40</v>
       </c>
       <c r="C141" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D141" s="74" t="s">
@@ -16483,10 +16513,10 @@
       <c r="F141" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G141" s="90"/>
-      <c r="H141" s="91"/>
-      <c r="I141" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G141, $K$12:$K$18, 0)), "soft", IF(EXACT(F141, G141), "none", "hard"))</f>
+      <c r="G141" s="83"/>
+      <c r="H141" s="84"/>
+      <c r="I141" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J141"/>
@@ -16583,7 +16613,7 @@
         <v>40</v>
       </c>
       <c r="C142" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D142" s="74" t="s">
@@ -16595,10 +16625,10 @@
       <c r="F142" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G142" s="90"/>
-      <c r="H142" s="91"/>
-      <c r="I142" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G142, $K$12:$K$18, 0)), "soft", IF(EXACT(F142, G142), "none", "hard"))</f>
+      <c r="G142" s="83"/>
+      <c r="H142" s="84"/>
+      <c r="I142" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J142"/>
@@ -16695,7 +16725,7 @@
         <v>40</v>
       </c>
       <c r="C143" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D143" s="74" t="s">
@@ -16707,10 +16737,10 @@
       <c r="F143" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G143" s="90"/>
-      <c r="H143" s="91"/>
-      <c r="I143" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G143, $K$12:$K$18, 0)), "soft", IF(EXACT(F143, G143), "none", "hard"))</f>
+      <c r="G143" s="83"/>
+      <c r="H143" s="84"/>
+      <c r="I143" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J143"/>
@@ -16807,7 +16837,7 @@
         <v>40</v>
       </c>
       <c r="C144" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D144" s="74" t="s">
@@ -16819,10 +16849,10 @@
       <c r="F144" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G144" s="90"/>
-      <c r="H144" s="91"/>
-      <c r="I144" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G144, $K$12:$K$18, 0)), "soft", IF(EXACT(F144, G144), "none", "hard"))</f>
+      <c r="G144" s="83"/>
+      <c r="H144" s="84"/>
+      <c r="I144" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J144"/>
@@ -16919,7 +16949,7 @@
         <v>40</v>
       </c>
       <c r="C145" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D145" s="74" t="s">
@@ -16931,10 +16961,10 @@
       <c r="F145" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G145" s="90"/>
-      <c r="H145" s="91"/>
-      <c r="I145" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G145, $K$12:$K$18, 0)), "soft", IF(EXACT(F145, G145), "none", "hard"))</f>
+      <c r="G145" s="83"/>
+      <c r="H145" s="84"/>
+      <c r="I145" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J145"/>
@@ -17031,7 +17061,7 @@
         <v>40</v>
       </c>
       <c r="C146" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D146" s="74" t="s">
@@ -17043,10 +17073,10 @@
       <c r="F146" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G146" s="90"/>
-      <c r="H146" s="91"/>
-      <c r="I146" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G146, $K$12:$K$18, 0)), "soft", IF(EXACT(F146, G146), "none", "hard"))</f>
+      <c r="G146" s="83"/>
+      <c r="H146" s="84"/>
+      <c r="I146" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J146"/>
@@ -17143,7 +17173,7 @@
         <v>40</v>
       </c>
       <c r="C147" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D147" s="74" t="s">
@@ -17155,10 +17185,10 @@
       <c r="F147" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G147" s="90"/>
-      <c r="H147" s="91"/>
-      <c r="I147" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G147, $K$12:$K$18, 0)), "soft", IF(EXACT(F147, G147), "none", "hard"))</f>
+      <c r="G147" s="83"/>
+      <c r="H147" s="84"/>
+      <c r="I147" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J147"/>
@@ -17255,7 +17285,7 @@
         <v>39.9</v>
       </c>
       <c r="C148" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.2343750000000003E-2</v>
       </c>
       <c r="D148" s="74" t="s">
@@ -17267,10 +17297,10 @@
       <c r="F148" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G148" s="90"/>
-      <c r="H148" s="91"/>
-      <c r="I148" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G148, $K$12:$K$18, 0)), "soft", IF(EXACT(F148, G148), "none", "hard"))</f>
+      <c r="G148" s="83"/>
+      <c r="H148" s="84"/>
+      <c r="I148" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J148"/>
@@ -17367,7 +17397,7 @@
         <v>40</v>
       </c>
       <c r="C149" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D149" s="74" t="s">
@@ -17379,10 +17409,10 @@
       <c r="F149" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G149" s="90"/>
-      <c r="H149" s="91"/>
-      <c r="I149" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G149, $K$12:$K$18, 0)), "soft", IF(EXACT(F149, G149), "none", "hard"))</f>
+      <c r="G149" s="83"/>
+      <c r="H149" s="84"/>
+      <c r="I149" s="79" t="str">
+        <f t="shared" si="12"/>
         <v>hard</v>
       </c>
       <c r="J149"/>
@@ -17479,7 +17509,7 @@
         <v>40</v>
       </c>
       <c r="C150" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D150" s="74" t="s">
@@ -17491,10 +17521,10 @@
       <c r="F150" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G150" s="90"/>
-      <c r="H150" s="91"/>
-      <c r="I150" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G150, $K$12:$K$18, 0)), "soft", IF(EXACT(F150, G150), "none", "hard"))</f>
+      <c r="G150" s="83"/>
+      <c r="H150" s="84"/>
+      <c r="I150" s="79" t="str">
+        <f t="shared" ref="I150:I181" si="13">IF(ISNUMBER(MATCH(G150, $K$12:$K$18, 0)), "soft", IF(EXACT(F150, G150), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J150"/>
@@ -17591,7 +17621,7 @@
         <v>39.700000000000003</v>
       </c>
       <c r="C151" s="73">
-        <f t="shared" ref="C151:C181" si="9">B151*0.0015625</f>
+        <f t="shared" ref="C151:C181" si="14">B151*0.0015625</f>
         <v>6.203125000000001E-2</v>
       </c>
       <c r="D151" s="74" t="s">
@@ -17603,10 +17633,10 @@
       <c r="F151" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G151" s="90"/>
-      <c r="H151" s="91"/>
-      <c r="I151" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G151, $K$12:$K$18, 0)), "soft", IF(EXACT(F151, G151), "none", "hard"))</f>
+      <c r="G151" s="83"/>
+      <c r="H151" s="84"/>
+      <c r="I151" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J151"/>
@@ -17703,7 +17733,7 @@
         <v>40</v>
       </c>
       <c r="C152" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.25E-2</v>
       </c>
       <c r="D152" s="74" t="s">
@@ -17715,10 +17745,10 @@
       <c r="F152" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G152" s="90"/>
-      <c r="H152" s="91"/>
-      <c r="I152" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G152, $K$12:$K$18, 0)), "soft", IF(EXACT(F152, G152), "none", "hard"))</f>
+      <c r="G152" s="83"/>
+      <c r="H152" s="84"/>
+      <c r="I152" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J152"/>
@@ -17815,7 +17845,7 @@
         <v>40</v>
       </c>
       <c r="C153" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.25E-2</v>
       </c>
       <c r="D153" s="74" t="s">
@@ -17827,10 +17857,10 @@
       <c r="F153" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G153" s="90"/>
-      <c r="H153" s="91"/>
-      <c r="I153" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G153, $K$12:$K$18, 0)), "soft", IF(EXACT(F153, G153), "none", "hard"))</f>
+      <c r="G153" s="83"/>
+      <c r="H153" s="84"/>
+      <c r="I153" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J153"/>
@@ -17927,7 +17957,7 @@
         <v>40</v>
       </c>
       <c r="C154" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.25E-2</v>
       </c>
       <c r="D154" s="74" t="s">
@@ -17939,10 +17969,10 @@
       <c r="F154" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G154" s="90"/>
-      <c r="H154" s="91"/>
-      <c r="I154" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G154, $K$12:$K$18, 0)), "soft", IF(EXACT(F154, G154), "none", "hard"))</f>
+      <c r="G154" s="83"/>
+      <c r="H154" s="84"/>
+      <c r="I154" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J154"/>
@@ -18039,7 +18069,7 @@
         <v>40.4</v>
       </c>
       <c r="C155" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.3125000000000001E-2</v>
       </c>
       <c r="D155" s="74" t="s">
@@ -18051,10 +18081,10 @@
       <c r="F155" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G155" s="90"/>
-      <c r="H155" s="91"/>
-      <c r="I155" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G155, $K$12:$K$18, 0)), "soft", IF(EXACT(F155, G155), "none", "hard"))</f>
+      <c r="G155" s="83"/>
+      <c r="H155" s="84"/>
+      <c r="I155" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J155"/>
@@ -18151,7 +18181,7 @@
         <v>39.700000000000003</v>
       </c>
       <c r="C156" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.203125000000001E-2</v>
       </c>
       <c r="D156" s="74" t="s">
@@ -18163,10 +18193,10 @@
       <c r="F156" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G156" s="90"/>
-      <c r="H156" s="91"/>
-      <c r="I156" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G156, $K$12:$K$18, 0)), "soft", IF(EXACT(F156, G156), "none", "hard"))</f>
+      <c r="G156" s="83"/>
+      <c r="H156" s="84"/>
+      <c r="I156" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J156"/>
@@ -18263,7 +18293,7 @@
         <v>40</v>
       </c>
       <c r="C157" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.25E-2</v>
       </c>
       <c r="D157" s="74" t="s">
@@ -18275,10 +18305,10 @@
       <c r="F157" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G157" s="90"/>
-      <c r="H157" s="91"/>
-      <c r="I157" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G157, $K$12:$K$18, 0)), "soft", IF(EXACT(F157, G157), "none", "hard"))</f>
+      <c r="G157" s="83"/>
+      <c r="H157" s="84"/>
+      <c r="I157" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J157"/>
@@ -18375,7 +18405,7 @@
         <v>40</v>
       </c>
       <c r="C158" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.25E-2</v>
       </c>
       <c r="D158" s="74" t="s">
@@ -18387,10 +18417,10 @@
       <c r="F158" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G158" s="90"/>
-      <c r="H158" s="91"/>
-      <c r="I158" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G158, $K$12:$K$18, 0)), "soft", IF(EXACT(F158, G158), "none", "hard"))</f>
+      <c r="G158" s="83"/>
+      <c r="H158" s="84"/>
+      <c r="I158" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J158"/>
@@ -18487,7 +18517,7 @@
         <v>40</v>
       </c>
       <c r="C159" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.25E-2</v>
       </c>
       <c r="D159" s="74" t="s">
@@ -18499,10 +18529,10 @@
       <c r="F159" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G159" s="90"/>
-      <c r="H159" s="91"/>
-      <c r="I159" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G159, $K$12:$K$18, 0)), "soft", IF(EXACT(F159, G159), "none", "hard"))</f>
+      <c r="G159" s="83"/>
+      <c r="H159" s="84"/>
+      <c r="I159" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J159"/>
@@ -18599,7 +18629,7 @@
         <v>40</v>
       </c>
       <c r="C160" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.25E-2</v>
       </c>
       <c r="D160" s="74" t="s">
@@ -18611,10 +18641,10 @@
       <c r="F160" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G160" s="90"/>
-      <c r="H160" s="91"/>
-      <c r="I160" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G160, $K$12:$K$18, 0)), "soft", IF(EXACT(F160, G160), "none", "hard"))</f>
+      <c r="G160" s="83"/>
+      <c r="H160" s="84"/>
+      <c r="I160" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J160"/>
@@ -18711,7 +18741,7 @@
         <v>40</v>
       </c>
       <c r="C161" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.25E-2</v>
       </c>
       <c r="D161" s="74" t="s">
@@ -18723,10 +18753,10 @@
       <c r="F161" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G161" s="90"/>
-      <c r="H161" s="91"/>
-      <c r="I161" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G161, $K$12:$K$18, 0)), "soft", IF(EXACT(F161, G161), "none", "hard"))</f>
+      <c r="G161" s="83"/>
+      <c r="H161" s="84"/>
+      <c r="I161" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J161"/>
@@ -18823,7 +18853,7 @@
         <v>41.5</v>
       </c>
       <c r="C162" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.4843750000000006E-2</v>
       </c>
       <c r="D162" s="74" t="s">
@@ -18835,10 +18865,10 @@
       <c r="F162" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G162" s="90"/>
-      <c r="H162" s="91"/>
-      <c r="I162" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G162, $K$12:$K$18, 0)), "soft", IF(EXACT(F162, G162), "none", "hard"))</f>
+      <c r="G162" s="83"/>
+      <c r="H162" s="84"/>
+      <c r="I162" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J162"/>
@@ -18935,7 +18965,7 @@
         <v>43</v>
       </c>
       <c r="C163" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.7187499999999997E-2</v>
       </c>
       <c r="D163" s="74" t="s">
@@ -18947,10 +18977,10 @@
       <c r="F163" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G163" s="90"/>
-      <c r="H163" s="91"/>
-      <c r="I163" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G163, $K$12:$K$18, 0)), "soft", IF(EXACT(F163, G163), "none", "hard"))</f>
+      <c r="G163" s="83"/>
+      <c r="H163" s="84"/>
+      <c r="I163" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J163"/>
@@ -19047,7 +19077,7 @@
         <v>124.6</v>
       </c>
       <c r="C164" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.19468750000000001</v>
       </c>
       <c r="D164" s="74" t="s">
@@ -19059,10 +19089,10 @@
       <c r="F164" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G164" s="90"/>
-      <c r="H164" s="91"/>
-      <c r="I164" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G164, $K$12:$K$18, 0)), "soft", IF(EXACT(F164, G164), "none", "hard"))</f>
+      <c r="G164" s="83"/>
+      <c r="H164" s="84"/>
+      <c r="I164" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J164"/>
@@ -19159,7 +19189,7 @@
         <v>292.8</v>
       </c>
       <c r="C165" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.45750000000000002</v>
       </c>
       <c r="D165" s="74" t="s">
@@ -19171,10 +19201,10 @@
       <c r="F165" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="G165" s="90"/>
-      <c r="H165" s="91"/>
-      <c r="I165" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G165, $K$12:$K$18, 0)), "soft", IF(EXACT(F165, G165), "none", "hard"))</f>
+      <c r="G165" s="83"/>
+      <c r="H165" s="84"/>
+      <c r="I165" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J165"/>
@@ -19271,7 +19301,7 @@
         <v>50.171183999999997</v>
       </c>
       <c r="C166" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>7.8392475000000003E-2</v>
       </c>
       <c r="D166" s="74" t="s">
@@ -19283,10 +19313,10 @@
       <c r="F166" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="G166" s="90"/>
-      <c r="H166" s="91"/>
-      <c r="I166" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G166, $K$12:$K$18, 0)), "soft", IF(EXACT(F166, G166), "none", "hard"))</f>
+      <c r="G166" s="83"/>
+      <c r="H166" s="84"/>
+      <c r="I166" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J166"/>
@@ -19383,7 +19413,7 @@
         <v>110.435041</v>
       </c>
       <c r="C167" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.1725547515625</v>
       </c>
       <c r="D167" s="74" t="s">
@@ -19395,10 +19425,10 @@
       <c r="F167" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="G167" s="90"/>
-      <c r="H167" s="91"/>
-      <c r="I167" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G167, $K$12:$K$18, 0)), "soft", IF(EXACT(F167, G167), "none", "hard"))</f>
+      <c r="G167" s="83"/>
+      <c r="H167" s="84"/>
+      <c r="I167" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J167"/>
@@ -19495,7 +19525,7 @@
         <v>41.073974</v>
       </c>
       <c r="C168" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.4178084375E-2</v>
       </c>
       <c r="D168" s="74" t="s">
@@ -19507,10 +19537,10 @@
       <c r="F168" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G168" s="90"/>
-      <c r="H168" s="91"/>
-      <c r="I168" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G168, $K$12:$K$18, 0)), "soft", IF(EXACT(F168, G168), "none", "hard"))</f>
+      <c r="G168" s="83"/>
+      <c r="H168" s="84"/>
+      <c r="I168" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J168"/>
@@ -19607,7 +19637,7 @@
         <v>76.115142000000006</v>
       </c>
       <c r="C169" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.11892990937500002</v>
       </c>
       <c r="D169" s="74" t="s">
@@ -19619,10 +19649,10 @@
       <c r="F169" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G169" s="90"/>
-      <c r="H169" s="91"/>
-      <c r="I169" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G169, $K$12:$K$18, 0)), "soft", IF(EXACT(F169, G169), "none", "hard"))</f>
+      <c r="G169" s="83"/>
+      <c r="H169" s="84"/>
+      <c r="I169" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J169"/>
@@ -19719,7 +19749,7 @@
         <v>366.048768</v>
       </c>
       <c r="C170" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.57195119999999999</v>
       </c>
       <c r="D170" s="74" t="s">
@@ -19731,10 +19761,10 @@
       <c r="F170" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G170" s="90"/>
-      <c r="H170" s="91"/>
-      <c r="I170" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G170, $K$12:$K$18, 0)), "soft", IF(EXACT(F170, G170), "none", "hard"))</f>
+      <c r="G170" s="83"/>
+      <c r="H170" s="84"/>
+      <c r="I170" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J170"/>
@@ -19831,7 +19861,7 @@
         <v>138.452519</v>
       </c>
       <c r="C171" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.21633206093750001</v>
       </c>
       <c r="D171" s="74" t="s">
@@ -19843,10 +19873,10 @@
       <c r="F171" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G171" s="90"/>
-      <c r="H171" s="91"/>
-      <c r="I171" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G171, $K$12:$K$18, 0)), "soft", IF(EXACT(F171, G171), "none", "hard"))</f>
+      <c r="G171" s="83"/>
+      <c r="H171" s="84"/>
+      <c r="I171" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J171"/>
@@ -19943,7 +19973,7 @@
         <v>601.16265199999998</v>
       </c>
       <c r="C172" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.93931664375000001</v>
       </c>
       <c r="D172" s="74" t="s">
@@ -19955,10 +19985,10 @@
       <c r="F172" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G172" s="90"/>
-      <c r="H172" s="91"/>
-      <c r="I172" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G172, $K$12:$K$18, 0)), "soft", IF(EXACT(F172, G172), "none", "hard"))</f>
+      <c r="G172" s="83"/>
+      <c r="H172" s="84"/>
+      <c r="I172" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J172"/>
@@ -20055,7 +20085,7 @@
         <v>30.981491999999999</v>
       </c>
       <c r="C173" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4.8408581249999999E-2</v>
       </c>
       <c r="D173" s="74" t="s">
@@ -20067,10 +20097,10 @@
       <c r="F173" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G173" s="90"/>
-      <c r="H173" s="91"/>
-      <c r="I173" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G173, $K$12:$K$18, 0)), "soft", IF(EXACT(F173, G173), "none", "hard"))</f>
+      <c r="G173" s="83"/>
+      <c r="H173" s="84"/>
+      <c r="I173" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J173"/>
@@ -20167,7 +20197,7 @@
         <v>115.6</v>
       </c>
       <c r="C174" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.18062500000000001</v>
       </c>
       <c r="D174" s="74" t="s">
@@ -20179,10 +20209,10 @@
       <c r="F174" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G174" s="90"/>
-      <c r="H174" s="91"/>
-      <c r="I174" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G174, $K$12:$K$18, 0)), "soft", IF(EXACT(F174, G174), "none", "hard"))</f>
+      <c r="G174" s="83"/>
+      <c r="H174" s="84"/>
+      <c r="I174" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J174"/>
@@ -20279,7 +20309,7 @@
         <v>116.251661</v>
       </c>
       <c r="C175" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.18164322031250002</v>
       </c>
       <c r="D175" s="74" t="s">
@@ -20291,10 +20321,10 @@
       <c r="F175" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="G175" s="90"/>
-      <c r="H175" s="91"/>
-      <c r="I175" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G175, $K$12:$K$18, 0)), "soft", IF(EXACT(F175, G175), "none", "hard"))</f>
+      <c r="G175" s="83"/>
+      <c r="H175" s="84"/>
+      <c r="I175" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J175"/>
@@ -20391,7 +20421,7 @@
         <v>41.566608000000002</v>
       </c>
       <c r="C176" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.4947825000000001E-2</v>
       </c>
       <c r="D176" s="74" t="s">
@@ -20403,10 +20433,10 @@
       <c r="F176" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G176" s="90"/>
-      <c r="H176" s="91"/>
-      <c r="I176" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G176, $K$12:$K$18, 0)), "soft", IF(EXACT(F176, G176), "none", "hard"))</f>
+      <c r="G176" s="83"/>
+      <c r="H176" s="84"/>
+      <c r="I176" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J176"/>
@@ -20503,7 +20533,7 @@
         <v>31.267749999999999</v>
       </c>
       <c r="C177" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4.8855859375000005E-2</v>
       </c>
       <c r="D177" s="74" t="s">
@@ -20515,10 +20545,10 @@
       <c r="F177" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G177" s="90"/>
-      <c r="H177" s="91"/>
-      <c r="I177" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G177, $K$12:$K$18, 0)), "soft", IF(EXACT(F177, G177), "none", "hard"))</f>
+      <c r="G177" s="83"/>
+      <c r="H177" s="84"/>
+      <c r="I177" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J177"/>
@@ -20615,7 +20645,7 @@
         <v>120.05146499999999</v>
       </c>
       <c r="C178" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.18758041406250001</v>
       </c>
       <c r="D178" s="74" t="s">
@@ -20627,10 +20657,10 @@
       <c r="F178" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G178" s="90"/>
-      <c r="H178" s="91"/>
-      <c r="I178" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G178, $K$12:$K$18, 0)), "soft", IF(EXACT(F178, G178), "none", "hard"))</f>
+      <c r="G178" s="83"/>
+      <c r="H178" s="84"/>
+      <c r="I178" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J178"/>
@@ -20727,7 +20757,7 @@
         <v>315.03304400000002</v>
       </c>
       <c r="C179" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.49223913125000007</v>
       </c>
       <c r="D179" s="74" t="s">
@@ -20739,10 +20769,10 @@
       <c r="F179" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G179" s="90"/>
-      <c r="H179" s="91"/>
-      <c r="I179" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G179, $K$12:$K$18, 0)), "soft", IF(EXACT(F179, G179), "none", "hard"))</f>
+      <c r="G179" s="83"/>
+      <c r="H179" s="84"/>
+      <c r="I179" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J179"/>
@@ -20839,7 +20869,7 @@
         <v>103.825344</v>
       </c>
       <c r="C180" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.16222710000000001</v>
       </c>
       <c r="D180" s="74" t="s">
@@ -20851,10 +20881,10 @@
       <c r="F180" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G180" s="90"/>
-      <c r="H180" s="91"/>
-      <c r="I180" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G180, $K$12:$K$18, 0)), "soft", IF(EXACT(F180, G180), "none", "hard"))</f>
+      <c r="G180" s="83"/>
+      <c r="H180" s="84"/>
+      <c r="I180" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J180"/>
@@ -20951,7 +20981,7 @@
         <v>55.579112000000002</v>
       </c>
       <c r="C181" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.6842362500000006E-2</v>
       </c>
       <c r="D181" s="74" t="s">
@@ -20963,10 +20993,10 @@
       <c r="F181" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G181" s="90"/>
-      <c r="H181" s="91"/>
-      <c r="I181" s="86" t="str">
-        <f>IF(ISNUMBER(MATCH(G181, $K$12:$K$18, 0)), "soft", IF(EXACT(F181, G181), "none", "hard"))</f>
+      <c r="G181" s="83"/>
+      <c r="H181" s="84"/>
+      <c r="I181" s="79" t="str">
+        <f t="shared" si="13"/>
         <v>hard</v>
       </c>
       <c r="J181"/>
@@ -21482,14 +21512,14 @@
       <c r="I1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
@@ -21524,12 +21554,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -21561,12 +21591,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
     </row>
     <row r="4" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -21597,12 +21627,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
     </row>
     <row r="5" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -21633,12 +21663,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
     </row>
     <row r="6" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -21669,12 +21699,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
     </row>
     <row r="7" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -21705,12 +21735,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
     </row>
     <row r="8" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -21741,12 +21771,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -21777,12 +21807,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
     </row>
     <row r="10" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -21813,12 +21843,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
     </row>
     <row r="11" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -21849,12 +21879,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
     </row>
     <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -21885,12 +21915,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
     </row>
     <row r="13" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -26543,16 +26573,16 @@
       <c r="I162" s="10">
         <v>1.5475000000000001</v>
       </c>
-      <c r="J162" s="80" t="s">
+      <c r="J162" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="K162" s="81"/>
-      <c r="L162" s="81"/>
-      <c r="M162" s="81"/>
-      <c r="N162" s="81"/>
-      <c r="O162" s="81"/>
-      <c r="P162" s="81"/>
-      <c r="Q162" s="81"/>
+      <c r="K162" s="105"/>
+      <c r="L162" s="105"/>
+      <c r="M162" s="105"/>
+      <c r="N162" s="105"/>
+      <c r="O162" s="105"/>
+      <c r="P162" s="105"/>
+      <c r="Q162" s="105"/>
       <c r="W162" s="1"/>
     </row>
     <row r="163" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26583,14 +26613,14 @@
       <c r="I163" s="10">
         <v>0.98</v>
       </c>
-      <c r="J163" s="81"/>
-      <c r="K163" s="81"/>
-      <c r="L163" s="81"/>
-      <c r="M163" s="81"/>
-      <c r="N163" s="81"/>
-      <c r="O163" s="81"/>
-      <c r="P163" s="81"/>
-      <c r="Q163" s="81"/>
+      <c r="J163" s="105"/>
+      <c r="K163" s="105"/>
+      <c r="L163" s="105"/>
+      <c r="M163" s="105"/>
+      <c r="N163" s="105"/>
+      <c r="O163" s="105"/>
+      <c r="P163" s="105"/>
+      <c r="Q163" s="105"/>
       <c r="W163" s="1"/>
     </row>
     <row r="164" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26621,14 +26651,14 @@
       <c r="I164" s="10">
         <v>0.98</v>
       </c>
-      <c r="J164" s="81"/>
-      <c r="K164" s="81"/>
-      <c r="L164" s="81"/>
-      <c r="M164" s="81"/>
-      <c r="N164" s="81"/>
-      <c r="O164" s="81"/>
-      <c r="P164" s="81"/>
-      <c r="Q164" s="81"/>
+      <c r="J164" s="105"/>
+      <c r="K164" s="105"/>
+      <c r="L164" s="105"/>
+      <c r="M164" s="105"/>
+      <c r="N164" s="105"/>
+      <c r="O164" s="105"/>
+      <c r="P164" s="105"/>
+      <c r="Q164" s="105"/>
       <c r="W164" s="1"/>
     </row>
     <row r="165" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26659,14 +26689,14 @@
       <c r="I165" s="10">
         <v>0.98</v>
       </c>
-      <c r="J165" s="81"/>
-      <c r="K165" s="81"/>
-      <c r="L165" s="81"/>
-      <c r="M165" s="81"/>
-      <c r="N165" s="81"/>
-      <c r="O165" s="81"/>
-      <c r="P165" s="81"/>
-      <c r="Q165" s="81"/>
+      <c r="J165" s="105"/>
+      <c r="K165" s="105"/>
+      <c r="L165" s="105"/>
+      <c r="M165" s="105"/>
+      <c r="N165" s="105"/>
+      <c r="O165" s="105"/>
+      <c r="P165" s="105"/>
+      <c r="Q165" s="105"/>
       <c r="W165" s="1"/>
     </row>
     <row r="166" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26697,14 +26727,14 @@
       <c r="I166" s="10">
         <v>0</v>
       </c>
-      <c r="J166" s="81"/>
-      <c r="K166" s="81"/>
-      <c r="L166" s="81"/>
-      <c r="M166" s="81"/>
-      <c r="N166" s="81"/>
-      <c r="O166" s="81"/>
-      <c r="P166" s="81"/>
-      <c r="Q166" s="81"/>
+      <c r="J166" s="105"/>
+      <c r="K166" s="105"/>
+      <c r="L166" s="105"/>
+      <c r="M166" s="105"/>
+      <c r="N166" s="105"/>
+      <c r="O166" s="105"/>
+      <c r="P166" s="105"/>
+      <c r="Q166" s="105"/>
       <c r="W166" s="1"/>
     </row>
     <row r="167" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26735,14 +26765,14 @@
       <c r="I167" s="10">
         <v>1.07</v>
       </c>
-      <c r="J167" s="81"/>
-      <c r="K167" s="81"/>
-      <c r="L167" s="81"/>
-      <c r="M167" s="81"/>
-      <c r="N167" s="81"/>
-      <c r="O167" s="81"/>
-      <c r="P167" s="81"/>
-      <c r="Q167" s="81"/>
+      <c r="J167" s="105"/>
+      <c r="K167" s="105"/>
+      <c r="L167" s="105"/>
+      <c r="M167" s="105"/>
+      <c r="N167" s="105"/>
+      <c r="O167" s="105"/>
+      <c r="P167" s="105"/>
+      <c r="Q167" s="105"/>
       <c r="W167" s="1"/>
     </row>
     <row r="168" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26773,14 +26803,14 @@
       <c r="I168" s="10">
         <v>0.98</v>
       </c>
-      <c r="J168" s="81"/>
-      <c r="K168" s="81"/>
-      <c r="L168" s="81"/>
-      <c r="M168" s="81"/>
-      <c r="N168" s="81"/>
-      <c r="O168" s="81"/>
-      <c r="P168" s="81"/>
-      <c r="Q168" s="81"/>
+      <c r="J168" s="105"/>
+      <c r="K168" s="105"/>
+      <c r="L168" s="105"/>
+      <c r="M168" s="105"/>
+      <c r="N168" s="105"/>
+      <c r="O168" s="105"/>
+      <c r="P168" s="105"/>
+      <c r="Q168" s="105"/>
       <c r="W168" s="1"/>
     </row>
     <row r="169" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26811,14 +26841,14 @@
       <c r="I169" s="10">
         <v>3.9275000000000002</v>
       </c>
-      <c r="J169" s="81"/>
-      <c r="K169" s="81"/>
-      <c r="L169" s="81"/>
-      <c r="M169" s="81"/>
-      <c r="N169" s="81"/>
-      <c r="O169" s="81"/>
-      <c r="P169" s="81"/>
-      <c r="Q169" s="81"/>
+      <c r="J169" s="105"/>
+      <c r="K169" s="105"/>
+      <c r="L169" s="105"/>
+      <c r="M169" s="105"/>
+      <c r="N169" s="105"/>
+      <c r="O169" s="105"/>
+      <c r="P169" s="105"/>
+      <c r="Q169" s="105"/>
       <c r="W169" s="1"/>
     </row>
     <row r="170" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26849,14 +26879,14 @@
       <c r="I170" s="10">
         <v>3.9275000000000002</v>
       </c>
-      <c r="J170" s="81"/>
-      <c r="K170" s="81"/>
-      <c r="L170" s="81"/>
-      <c r="M170" s="81"/>
-      <c r="N170" s="81"/>
-      <c r="O170" s="81"/>
-      <c r="P170" s="81"/>
-      <c r="Q170" s="81"/>
+      <c r="J170" s="105"/>
+      <c r="K170" s="105"/>
+      <c r="L170" s="105"/>
+      <c r="M170" s="105"/>
+      <c r="N170" s="105"/>
+      <c r="O170" s="105"/>
+      <c r="P170" s="105"/>
+      <c r="Q170" s="105"/>
       <c r="W170" s="1"/>
     </row>
     <row r="171" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26887,14 +26917,14 @@
       <c r="I171" s="10">
         <v>0.98</v>
       </c>
-      <c r="J171" s="81"/>
-      <c r="K171" s="81"/>
-      <c r="L171" s="81"/>
-      <c r="M171" s="81"/>
-      <c r="N171" s="81"/>
-      <c r="O171" s="81"/>
-      <c r="P171" s="81"/>
-      <c r="Q171" s="81"/>
+      <c r="J171" s="105"/>
+      <c r="K171" s="105"/>
+      <c r="L171" s="105"/>
+      <c r="M171" s="105"/>
+      <c r="N171" s="105"/>
+      <c r="O171" s="105"/>
+      <c r="P171" s="105"/>
+      <c r="Q171" s="105"/>
       <c r="W171" s="1"/>
     </row>
     <row r="172" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26925,14 +26955,14 @@
       <c r="I172" s="10">
         <v>4.0674999999999999</v>
       </c>
-      <c r="J172" s="81"/>
-      <c r="K172" s="81"/>
-      <c r="L172" s="81"/>
-      <c r="M172" s="81"/>
-      <c r="N172" s="81"/>
-      <c r="O172" s="81"/>
-      <c r="P172" s="81"/>
-      <c r="Q172" s="81"/>
+      <c r="J172" s="105"/>
+      <c r="K172" s="105"/>
+      <c r="L172" s="105"/>
+      <c r="M172" s="105"/>
+      <c r="N172" s="105"/>
+      <c r="O172" s="105"/>
+      <c r="P172" s="105"/>
+      <c r="Q172" s="105"/>
       <c r="W172" s="1"/>
     </row>
     <row r="173" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26963,14 +26993,14 @@
       <c r="I173" s="10">
         <v>4.0674999999999999</v>
       </c>
-      <c r="J173" s="81"/>
-      <c r="K173" s="81"/>
-      <c r="L173" s="81"/>
-      <c r="M173" s="81"/>
-      <c r="N173" s="81"/>
-      <c r="O173" s="81"/>
-      <c r="P173" s="81"/>
-      <c r="Q173" s="81"/>
+      <c r="J173" s="105"/>
+      <c r="K173" s="105"/>
+      <c r="L173" s="105"/>
+      <c r="M173" s="105"/>
+      <c r="N173" s="105"/>
+      <c r="O173" s="105"/>
+      <c r="P173" s="105"/>
+      <c r="Q173" s="105"/>
       <c r="W173" s="1"/>
     </row>
     <row r="174" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -27001,14 +27031,14 @@
       <c r="I174" s="10">
         <v>0.98</v>
       </c>
-      <c r="J174" s="81"/>
-      <c r="K174" s="81"/>
-      <c r="L174" s="81"/>
-      <c r="M174" s="81"/>
-      <c r="N174" s="81"/>
-      <c r="O174" s="81"/>
-      <c r="P174" s="81"/>
-      <c r="Q174" s="81"/>
+      <c r="J174" s="105"/>
+      <c r="K174" s="105"/>
+      <c r="L174" s="105"/>
+      <c r="M174" s="105"/>
+      <c r="N174" s="105"/>
+      <c r="O174" s="105"/>
+      <c r="P174" s="105"/>
+      <c r="Q174" s="105"/>
       <c r="W174" s="1"/>
     </row>
     <row r="175" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -27039,14 +27069,14 @@
       <c r="I175" s="10">
         <v>0.98</v>
       </c>
-      <c r="J175" s="81"/>
-      <c r="K175" s="81"/>
-      <c r="L175" s="81"/>
-      <c r="M175" s="81"/>
-      <c r="N175" s="81"/>
-      <c r="O175" s="81"/>
-      <c r="P175" s="81"/>
-      <c r="Q175" s="81"/>
+      <c r="J175" s="105"/>
+      <c r="K175" s="105"/>
+      <c r="L175" s="105"/>
+      <c r="M175" s="105"/>
+      <c r="N175" s="105"/>
+      <c r="O175" s="105"/>
+      <c r="P175" s="105"/>
+      <c r="Q175" s="105"/>
       <c r="W175" s="1"/>
     </row>
     <row r="176" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -27077,14 +27107,14 @@
       <c r="I176" s="10">
         <v>4.3599999999999994</v>
       </c>
-      <c r="J176" s="81"/>
-      <c r="K176" s="81"/>
-      <c r="L176" s="81"/>
-      <c r="M176" s="81"/>
-      <c r="N176" s="81"/>
-      <c r="O176" s="81"/>
-      <c r="P176" s="81"/>
-      <c r="Q176" s="81"/>
+      <c r="J176" s="105"/>
+      <c r="K176" s="105"/>
+      <c r="L176" s="105"/>
+      <c r="M176" s="105"/>
+      <c r="N176" s="105"/>
+      <c r="O176" s="105"/>
+      <c r="P176" s="105"/>
+      <c r="Q176" s="105"/>
       <c r="W176" s="1"/>
     </row>
     <row r="177" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -29591,26 +29621,26 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:27" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="24"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="82" t="s">
+      <c r="J2" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="R2" s="84" t="s">
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="R2" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="S2" s="79"/>
+      <c r="S2" s="103"/>
     </row>
     <row r="3" spans="1:27" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -31759,8 +31789,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI171"/>
   <sheetViews>
-    <sheetView topLeftCell="R4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36:AE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34202,6 +34234,9 @@
       <c r="AH30" s="46">
         <v>21</v>
       </c>
+      <c r="AI30" s="45" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="31" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
@@ -34710,94 +34745,94 @@
         <v>64</v>
       </c>
       <c r="B36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="44">
         <v>0</v>
       </c>
       <c r="F36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="44">
         <v>1</v>
       </c>
       <c r="K36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="44">
         <v>0</v>

--- a/MP Workbook LAUNCHPAD.xlsx
+++ b/MP Workbook LAUNCHPAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="360" windowWidth="14430" windowHeight="11355" activeTab="3"/>
+    <workbookView xWindow="1995" yWindow="360" windowWidth="14430" windowHeight="11355" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MP_new" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="311">
   <si>
     <t>Scenario</t>
   </si>
@@ -710,15 +710,6 @@
     <t>T30-1 should not be changed (remain Breeding Waterfowl and Meadow)</t>
   </si>
   <si>
-    <t>All DCAs under Gravel in Step 0 should reamin as Gravel (Corridor 1, Phase 8, T1A-3, T35-1, T35-2, T15, T22, T20, T32-2, T35-3, T37-1a, T10-3a, T21-1, T21-2)</t>
-  </si>
-  <si>
-    <t>All DCAs under Brine in Step 0 should reamin as Brine (T10-3W, T2-5, T29-4, T36-3 Addition, T36-3E, T36-3W, T5-4, T8W)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All other waterless stay waterless (any Tillage, Till-Brine or Sand Fences in Step 0) (T1A-1 (sand fences), T12-1, T2-3, T2-4, T24 Addition, T3NE, T3SE, T3SW (Tillage), </t>
-  </si>
-  <si>
     <t>Managed Vegetation (2008)</t>
   </si>
   <si>
@@ -824,42 +815,6 @@
     <t>T10-1a waterless only</t>
   </si>
   <si>
-    <t>T13-1 Addition should be sprinklers</t>
-  </si>
-  <si>
-    <t>T23-5 should not be gravel</t>
-  </si>
-  <si>
-    <t>T11 should be Brine</t>
-  </si>
-  <si>
-    <t>T23NE should be brine</t>
-  </si>
-  <si>
-    <t>T23SE should be sand fences</t>
-  </si>
-  <si>
-    <t>T25-3 cannot be tillage or gravel</t>
-  </si>
-  <si>
-    <t>T26 no tilalge, sand fences or brine</t>
-  </si>
-  <si>
-    <t>T27 Addtion only Brine</t>
-  </si>
-  <si>
-    <t>T32-1 should stay as Meadow</t>
-  </si>
-  <si>
-    <t>T29-3 only Brine</t>
-  </si>
-  <si>
-    <t>T13-1 Additiom waterless only</t>
-  </si>
-  <si>
-    <t>T16 statys MWF and MSB</t>
-  </si>
-  <si>
     <t>T3SE, T4-3, T4-3 Addition no ponds</t>
   </si>
   <si>
@@ -914,12 +869,6 @@
     <t>Sand Fences Area Limit (lakewide total)</t>
   </si>
   <si>
-    <t>decimal % of Base Acreage</t>
-  </si>
-  <si>
-    <t>Habitat Acreage Target (each guild)</t>
-  </si>
-  <si>
     <t>Transition Type</t>
   </si>
   <si>
@@ -966,6 +915,54 @@
   </si>
   <si>
     <t>T1A-2 to stay as BWF</t>
+  </si>
+  <si>
+    <t>T16 stays MWF and MSB</t>
+  </si>
+  <si>
+    <t>Habitat Area Targets</t>
+  </si>
+  <si>
+    <t>decimal % of Base case area</t>
+  </si>
+  <si>
+    <t>All DCAs under waterless DCM (Tillage, Brine, Gravel, Sand Fences) in Step 0 should be kept as-is.</t>
+  </si>
+  <si>
+    <t>T13-1 Addition sprinklers only</t>
+  </si>
+  <si>
+    <t>T23-5 should no gravel</t>
+  </si>
+  <si>
+    <t>T11 should Brine only</t>
+  </si>
+  <si>
+    <t>T23NE Brine only</t>
+  </si>
+  <si>
+    <t>T23SE no Tillage</t>
+  </si>
+  <si>
+    <t>T25-3 no Tillage or Gravel</t>
+  </si>
+  <si>
+    <t>T26 should no tillage, sand fences or brine</t>
+  </si>
+  <si>
+    <t>T27 Addtion Brine only</t>
+  </si>
+  <si>
+    <t>T29-3 Brine only</t>
+  </si>
+  <si>
+    <t>All Meadow stays as-is</t>
+  </si>
+  <si>
+    <t>T13-1 Addition waterless only</t>
+  </si>
+  <si>
+    <t>Note: in general case, waterless DCMs have no habitat value. In a few specific instances in Base case, some DCAs under waterless DCMs had habitat (see "Custom HV and WD" sheet).</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1389,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1609,6 +1606,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -2049,8 +2052,8 @@
   </sheetPr>
   <dimension ref="A1:CP200"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,7 +2066,7 @@
     <col min="8" max="8" width="16.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="62" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="62" customWidth="1"/>
-    <col min="11" max="11" width="37" style="62" customWidth="1"/>
+    <col min="11" max="11" width="35" style="62" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" style="62" customWidth="1"/>
     <col min="13" max="13" width="14.140625" style="62" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" style="62" customWidth="1"/>
@@ -2126,19 +2129,26 @@
         <v>5</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="K2" s="100" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="L2" s="101"/>
       <c r="M2" s="66"/>
+      <c r="O2" s="100" t="s">
+        <v>296</v>
+      </c>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="109" t="s">
+        <v>297</v>
+      </c>
       <c r="AI2" s="63"/>
       <c r="AJ2" s="62"/>
       <c r="AW2" s="63"/>
@@ -2154,7 +2164,7 @@
       <c r="CO2" s="62"/>
       <c r="CP2" s="62"/>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2189,14 +2199,21 @@
         <v>7</v>
       </c>
       <c r="K3" s="86" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="L3" s="87">
         <v>3</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>283</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="O3" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="87">
+        <v>0.9</v>
+      </c>
+      <c r="Q3" s="110"/>
       <c r="AI3" s="63"/>
       <c r="AJ3" s="62"/>
       <c r="AW3" s="63"/>
@@ -2247,14 +2264,21 @@
         <v>7</v>
       </c>
       <c r="K4" s="86" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="L4" s="87">
         <v>3</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>283</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="O4" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="87">
+        <v>0.9</v>
+      </c>
+      <c r="Q4" s="110"/>
       <c r="AI4" s="63"/>
       <c r="AJ4" s="62"/>
       <c r="AW4" s="63"/>
@@ -2307,14 +2331,21 @@
         <v>0</v>
       </c>
       <c r="K5" s="86" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="L5" s="87">
-        <v>0.9</v>
+        <v>100</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>294</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="O5" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="87">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="110"/>
       <c r="AI5" s="63"/>
       <c r="AJ5" s="62"/>
       <c r="AW5" s="63"/>
@@ -2367,14 +2398,21 @@
         <v>0</v>
       </c>
       <c r="K6" s="86" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L6" s="87">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M6" s="62" t="s">
-        <v>283</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="O6" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="87">
+        <v>0.9</v>
+      </c>
+      <c r="Q6" s="110"/>
       <c r="AI6" s="63"/>
       <c r="AJ6" s="62"/>
       <c r="AW6" s="63"/>
@@ -2426,14 +2464,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K7" s="86" t="s">
-        <v>293</v>
-      </c>
-      <c r="L7" s="87">
-        <v>100</v>
-      </c>
-      <c r="M7" s="62" t="s">
-        <v>283</v>
+      <c r="O7" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="87">
+        <v>0.9</v>
       </c>
       <c r="AI7" s="63"/>
       <c r="AJ7" s="62"/>
@@ -2600,13 +2635,13 @@
         <v>9</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="K11" s="53" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="M11" s="98" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="N11" s="99"/>
       <c r="O11" s="66" t="s">
@@ -2663,13 +2698,13 @@
         <v>38</v>
       </c>
       <c r="M12" s="97" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N12" s="41" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="O12" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AI12" s="63"/>
       <c r="AJ12" s="62"/>
@@ -2722,13 +2757,13 @@
         <v>63</v>
       </c>
       <c r="M13" s="97" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N13" s="41" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="O13" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="AI13" s="63"/>
       <c r="AJ13" s="62"/>
@@ -2781,13 +2816,13 @@
         <v>34</v>
       </c>
       <c r="M14" s="97" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N14" s="41" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="O14" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="AI14" s="63"/>
       <c r="AJ14" s="62"/>
@@ -2843,10 +2878,10 @@
         <v>63</v>
       </c>
       <c r="N15" s="41" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="O15" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="AI15" s="63"/>
       <c r="AJ15" s="62"/>
@@ -2902,10 +2937,10 @@
         <v>58</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="O16" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="AI16" s="63"/>
       <c r="AJ16" s="62"/>
@@ -3097,7 +3132,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="93" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="J21"/>
       <c r="K21" s="57"/>
@@ -3187,7 +3222,7 @@
       </c>
       <c r="J22"/>
       <c r="K22" s="94" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="L22" s="94"/>
       <c r="M22" s="94"/>
@@ -3301,7 +3336,7 @@
       </c>
       <c r="J23"/>
       <c r="K23" s="95" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="L23" s="78"/>
       <c r="M23" s="78"/>
@@ -3415,7 +3450,7 @@
       </c>
       <c r="J24"/>
       <c r="K24" s="96" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="L24" s="79"/>
       <c r="M24" s="79"/>
@@ -21434,9 +21469,10 @@
       <c r="J200" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21458,7 +21494,7 @@
           <x14:formula1>
             <xm:f>'Generic HV &amp; WD'!$A$28:$A$32</xm:f>
           </x14:formula1>
-          <xm:sqref>M16 M12:M15</xm:sqref>
+          <xm:sqref>M12:M16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -21474,7 +21510,7 @@
   <dimension ref="A1:W248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C249" sqref="C249"/>
     </sheetView>
   </sheetViews>
@@ -21533,7 +21569,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D2" s="1">
         <v>0.1619548872180451</v>
@@ -21570,7 +21606,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D3" s="1">
         <v>0.24035532994923858</v>
@@ -21606,7 +21642,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -21642,7 +21678,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -21678,7 +21714,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -21714,7 +21750,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -21750,7 +21786,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -21786,7 +21822,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -21822,7 +21858,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -21858,7 +21894,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -21894,7 +21930,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -21930,7 +21966,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -21961,7 +21997,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -21992,7 +22028,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -22023,7 +22059,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -22054,7 +22090,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -22085,7 +22121,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -22116,7 +22152,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -22147,7 +22183,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -22178,7 +22214,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -22209,7 +22245,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -22240,7 +22276,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -22271,7 +22307,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -22302,7 +22338,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -22333,7 +22369,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -22364,7 +22400,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -22395,7 +22431,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -22426,7 +22462,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -22457,7 +22493,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -22488,7 +22524,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -22519,7 +22555,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -22550,7 +22586,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -22581,7 +22617,7 @@
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -22612,7 +22648,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -22643,7 +22679,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -22674,7 +22710,7 @@
         <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -22705,7 +22741,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -22736,7 +22772,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D39" s="1">
         <v>0.17260904187551165</v>
@@ -22767,7 +22803,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D40" s="1">
         <v>0.14497210174440919</v>
@@ -22798,7 +22834,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -22829,7 +22865,7 @@
         <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -22860,7 +22896,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -22891,7 +22927,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -22922,7 +22958,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -22953,7 +22989,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -22984,7 +23020,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -23015,7 +23051,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -23046,7 +23082,7 @@
         <v>36</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -23077,7 +23113,7 @@
         <v>36</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -23108,7 +23144,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -23139,7 +23175,7 @@
         <v>36</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -23170,7 +23206,7 @@
         <v>36</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -23201,7 +23237,7 @@
         <v>38</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -23232,7 +23268,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -23263,7 +23299,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -23294,7 +23330,7 @@
         <v>36</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -23325,7 +23361,7 @@
         <v>36</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -23356,7 +23392,7 @@
         <v>36</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -23387,7 +23423,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -23418,7 +23454,7 @@
         <v>36</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -23449,7 +23485,7 @@
         <v>36</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D62" s="1">
         <v>0.16832229580573951</v>
@@ -23480,7 +23516,7 @@
         <v>36</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D63" s="1">
         <v>0.16576666666666665</v>
@@ -23511,7 +23547,7 @@
         <v>29</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -23542,7 +23578,7 @@
         <v>29</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
@@ -23573,7 +23609,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -23604,7 +23640,7 @@
         <v>36</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -23639,7 +23675,7 @@
         <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D68" s="1">
         <v>0.34571304221674165</v>
@@ -23670,7 +23706,7 @@
         <v>29</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -23701,7 +23737,7 @@
         <v>29</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -23732,7 +23768,7 @@
         <v>43</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D71" s="1">
         <v>5.7664884135472369E-2</v>
@@ -23763,7 +23799,7 @@
         <v>43</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D72" s="1">
         <v>2.9393043531919214E-2</v>
@@ -23794,7 +23830,7 @@
         <v>29</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -23825,7 +23861,7 @@
         <v>29</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -23856,7 +23892,7 @@
         <v>43</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -23887,7 +23923,7 @@
         <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D76" s="1">
         <v>0.34112343966712899</v>
@@ -23918,7 +23954,7 @@
         <v>36</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -23949,7 +23985,7 @@
         <v>29</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -23980,7 +24016,7 @@
         <v>29</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -24011,7 +24047,7 @@
         <v>38</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -24042,7 +24078,7 @@
         <v>38</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -24073,7 +24109,7 @@
         <v>38</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -24104,7 +24140,7 @@
         <v>43</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D83" s="1">
         <v>6.7301038062283741E-2</v>
@@ -24135,7 +24171,7 @@
         <v>43</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -24166,7 +24202,7 @@
         <v>43</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D85" s="1">
         <v>2.9418934495912277E-2</v>
@@ -24197,7 +24233,7 @@
         <v>43</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -24228,7 +24264,7 @@
         <v>43</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -24259,7 +24295,7 @@
         <v>43</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -24290,7 +24326,7 @@
         <v>36</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
@@ -24321,7 +24357,7 @@
         <v>36</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
@@ -24352,7 +24388,7 @@
         <v>36</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -24383,7 +24419,7 @@
         <v>36</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
@@ -24414,7 +24450,7 @@
         <v>36</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -24445,7 +24481,7 @@
         <v>36</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
@@ -24476,7 +24512,7 @@
         <v>29</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -24507,7 +24543,7 @@
         <v>29</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -24538,7 +24574,7 @@
         <v>36</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D97" s="1">
         <v>0.33217592592592587</v>
@@ -24569,7 +24605,7 @@
         <v>124</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -24600,7 +24636,7 @@
         <v>36</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
@@ -24631,7 +24667,7 @@
         <v>36</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D100" s="1">
         <v>0.36257183908045981</v>
@@ -24662,7 +24698,7 @@
         <v>29</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D101" s="1">
         <v>0.3681141439205956</v>
@@ -24693,7 +24729,7 @@
         <v>129</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D102" s="1">
         <v>0.16350000000000001</v>
@@ -24724,7 +24760,7 @@
         <v>129</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D103" s="1">
         <v>0.20609137055837562</v>
@@ -24755,7 +24791,7 @@
         <v>29</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -24786,7 +24822,7 @@
         <v>129</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D105" s="1">
         <v>0.16350000000000001</v>
@@ -24817,7 +24853,7 @@
         <v>129</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D106" s="1">
         <v>0.16350000000000001</v>
@@ -24848,7 +24884,7 @@
         <v>129</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D107" s="1">
         <v>0.16350000000000001</v>
@@ -24879,7 +24915,7 @@
         <v>129</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D108" s="1">
         <v>0.16350000000000001</v>
@@ -24910,7 +24946,7 @@
         <v>129</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D109" s="1">
         <v>0.22174999999999997</v>
@@ -24941,7 +24977,7 @@
         <v>129</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D110" s="1">
         <v>0.16350000000000001</v>
@@ -24972,7 +25008,7 @@
         <v>129</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D111" s="1">
         <v>0.16350000000000001</v>
@@ -25003,7 +25039,7 @@
         <v>129</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D112" s="1">
         <v>0.16350000000000001</v>
@@ -25034,7 +25070,7 @@
         <v>129</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D113" s="1">
         <v>0.16350000000000001</v>
@@ -25065,7 +25101,7 @@
         <v>129</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D114" s="1">
         <v>0.16350000000000001</v>
@@ -25096,7 +25132,7 @@
         <v>129</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D115" s="1">
         <v>0.16350000000000001</v>
@@ -25127,7 +25163,7 @@
         <v>129</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D116" s="1">
         <v>0.16350000000000001</v>
@@ -25158,7 +25194,7 @@
         <v>129</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D117" s="1">
         <v>0.16350000000000001</v>
@@ -25189,7 +25225,7 @@
         <v>129</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D118" s="1">
         <v>0.16350000000000001</v>
@@ -25220,7 +25256,7 @@
         <v>129</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D119" s="1">
         <v>0.16350000000000001</v>
@@ -25251,7 +25287,7 @@
         <v>129</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D120" s="1">
         <v>0.16350000000000001</v>
@@ -25282,7 +25318,7 @@
         <v>129</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D121" s="1">
         <v>0.16350000000000001</v>
@@ -25313,7 +25349,7 @@
         <v>129</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D122" s="1">
         <v>0.16350000000000001</v>
@@ -25344,7 +25380,7 @@
         <v>129</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D123" s="1">
         <v>0.16350000000000001</v>
@@ -25375,7 +25411,7 @@
         <v>129</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D124" s="1">
         <v>0.16350000000000001</v>
@@ -25406,7 +25442,7 @@
         <v>129</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D125" s="1">
         <v>0.16350000000000001</v>
@@ -25437,7 +25473,7 @@
         <v>129</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D126" s="1">
         <v>0.16350000000000001</v>
@@ -25468,7 +25504,7 @@
         <v>129</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D127" s="1">
         <v>0.16350000000000001</v>
@@ -25499,7 +25535,7 @@
         <v>129</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D128" s="1">
         <v>0.22174999999999997</v>
@@ -25530,7 +25566,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D129" s="1">
         <v>0.22174999999999997</v>
@@ -25561,7 +25597,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D130" s="1">
         <v>0.22174999999999997</v>
@@ -25592,7 +25628,7 @@
         <v>129</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D131" s="1">
         <v>0.16350000000000001</v>
@@ -25623,7 +25659,7 @@
         <v>129</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D132" s="1">
         <v>0.16350000000000001</v>
@@ -25654,7 +25690,7 @@
         <v>129</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D133" s="1">
         <v>0.16350000000000001</v>
@@ -25685,7 +25721,7 @@
         <v>129</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D134" s="1">
         <v>0.16350000000000001</v>
@@ -25716,7 +25752,7 @@
         <v>129</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D135" s="1">
         <v>0.16350000000000001</v>
@@ -25747,7 +25783,7 @@
         <v>129</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D136" s="1">
         <v>0.16350000000000001</v>
@@ -25778,7 +25814,7 @@
         <v>129</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D137" s="1">
         <v>0.16350000000000001</v>
@@ -25809,7 +25845,7 @@
         <v>129</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D138" s="1">
         <v>0.16350000000000001</v>
@@ -25840,7 +25876,7 @@
         <v>129</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D139" s="1">
         <v>0.16350000000000001</v>
@@ -25871,7 +25907,7 @@
         <v>129</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D140" s="1">
         <v>0.16350000000000001</v>
@@ -25902,7 +25938,7 @@
         <v>129</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D141" s="1">
         <v>0.16350000000000001</v>
@@ -25933,7 +25969,7 @@
         <v>129</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D142" s="1">
         <v>0.16350000000000001</v>
@@ -25964,7 +26000,7 @@
         <v>129</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D143" s="1">
         <v>0.16350000000000001</v>
@@ -25995,7 +26031,7 @@
         <v>129</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D144" s="1">
         <v>0.16340852130325814</v>
@@ -26026,7 +26062,7 @@
         <v>129</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D145" s="1">
         <v>0.16350000000000001</v>
@@ -26057,7 +26093,7 @@
         <v>129</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D146" s="1">
         <v>0.16350000000000001</v>
@@ -26088,7 +26124,7 @@
         <v>129</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D147" s="1">
         <v>0.16347607052896726</v>
@@ -26119,7 +26155,7 @@
         <v>129</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D148" s="1">
         <v>0.16350000000000001</v>
@@ -26150,7 +26186,7 @@
         <v>129</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D149" s="1">
         <v>0.16350000000000001</v>
@@ -26181,7 +26217,7 @@
         <v>129</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D150" s="1">
         <v>0.16350000000000001</v>
@@ -26212,7 +26248,7 @@
         <v>129</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D151" s="1">
         <v>0.16336633663366337</v>
@@ -26243,7 +26279,7 @@
         <v>129</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D152" s="1">
         <v>0.16347607052896726</v>
@@ -26274,7 +26310,7 @@
         <v>129</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D153" s="1">
         <v>0.16350000000000001</v>
@@ -26305,7 +26341,7 @@
         <v>129</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D154" s="1">
         <v>0.16350000000000001</v>
@@ -26336,7 +26372,7 @@
         <v>129</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D155" s="1">
         <v>0.16350000000000001</v>
@@ -26367,7 +26403,7 @@
         <v>129</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D156" s="1">
         <v>0.16350000000000001</v>
@@ -26398,7 +26434,7 @@
         <v>129</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D157" s="1">
         <v>0.16350000000000001</v>
@@ -26429,7 +26465,7 @@
         <v>129</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D158" s="1">
         <v>0.16337349397590362</v>
@@ -26460,7 +26496,7 @@
         <v>129</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D159" s="1">
         <v>0.16348837209302325</v>
@@ -26491,7 +26527,7 @@
         <v>38</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D160" s="1">
         <v>0</v>
@@ -26522,7 +26558,7 @@
         <v>29</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -26553,7 +26589,7 @@
         <v>30</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D162" s="22">
         <v>0</v>
@@ -26593,7 +26629,7 @@
         <v>33</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D163" s="22">
         <v>0</v>
@@ -26631,7 +26667,7 @@
         <v>33</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D164" s="22">
         <v>0</v>
@@ -26669,7 +26705,7 @@
         <v>33</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D165" s="22">
         <v>0</v>
@@ -26707,7 +26743,7 @@
         <v>38</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D166" s="22">
         <v>0</v>
@@ -26745,7 +26781,7 @@
         <v>30</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D167" s="22">
         <v>0</v>
@@ -26783,7 +26819,7 @@
         <v>33</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D168" s="22">
         <v>0</v>
@@ -26821,7 +26857,7 @@
         <v>36</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D169" s="22">
         <v>0</v>
@@ -26859,7 +26895,7 @@
         <v>36</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D170" s="22">
         <v>0</v>
@@ -26897,7 +26933,7 @@
         <v>33</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D171" s="22">
         <v>0</v>
@@ -26935,7 +26971,7 @@
         <v>54</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D172" s="22">
         <v>0</v>
@@ -26973,7 +27009,7 @@
         <v>54</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D173" s="22">
         <v>0</v>
@@ -27011,7 +27047,7 @@
         <v>33</v>
       </c>
       <c r="C174" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D174" s="22">
         <v>0</v>
@@ -27049,7 +27085,7 @@
         <v>33</v>
       </c>
       <c r="C175" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D175" s="22">
         <v>0</v>
@@ -27087,7 +27123,7 @@
         <v>29</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D176" s="22">
         <v>0</v>
@@ -27125,7 +27161,7 @@
         <v>33</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D177" s="22">
         <v>0</v>
@@ -27158,7 +27194,7 @@
         <v>36</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D178" s="22">
         <v>0</v>
@@ -27191,7 +27227,7 @@
         <v>36</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D179" s="22">
         <v>0</v>
@@ -27224,7 +27260,7 @@
         <v>29</v>
       </c>
       <c r="C180" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D180" s="22">
         <v>0</v>
@@ -27257,7 +27293,7 @@
         <v>29</v>
       </c>
       <c r="C181" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D181" s="22">
         <v>0</v>
@@ -27290,7 +27326,7 @@
         <v>29</v>
       </c>
       <c r="C182" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D182" s="22">
         <v>0</v>
@@ -27323,7 +27359,7 @@
         <v>29</v>
       </c>
       <c r="C183" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D183" s="22">
         <v>0</v>
@@ -27356,7 +27392,7 @@
         <v>43</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D184" s="22">
         <v>0</v>
@@ -27389,7 +27425,7 @@
         <v>36</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D185" s="22">
         <v>0.25623790594558404</v>
@@ -27422,7 +27458,7 @@
         <v>29</v>
       </c>
       <c r="C186" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D186" s="22">
         <v>0.3072719469000792</v>
@@ -27455,7 +27491,7 @@
         <v>30</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D187" s="22">
         <v>0</v>
@@ -27488,7 +27524,7 @@
         <v>30</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D188" s="1">
         <v>0</v>
@@ -27521,7 +27557,7 @@
         <v>26</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
@@ -27554,7 +27590,7 @@
         <v>34</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D190" s="1">
         <v>0</v>
@@ -27587,7 +27623,7 @@
         <v>26</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D191" s="1">
         <v>0</v>
@@ -27620,7 +27656,7 @@
         <v>199</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D192" s="1">
         <v>0.61348618826838841</v>
@@ -27653,7 +27689,7 @@
         <v>26</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D193" s="1">
         <v>0</v>
@@ -27686,7 +27722,7 @@
         <v>36</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D194" s="1">
         <v>0</v>
@@ -27719,7 +27755,7 @@
         <v>26</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D195" s="1">
         <v>0</v>
@@ -27752,7 +27788,7 @@
         <v>26</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D196" s="1">
         <v>0</v>
@@ -27785,7 +27821,7 @@
         <v>26</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -27818,7 +27854,7 @@
         <v>124</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D198" s="1">
         <v>0.22579427120177961</v>
@@ -27851,7 +27887,7 @@
         <v>124</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D199" s="1">
         <v>0.27712907665452824</v>
@@ -27884,7 +27920,7 @@
         <v>26</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -27917,7 +27953,7 @@
         <v>34</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
@@ -27950,7 +27986,7 @@
         <v>34</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D202" s="1">
         <v>0</v>
@@ -27983,7 +28019,7 @@
         <v>34</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D203" s="1">
         <v>0</v>
@@ -28016,7 +28052,7 @@
         <v>5</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D204" s="1">
         <v>0.5938570581787751</v>
@@ -28049,7 +28085,7 @@
         <v>5</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D205" s="1">
         <v>0.4280920212459568</v>
@@ -28082,7 +28118,7 @@
         <v>38</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -28115,7 +28151,7 @@
         <v>124</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D207" s="1">
         <v>0.70311614561032765</v>
@@ -28148,7 +28184,7 @@
         <v>26</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D208" s="1">
         <v>2.939815783088038E-2</v>
@@ -28181,7 +28217,7 @@
         <v>26</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D209" s="1">
         <v>0</v>
@@ -28214,7 +28250,7 @@
         <v>26</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D210" s="1">
         <v>0</v>
@@ -28247,7 +28283,7 @@
         <v>26</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -28280,7 +28316,7 @@
         <v>5</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D212" s="1">
         <v>0.57999672167082694</v>
@@ -28313,7 +28349,7 @@
         <v>5</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D213" s="1">
         <v>0.53473837997478868</v>
@@ -28346,7 +28382,7 @@
         <v>26</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D214" s="1">
         <v>6.7304979947679047E-2</v>
@@ -28379,7 +28415,7 @@
         <v>68</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D215" s="1">
         <v>0</v>
@@ -28412,7 +28448,7 @@
         <v>33</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D216" s="1">
         <v>0</v>
@@ -28445,7 +28481,7 @@
         <v>33</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D217" s="1">
         <v>0</v>
@@ -28478,7 +28514,7 @@
         <v>33</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D218" s="1">
         <v>0</v>
@@ -28511,7 +28547,7 @@
         <v>33</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D219" s="1">
         <v>0</v>
@@ -28544,7 +28580,7 @@
         <v>34</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -28577,7 +28613,7 @@
         <v>34</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D221" s="1">
         <v>0</v>
@@ -28610,7 +28646,7 @@
         <v>34</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D222" s="1">
         <v>0</v>
@@ -28643,7 +28679,7 @@
         <v>34</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D223" s="1">
         <v>0</v>
@@ -28676,7 +28712,7 @@
         <v>38</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D224" s="1">
         <v>0</v>
@@ -28709,7 +28745,7 @@
         <v>1</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D225" s="20" t="e">
         <f>NA()</f>
@@ -28748,7 +28784,7 @@
         <v>2</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D226" s="20" t="e">
         <f>NA()</f>
@@ -28775,7 +28811,7 @@
         <v>1.4672727272727271</v>
       </c>
       <c r="J226" s="51" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="W226" s="1"/>
     </row>
@@ -28787,7 +28823,7 @@
         <v>45</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D227" s="20" t="e">
         <f>NA()</f>
@@ -28814,7 +28850,7 @@
         <v>1.4672727272727271</v>
       </c>
       <c r="J227" s="51" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="W227" s="1"/>
     </row>
@@ -28826,7 +28862,7 @@
         <v>82</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D228" s="20" t="e">
         <f>NA()</f>
@@ -28853,7 +28889,7 @@
         <v>1.4672727272727271</v>
       </c>
       <c r="J228" s="51" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K228" s="19">
         <f>300/1100</f>
@@ -28869,7 +28905,7 @@
         <v>4</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D229" s="20" t="e">
         <f>NA()</f>
@@ -28905,7 +28941,7 @@
         <v>49</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D230" s="20" t="e">
         <f>NA()</f>
@@ -28941,7 +28977,7 @@
         <v>31</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D231" s="20" t="e">
         <f>NA()</f>
@@ -28977,7 +29013,7 @@
         <v>65</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D232" s="20" t="e">
         <f>NA()</f>
@@ -29013,7 +29049,7 @@
         <v>79</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D233" s="20" t="e">
         <f>NA()</f>
@@ -29049,7 +29085,7 @@
         <v>55</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D234" s="20" t="e">
         <f>NA()</f>
@@ -29085,7 +29121,7 @@
         <v>210</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D235" s="20" t="e">
         <f>NA()</f>
@@ -29121,7 +29157,7 @@
         <v>100</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D236" s="20" t="e">
         <f>NA()</f>
@@ -29157,7 +29193,7 @@
         <v>1</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D237" s="20" t="e">
         <f>NA()</f>
@@ -29206,7 +29242,7 @@
         <v>2</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D238" s="20" t="e">
         <f>NA()</f>
@@ -29241,7 +29277,7 @@
         <v>45</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D239" s="20" t="e">
         <f>NA()</f>
@@ -29276,7 +29312,7 @@
         <v>82</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D240" s="20" t="e">
         <f>NA()</f>
@@ -29311,7 +29347,7 @@
         <v>4</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D241" s="20" t="e">
         <f>NA()</f>
@@ -29346,7 +29382,7 @@
         <v>49</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D242" s="20" t="e">
         <f>NA()</f>
@@ -29381,7 +29417,7 @@
         <v>31</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D243" s="20" t="e">
         <f>NA()</f>
@@ -29416,7 +29452,7 @@
         <v>65</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D244" s="20" t="e">
         <f>NA()</f>
@@ -29451,7 +29487,7 @@
         <v>79</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D245" s="20" t="e">
         <f>NA()</f>
@@ -29486,7 +29522,7 @@
         <v>55</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D246" s="20" t="e">
         <f>NA()</f>
@@ -29521,7 +29557,7 @@
         <v>210</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D247" s="20" t="e">
         <f>NA()</f>
@@ -29556,7 +29592,7 @@
         <v>100</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D248" s="20" t="e">
         <f>NA()</f>
@@ -29601,8 +29637,8 @@
   </sheetPr>
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29647,7 +29683,7 @@
         <v>215</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>16</v>
@@ -29695,7 +29731,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C4" s="28">
         <f>IFERROR(
@@ -29755,7 +29791,7 @@
         <v>4.3599999999999994</v>
       </c>
       <c r="R4" s="49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S4" s="50">
         <v>2.73</v>
@@ -29769,7 +29805,7 @@
         <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C5" s="28">
         <f>IFERROR(
@@ -29829,7 +29865,7 @@
         <v>1.35</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S5" s="50">
         <v>2.68</v>
@@ -29843,7 +29879,7 @@
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C6" s="28">
         <f>IFERROR(
@@ -29903,7 +29939,7 @@
         <v>1.49</v>
       </c>
       <c r="R6" s="49" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S6" s="50">
         <v>1.01</v>
@@ -29914,7 +29950,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C7" s="28">
         <f>IFERROR(
@@ -29974,7 +30010,7 @@
         <v>0.72</v>
       </c>
       <c r="R7" s="49" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S7" s="50">
         <v>3.18</v>
@@ -29985,7 +30021,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C8" s="28">
         <f>IFERROR(
@@ -30045,13 +30081,13 @@
         <v>3.5100000000000002</v>
       </c>
       <c r="R8" s="49" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S8" s="50">
         <v>3.13</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30059,7 +30095,7 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C9" s="28">
         <f>IFERROR(
@@ -30119,7 +30155,7 @@
         <v>0.98</v>
       </c>
       <c r="R9" s="49" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S9" s="50">
         <v>3.86</v>
@@ -30130,7 +30166,7 @@
         <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C10" s="28">
         <f>IFERROR(
@@ -30190,13 +30226,13 @@
         <v>1.51</v>
       </c>
       <c r="R10" s="49" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S10" s="50">
         <v>5.38</v>
       </c>
       <c r="T10" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -30204,7 +30240,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C11" s="28">
         <f>IFERROR(
@@ -30269,7 +30305,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C12" s="28">
         <f>IFERROR(
@@ -30334,7 +30370,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C13" s="28">
         <f>IFERROR(
@@ -30399,7 +30435,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C14" s="28">
         <f>IFERROR(
@@ -30464,7 +30500,7 @@
         <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C15" s="28">
         <f>IFERROR(
@@ -30529,7 +30565,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C16" s="28">
         <f>IFERROR(
@@ -30659,7 +30695,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C18" s="28">
         <f>IFERROR(
@@ -30724,7 +30760,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C19" s="28">
         <f>IFERROR(
@@ -30789,7 +30825,7 @@
         <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C20" s="28">
         <f>IFERROR(
@@ -30854,7 +30890,7 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C21" s="28">
         <f>IFERROR(
@@ -30919,7 +30955,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C22" s="28">
         <f>IFERROR(
@@ -30984,7 +31020,7 @@
         <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C23" s="28">
         <f>IFERROR(
@@ -31049,7 +31085,7 @@
         <v>216</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C24" s="28">
         <f>IFERROR(
@@ -31114,7 +31150,7 @@
         <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C25" s="28">
         <f>IFERROR(
@@ -31179,7 +31215,7 @@
         <v>217</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C26" s="28">
         <f>IFERROR(
@@ -31244,7 +31280,7 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C27" s="28">
         <f>IFERROR(
@@ -31319,11 +31355,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="28">
-        <f>IFERROR(
-    SUMIFS('Custom HV &amp; WD'!E:E, 'Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A28, 'Custom HV &amp; WD'!$C:$C, "Base")/COUNTIFS('Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A28, 'Custom HV &amp; WD'!$C:$C, "Base"),
-    K28
-)</f>
-        <v>2.0826061694499486E-2</v>
+        <v>0</v>
       </c>
       <c r="E28" s="28">
         <f>IFERROR(
@@ -31333,17 +31365,9 @@
         <v>0</v>
       </c>
       <c r="F28" s="28">
-        <f>IFERROR(
-    SUMIFS('Custom HV &amp; WD'!G:G, 'Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A28, 'Custom HV &amp; WD'!$C:$C, "Base")/COUNTIFS('Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A28, 'Custom HV &amp; WD'!$C:$C, "Base"),
-    M28
-)</f>
-        <v>5.3022839529496227E-2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="28">
-        <f>IFERROR(
-    SUMIFS('Custom HV &amp; WD'!H:H, 'Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A28, 'Custom HV &amp; WD'!$C:$C, "Base")/COUNTIFS('Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A28, 'Custom HV &amp; WD'!$C:$C, "Base"),
-    N28
-)</f>
         <v>0</v>
       </c>
       <c r="H28" s="30">
@@ -31514,32 +31538,16 @@
         <v>0</v>
       </c>
       <c r="D31" s="28">
-        <f>IFERROR(
-    SUMIFS('Custom HV &amp; WD'!E:E, 'Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A31, 'Custom HV &amp; WD'!$C:$C, "Base")/COUNTIFS('Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A31, 'Custom HV &amp; WD'!$C:$C, "Base"),
-    K31
-)</f>
-        <v>4.9154589371980681E-2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="28">
-        <f>IFERROR(
-    SUMIFS('Custom HV &amp; WD'!F:F, 'Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A31, 'Custom HV &amp; WD'!$C:$C, "Base")/COUNTIFS('Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A31, 'Custom HV &amp; WD'!$C:$C, "Base"),
-    L31
-)</f>
-        <v>0.15378421900161032</v>
+        <v>0</v>
       </c>
       <c r="F31" s="28">
-        <f>IFERROR(
-    SUMIFS('Custom HV &amp; WD'!G:G, 'Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A31, 'Custom HV &amp; WD'!$C:$C, "Base")/COUNTIFS('Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A31, 'Custom HV &amp; WD'!$C:$C, "Base"),
-    M31
-)</f>
-        <v>0.33055555555555555</v>
+        <v>0</v>
       </c>
       <c r="G31" s="28">
-        <f>IFERROR(
-    SUMIFS('Custom HV &amp; WD'!H:H, 'Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A31, 'Custom HV &amp; WD'!$C:$C, "Base")/COUNTIFS('Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A31, 'Custom HV &amp; WD'!$C:$C, "Base"),
-    N31
-)</f>
-        <v>1.7230273752012883E-2</v>
+        <v>0</v>
       </c>
       <c r="H31" s="30">
         <v>0</v>
@@ -31586,25 +31594,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="28">
-        <f>IFERROR(
-    SUMIFS('Custom HV &amp; WD'!F:F, 'Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A32, 'Custom HV &amp; WD'!$C:$C, "Base")/COUNTIFS('Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A32, 'Custom HV &amp; WD'!$C:$C, "Base"),
-    L32
-)</f>
-        <v>3.8189448887106923E-2</v>
+        <v>0</v>
       </c>
       <c r="F32" s="28">
-        <f>IFERROR(
-    SUMIFS('Custom HV &amp; WD'!G:G, 'Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A32, 'Custom HV &amp; WD'!$C:$C, "Base")/COUNTIFS('Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A32, 'Custom HV &amp; WD'!$C:$C, "Base"),
-    M32
-)</f>
-        <v>0.14687311131219599</v>
+        <v>0</v>
       </c>
       <c r="G32" s="28">
-        <f>IFERROR(
-    SUMIFS('Custom HV &amp; WD'!H:H, 'Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A32, 'Custom HV &amp; WD'!$C:$C, "Base")/COUNTIFS('Custom HV &amp; WD'!$B:$B, 'Generic HV &amp; WD'!$A32, 'Custom HV &amp; WD'!$C:$C, "Base"),
-    N32
-)</f>
-        <v>2.414330218068536E-3</v>
+        <v>0</v>
       </c>
       <c r="H32" s="30">
         <v>0</v>
@@ -31764,6 +31760,9 @@
     </row>
     <row r="35" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -31789,10 +31788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36:AE36"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32259,7 +32256,7 @@
         <v>2</v>
       </c>
       <c r="AI11" s="45" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32363,7 +32360,7 @@
         <v>3</v>
       </c>
       <c r="AI12" s="45" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32467,7 +32464,7 @@
         <v>4</v>
       </c>
       <c r="AI13" s="45" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32571,7 +32568,7 @@
         <v>5</v>
       </c>
       <c r="AI14" s="45" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32675,7 +32672,7 @@
         <v>6</v>
       </c>
       <c r="AI15" s="45" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32779,7 +32776,7 @@
         <v>7</v>
       </c>
       <c r="AI16" s="45" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32883,7 +32880,7 @@
         <v>8</v>
       </c>
       <c r="AI17" s="45" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32987,7 +32984,7 @@
         <v>9</v>
       </c>
       <c r="AI18" s="45" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33091,7 +33088,7 @@
         <v>10</v>
       </c>
       <c r="AI19" s="45" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33195,7 +33192,7 @@
         <v>11</v>
       </c>
       <c r="AI20" s="45" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33299,7 +33296,7 @@
         <v>12</v>
       </c>
       <c r="AI21" s="45" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33403,7 +33400,7 @@
         <v>13</v>
       </c>
       <c r="AI22" s="45" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33507,7 +33504,7 @@
         <v>14</v>
       </c>
       <c r="AI23" s="45" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33611,7 +33608,7 @@
         <v>15</v>
       </c>
       <c r="AI24" s="45" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33715,7 +33712,7 @@
         <v>16</v>
       </c>
       <c r="AI25" s="45" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33819,7 +33816,7 @@
         <v>17</v>
       </c>
       <c r="AI26" s="45" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33923,7 +33920,7 @@
         <v>18</v>
       </c>
       <c r="AI27" s="45" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34027,7 +34024,7 @@
         <v>19</v>
       </c>
       <c r="AI28" s="45" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34130,9 +34127,6 @@
       <c r="AH29" s="46">
         <v>20</v>
       </c>
-      <c r="AI29" s="45" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="30" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
@@ -34234,9 +34228,6 @@
       <c r="AH30" s="46">
         <v>21</v>
       </c>
-      <c r="AI30" s="45" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="31" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
@@ -35921,94 +35912,94 @@
         <v>78</v>
       </c>
       <c r="B48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48" s="44">
         <v>0</v>
       </c>
       <c r="AB48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" s="44">
         <v>1</v>
       </c>
       <c r="AD48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF48" s="44">
         <v>0</v>
@@ -37195,94 +37186,94 @@
         <v>93</v>
       </c>
       <c r="B61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="41">
-        <v>1</v>
-      </c>
-      <c r="E61" s="44">
+        <v>0</v>
+      </c>
+      <c r="E61" s="41">
         <v>0</v>
       </c>
       <c r="F61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="41">
         <v>1</v>
       </c>
       <c r="P61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="41">
         <v>0</v>
@@ -37293,94 +37284,94 @@
         <v>94</v>
       </c>
       <c r="B62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="41">
-        <v>1</v>
-      </c>
-      <c r="E62" s="44">
+        <v>0</v>
+      </c>
+      <c r="E62" s="41">
         <v>0</v>
       </c>
       <c r="F62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" s="41">
         <v>1</v>
       </c>
       <c r="P62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF62" s="41">
         <v>0</v>
@@ -38371,96 +38362,96 @@
         <v>106</v>
       </c>
       <c r="B73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" s="44">
         <v>0</v>
       </c>
       <c r="F73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" s="44">
         <v>1</v>
       </c>
       <c r="P73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD73" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE73" s="44">
-        <v>1</v>
-      </c>
-      <c r="AF73" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="41">
         <v>0</v>
       </c>
     </row>
@@ -38469,96 +38460,96 @@
         <v>107</v>
       </c>
       <c r="B74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="44">
         <v>0</v>
       </c>
       <c r="F74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" s="44">
         <v>1</v>
       </c>
       <c r="P74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD74" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE74" s="44">
-        <v>1</v>
-      </c>
-      <c r="AF74" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="41">
         <v>0</v>
       </c>
     </row>

--- a/MP Workbook LAUNCHPAD.xlsx
+++ b/MP Workbook LAUNCHPAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="360" windowWidth="14430" windowHeight="11355" tabRatio="779" activeTab="3"/>
+    <workbookView xWindow="1995" yWindow="360" windowWidth="14430" windowHeight="11355" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="MP_new" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="312">
   <si>
     <t>Scenario</t>
   </si>
@@ -833,22 +833,10 @@
     <t>mp</t>
   </si>
   <si>
-    <t>square miles</t>
-  </si>
-  <si>
     <t>Analysis Variables</t>
   </si>
   <si>
     <t>Soft Transition DCMS</t>
-  </si>
-  <si>
-    <t>Brine Area Limit (per step)</t>
-  </si>
-  <si>
-    <t>Hard Transition Limit (per step)</t>
-  </si>
-  <si>
-    <t>Soft Transition Limit (per step)</t>
   </si>
   <si>
     <t>Water Conserved (a-f/y)</t>
@@ -864,9 +852,6 @@
   <si>
     <t>Soft Transition
 Area (sq mi)</t>
-  </si>
-  <si>
-    <t>Sand Fences Area Limit (lakewide total)</t>
   </si>
   <si>
     <t>Transition Type</t>
@@ -963,6 +948,24 @@
   </si>
   <si>
     <t>Note: in general case, waterless DCMs have no habitat value. In a few specific instances in Base case, some DCAs under waterless DCMs had habitat (see "Custom HV and WD" sheet).</t>
+  </si>
+  <si>
+    <t>square miles (per step)</t>
+  </si>
+  <si>
+    <t>square miles (total lakewide)</t>
+  </si>
+  <si>
+    <t>Hard Transition Limit</t>
+  </si>
+  <si>
+    <t>Soft Transition Limit</t>
+  </si>
+  <si>
+    <t>Brine Area Limit</t>
+  </si>
+  <si>
+    <t>Sand Fences Area Limit</t>
   </si>
 </sst>
 </file>
@@ -1576,6 +1579,12 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1606,12 +1615,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -1716,7 +1719,724 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Water Savings</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MP_new!$A$13:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MP_new!$H$13:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="173192256"/>
+        <c:axId val="173189952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="173192256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173189952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="173189952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Water Savings (a-f/y)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173192256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MP_new!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BWF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MP_new!$A$13:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MP_new!$B$13:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MP_new!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MWF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MP_new!$A$13:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MP_new!$C$13:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MP_new!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Plover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MP_new!$A$13:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MP_new!$D$13:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MP_new!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MP_new!$A$13:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MP_new!$E$13:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MP_new!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meadow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MP_new!$A$13:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MP_new!$F$13:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="176099264"/>
+        <c:axId val="176099840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="176099264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176099840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="176099840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Base Area</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176099264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2052,8 +2772,8 @@
   </sheetPr>
   <dimension ref="A1:CP200"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,13 +2785,14 @@
     <col min="7" max="7" width="14" style="62" customWidth="1"/>
     <col min="8" max="8" width="16.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="62" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="62" customWidth="1"/>
+    <col min="10" max="10" width="6" style="62" customWidth="1"/>
     <col min="11" max="11" width="35" style="62" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" style="62" customWidth="1"/>
     <col min="13" max="13" width="14.140625" style="62" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" style="62" customWidth="1"/>
-    <col min="15" max="15" width="11" style="62" customWidth="1"/>
-    <col min="16" max="20" width="10.42578125" style="62" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="62" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" style="62" customWidth="1"/>
+    <col min="17" max="20" width="10.42578125" style="62" customWidth="1"/>
     <col min="21" max="21" width="10.42578125" style="64" customWidth="1"/>
     <col min="22" max="22" width="2.28515625" style="63" customWidth="1"/>
     <col min="23" max="23" width="10.42578125" style="62" customWidth="1"/>
@@ -2129,26 +2850,19 @@
         <v>5</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="K2" s="100" t="s">
-        <v>269</v>
-      </c>
-      <c r="L2" s="101"/>
-      <c r="M2" s="66"/>
-      <c r="O2" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="109" t="s">
-        <v>297</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="P2" s="102" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="66"/>
       <c r="AI2" s="63"/>
       <c r="AJ2" s="62"/>
       <c r="AW2" s="63"/>
@@ -2169,27 +2883,21 @@
         <v>6</v>
       </c>
       <c r="B3" s="81">
-        <f t="shared" ref="B3:G3" si="0">P22</f>
         <v>0</v>
       </c>
       <c r="C3" s="81">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3" s="81">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="81">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3" s="81">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="81">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -2198,22 +2906,20 @@
       <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="86" t="s">
-        <v>272</v>
-      </c>
-      <c r="L3" s="87">
+      <c r="K3" s="94" t="s">
+        <v>277</v>
+      </c>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="P3" s="86" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q3" s="87">
         <v>3</v>
       </c>
-      <c r="M3" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="O3" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="87">
-        <v>0.9</v>
-      </c>
-      <c r="Q3" s="110"/>
+      <c r="R3" s="62" t="s">
+        <v>306</v>
+      </c>
       <c r="AI3" s="63"/>
       <c r="AJ3" s="62"/>
       <c r="AW3" s="63"/>
@@ -2234,27 +2940,21 @@
         <v>0</v>
       </c>
       <c r="B4" s="81">
-        <f t="shared" ref="B4:G4" si="1">AR22</f>
         <v>0</v>
       </c>
       <c r="C4" s="81">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D4" s="81">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E4" s="81">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4" s="81">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4" s="81">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H4" s="33" t="s">
@@ -2263,22 +2963,20 @@
       <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="86" t="s">
-        <v>273</v>
-      </c>
-      <c r="L4" s="87">
+      <c r="K4" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="P4" s="86" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q4" s="87">
         <v>3</v>
       </c>
-      <c r="M4" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="O4" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="87">
-        <v>0.9</v>
-      </c>
-      <c r="Q4" s="110"/>
+      <c r="R4" s="62" t="s">
+        <v>306</v>
+      </c>
       <c r="AI4" s="63"/>
       <c r="AJ4" s="62"/>
       <c r="AW4" s="63"/>
@@ -2299,27 +2997,21 @@
         <v>1</v>
       </c>
       <c r="B5" s="81">
-        <f t="shared" ref="B5:G9" si="2">SUMIF($H$22:$H$181, "&gt;"&amp;$A5, AR$24:AR$183) + SUMIF($H$22:$H$181, "&lt;="&amp;$A5, BF$24:BF$183)</f>
         <v>0</v>
       </c>
       <c r="C5" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D5" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E5" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F5" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G5" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" s="80">
@@ -2330,22 +3022,20 @@
         <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A5,$I$22:$I$181, "soft")</f>
         <v>0</v>
       </c>
-      <c r="K5" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="L5" s="87">
+      <c r="K5" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="P5" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q5" s="87">
         <v>100</v>
       </c>
-      <c r="M5" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="O5" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="87">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="110"/>
+      <c r="R5" s="62" t="s">
+        <v>306</v>
+      </c>
       <c r="AI5" s="63"/>
       <c r="AJ5" s="62"/>
       <c r="AW5" s="63"/>
@@ -2366,53 +3056,40 @@
         <v>2</v>
       </c>
       <c r="B6" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C6" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D6" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="80">
-        <f t="shared" ref="H6:H9" si="3">SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A6,$I$22:$I$181, "hard")</f>
+        <f t="shared" ref="H6:H9" si="0">SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A6,$I$22:$I$181, "hard")</f>
         <v>0</v>
       </c>
       <c r="I6" s="80">
-        <f t="shared" ref="I6:I8" si="4">SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A6,$I$22:$I$181, "soft")</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="86" t="s">
-        <v>278</v>
-      </c>
-      <c r="L6" s="87">
-        <v>0</v>
-      </c>
-      <c r="M6" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="O6" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="87">
-        <v>0.9</v>
-      </c>
-      <c r="Q6" s="110"/>
+        <f t="shared" ref="I6:I8" si="1">SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A6,$I$22:$I$181, "soft")</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="86" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q6" s="87">
+        <v>0</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>307</v>
+      </c>
       <c r="AI6" s="63"/>
       <c r="AJ6" s="62"/>
       <c r="AW6" s="63"/>
@@ -2433,42 +3110,30 @@
         <v>3</v>
       </c>
       <c r="B7" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C7" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D7" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E7" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="80">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="87">
-        <v>0.9</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AI7" s="63"/>
       <c r="AJ7" s="62"/>
@@ -2490,36 +3155,37 @@
         <v>4</v>
       </c>
       <c r="B8" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C8" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D8" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E8" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="80">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="102" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="98" t="s">
+        <v>292</v>
       </c>
       <c r="AI8" s="63"/>
       <c r="AJ8" s="62"/>
@@ -2541,37 +3207,38 @@
         <v>5</v>
       </c>
       <c r="B9" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C9" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D9" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9" s="80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="80">
         <f>SUMIFS($C$22:$C$181, $H$22:$H$181, "="&amp;$A9,$I$22:$I$181, "soft")</f>
         <v>0</v>
       </c>
+      <c r="P9" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="87">
+        <v>0.9</v>
+      </c>
+      <c r="R9" s="99"/>
       <c r="AI9" s="63"/>
       <c r="AJ9" s="62"/>
       <c r="AW9" s="63"/>
@@ -2597,6 +3264,13 @@
       <c r="G10" s="69"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
+      <c r="P10" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="87">
+        <v>0.9</v>
+      </c>
+      <c r="R10" s="99"/>
       <c r="AI10" s="63"/>
       <c r="AJ10" s="62"/>
       <c r="AW10" s="63"/>
@@ -2612,7 +3286,7 @@
       <c r="CO10" s="62"/>
       <c r="CP10" s="62"/>
     </row>
-    <row r="11" spans="1:94" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="58" t="s">
         <v>0</v>
       </c>
@@ -2635,18 +3309,15 @@
         <v>9</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="K11" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="M11" s="98" t="s">
-        <v>288</v>
-      </c>
-      <c r="N11" s="99"/>
-      <c r="O11" s="66" t="s">
-        <v>225</v>
-      </c>
+      <c r="P11" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="87">
+        <v>1</v>
+      </c>
+      <c r="R11" s="99"/>
       <c r="AI11" s="63"/>
       <c r="AJ11" s="62"/>
       <c r="AW11" s="63"/>
@@ -2667,45 +3338,40 @@
         <v>6</v>
       </c>
       <c r="B12" s="85" t="e">
-        <f t="shared" ref="B12:G18" si="5">B3/B$3</f>
+        <f t="shared" ref="B12:G18" si="2">B3/B$3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C12" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D12" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E12" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F12" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="82">
-        <f t="shared" ref="H12:H18" si="6">G$3-G3</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="O12" t="s">
-        <v>290</v>
-      </c>
+        <f t="shared" ref="H12:H18" si="3">G$3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="87">
+        <v>0.9</v>
+      </c>
+      <c r="R12" s="99"/>
       <c r="AI12" s="63"/>
       <c r="AJ12" s="62"/>
       <c r="AW12" s="63"/>
@@ -2726,44 +3392,38 @@
         <v>0</v>
       </c>
       <c r="B13" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C13" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D13" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E13" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G13" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="82">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="O13" t="s">
-        <v>291</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="87">
+        <v>0.9</v>
       </c>
       <c r="AI13" s="63"/>
       <c r="AJ13" s="62"/>
@@ -2785,44 +3445,32 @@
         <v>1</v>
       </c>
       <c r="B14" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C14" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D14" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E14" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G14" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="82">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="O14" t="s">
-        <v>289</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="AI14" s="63"/>
       <c r="AJ14" s="62"/>
@@ -2844,44 +3492,35 @@
         <v>2</v>
       </c>
       <c r="B15" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C15" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D15" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E15" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F15" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G15" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="82">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="N15" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="O15" t="s">
-        <v>292</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="53" t="s">
+        <v>269</v>
       </c>
       <c r="AI15" s="63"/>
       <c r="AJ15" s="62"/>
@@ -2903,44 +3542,35 @@
         <v>3</v>
       </c>
       <c r="B16" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C16" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D16" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E16" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F16" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G16" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="82">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="N16" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="O16" t="s">
-        <v>293</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="88" t="s">
+        <v>34</v>
       </c>
       <c r="AI16" s="63"/>
       <c r="AJ16" s="62"/>
@@ -2962,35 +3592,35 @@
         <v>4</v>
       </c>
       <c r="B17" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C17" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D17" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G17" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="82">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="88" t="s">
-        <v>43</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="88" t="s">
+        <v>63</v>
       </c>
       <c r="AI17" s="63"/>
       <c r="AJ17" s="62"/>
@@ -3012,34 +3642,34 @@
         <v>5</v>
       </c>
       <c r="B18" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C18" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D18" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E18" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="85" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="82">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="88" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="88" t="s">
         <v>43</v>
       </c>
       <c r="AI18" s="63"/>
@@ -3064,6 +3694,9 @@
       <c r="G19" s="63"/>
       <c r="H19" s="8"/>
       <c r="L19" s="70"/>
+      <c r="P19" s="88" t="s">
+        <v>43</v>
+      </c>
       <c r="AI19" s="63"/>
       <c r="AJ19" s="62"/>
       <c r="AW19" s="63"/>
@@ -3091,6 +3724,9 @@
       <c r="I20" s="56"/>
       <c r="J20" s="57"/>
       <c r="L20" s="70"/>
+      <c r="P20" s="88" t="s">
+        <v>43</v>
+      </c>
       <c r="AI20" s="63"/>
       <c r="AJ20" s="62"/>
       <c r="AW20" s="63"/>
@@ -3132,7 +3768,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="93" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J21"/>
       <c r="K21" s="57"/>
@@ -3140,7 +3776,9 @@
       <c r="M21" s="57"/>
       <c r="N21" s="57"/>
       <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
+      <c r="P21" s="88" t="s">
+        <v>43</v>
+      </c>
       <c r="Q21" s="57"/>
       <c r="R21" s="57"/>
       <c r="S21" s="57"/>
@@ -3217,18 +3855,15 @@
       <c r="G22" s="83"/>
       <c r="H22" s="84"/>
       <c r="I22" s="79" t="str">
-        <f t="shared" ref="I22:I53" si="7">IF(ISNUMBER(MATCH(G22, $K$12:$K$18, 0)), "soft", IF(EXACT(F22, G22), "none", "hard"))</f>
+        <f>IF(ISNUMBER(MATCH(G22, $P$16:$P$22, 0)), "soft", IF(EXACT(F22, G22), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J22"/>
-      <c r="K22" s="94" t="s">
-        <v>282</v>
-      </c>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
       <c r="N22"/>
       <c r="O22"/>
-      <c r="P22"/>
+      <c r="P22" s="88" t="s">
+        <v>43</v>
+      </c>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -3316,7 +3951,7 @@
         <v>197</v>
       </c>
       <c r="C23" s="73">
-        <f t="shared" ref="C23:C86" si="8">B23*0.0015625</f>
+        <f t="shared" ref="C23:C86" si="4">B23*0.0015625</f>
         <v>0.30781250000000004</v>
       </c>
       <c r="D23" s="74" t="s">
@@ -3331,15 +3966,10 @@
       <c r="G23" s="83"/>
       <c r="H23" s="84"/>
       <c r="I23" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G23, $P$16:$P$22, 0)), "soft", IF(EXACT(F23, G23), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J23"/>
-      <c r="K23" s="95" t="s">
-        <v>280</v>
-      </c>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
@@ -3430,7 +4060,7 @@
         <v>87.9</v>
       </c>
       <c r="C24" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.13734375000000001</v>
       </c>
       <c r="D24" s="74" t="s">
@@ -3445,20 +4075,19 @@
       <c r="G24" s="83"/>
       <c r="H24" s="84"/>
       <c r="I24" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G24, $P$16:$P$22, 0)), "soft", IF(EXACT(F24, G24), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J24"/>
-      <c r="K24" s="96" t="s">
-        <v>281</v>
-      </c>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
       <c r="N24"/>
       <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
+      <c r="P24" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="66" t="s">
+        <v>225</v>
+      </c>
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24"/>
@@ -3544,7 +4173,7 @@
         <v>1291.7</v>
       </c>
       <c r="C25" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2.0182812500000002</v>
       </c>
       <c r="D25" s="74" t="s">
@@ -3559,7 +4188,7 @@
       <c r="G25" s="83"/>
       <c r="H25" s="84"/>
       <c r="I25" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G25, $P$16:$P$22, 0)), "soft", IF(EXACT(F25, G25), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J25"/>
@@ -3568,9 +4197,15 @@
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
+      <c r="P25" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="R25" t="s">
+        <v>285</v>
+      </c>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25"/>
@@ -3656,7 +4291,7 @@
         <v>447.9</v>
       </c>
       <c r="C26" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.69984374999999999</v>
       </c>
       <c r="D26" s="74" t="s">
@@ -3671,7 +4306,7 @@
       <c r="G26" s="83"/>
       <c r="H26" s="84"/>
       <c r="I26" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G26, $P$16:$P$22, 0)), "soft", IF(EXACT(F26, G26), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J26"/>
@@ -3680,9 +4315,15 @@
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
+      <c r="P26" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="R26" t="s">
+        <v>286</v>
+      </c>
       <c r="S26"/>
       <c r="T26"/>
       <c r="U26"/>
@@ -3768,7 +4409,7 @@
         <v>201</v>
       </c>
       <c r="C27" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.31406250000000002</v>
       </c>
       <c r="D27" s="74" t="s">
@@ -3783,18 +4424,21 @@
       <c r="G27" s="83"/>
       <c r="H27" s="84"/>
       <c r="I27" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G27, $P$16:$P$22, 0)), "soft", IF(EXACT(F27, G27), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
+      <c r="P27" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="R27" t="s">
+        <v>284</v>
+      </c>
       <c r="S27"/>
       <c r="T27"/>
       <c r="U27"/>
@@ -3880,7 +4524,7 @@
         <v>698</v>
       </c>
       <c r="C28" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.090625</v>
       </c>
       <c r="D28" s="74" t="s">
@@ -3895,18 +4539,21 @@
       <c r="G28" s="83"/>
       <c r="H28" s="84"/>
       <c r="I28" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G28, $P$16:$P$22, 0)), "soft", IF(EXACT(F28, G28), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
+      <c r="P28" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="R28" t="s">
+        <v>287</v>
+      </c>
       <c r="S28"/>
       <c r="T28"/>
       <c r="U28"/>
@@ -3992,7 +4639,7 @@
         <v>177.8</v>
       </c>
       <c r="C29" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.27781250000000002</v>
       </c>
       <c r="D29" s="74" t="s">
@@ -4007,18 +4654,21 @@
       <c r="G29" s="83"/>
       <c r="H29" s="84"/>
       <c r="I29" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G29, $P$16:$P$22, 0)), "soft", IF(EXACT(F29, G29), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
+      <c r="P29" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="R29" t="s">
+        <v>288</v>
+      </c>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
@@ -4104,7 +4754,7 @@
         <v>102.8</v>
       </c>
       <c r="C30" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.16062500000000002</v>
       </c>
       <c r="D30" s="74" t="s">
@@ -4119,13 +4769,10 @@
       <c r="G30" s="83"/>
       <c r="H30" s="84"/>
       <c r="I30" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G30, $P$16:$P$22, 0)), "soft", IF(EXACT(F30, G30), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
@@ -4216,7 +4863,7 @@
         <v>431</v>
       </c>
       <c r="C31" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.67343750000000002</v>
       </c>
       <c r="D31" s="74" t="s">
@@ -4231,13 +4878,10 @@
       <c r="G31" s="83"/>
       <c r="H31" s="84"/>
       <c r="I31" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G31, $P$16:$P$22, 0)), "soft", IF(EXACT(F31, G31), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
@@ -4328,7 +4972,7 @@
         <v>152.4</v>
       </c>
       <c r="C32" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.23812500000000003</v>
       </c>
       <c r="D32" s="74" t="s">
@@ -4343,13 +4987,10 @@
       <c r="G32" s="83"/>
       <c r="H32" s="84"/>
       <c r="I32" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G32, $P$16:$P$22, 0)), "soft", IF(EXACT(F32, G32), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
@@ -4440,7 +5081,7 @@
         <v>215.7</v>
       </c>
       <c r="C33" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.33703125</v>
       </c>
       <c r="D33" s="74" t="s">
@@ -4455,7 +5096,7 @@
       <c r="G33" s="83"/>
       <c r="H33" s="84"/>
       <c r="I33" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G33, $P$16:$P$22, 0)), "soft", IF(EXACT(F33, G33), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J33"/>
@@ -4552,7 +5193,7 @@
         <v>425.9</v>
       </c>
       <c r="C34" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.66546875000000005</v>
       </c>
       <c r="D34" s="74" t="s">
@@ -4567,7 +5208,7 @@
       <c r="G34" s="83"/>
       <c r="H34" s="84"/>
       <c r="I34" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G34, $P$16:$P$22, 0)), "soft", IF(EXACT(F34, G34), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J34"/>
@@ -4664,7 +5305,7 @@
         <v>319.2</v>
       </c>
       <c r="C35" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.49875000000000003</v>
       </c>
       <c r="D35" s="74" t="s">
@@ -4679,7 +5320,7 @@
       <c r="G35" s="83"/>
       <c r="H35" s="84"/>
       <c r="I35" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G35, $P$16:$P$22, 0)), "soft", IF(EXACT(F35, G35), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J35"/>
@@ -4776,7 +5417,7 @@
         <v>79.7</v>
       </c>
       <c r="C36" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.12453125000000001</v>
       </c>
       <c r="D36" s="74" t="s">
@@ -4791,7 +5432,7 @@
       <c r="G36" s="83"/>
       <c r="H36" s="84"/>
       <c r="I36" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G36, $P$16:$P$22, 0)), "soft", IF(EXACT(F36, G36), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J36"/>
@@ -4888,7 +5529,7 @@
         <v>251.6</v>
       </c>
       <c r="C37" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.393125</v>
       </c>
       <c r="D37" s="74" t="s">
@@ -4903,7 +5544,7 @@
       <c r="G37" s="83"/>
       <c r="H37" s="84"/>
       <c r="I37" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G37, $P$16:$P$22, 0)), "soft", IF(EXACT(F37, G37), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J37"/>
@@ -5000,7 +5641,7 @@
         <v>136.9</v>
       </c>
       <c r="C38" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.21390625000000002</v>
       </c>
       <c r="D38" s="74" t="s">
@@ -5015,7 +5656,7 @@
       <c r="G38" s="83"/>
       <c r="H38" s="84"/>
       <c r="I38" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G38, $P$16:$P$22, 0)), "soft", IF(EXACT(F38, G38), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J38"/>
@@ -5112,7 +5753,7 @@
         <v>436.6</v>
       </c>
       <c r="C39" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.68218750000000006</v>
       </c>
       <c r="D39" s="74" t="s">
@@ -5127,7 +5768,7 @@
       <c r="G39" s="83"/>
       <c r="H39" s="84"/>
       <c r="I39" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G39, $P$16:$P$22, 0)), "soft", IF(EXACT(F39, G39), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J39"/>
@@ -5224,7 +5865,7 @@
         <v>1082.5</v>
       </c>
       <c r="C40" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.69140625</v>
       </c>
       <c r="D40" s="74" t="s">
@@ -5239,7 +5880,7 @@
       <c r="G40" s="83"/>
       <c r="H40" s="84"/>
       <c r="I40" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G40, $P$16:$P$22, 0)), "soft", IF(EXACT(F40, G40), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J40"/>
@@ -5336,7 +5977,7 @@
         <v>523.9</v>
       </c>
       <c r="C41" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.81859375000000001</v>
       </c>
       <c r="D41" s="74" t="s">
@@ -5351,7 +5992,7 @@
       <c r="G41" s="83"/>
       <c r="H41" s="84"/>
       <c r="I41" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G41, $P$16:$P$22, 0)), "soft", IF(EXACT(F41, G41), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J41"/>
@@ -5448,7 +6089,7 @@
         <v>600.79999999999995</v>
       </c>
       <c r="C42" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.93874999999999997</v>
       </c>
       <c r="D42" s="74" t="s">
@@ -5463,7 +6104,7 @@
       <c r="G42" s="83"/>
       <c r="H42" s="84"/>
       <c r="I42" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G42, $P$16:$P$22, 0)), "soft", IF(EXACT(F42, G42), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J42"/>
@@ -5560,7 +6201,7 @@
         <v>341.5</v>
       </c>
       <c r="C43" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.53359374999999998</v>
       </c>
       <c r="D43" s="74" t="s">
@@ -5575,7 +6216,7 @@
       <c r="G43" s="83"/>
       <c r="H43" s="84"/>
       <c r="I43" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G43, $P$16:$P$22, 0)), "soft", IF(EXACT(F43, G43), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J43"/>
@@ -5672,7 +6313,7 @@
         <v>544.70000000000005</v>
       </c>
       <c r="C44" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.85109375000000009</v>
       </c>
       <c r="D44" s="74" t="s">
@@ -5687,7 +6328,7 @@
       <c r="G44" s="83"/>
       <c r="H44" s="84"/>
       <c r="I44" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G44, $P$16:$P$22, 0)), "soft", IF(EXACT(F44, G44), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J44"/>
@@ -5784,7 +6425,7 @@
         <v>21.3</v>
       </c>
       <c r="C45" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3.3281250000000005E-2</v>
       </c>
       <c r="D45" s="74" t="s">
@@ -5799,7 +6440,7 @@
       <c r="G45" s="83"/>
       <c r="H45" s="84"/>
       <c r="I45" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G45, $P$16:$P$22, 0)), "soft", IF(EXACT(F45, G45), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J45"/>
@@ -5896,7 +6537,7 @@
         <v>1161.7</v>
       </c>
       <c r="C46" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.8151562500000002</v>
       </c>
       <c r="D46" s="74" t="s">
@@ -5911,7 +6552,7 @@
       <c r="G46" s="83"/>
       <c r="H46" s="84"/>
       <c r="I46" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G46, $P$16:$P$22, 0)), "soft", IF(EXACT(F46, G46), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J46"/>
@@ -6008,7 +6649,7 @@
         <v>248.4</v>
       </c>
       <c r="C47" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.38812500000000005</v>
       </c>
       <c r="D47" s="74" t="s">
@@ -6023,7 +6664,7 @@
       <c r="G47" s="83"/>
       <c r="H47" s="84"/>
       <c r="I47" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G47, $P$16:$P$22, 0)), "soft", IF(EXACT(F47, G47), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J47"/>
@@ -6120,7 +6761,7 @@
         <v>701</v>
       </c>
       <c r="C48" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.0953125000000001</v>
       </c>
       <c r="D48" s="74" t="s">
@@ -6135,7 +6776,7 @@
       <c r="G48" s="83"/>
       <c r="H48" s="84"/>
       <c r="I48" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G48, $P$16:$P$22, 0)), "soft", IF(EXACT(F48, G48), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J48"/>
@@ -6232,7 +6873,7 @@
         <v>506.2</v>
       </c>
       <c r="C49" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.79093750000000007</v>
       </c>
       <c r="D49" s="74" t="s">
@@ -6247,7 +6888,7 @@
       <c r="G49" s="83"/>
       <c r="H49" s="84"/>
       <c r="I49" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G49, $P$16:$P$22, 0)), "soft", IF(EXACT(F49, G49), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J49"/>
@@ -6344,7 +6985,7 @@
         <v>615.1</v>
       </c>
       <c r="C50" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.96109375000000008</v>
       </c>
       <c r="D50" s="74" t="s">
@@ -6359,7 +7000,7 @@
       <c r="G50" s="83"/>
       <c r="H50" s="84"/>
       <c r="I50" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G50, $P$16:$P$22, 0)), "soft", IF(EXACT(F50, G50), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J50"/>
@@ -6456,7 +7097,7 @@
         <v>332.6</v>
       </c>
       <c r="C51" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.51968750000000008</v>
       </c>
       <c r="D51" s="74" t="s">
@@ -6471,7 +7112,7 @@
       <c r="G51" s="83"/>
       <c r="H51" s="84"/>
       <c r="I51" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G51, $P$16:$P$22, 0)), "soft", IF(EXACT(F51, G51), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J51"/>
@@ -6568,7 +7209,7 @@
         <v>183.4</v>
       </c>
       <c r="C52" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.2865625</v>
       </c>
       <c r="D52" s="74" t="s">
@@ -6583,7 +7224,7 @@
       <c r="G52" s="83"/>
       <c r="H52" s="84"/>
       <c r="I52" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G52, $P$16:$P$22, 0)), "soft", IF(EXACT(F52, G52), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J52"/>
@@ -6680,7 +7321,7 @@
         <v>275.39999999999998</v>
       </c>
       <c r="C53" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.43031249999999999</v>
       </c>
       <c r="D53" s="74" t="s">
@@ -6695,7 +7336,7 @@
       <c r="G53" s="83"/>
       <c r="H53" s="84"/>
       <c r="I53" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISNUMBER(MATCH(G53, $P$16:$P$22, 0)), "soft", IF(EXACT(F53, G53), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J53"/>
@@ -6792,7 +7433,7 @@
         <v>43.2</v>
       </c>
       <c r="C54" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="D54" s="74" t="s">
@@ -6807,7 +7448,7 @@
       <c r="G54" s="83"/>
       <c r="H54" s="84"/>
       <c r="I54" s="79" t="str">
-        <f t="shared" ref="I54:I85" si="9">IF(ISNUMBER(MATCH(G54, $K$12:$K$18, 0)), "soft", IF(EXACT(F54, G54), "none", "hard"))</f>
+        <f>IF(ISNUMBER(MATCH(G54, $P$16:$P$22, 0)), "soft", IF(EXACT(F54, G54), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J54"/>
@@ -6904,7 +7545,7 @@
         <v>133.30000000000001</v>
       </c>
       <c r="C55" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.20828125000000003</v>
       </c>
       <c r="D55" s="74" t="s">
@@ -6919,7 +7560,7 @@
       <c r="G55" s="83"/>
       <c r="H55" s="84"/>
       <c r="I55" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G55, $P$16:$P$22, 0)), "soft", IF(EXACT(F55, G55), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J55"/>
@@ -7016,7 +7657,7 @@
         <v>74.7</v>
       </c>
       <c r="C56" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.11671875000000001</v>
       </c>
       <c r="D56" s="74" t="s">
@@ -7031,7 +7672,7 @@
       <c r="G56" s="83"/>
       <c r="H56" s="84"/>
       <c r="I56" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G56, $P$16:$P$22, 0)), "soft", IF(EXACT(F56, G56), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J56"/>
@@ -7128,7 +7769,7 @@
         <v>199.2</v>
       </c>
       <c r="C57" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.31125000000000003</v>
       </c>
       <c r="D57" s="74" t="s">
@@ -7143,7 +7784,7 @@
       <c r="G57" s="83"/>
       <c r="H57" s="84"/>
       <c r="I57" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G57, $P$16:$P$22, 0)), "soft", IF(EXACT(F57, G57), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J57"/>
@@ -7240,7 +7881,7 @@
         <v>251.4</v>
       </c>
       <c r="C58" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.39281250000000001</v>
       </c>
       <c r="D58" s="74" t="s">
@@ -7255,7 +7896,7 @@
       <c r="G58" s="83"/>
       <c r="H58" s="84"/>
       <c r="I58" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G58, $P$16:$P$22, 0)), "soft", IF(EXACT(F58, G58), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J58"/>
@@ -7352,7 +7993,7 @@
         <v>220.1</v>
       </c>
       <c r="C59" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.34390625000000002</v>
       </c>
       <c r="D59" s="74" t="s">
@@ -7367,7 +8008,7 @@
       <c r="G59" s="83"/>
       <c r="H59" s="84"/>
       <c r="I59" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G59, $P$16:$P$22, 0)), "soft", IF(EXACT(F59, G59), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J59"/>
@@ -7464,7 +8105,7 @@
         <v>475.8</v>
       </c>
       <c r="C60" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.74343750000000008</v>
       </c>
       <c r="D60" s="74" t="s">
@@ -7479,7 +8120,7 @@
       <c r="G60" s="83"/>
       <c r="H60" s="84"/>
       <c r="I60" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G60, $P$16:$P$22, 0)), "soft", IF(EXACT(F60, G60), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J60"/>
@@ -7576,7 +8217,7 @@
         <v>225.4</v>
       </c>
       <c r="C61" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.35218750000000004</v>
       </c>
       <c r="D61" s="74" t="s">
@@ -7591,7 +8232,7 @@
       <c r="G61" s="83"/>
       <c r="H61" s="84"/>
       <c r="I61" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G61, $P$16:$P$22, 0)), "soft", IF(EXACT(F61, G61), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J61"/>
@@ -7688,7 +8329,7 @@
         <v>1099.7</v>
       </c>
       <c r="C62" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.7182812500000002</v>
       </c>
       <c r="D62" s="74" t="s">
@@ -7703,7 +8344,7 @@
       <c r="G62" s="83"/>
       <c r="H62" s="84"/>
       <c r="I62" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G62, $P$16:$P$22, 0)), "soft", IF(EXACT(F62, G62), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J62"/>
@@ -7800,7 +8441,7 @@
         <v>180.3</v>
       </c>
       <c r="C63" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.28171875000000002</v>
       </c>
       <c r="D63" s="74" t="s">
@@ -7815,7 +8456,7 @@
       <c r="G63" s="83"/>
       <c r="H63" s="84"/>
       <c r="I63" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G63, $P$16:$P$22, 0)), "soft", IF(EXACT(F63, G63), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J63"/>
@@ -7912,7 +8553,7 @@
         <v>42.3</v>
       </c>
       <c r="C64" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6.6093749999999993E-2</v>
       </c>
       <c r="D64" s="74" t="s">
@@ -7927,7 +8568,7 @@
       <c r="G64" s="83"/>
       <c r="H64" s="84"/>
       <c r="I64" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G64, $P$16:$P$22, 0)), "soft", IF(EXACT(F64, G64), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J64"/>
@@ -8024,7 +8665,7 @@
         <v>65.2</v>
       </c>
       <c r="C65" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.10187500000000001</v>
       </c>
       <c r="D65" s="74" t="s">
@@ -8039,7 +8680,7 @@
       <c r="G65" s="83"/>
       <c r="H65" s="84"/>
       <c r="I65" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G65, $P$16:$P$22, 0)), "soft", IF(EXACT(F65, G65), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J65"/>
@@ -8136,7 +8777,7 @@
         <v>170.2</v>
       </c>
       <c r="C66" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.26593749999999999</v>
       </c>
       <c r="D66" s="74" t="s">
@@ -8151,7 +8792,7 @@
       <c r="G66" s="83"/>
       <c r="H66" s="84"/>
       <c r="I66" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G66, $P$16:$P$22, 0)), "soft", IF(EXACT(F66, G66), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J66"/>
@@ -8248,7 +8889,7 @@
         <v>257.3</v>
       </c>
       <c r="C67" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.40203125000000006</v>
       </c>
       <c r="D67" s="74" t="s">
@@ -8263,7 +8904,7 @@
       <c r="G67" s="83"/>
       <c r="H67" s="84"/>
       <c r="I67" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G67, $P$16:$P$22, 0)), "soft", IF(EXACT(F67, G67), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J67"/>
@@ -8360,7 +9001,7 @@
         <v>818.3</v>
       </c>
       <c r="C68" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.27859375</v>
       </c>
       <c r="D68" s="74" t="s">
@@ -8375,7 +9016,7 @@
       <c r="G68" s="83"/>
       <c r="H68" s="84"/>
       <c r="I68" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G68, $P$16:$P$22, 0)), "soft", IF(EXACT(F68, G68), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J68"/>
@@ -8472,7 +9113,7 @@
         <v>851.2</v>
       </c>
       <c r="C69" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.33</v>
       </c>
       <c r="D69" s="74" t="s">
@@ -8487,7 +9128,7 @@
       <c r="G69" s="83"/>
       <c r="H69" s="84"/>
       <c r="I69" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G69, $P$16:$P$22, 0)), "soft", IF(EXACT(F69, G69), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J69"/>
@@ -8584,7 +9225,7 @@
         <v>50.4</v>
       </c>
       <c r="C70" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>7.8750000000000001E-2</v>
       </c>
       <c r="D70" s="74" t="s">
@@ -8599,7 +9240,7 @@
       <c r="G70" s="83"/>
       <c r="H70" s="84"/>
       <c r="I70" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G70, $P$16:$P$22, 0)), "soft", IF(EXACT(F70, G70), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J70"/>
@@ -8696,7 +9337,7 @@
         <v>547.6</v>
       </c>
       <c r="C71" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.85562500000000008</v>
       </c>
       <c r="D71" s="74" t="s">
@@ -8711,7 +9352,7 @@
       <c r="G71" s="83"/>
       <c r="H71" s="84"/>
       <c r="I71" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G71, $P$16:$P$22, 0)), "soft", IF(EXACT(F71, G71), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J71"/>
@@ -8808,7 +9449,7 @@
         <v>545.29999999999995</v>
       </c>
       <c r="C72" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.85203125000000002</v>
       </c>
       <c r="D72" s="74" t="s">
@@ -8823,7 +9464,7 @@
       <c r="G72" s="83"/>
       <c r="H72" s="84"/>
       <c r="I72" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G72, $P$16:$P$22, 0)), "soft", IF(EXACT(F72, G72), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J72"/>
@@ -8920,7 +9561,7 @@
         <v>453</v>
       </c>
       <c r="C73" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.70781250000000007</v>
       </c>
       <c r="D73" s="74" t="s">
@@ -8935,7 +9576,7 @@
       <c r="G73" s="83"/>
       <c r="H73" s="84"/>
       <c r="I73" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G73, $P$16:$P$22, 0)), "soft", IF(EXACT(F73, G73), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J73"/>
@@ -9032,7 +9673,7 @@
         <v>300</v>
       </c>
       <c r="C74" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.46875</v>
       </c>
       <c r="D74" s="74" t="s">
@@ -9047,7 +9688,7 @@
       <c r="G74" s="83"/>
       <c r="H74" s="84"/>
       <c r="I74" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G74, $P$16:$P$22, 0)), "soft", IF(EXACT(F74, G74), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J74"/>
@@ -9144,7 +9785,7 @@
         <v>219.8</v>
       </c>
       <c r="C75" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.34343750000000006</v>
       </c>
       <c r="D75" s="74" t="s">
@@ -9159,7 +9800,7 @@
       <c r="G75" s="83"/>
       <c r="H75" s="84"/>
       <c r="I75" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G75, $P$16:$P$22, 0)), "soft", IF(EXACT(F75, G75), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J75"/>
@@ -9256,7 +9897,7 @@
         <v>479.5</v>
       </c>
       <c r="C76" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.74921875000000004</v>
       </c>
       <c r="D76" s="74" t="s">
@@ -9271,7 +9912,7 @@
       <c r="G76" s="83"/>
       <c r="H76" s="84"/>
       <c r="I76" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G76, $P$16:$P$22, 0)), "soft", IF(EXACT(F76, G76), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J76"/>
@@ -9368,7 +10009,7 @@
         <v>258.10000000000002</v>
       </c>
       <c r="C77" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.40328125000000004</v>
       </c>
       <c r="D77" s="74" t="s">
@@ -9383,7 +10024,7 @@
       <c r="G77" s="83"/>
       <c r="H77" s="84"/>
       <c r="I77" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G77, $P$16:$P$22, 0)), "soft", IF(EXACT(F77, G77), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J77"/>
@@ -9480,7 +10121,7 @@
         <v>163.30000000000001</v>
       </c>
       <c r="C78" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.25515625000000003</v>
       </c>
       <c r="D78" s="74" t="s">
@@ -9495,7 +10136,7 @@
       <c r="G78" s="83"/>
       <c r="H78" s="84"/>
       <c r="I78" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G78, $P$16:$P$22, 0)), "soft", IF(EXACT(F78, G78), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J78"/>
@@ -9592,7 +10233,7 @@
         <v>689.3</v>
       </c>
       <c r="C79" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1.0770312499999999</v>
       </c>
       <c r="D79" s="74" t="s">
@@ -9607,7 +10248,7 @@
       <c r="G79" s="83"/>
       <c r="H79" s="84"/>
       <c r="I79" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G79, $P$16:$P$22, 0)), "soft", IF(EXACT(F79, G79), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J79"/>
@@ -9704,7 +10345,7 @@
         <v>316.89999999999998</v>
       </c>
       <c r="C80" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.49515624999999996</v>
       </c>
       <c r="D80" s="74" t="s">
@@ -9719,7 +10360,7 @@
       <c r="G80" s="83"/>
       <c r="H80" s="84"/>
       <c r="I80" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G80, $P$16:$P$22, 0)), "soft", IF(EXACT(F80, G80), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J80"/>
@@ -9816,7 +10457,7 @@
         <v>172.8</v>
       </c>
       <c r="C81" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
       <c r="D81" s="74" t="s">
@@ -9831,7 +10472,7 @@
       <c r="G81" s="83"/>
       <c r="H81" s="84"/>
       <c r="I81" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G81, $P$16:$P$22, 0)), "soft", IF(EXACT(F81, G81), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J81"/>
@@ -9928,7 +10569,7 @@
         <v>112.2</v>
       </c>
       <c r="C82" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.17531250000000001</v>
       </c>
       <c r="D82" s="74" t="s">
@@ -9943,7 +10584,7 @@
       <c r="G82" s="83"/>
       <c r="H82" s="84"/>
       <c r="I82" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G82, $P$16:$P$22, 0)), "soft", IF(EXACT(F82, G82), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J82"/>
@@ -10040,7 +10681,7 @@
         <v>67.3</v>
       </c>
       <c r="C83" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.10515625000000001</v>
       </c>
       <c r="D83" s="74" t="s">
@@ -10055,7 +10696,7 @@
       <c r="G83" s="83"/>
       <c r="H83" s="84"/>
       <c r="I83" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G83, $P$16:$P$22, 0)), "soft", IF(EXACT(F83, G83), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J83"/>
@@ -10152,7 +10793,7 @@
         <v>91.6</v>
       </c>
       <c r="C84" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.143125</v>
       </c>
       <c r="D84" s="74" t="s">
@@ -10167,7 +10808,7 @@
       <c r="G84" s="83"/>
       <c r="H84" s="84"/>
       <c r="I84" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G84, $P$16:$P$22, 0)), "soft", IF(EXACT(F84, G84), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J84"/>
@@ -10264,7 +10905,7 @@
         <v>288.39999999999998</v>
       </c>
       <c r="C85" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.450625</v>
       </c>
       <c r="D85" s="74" t="s">
@@ -10279,7 +10920,7 @@
       <c r="G85" s="83"/>
       <c r="H85" s="84"/>
       <c r="I85" s="79" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(ISNUMBER(MATCH(G85, $P$16:$P$22, 0)), "soft", IF(EXACT(F85, G85), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J85"/>
@@ -10376,7 +11017,7 @@
         <v>357.2</v>
       </c>
       <c r="C86" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.55812499999999998</v>
       </c>
       <c r="D86" s="74" t="s">
@@ -10391,7 +11032,7 @@
       <c r="G86" s="83"/>
       <c r="H86" s="84"/>
       <c r="I86" s="79" t="str">
-        <f t="shared" ref="I86:I117" si="10">IF(ISNUMBER(MATCH(G86, $K$12:$K$18, 0)), "soft", IF(EXACT(F86, G86), "none", "hard"))</f>
+        <f>IF(ISNUMBER(MATCH(G86, $P$16:$P$22, 0)), "soft", IF(EXACT(F86, G86), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J86"/>
@@ -10488,7 +11129,7 @@
         <v>275.8</v>
       </c>
       <c r="C87" s="73">
-        <f t="shared" ref="C87:C150" si="11">B87*0.0015625</f>
+        <f t="shared" ref="C87:C150" si="5">B87*0.0015625</f>
         <v>0.43093750000000003</v>
       </c>
       <c r="D87" s="74" t="s">
@@ -10503,7 +11144,7 @@
       <c r="G87" s="83"/>
       <c r="H87" s="84"/>
       <c r="I87" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G87, $P$16:$P$22, 0)), "soft", IF(EXACT(F87, G87), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J87"/>
@@ -10600,7 +11241,7 @@
         <v>391.6</v>
       </c>
       <c r="C88" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.61187500000000006</v>
       </c>
       <c r="D88" s="74" t="s">
@@ -10615,7 +11256,7 @@
       <c r="G88" s="83"/>
       <c r="H88" s="84"/>
       <c r="I88" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G88, $P$16:$P$22, 0)), "soft", IF(EXACT(F88, G88), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J88"/>
@@ -10712,7 +11353,7 @@
         <v>21.4</v>
       </c>
       <c r="C89" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>3.3437500000000002E-2</v>
       </c>
       <c r="D89" s="74" t="s">
@@ -10727,7 +11368,7 @@
       <c r="G89" s="83"/>
       <c r="H89" s="84"/>
       <c r="I89" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G89, $P$16:$P$22, 0)), "soft", IF(EXACT(F89, G89), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J89"/>
@@ -10824,7 +11465,7 @@
         <v>143.1</v>
       </c>
       <c r="C90" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.22359375000000001</v>
       </c>
       <c r="D90" s="74" t="s">
@@ -10839,7 +11480,7 @@
       <c r="G90" s="83"/>
       <c r="H90" s="84"/>
       <c r="I90" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G90, $P$16:$P$22, 0)), "soft", IF(EXACT(F90, G90), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J90"/>
@@ -10936,7 +11577,7 @@
         <v>82.6</v>
       </c>
       <c r="C91" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.1290625</v>
       </c>
       <c r="D91" s="74" t="s">
@@ -10951,7 +11592,7 @@
       <c r="G91" s="83"/>
       <c r="H91" s="84"/>
       <c r="I91" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G91, $P$16:$P$22, 0)), "soft", IF(EXACT(F91, G91), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J91"/>
@@ -11048,7 +11689,7 @@
         <v>377.8</v>
       </c>
       <c r="C92" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.59031250000000002</v>
       </c>
       <c r="D92" s="74" t="s">
@@ -11063,7 +11704,7 @@
       <c r="G92" s="83"/>
       <c r="H92" s="84"/>
       <c r="I92" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G92, $P$16:$P$22, 0)), "soft", IF(EXACT(F92, G92), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J92"/>
@@ -11160,7 +11801,7 @@
         <v>149.19999999999999</v>
       </c>
       <c r="C93" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.233125</v>
       </c>
       <c r="D93" s="74" t="s">
@@ -11175,7 +11816,7 @@
       <c r="G93" s="83"/>
       <c r="H93" s="84"/>
       <c r="I93" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G93, $P$16:$P$22, 0)), "soft", IF(EXACT(F93, G93), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J93"/>
@@ -11272,7 +11913,7 @@
         <v>318.7</v>
       </c>
       <c r="C94" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.49796875000000002</v>
       </c>
       <c r="D94" s="74" t="s">
@@ -11287,7 +11928,7 @@
       <c r="G94" s="83"/>
       <c r="H94" s="84"/>
       <c r="I94" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G94, $P$16:$P$22, 0)), "soft", IF(EXACT(F94, G94), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J94"/>
@@ -11384,7 +12025,7 @@
         <v>77.5</v>
       </c>
       <c r="C95" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.12109375</v>
       </c>
       <c r="D95" s="74" t="s">
@@ -11399,7 +12040,7 @@
       <c r="G95" s="83"/>
       <c r="H95" s="84"/>
       <c r="I95" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G95, $P$16:$P$22, 0)), "soft", IF(EXACT(F95, G95), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J95"/>
@@ -11496,7 +12137,7 @@
         <v>386.5</v>
       </c>
       <c r="C96" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.60390625000000009</v>
       </c>
       <c r="D96" s="74" t="s">
@@ -11511,7 +12152,7 @@
       <c r="G96" s="83"/>
       <c r="H96" s="84"/>
       <c r="I96" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G96, $P$16:$P$22, 0)), "soft", IF(EXACT(F96, G96), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J96"/>
@@ -11608,7 +12249,7 @@
         <v>149.4</v>
       </c>
       <c r="C97" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.23343750000000002</v>
       </c>
       <c r="D97" s="74" t="s">
@@ -11623,7 +12264,7 @@
       <c r="G97" s="83"/>
       <c r="H97" s="84"/>
       <c r="I97" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G97, $P$16:$P$22, 0)), "soft", IF(EXACT(F97, G97), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J97"/>
@@ -11720,7 +12361,7 @@
         <v>87.4</v>
       </c>
       <c r="C98" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.1365625</v>
       </c>
       <c r="D98" s="74" t="s">
@@ -11735,7 +12376,7 @@
       <c r="G98" s="83"/>
       <c r="H98" s="84"/>
       <c r="I98" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G98, $P$16:$P$22, 0)), "soft", IF(EXACT(F98, G98), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J98"/>
@@ -11832,7 +12473,7 @@
         <v>161.5</v>
       </c>
       <c r="C99" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.25234375000000003</v>
       </c>
       <c r="D99" s="74" t="s">
@@ -11847,7 +12488,7 @@
       <c r="G99" s="83"/>
       <c r="H99" s="84"/>
       <c r="I99" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G99, $P$16:$P$22, 0)), "soft", IF(EXACT(F99, G99), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J99"/>
@@ -11944,7 +12585,7 @@
         <v>67.2</v>
       </c>
       <c r="C100" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.10500000000000001</v>
       </c>
       <c r="D100" s="74" t="s">
@@ -11959,7 +12600,7 @@
       <c r="G100" s="83"/>
       <c r="H100" s="84"/>
       <c r="I100" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G100, $P$16:$P$22, 0)), "soft", IF(EXACT(F100, G100), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J100"/>
@@ -12056,7 +12697,7 @@
         <v>86.4</v>
       </c>
       <c r="C101" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="D101" s="74" t="s">
@@ -12071,7 +12712,7 @@
       <c r="G101" s="83"/>
       <c r="H101" s="84"/>
       <c r="I101" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G101, $P$16:$P$22, 0)), "soft", IF(EXACT(F101, G101), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J101"/>
@@ -12168,7 +12809,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="C102" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>3.109375E-2</v>
       </c>
       <c r="D102" s="74" t="s">
@@ -12183,7 +12824,7 @@
       <c r="G102" s="83"/>
       <c r="H102" s="84"/>
       <c r="I102" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G102, $P$16:$P$22, 0)), "soft", IF(EXACT(F102, G102), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J102"/>
@@ -12280,7 +12921,7 @@
         <v>19.8</v>
       </c>
       <c r="C103" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>3.0937500000000003E-2</v>
       </c>
       <c r="D103" s="74" t="s">
@@ -12295,7 +12936,7 @@
       <c r="G103" s="83"/>
       <c r="H103" s="84"/>
       <c r="I103" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G103, $P$16:$P$22, 0)), "soft", IF(EXACT(F103, G103), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J103"/>
@@ -12392,7 +13033,7 @@
         <v>139.19999999999999</v>
       </c>
       <c r="C104" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.2175</v>
       </c>
       <c r="D104" s="74" t="s">
@@ -12407,7 +13048,7 @@
       <c r="G104" s="83"/>
       <c r="H104" s="84"/>
       <c r="I104" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G104, $P$16:$P$22, 0)), "soft", IF(EXACT(F104, G104), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J104"/>
@@ -12504,7 +13145,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="C105" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.12593750000000001</v>
       </c>
       <c r="D105" s="74" t="s">
@@ -12519,7 +13160,7 @@
       <c r="G105" s="83"/>
       <c r="H105" s="84"/>
       <c r="I105" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G105, $P$16:$P$22, 0)), "soft", IF(EXACT(F105, G105), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J105"/>
@@ -12616,7 +13257,7 @@
         <v>40</v>
       </c>
       <c r="C106" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D106" s="74" t="s">
@@ -12631,7 +13272,7 @@
       <c r="G106" s="83"/>
       <c r="H106" s="84"/>
       <c r="I106" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G106, $P$16:$P$22, 0)), "soft", IF(EXACT(F106, G106), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J106"/>
@@ -12728,7 +13369,7 @@
         <v>19.7</v>
       </c>
       <c r="C107" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>3.078125E-2</v>
       </c>
       <c r="D107" s="74" t="s">
@@ -12743,7 +13384,7 @@
       <c r="G107" s="83"/>
       <c r="H107" s="84"/>
       <c r="I107" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G107, $P$16:$P$22, 0)), "soft", IF(EXACT(F107, G107), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J107"/>
@@ -12840,7 +13481,7 @@
         <v>43.4</v>
       </c>
       <c r="C108" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.7812499999999998E-2</v>
       </c>
       <c r="D108" s="74" t="s">
@@ -12855,7 +13496,7 @@
       <c r="G108" s="83"/>
       <c r="H108" s="84"/>
       <c r="I108" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G108, $P$16:$P$22, 0)), "soft", IF(EXACT(F108, G108), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J108"/>
@@ -12952,7 +13593,7 @@
         <v>40</v>
       </c>
       <c r="C109" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D109" s="74" t="s">
@@ -12967,7 +13608,7 @@
       <c r="G109" s="83"/>
       <c r="H109" s="84"/>
       <c r="I109" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G109, $P$16:$P$22, 0)), "soft", IF(EXACT(F109, G109), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J109"/>
@@ -13064,7 +13705,7 @@
         <v>40</v>
       </c>
       <c r="C110" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D110" s="74" t="s">
@@ -13079,7 +13720,7 @@
       <c r="G110" s="83"/>
       <c r="H110" s="84"/>
       <c r="I110" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G110, $P$16:$P$22, 0)), "soft", IF(EXACT(F110, G110), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J110"/>
@@ -13176,7 +13817,7 @@
         <v>40</v>
       </c>
       <c r="C111" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D111" s="74" t="s">
@@ -13191,7 +13832,7 @@
       <c r="G111" s="83"/>
       <c r="H111" s="84"/>
       <c r="I111" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G111, $P$16:$P$22, 0)), "soft", IF(EXACT(F111, G111), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J111"/>
@@ -13288,7 +13929,7 @@
         <v>40</v>
       </c>
       <c r="C112" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D112" s="74" t="s">
@@ -13303,7 +13944,7 @@
       <c r="G112" s="83"/>
       <c r="H112" s="84"/>
       <c r="I112" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G112, $P$16:$P$22, 0)), "soft", IF(EXACT(F112, G112), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J112"/>
@@ -13400,7 +14041,7 @@
         <v>40</v>
       </c>
       <c r="C113" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D113" s="74" t="s">
@@ -13415,7 +14056,7 @@
       <c r="G113" s="83"/>
       <c r="H113" s="84"/>
       <c r="I113" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G113, $P$16:$P$22, 0)), "soft", IF(EXACT(F113, G113), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J113"/>
@@ -13512,7 +14153,7 @@
         <v>40</v>
       </c>
       <c r="C114" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D114" s="74" t="s">
@@ -13527,7 +14168,7 @@
       <c r="G114" s="83"/>
       <c r="H114" s="84"/>
       <c r="I114" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G114, $P$16:$P$22, 0)), "soft", IF(EXACT(F114, G114), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J114"/>
@@ -13624,7 +14265,7 @@
         <v>40</v>
       </c>
       <c r="C115" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D115" s="74" t="s">
@@ -13639,7 +14280,7 @@
       <c r="G115" s="83"/>
       <c r="H115" s="84"/>
       <c r="I115" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G115, $P$16:$P$22, 0)), "soft", IF(EXACT(F115, G115), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J115"/>
@@ -13736,7 +14377,7 @@
         <v>40</v>
       </c>
       <c r="C116" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D116" s="74" t="s">
@@ -13751,7 +14392,7 @@
       <c r="G116" s="83"/>
       <c r="H116" s="84"/>
       <c r="I116" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G116, $P$16:$P$22, 0)), "soft", IF(EXACT(F116, G116), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J116"/>
@@ -13848,7 +14489,7 @@
         <v>40</v>
       </c>
       <c r="C117" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D117" s="74" t="s">
@@ -13863,7 +14504,7 @@
       <c r="G117" s="83"/>
       <c r="H117" s="84"/>
       <c r="I117" s="79" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(ISNUMBER(MATCH(G117, $P$16:$P$22, 0)), "soft", IF(EXACT(F117, G117), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J117"/>
@@ -13960,7 +14601,7 @@
         <v>40</v>
       </c>
       <c r="C118" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D118" s="74" t="s">
@@ -13975,7 +14616,7 @@
       <c r="G118" s="83"/>
       <c r="H118" s="84"/>
       <c r="I118" s="79" t="str">
-        <f t="shared" ref="I118:I149" si="12">IF(ISNUMBER(MATCH(G118, $K$12:$K$18, 0)), "soft", IF(EXACT(F118, G118), "none", "hard"))</f>
+        <f>IF(ISNUMBER(MATCH(G118, $P$16:$P$22, 0)), "soft", IF(EXACT(F118, G118), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J118"/>
@@ -14072,7 +14713,7 @@
         <v>40</v>
       </c>
       <c r="C119" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D119" s="74" t="s">
@@ -14087,7 +14728,7 @@
       <c r="G119" s="83"/>
       <c r="H119" s="84"/>
       <c r="I119" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G119, $P$16:$P$22, 0)), "soft", IF(EXACT(F119, G119), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J119"/>
@@ -14184,7 +14825,7 @@
         <v>40</v>
       </c>
       <c r="C120" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D120" s="74" t="s">
@@ -14199,7 +14840,7 @@
       <c r="G120" s="83"/>
       <c r="H120" s="84"/>
       <c r="I120" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G120, $P$16:$P$22, 0)), "soft", IF(EXACT(F120, G120), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J120"/>
@@ -14296,7 +14937,7 @@
         <v>40</v>
       </c>
       <c r="C121" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D121" s="74" t="s">
@@ -14311,7 +14952,7 @@
       <c r="G121" s="83"/>
       <c r="H121" s="84"/>
       <c r="I121" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G121, $P$16:$P$22, 0)), "soft", IF(EXACT(F121, G121), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J121"/>
@@ -14408,7 +15049,7 @@
         <v>40</v>
       </c>
       <c r="C122" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D122" s="74" t="s">
@@ -14423,7 +15064,7 @@
       <c r="G122" s="83"/>
       <c r="H122" s="84"/>
       <c r="I122" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G122, $P$16:$P$22, 0)), "soft", IF(EXACT(F122, G122), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J122"/>
@@ -14520,7 +15161,7 @@
         <v>40</v>
       </c>
       <c r="C123" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D123" s="74" t="s">
@@ -14535,7 +15176,7 @@
       <c r="G123" s="83"/>
       <c r="H123" s="84"/>
       <c r="I123" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G123, $P$16:$P$22, 0)), "soft", IF(EXACT(F123, G123), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J123"/>
@@ -14632,7 +15273,7 @@
         <v>40</v>
       </c>
       <c r="C124" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D124" s="74" t="s">
@@ -14647,7 +15288,7 @@
       <c r="G124" s="83"/>
       <c r="H124" s="84"/>
       <c r="I124" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G124, $P$16:$P$22, 0)), "soft", IF(EXACT(F124, G124), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J124"/>
@@ -14744,7 +15385,7 @@
         <v>40</v>
       </c>
       <c r="C125" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D125" s="74" t="s">
@@ -14759,7 +15400,7 @@
       <c r="G125" s="83"/>
       <c r="H125" s="84"/>
       <c r="I125" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G125, $P$16:$P$22, 0)), "soft", IF(EXACT(F125, G125), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J125"/>
@@ -14856,7 +15497,7 @@
         <v>40</v>
       </c>
       <c r="C126" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D126" s="74" t="s">
@@ -14871,7 +15512,7 @@
       <c r="G126" s="83"/>
       <c r="H126" s="84"/>
       <c r="I126" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G126, $P$16:$P$22, 0)), "soft", IF(EXACT(F126, G126), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J126"/>
@@ -14968,7 +15609,7 @@
         <v>40</v>
       </c>
       <c r="C127" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D127" s="74" t="s">
@@ -14983,7 +15624,7 @@
       <c r="G127" s="83"/>
       <c r="H127" s="84"/>
       <c r="I127" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G127, $P$16:$P$22, 0)), "soft", IF(EXACT(F127, G127), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J127"/>
@@ -15080,7 +15721,7 @@
         <v>40</v>
       </c>
       <c r="C128" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D128" s="74" t="s">
@@ -15095,7 +15736,7 @@
       <c r="G128" s="83"/>
       <c r="H128" s="84"/>
       <c r="I128" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G128, $P$16:$P$22, 0)), "soft", IF(EXACT(F128, G128), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J128"/>
@@ -15192,7 +15833,7 @@
         <v>40</v>
       </c>
       <c r="C129" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D129" s="74" t="s">
@@ -15207,7 +15848,7 @@
       <c r="G129" s="83"/>
       <c r="H129" s="84"/>
       <c r="I129" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G129, $P$16:$P$22, 0)), "soft", IF(EXACT(F129, G129), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J129"/>
@@ -15304,7 +15945,7 @@
         <v>40</v>
       </c>
       <c r="C130" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D130" s="74" t="s">
@@ -15319,7 +15960,7 @@
       <c r="G130" s="83"/>
       <c r="H130" s="84"/>
       <c r="I130" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G130, $P$16:$P$22, 0)), "soft", IF(EXACT(F130, G130), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J130"/>
@@ -15416,7 +16057,7 @@
         <v>40</v>
       </c>
       <c r="C131" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D131" s="74" t="s">
@@ -15431,7 +16072,7 @@
       <c r="G131" s="83"/>
       <c r="H131" s="84"/>
       <c r="I131" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G131, $P$16:$P$22, 0)), "soft", IF(EXACT(F131, G131), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J131"/>
@@ -15528,7 +16169,7 @@
         <v>40</v>
       </c>
       <c r="C132" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D132" s="74" t="s">
@@ -15543,7 +16184,7 @@
       <c r="G132" s="83"/>
       <c r="H132" s="84"/>
       <c r="I132" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G132, $P$16:$P$22, 0)), "soft", IF(EXACT(F132, G132), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J132"/>
@@ -15640,7 +16281,7 @@
         <v>40</v>
       </c>
       <c r="C133" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D133" s="74" t="s">
@@ -15655,7 +16296,7 @@
       <c r="G133" s="83"/>
       <c r="H133" s="84"/>
       <c r="I133" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G133, $P$16:$P$22, 0)), "soft", IF(EXACT(F133, G133), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J133"/>
@@ -15752,7 +16393,7 @@
         <v>40</v>
       </c>
       <c r="C134" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D134" s="74" t="s">
@@ -15767,7 +16408,7 @@
       <c r="G134" s="83"/>
       <c r="H134" s="84"/>
       <c r="I134" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G134, $P$16:$P$22, 0)), "soft", IF(EXACT(F134, G134), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J134"/>
@@ -15864,7 +16505,7 @@
         <v>40</v>
       </c>
       <c r="C135" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D135" s="74" t="s">
@@ -15879,7 +16520,7 @@
       <c r="G135" s="83"/>
       <c r="H135" s="84"/>
       <c r="I135" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G135, $P$16:$P$22, 0)), "soft", IF(EXACT(F135, G135), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J135"/>
@@ -15976,7 +16617,7 @@
         <v>40</v>
       </c>
       <c r="C136" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D136" s="74" t="s">
@@ -15991,7 +16632,7 @@
       <c r="G136" s="83"/>
       <c r="H136" s="84"/>
       <c r="I136" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G136, $P$16:$P$22, 0)), "soft", IF(EXACT(F136, G136), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J136"/>
@@ -16088,7 +16729,7 @@
         <v>40</v>
       </c>
       <c r="C137" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D137" s="74" t="s">
@@ -16103,7 +16744,7 @@
       <c r="G137" s="83"/>
       <c r="H137" s="84"/>
       <c r="I137" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G137, $P$16:$P$22, 0)), "soft", IF(EXACT(F137, G137), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J137"/>
@@ -16200,7 +16841,7 @@
         <v>40</v>
       </c>
       <c r="C138" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D138" s="74" t="s">
@@ -16215,7 +16856,7 @@
       <c r="G138" s="83"/>
       <c r="H138" s="84"/>
       <c r="I138" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G138, $P$16:$P$22, 0)), "soft", IF(EXACT(F138, G138), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J138"/>
@@ -16312,7 +16953,7 @@
         <v>40</v>
       </c>
       <c r="C139" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D139" s="74" t="s">
@@ -16327,7 +16968,7 @@
       <c r="G139" s="83"/>
       <c r="H139" s="84"/>
       <c r="I139" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G139, $P$16:$P$22, 0)), "soft", IF(EXACT(F139, G139), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J139"/>
@@ -16424,7 +17065,7 @@
         <v>40</v>
       </c>
       <c r="C140" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D140" s="74" t="s">
@@ -16439,7 +17080,7 @@
       <c r="G140" s="83"/>
       <c r="H140" s="84"/>
       <c r="I140" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G140, $P$16:$P$22, 0)), "soft", IF(EXACT(F140, G140), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J140"/>
@@ -16536,7 +17177,7 @@
         <v>40</v>
       </c>
       <c r="C141" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D141" s="74" t="s">
@@ -16551,7 +17192,7 @@
       <c r="G141" s="83"/>
       <c r="H141" s="84"/>
       <c r="I141" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G141, $P$16:$P$22, 0)), "soft", IF(EXACT(F141, G141), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J141"/>
@@ -16648,7 +17289,7 @@
         <v>40</v>
       </c>
       <c r="C142" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D142" s="74" t="s">
@@ -16663,7 +17304,7 @@
       <c r="G142" s="83"/>
       <c r="H142" s="84"/>
       <c r="I142" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G142, $P$16:$P$22, 0)), "soft", IF(EXACT(F142, G142), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J142"/>
@@ -16760,7 +17401,7 @@
         <v>40</v>
       </c>
       <c r="C143" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D143" s="74" t="s">
@@ -16775,7 +17416,7 @@
       <c r="G143" s="83"/>
       <c r="H143" s="84"/>
       <c r="I143" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G143, $P$16:$P$22, 0)), "soft", IF(EXACT(F143, G143), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J143"/>
@@ -16872,7 +17513,7 @@
         <v>40</v>
       </c>
       <c r="C144" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D144" s="74" t="s">
@@ -16887,7 +17528,7 @@
       <c r="G144" s="83"/>
       <c r="H144" s="84"/>
       <c r="I144" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G144, $P$16:$P$22, 0)), "soft", IF(EXACT(F144, G144), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J144"/>
@@ -16984,7 +17625,7 @@
         <v>40</v>
       </c>
       <c r="C145" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D145" s="74" t="s">
@@ -16999,7 +17640,7 @@
       <c r="G145" s="83"/>
       <c r="H145" s="84"/>
       <c r="I145" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G145, $P$16:$P$22, 0)), "soft", IF(EXACT(F145, G145), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J145"/>
@@ -17096,7 +17737,7 @@
         <v>40</v>
       </c>
       <c r="C146" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D146" s="74" t="s">
@@ -17111,7 +17752,7 @@
       <c r="G146" s="83"/>
       <c r="H146" s="84"/>
       <c r="I146" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G146, $P$16:$P$22, 0)), "soft", IF(EXACT(F146, G146), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J146"/>
@@ -17208,7 +17849,7 @@
         <v>40</v>
       </c>
       <c r="C147" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D147" s="74" t="s">
@@ -17223,7 +17864,7 @@
       <c r="G147" s="83"/>
       <c r="H147" s="84"/>
       <c r="I147" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G147, $P$16:$P$22, 0)), "soft", IF(EXACT(F147, G147), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J147"/>
@@ -17320,7 +17961,7 @@
         <v>39.9</v>
       </c>
       <c r="C148" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.2343750000000003E-2</v>
       </c>
       <c r="D148" s="74" t="s">
@@ -17335,7 +17976,7 @@
       <c r="G148" s="83"/>
       <c r="H148" s="84"/>
       <c r="I148" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G148, $P$16:$P$22, 0)), "soft", IF(EXACT(F148, G148), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J148"/>
@@ -17432,7 +18073,7 @@
         <v>40</v>
       </c>
       <c r="C149" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D149" s="74" t="s">
@@ -17447,7 +18088,7 @@
       <c r="G149" s="83"/>
       <c r="H149" s="84"/>
       <c r="I149" s="79" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(ISNUMBER(MATCH(G149, $P$16:$P$22, 0)), "soft", IF(EXACT(F149, G149), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J149"/>
@@ -17544,7 +18185,7 @@
         <v>40</v>
       </c>
       <c r="C150" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="D150" s="74" t="s">
@@ -17559,7 +18200,7 @@
       <c r="G150" s="83"/>
       <c r="H150" s="84"/>
       <c r="I150" s="79" t="str">
-        <f t="shared" ref="I150:I181" si="13">IF(ISNUMBER(MATCH(G150, $K$12:$K$18, 0)), "soft", IF(EXACT(F150, G150), "none", "hard"))</f>
+        <f>IF(ISNUMBER(MATCH(G150, $P$16:$P$22, 0)), "soft", IF(EXACT(F150, G150), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J150"/>
@@ -17656,7 +18297,7 @@
         <v>39.700000000000003</v>
       </c>
       <c r="C151" s="73">
-        <f t="shared" ref="C151:C181" si="14">B151*0.0015625</f>
+        <f t="shared" ref="C151:C181" si="6">B151*0.0015625</f>
         <v>6.203125000000001E-2</v>
       </c>
       <c r="D151" s="74" t="s">
@@ -17671,7 +18312,7 @@
       <c r="G151" s="83"/>
       <c r="H151" s="84"/>
       <c r="I151" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G151, $P$16:$P$22, 0)), "soft", IF(EXACT(F151, G151), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J151"/>
@@ -17768,7 +18409,7 @@
         <v>40</v>
       </c>
       <c r="C152" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="D152" s="74" t="s">
@@ -17783,7 +18424,7 @@
       <c r="G152" s="83"/>
       <c r="H152" s="84"/>
       <c r="I152" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G152, $P$16:$P$22, 0)), "soft", IF(EXACT(F152, G152), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J152"/>
@@ -17880,7 +18521,7 @@
         <v>40</v>
       </c>
       <c r="C153" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="D153" s="74" t="s">
@@ -17895,7 +18536,7 @@
       <c r="G153" s="83"/>
       <c r="H153" s="84"/>
       <c r="I153" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G153, $P$16:$P$22, 0)), "soft", IF(EXACT(F153, G153), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J153"/>
@@ -17992,7 +18633,7 @@
         <v>40</v>
       </c>
       <c r="C154" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="D154" s="74" t="s">
@@ -18007,7 +18648,7 @@
       <c r="G154" s="83"/>
       <c r="H154" s="84"/>
       <c r="I154" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G154, $P$16:$P$22, 0)), "soft", IF(EXACT(F154, G154), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J154"/>
@@ -18104,7 +18745,7 @@
         <v>40.4</v>
       </c>
       <c r="C155" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.3125000000000001E-2</v>
       </c>
       <c r="D155" s="74" t="s">
@@ -18119,7 +18760,7 @@
       <c r="G155" s="83"/>
       <c r="H155" s="84"/>
       <c r="I155" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G155, $P$16:$P$22, 0)), "soft", IF(EXACT(F155, G155), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J155"/>
@@ -18216,7 +18857,7 @@
         <v>39.700000000000003</v>
       </c>
       <c r="C156" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.203125000000001E-2</v>
       </c>
       <c r="D156" s="74" t="s">
@@ -18231,7 +18872,7 @@
       <c r="G156" s="83"/>
       <c r="H156" s="84"/>
       <c r="I156" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G156, $P$16:$P$22, 0)), "soft", IF(EXACT(F156, G156), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J156"/>
@@ -18328,7 +18969,7 @@
         <v>40</v>
       </c>
       <c r="C157" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="D157" s="74" t="s">
@@ -18343,7 +18984,7 @@
       <c r="G157" s="83"/>
       <c r="H157" s="84"/>
       <c r="I157" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G157, $P$16:$P$22, 0)), "soft", IF(EXACT(F157, G157), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J157"/>
@@ -18440,7 +19081,7 @@
         <v>40</v>
       </c>
       <c r="C158" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="D158" s="74" t="s">
@@ -18455,7 +19096,7 @@
       <c r="G158" s="83"/>
       <c r="H158" s="84"/>
       <c r="I158" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G158, $P$16:$P$22, 0)), "soft", IF(EXACT(F158, G158), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J158"/>
@@ -18552,7 +19193,7 @@
         <v>40</v>
       </c>
       <c r="C159" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="D159" s="74" t="s">
@@ -18567,7 +19208,7 @@
       <c r="G159" s="83"/>
       <c r="H159" s="84"/>
       <c r="I159" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G159, $P$16:$P$22, 0)), "soft", IF(EXACT(F159, G159), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J159"/>
@@ -18664,7 +19305,7 @@
         <v>40</v>
       </c>
       <c r="C160" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="D160" s="74" t="s">
@@ -18679,7 +19320,7 @@
       <c r="G160" s="83"/>
       <c r="H160" s="84"/>
       <c r="I160" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G160, $P$16:$P$22, 0)), "soft", IF(EXACT(F160, G160), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J160"/>
@@ -18776,7 +19417,7 @@
         <v>40</v>
       </c>
       <c r="C161" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
       <c r="D161" s="74" t="s">
@@ -18791,7 +19432,7 @@
       <c r="G161" s="83"/>
       <c r="H161" s="84"/>
       <c r="I161" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G161, $P$16:$P$22, 0)), "soft", IF(EXACT(F161, G161), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J161"/>
@@ -18888,7 +19529,7 @@
         <v>41.5</v>
       </c>
       <c r="C162" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.4843750000000006E-2</v>
       </c>
       <c r="D162" s="74" t="s">
@@ -18903,7 +19544,7 @@
       <c r="G162" s="83"/>
       <c r="H162" s="84"/>
       <c r="I162" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G162, $P$16:$P$22, 0)), "soft", IF(EXACT(F162, G162), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J162"/>
@@ -19000,7 +19641,7 @@
         <v>43</v>
       </c>
       <c r="C163" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.7187499999999997E-2</v>
       </c>
       <c r="D163" s="74" t="s">
@@ -19015,7 +19656,7 @@
       <c r="G163" s="83"/>
       <c r="H163" s="84"/>
       <c r="I163" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G163, $P$16:$P$22, 0)), "soft", IF(EXACT(F163, G163), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J163"/>
@@ -19112,7 +19753,7 @@
         <v>124.6</v>
       </c>
       <c r="C164" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.19468750000000001</v>
       </c>
       <c r="D164" s="74" t="s">
@@ -19127,7 +19768,7 @@
       <c r="G164" s="83"/>
       <c r="H164" s="84"/>
       <c r="I164" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G164, $P$16:$P$22, 0)), "soft", IF(EXACT(F164, G164), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J164"/>
@@ -19224,7 +19865,7 @@
         <v>292.8</v>
       </c>
       <c r="C165" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.45750000000000002</v>
       </c>
       <c r="D165" s="74" t="s">
@@ -19239,7 +19880,7 @@
       <c r="G165" s="83"/>
       <c r="H165" s="84"/>
       <c r="I165" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G165, $P$16:$P$22, 0)), "soft", IF(EXACT(F165, G165), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J165"/>
@@ -19336,7 +19977,7 @@
         <v>50.171183999999997</v>
       </c>
       <c r="C166" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7.8392475000000003E-2</v>
       </c>
       <c r="D166" s="74" t="s">
@@ -19351,7 +19992,7 @@
       <c r="G166" s="83"/>
       <c r="H166" s="84"/>
       <c r="I166" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G166, $P$16:$P$22, 0)), "soft", IF(EXACT(F166, G166), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J166"/>
@@ -19448,7 +20089,7 @@
         <v>110.435041</v>
       </c>
       <c r="C167" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.1725547515625</v>
       </c>
       <c r="D167" s="74" t="s">
@@ -19463,7 +20104,7 @@
       <c r="G167" s="83"/>
       <c r="H167" s="84"/>
       <c r="I167" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G167, $P$16:$P$22, 0)), "soft", IF(EXACT(F167, G167), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J167"/>
@@ -19560,7 +20201,7 @@
         <v>41.073974</v>
       </c>
       <c r="C168" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.4178084375E-2</v>
       </c>
       <c r="D168" s="74" t="s">
@@ -19575,7 +20216,7 @@
       <c r="G168" s="83"/>
       <c r="H168" s="84"/>
       <c r="I168" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G168, $P$16:$P$22, 0)), "soft", IF(EXACT(F168, G168), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J168"/>
@@ -19672,7 +20313,7 @@
         <v>76.115142000000006</v>
       </c>
       <c r="C169" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.11892990937500002</v>
       </c>
       <c r="D169" s="74" t="s">
@@ -19687,7 +20328,7 @@
       <c r="G169" s="83"/>
       <c r="H169" s="84"/>
       <c r="I169" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G169, $P$16:$P$22, 0)), "soft", IF(EXACT(F169, G169), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J169"/>
@@ -19784,7 +20425,7 @@
         <v>366.048768</v>
       </c>
       <c r="C170" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.57195119999999999</v>
       </c>
       <c r="D170" s="74" t="s">
@@ -19799,7 +20440,7 @@
       <c r="G170" s="83"/>
       <c r="H170" s="84"/>
       <c r="I170" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G170, $P$16:$P$22, 0)), "soft", IF(EXACT(F170, G170), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J170"/>
@@ -19896,7 +20537,7 @@
         <v>138.452519</v>
       </c>
       <c r="C171" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.21633206093750001</v>
       </c>
       <c r="D171" s="74" t="s">
@@ -19911,7 +20552,7 @@
       <c r="G171" s="83"/>
       <c r="H171" s="84"/>
       <c r="I171" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G171, $P$16:$P$22, 0)), "soft", IF(EXACT(F171, G171), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J171"/>
@@ -20008,7 +20649,7 @@
         <v>601.16265199999998</v>
       </c>
       <c r="C172" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.93931664375000001</v>
       </c>
       <c r="D172" s="74" t="s">
@@ -20023,7 +20664,7 @@
       <c r="G172" s="83"/>
       <c r="H172" s="84"/>
       <c r="I172" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G172, $P$16:$P$22, 0)), "soft", IF(EXACT(F172, G172), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J172"/>
@@ -20120,7 +20761,7 @@
         <v>30.981491999999999</v>
       </c>
       <c r="C173" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>4.8408581249999999E-2</v>
       </c>
       <c r="D173" s="74" t="s">
@@ -20135,7 +20776,7 @@
       <c r="G173" s="83"/>
       <c r="H173" s="84"/>
       <c r="I173" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G173, $P$16:$P$22, 0)), "soft", IF(EXACT(F173, G173), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J173"/>
@@ -20232,7 +20873,7 @@
         <v>115.6</v>
       </c>
       <c r="C174" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.18062500000000001</v>
       </c>
       <c r="D174" s="74" t="s">
@@ -20247,7 +20888,7 @@
       <c r="G174" s="83"/>
       <c r="H174" s="84"/>
       <c r="I174" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G174, $P$16:$P$22, 0)), "soft", IF(EXACT(F174, G174), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J174"/>
@@ -20344,7 +20985,7 @@
         <v>116.251661</v>
       </c>
       <c r="C175" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.18164322031250002</v>
       </c>
       <c r="D175" s="74" t="s">
@@ -20359,7 +21000,7 @@
       <c r="G175" s="83"/>
       <c r="H175" s="84"/>
       <c r="I175" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G175, $P$16:$P$22, 0)), "soft", IF(EXACT(F175, G175), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J175"/>
@@ -20456,7 +21097,7 @@
         <v>41.566608000000002</v>
       </c>
       <c r="C176" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>6.4947825000000001E-2</v>
       </c>
       <c r="D176" s="74" t="s">
@@ -20471,7 +21112,7 @@
       <c r="G176" s="83"/>
       <c r="H176" s="84"/>
       <c r="I176" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G176, $P$16:$P$22, 0)), "soft", IF(EXACT(F176, G176), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J176"/>
@@ -20568,7 +21209,7 @@
         <v>31.267749999999999</v>
       </c>
       <c r="C177" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>4.8855859375000005E-2</v>
       </c>
       <c r="D177" s="74" t="s">
@@ -20583,7 +21224,7 @@
       <c r="G177" s="83"/>
       <c r="H177" s="84"/>
       <c r="I177" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G177, $P$16:$P$22, 0)), "soft", IF(EXACT(F177, G177), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J177"/>
@@ -20680,7 +21321,7 @@
         <v>120.05146499999999</v>
       </c>
       <c r="C178" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.18758041406250001</v>
       </c>
       <c r="D178" s="74" t="s">
@@ -20695,7 +21336,7 @@
       <c r="G178" s="83"/>
       <c r="H178" s="84"/>
       <c r="I178" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G178, $P$16:$P$22, 0)), "soft", IF(EXACT(F178, G178), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J178"/>
@@ -20792,7 +21433,7 @@
         <v>315.03304400000002</v>
       </c>
       <c r="C179" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.49223913125000007</v>
       </c>
       <c r="D179" s="74" t="s">
@@ -20807,7 +21448,7 @@
       <c r="G179" s="83"/>
       <c r="H179" s="84"/>
       <c r="I179" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G179, $P$16:$P$22, 0)), "soft", IF(EXACT(F179, G179), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J179"/>
@@ -20904,7 +21545,7 @@
         <v>103.825344</v>
       </c>
       <c r="C180" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.16222710000000001</v>
       </c>
       <c r="D180" s="74" t="s">
@@ -20919,7 +21560,7 @@
       <c r="G180" s="83"/>
       <c r="H180" s="84"/>
       <c r="I180" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G180, $P$16:$P$22, 0)), "soft", IF(EXACT(F180, G180), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J180"/>
@@ -21016,7 +21657,7 @@
         <v>55.579112000000002</v>
       </c>
       <c r="C181" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>8.6842362500000006E-2</v>
       </c>
       <c r="D181" s="74" t="s">
@@ -21031,7 +21672,7 @@
       <c r="G181" s="83"/>
       <c r="H181" s="84"/>
       <c r="I181" s="79" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISNUMBER(MATCH(G181, $P$16:$P$22, 0)), "soft", IF(EXACT(F181, G181), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J181"/>
@@ -21470,9 +22111,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P8:Q8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21481,6 +22122,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;P&amp;R&amp;D</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -21488,13 +22130,13 @@
           <x14:formula1>
             <xm:f>'Generic HV &amp; WD'!$A$4:$A$34</xm:f>
           </x14:formula1>
-          <xm:sqref>K12:K18</xm:sqref>
+          <xm:sqref>P16:P22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Generic HV &amp; WD'!$A$28:$A$32</xm:f>
           </x14:formula1>
-          <xm:sqref>M12:M16</xm:sqref>
+          <xm:sqref>P25:P29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -21548,14 +22190,14 @@
       <c r="I1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
@@ -21590,12 +22232,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -21627,12 +22269,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -21663,12 +22305,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
     </row>
     <row r="5" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -21699,12 +22341,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
     </row>
     <row r="6" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -21735,12 +22377,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
     </row>
     <row r="7" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -21771,12 +22413,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
     </row>
     <row r="8" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -21807,12 +22449,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
     </row>
     <row r="9" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -21843,12 +22485,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
     </row>
     <row r="10" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -21879,12 +22521,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
     </row>
     <row r="11" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -21915,12 +22557,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
     </row>
     <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -21951,12 +22593,12 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
     </row>
     <row r="13" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -26609,16 +27251,16 @@
       <c r="I162" s="10">
         <v>1.5475000000000001</v>
       </c>
-      <c r="J162" s="104" t="s">
+      <c r="J162" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="K162" s="105"/>
-      <c r="L162" s="105"/>
-      <c r="M162" s="105"/>
-      <c r="N162" s="105"/>
-      <c r="O162" s="105"/>
-      <c r="P162" s="105"/>
-      <c r="Q162" s="105"/>
+      <c r="K162" s="107"/>
+      <c r="L162" s="107"/>
+      <c r="M162" s="107"/>
+      <c r="N162" s="107"/>
+      <c r="O162" s="107"/>
+      <c r="P162" s="107"/>
+      <c r="Q162" s="107"/>
       <c r="W162" s="1"/>
     </row>
     <row r="163" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26649,14 +27291,14 @@
       <c r="I163" s="10">
         <v>0.98</v>
       </c>
-      <c r="J163" s="105"/>
-      <c r="K163" s="105"/>
-      <c r="L163" s="105"/>
-      <c r="M163" s="105"/>
-      <c r="N163" s="105"/>
-      <c r="O163" s="105"/>
-      <c r="P163" s="105"/>
-      <c r="Q163" s="105"/>
+      <c r="J163" s="107"/>
+      <c r="K163" s="107"/>
+      <c r="L163" s="107"/>
+      <c r="M163" s="107"/>
+      <c r="N163" s="107"/>
+      <c r="O163" s="107"/>
+      <c r="P163" s="107"/>
+      <c r="Q163" s="107"/>
       <c r="W163" s="1"/>
     </row>
     <row r="164" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26687,14 +27329,14 @@
       <c r="I164" s="10">
         <v>0.98</v>
       </c>
-      <c r="J164" s="105"/>
-      <c r="K164" s="105"/>
-      <c r="L164" s="105"/>
-      <c r="M164" s="105"/>
-      <c r="N164" s="105"/>
-      <c r="O164" s="105"/>
-      <c r="P164" s="105"/>
-      <c r="Q164" s="105"/>
+      <c r="J164" s="107"/>
+      <c r="K164" s="107"/>
+      <c r="L164" s="107"/>
+      <c r="M164" s="107"/>
+      <c r="N164" s="107"/>
+      <c r="O164" s="107"/>
+      <c r="P164" s="107"/>
+      <c r="Q164" s="107"/>
       <c r="W164" s="1"/>
     </row>
     <row r="165" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26725,14 +27367,14 @@
       <c r="I165" s="10">
         <v>0.98</v>
       </c>
-      <c r="J165" s="105"/>
-      <c r="K165" s="105"/>
-      <c r="L165" s="105"/>
-      <c r="M165" s="105"/>
-      <c r="N165" s="105"/>
-      <c r="O165" s="105"/>
-      <c r="P165" s="105"/>
-      <c r="Q165" s="105"/>
+      <c r="J165" s="107"/>
+      <c r="K165" s="107"/>
+      <c r="L165" s="107"/>
+      <c r="M165" s="107"/>
+      <c r="N165" s="107"/>
+      <c r="O165" s="107"/>
+      <c r="P165" s="107"/>
+      <c r="Q165" s="107"/>
       <c r="W165" s="1"/>
     </row>
     <row r="166" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26763,14 +27405,14 @@
       <c r="I166" s="10">
         <v>0</v>
       </c>
-      <c r="J166" s="105"/>
-      <c r="K166" s="105"/>
-      <c r="L166" s="105"/>
-      <c r="M166" s="105"/>
-      <c r="N166" s="105"/>
-      <c r="O166" s="105"/>
-      <c r="P166" s="105"/>
-      <c r="Q166" s="105"/>
+      <c r="J166" s="107"/>
+      <c r="K166" s="107"/>
+      <c r="L166" s="107"/>
+      <c r="M166" s="107"/>
+      <c r="N166" s="107"/>
+      <c r="O166" s="107"/>
+      <c r="P166" s="107"/>
+      <c r="Q166" s="107"/>
       <c r="W166" s="1"/>
     </row>
     <row r="167" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26801,14 +27443,14 @@
       <c r="I167" s="10">
         <v>1.07</v>
       </c>
-      <c r="J167" s="105"/>
-      <c r="K167" s="105"/>
-      <c r="L167" s="105"/>
-      <c r="M167" s="105"/>
-      <c r="N167" s="105"/>
-      <c r="O167" s="105"/>
-      <c r="P167" s="105"/>
-      <c r="Q167" s="105"/>
+      <c r="J167" s="107"/>
+      <c r="K167" s="107"/>
+      <c r="L167" s="107"/>
+      <c r="M167" s="107"/>
+      <c r="N167" s="107"/>
+      <c r="O167" s="107"/>
+      <c r="P167" s="107"/>
+      <c r="Q167" s="107"/>
       <c r="W167" s="1"/>
     </row>
     <row r="168" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26839,14 +27481,14 @@
       <c r="I168" s="10">
         <v>0.98</v>
       </c>
-      <c r="J168" s="105"/>
-      <c r="K168" s="105"/>
-      <c r="L168" s="105"/>
-      <c r="M168" s="105"/>
-      <c r="N168" s="105"/>
-      <c r="O168" s="105"/>
-      <c r="P168" s="105"/>
-      <c r="Q168" s="105"/>
+      <c r="J168" s="107"/>
+      <c r="K168" s="107"/>
+      <c r="L168" s="107"/>
+      <c r="M168" s="107"/>
+      <c r="N168" s="107"/>
+      <c r="O168" s="107"/>
+      <c r="P168" s="107"/>
+      <c r="Q168" s="107"/>
       <c r="W168" s="1"/>
     </row>
     <row r="169" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26877,14 +27519,14 @@
       <c r="I169" s="10">
         <v>3.9275000000000002</v>
       </c>
-      <c r="J169" s="105"/>
-      <c r="K169" s="105"/>
-      <c r="L169" s="105"/>
-      <c r="M169" s="105"/>
-      <c r="N169" s="105"/>
-      <c r="O169" s="105"/>
-      <c r="P169" s="105"/>
-      <c r="Q169" s="105"/>
+      <c r="J169" s="107"/>
+      <c r="K169" s="107"/>
+      <c r="L169" s="107"/>
+      <c r="M169" s="107"/>
+      <c r="N169" s="107"/>
+      <c r="O169" s="107"/>
+      <c r="P169" s="107"/>
+      <c r="Q169" s="107"/>
       <c r="W169" s="1"/>
     </row>
     <row r="170" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26915,14 +27557,14 @@
       <c r="I170" s="10">
         <v>3.9275000000000002</v>
       </c>
-      <c r="J170" s="105"/>
-      <c r="K170" s="105"/>
-      <c r="L170" s="105"/>
-      <c r="M170" s="105"/>
-      <c r="N170" s="105"/>
-      <c r="O170" s="105"/>
-      <c r="P170" s="105"/>
-      <c r="Q170" s="105"/>
+      <c r="J170" s="107"/>
+      <c r="K170" s="107"/>
+      <c r="L170" s="107"/>
+      <c r="M170" s="107"/>
+      <c r="N170" s="107"/>
+      <c r="O170" s="107"/>
+      <c r="P170" s="107"/>
+      <c r="Q170" s="107"/>
       <c r="W170" s="1"/>
     </row>
     <row r="171" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26953,14 +27595,14 @@
       <c r="I171" s="10">
         <v>0.98</v>
       </c>
-      <c r="J171" s="105"/>
-      <c r="K171" s="105"/>
-      <c r="L171" s="105"/>
-      <c r="M171" s="105"/>
-      <c r="N171" s="105"/>
-      <c r="O171" s="105"/>
-      <c r="P171" s="105"/>
-      <c r="Q171" s="105"/>
+      <c r="J171" s="107"/>
+      <c r="K171" s="107"/>
+      <c r="L171" s="107"/>
+      <c r="M171" s="107"/>
+      <c r="N171" s="107"/>
+      <c r="O171" s="107"/>
+      <c r="P171" s="107"/>
+      <c r="Q171" s="107"/>
       <c r="W171" s="1"/>
     </row>
     <row r="172" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -26991,14 +27633,14 @@
       <c r="I172" s="10">
         <v>4.0674999999999999</v>
       </c>
-      <c r="J172" s="105"/>
-      <c r="K172" s="105"/>
-      <c r="L172" s="105"/>
-      <c r="M172" s="105"/>
-      <c r="N172" s="105"/>
-      <c r="O172" s="105"/>
-      <c r="P172" s="105"/>
-      <c r="Q172" s="105"/>
+      <c r="J172" s="107"/>
+      <c r="K172" s="107"/>
+      <c r="L172" s="107"/>
+      <c r="M172" s="107"/>
+      <c r="N172" s="107"/>
+      <c r="O172" s="107"/>
+      <c r="P172" s="107"/>
+      <c r="Q172" s="107"/>
       <c r="W172" s="1"/>
     </row>
     <row r="173" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -27029,14 +27671,14 @@
       <c r="I173" s="10">
         <v>4.0674999999999999</v>
       </c>
-      <c r="J173" s="105"/>
-      <c r="K173" s="105"/>
-      <c r="L173" s="105"/>
-      <c r="M173" s="105"/>
-      <c r="N173" s="105"/>
-      <c r="O173" s="105"/>
-      <c r="P173" s="105"/>
-      <c r="Q173" s="105"/>
+      <c r="J173" s="107"/>
+      <c r="K173" s="107"/>
+      <c r="L173" s="107"/>
+      <c r="M173" s="107"/>
+      <c r="N173" s="107"/>
+      <c r="O173" s="107"/>
+      <c r="P173" s="107"/>
+      <c r="Q173" s="107"/>
       <c r="W173" s="1"/>
     </row>
     <row r="174" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -27067,14 +27709,14 @@
       <c r="I174" s="10">
         <v>0.98</v>
       </c>
-      <c r="J174" s="105"/>
-      <c r="K174" s="105"/>
-      <c r="L174" s="105"/>
-      <c r="M174" s="105"/>
-      <c r="N174" s="105"/>
-      <c r="O174" s="105"/>
-      <c r="P174" s="105"/>
-      <c r="Q174" s="105"/>
+      <c r="J174" s="107"/>
+      <c r="K174" s="107"/>
+      <c r="L174" s="107"/>
+      <c r="M174" s="107"/>
+      <c r="N174" s="107"/>
+      <c r="O174" s="107"/>
+      <c r="P174" s="107"/>
+      <c r="Q174" s="107"/>
       <c r="W174" s="1"/>
     </row>
     <row r="175" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -27105,14 +27747,14 @@
       <c r="I175" s="10">
         <v>0.98</v>
       </c>
-      <c r="J175" s="105"/>
-      <c r="K175" s="105"/>
-      <c r="L175" s="105"/>
-      <c r="M175" s="105"/>
-      <c r="N175" s="105"/>
-      <c r="O175" s="105"/>
-      <c r="P175" s="105"/>
-      <c r="Q175" s="105"/>
+      <c r="J175" s="107"/>
+      <c r="K175" s="107"/>
+      <c r="L175" s="107"/>
+      <c r="M175" s="107"/>
+      <c r="N175" s="107"/>
+      <c r="O175" s="107"/>
+      <c r="P175" s="107"/>
+      <c r="Q175" s="107"/>
       <c r="W175" s="1"/>
     </row>
     <row r="176" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -27143,14 +27785,14 @@
       <c r="I176" s="10">
         <v>4.3599999999999994</v>
       </c>
-      <c r="J176" s="105"/>
-      <c r="K176" s="105"/>
-      <c r="L176" s="105"/>
-      <c r="M176" s="105"/>
-      <c r="N176" s="105"/>
-      <c r="O176" s="105"/>
-      <c r="P176" s="105"/>
-      <c r="Q176" s="105"/>
+      <c r="J176" s="107"/>
+      <c r="K176" s="107"/>
+      <c r="L176" s="107"/>
+      <c r="M176" s="107"/>
+      <c r="N176" s="107"/>
+      <c r="O176" s="107"/>
+      <c r="P176" s="107"/>
+      <c r="Q176" s="107"/>
       <c r="W176" s="1"/>
     </row>
     <row r="177" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -29657,26 +30299,26 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:27" s="13" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="108" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="24"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="R2" s="108" t="s">
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="R2" s="110" t="s">
         <v>214</v>
       </c>
-      <c r="S2" s="103"/>
+      <c r="S2" s="105"/>
     </row>
     <row r="3" spans="1:27" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -31761,7 +32403,7 @@
     <row r="35" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="R36"/>
       <c r="S36"/>
@@ -31788,7 +32430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
@@ -32256,7 +32898,7 @@
         <v>2</v>
       </c>
       <c r="AI11" s="45" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32568,7 +33210,7 @@
         <v>5</v>
       </c>
       <c r="AI14" s="45" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32672,7 +33314,7 @@
         <v>6</v>
       </c>
       <c r="AI15" s="45" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32776,7 +33418,7 @@
         <v>7</v>
       </c>
       <c r="AI16" s="45" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32880,7 +33522,7 @@
         <v>8</v>
       </c>
       <c r="AI17" s="45" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32984,7 +33626,7 @@
         <v>9</v>
       </c>
       <c r="AI18" s="45" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33088,7 +33730,7 @@
         <v>10</v>
       </c>
       <c r="AI19" s="45" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33192,7 +33834,7 @@
         <v>11</v>
       </c>
       <c r="AI20" s="45" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33296,7 +33938,7 @@
         <v>12</v>
       </c>
       <c r="AI21" s="45" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33400,7 +34042,7 @@
         <v>13</v>
       </c>
       <c r="AI22" s="45" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33504,7 +34146,7 @@
         <v>14</v>
       </c>
       <c r="AI23" s="45" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33608,7 +34250,7 @@
         <v>15</v>
       </c>
       <c r="AI24" s="45" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33712,7 +34354,7 @@
         <v>16</v>
       </c>
       <c r="AI25" s="45" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34024,7 +34666,7 @@
         <v>19</v>
       </c>
       <c r="AI28" s="45" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/MP Workbook LAUNCHPAD.xlsx
+++ b/MP Workbook LAUNCHPAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="360" windowWidth="14430" windowHeight="11355" tabRatio="779"/>
+    <workbookView xWindow="1995" yWindow="360" windowWidth="14430" windowHeight="11355" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MP_new" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Generic HV &amp; WD" sheetId="8" r:id="rId3"/>
     <sheet name="Constraints" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="311">
   <si>
     <t>Scenario</t>
   </si>
@@ -815,9 +815,6 @@
     <t>T10-1a waterless only</t>
   </si>
   <si>
-    <t>T3SE, T4-3, T4-3 Addition no ponds</t>
-  </si>
-  <si>
     <t>Nothing ENV except for Channel Areas</t>
   </si>
   <si>
@@ -914,9 +911,6 @@
     <t>All DCAs under waterless DCM (Tillage, Brine, Gravel, Sand Fences) in Step 0 should be kept as-is.</t>
   </si>
   <si>
-    <t>T13-1 Addition sprinklers only</t>
-  </si>
-  <si>
     <t>T23-5 should no gravel</t>
   </si>
   <si>
@@ -944,9 +938,6 @@
     <t>All Meadow stays as-is</t>
   </si>
   <si>
-    <t>T13-1 Addition waterless only</t>
-  </si>
-  <si>
     <t>Note: in general case, waterless DCMs have no habitat value. In a few specific instances in Base case, some DCAs under waterless DCMs had habitat (see "Custom HV and WD" sheet).</t>
   </si>
   <si>
@@ -966,6 +957,12 @@
   </si>
   <si>
     <t>Sand Fences Area Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3SE and T3NE are now tillage, but challenging. Allow options for other BACM. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T4-3, T4-3 Addition no ponds</t>
   </si>
 </sst>
 </file>
@@ -1809,11 +1806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173192256"/>
-        <c:axId val="173189952"/>
+        <c:axId val="274920512"/>
+        <c:axId val="274921088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173192256"/>
+        <c:axId val="274920512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1843,12 +1840,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173189952"/>
+        <c:crossAx val="274921088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173189952"/>
+        <c:axId val="274921088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +1875,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173192256"/>
+        <c:crossAx val="274920512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2273,11 +2270,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176099264"/>
-        <c:axId val="176099840"/>
+        <c:axId val="274922816"/>
+        <c:axId val="268550144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="176099264"/>
+        <c:axId val="274922816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2307,12 +2304,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176099840"/>
+        <c:crossAx val="268550144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176099840"/>
+        <c:axId val="268550144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2344,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176099264"/>
+        <c:crossAx val="274922816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2772,7 +2769,7 @@
   </sheetPr>
   <dimension ref="A1:CP200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -2850,16 +2847,16 @@
         <v>5</v>
       </c>
       <c r="G2" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="I2" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="60" t="s">
-        <v>273</v>
-      </c>
       <c r="P2" s="102" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q2" s="103"/>
       <c r="R2" s="66"/>
@@ -2907,18 +2904,18 @@
         <v>7</v>
       </c>
       <c r="K3" s="94" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
       <c r="P3" s="86" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q3" s="87">
         <v>3</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AI3" s="63"/>
       <c r="AJ3" s="62"/>
@@ -2964,18 +2961,18 @@
         <v>7</v>
       </c>
       <c r="K4" s="95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L4" s="78"/>
       <c r="M4" s="78"/>
       <c r="P4" s="86" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="87">
         <v>3</v>
       </c>
       <c r="R4" s="62" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AI4" s="63"/>
       <c r="AJ4" s="62"/>
@@ -3023,18 +3020,18 @@
         <v>0</v>
       </c>
       <c r="K5" s="96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L5" s="79"/>
       <c r="M5" s="79"/>
       <c r="P5" s="86" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="87">
         <v>100</v>
       </c>
       <c r="R5" s="62" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AI5" s="63"/>
       <c r="AJ5" s="62"/>
@@ -3082,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="86" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q6" s="87">
         <v>0</v>
       </c>
       <c r="R6" s="62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI6" s="63"/>
       <c r="AJ6" s="62"/>
@@ -3181,11 +3178,11 @@
         <v>0</v>
       </c>
       <c r="P8" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q8" s="103"/>
       <c r="R8" s="98" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AI8" s="63"/>
       <c r="AJ8" s="62"/>
@@ -3309,7 +3306,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P11" s="86" t="s">
         <v>3</v>
@@ -3520,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AI15" s="63"/>
       <c r="AJ15" s="62"/>
@@ -3768,7 +3765,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="93" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J21"/>
       <c r="K21" s="57"/>
@@ -3855,7 +3852,7 @@
       <c r="G22" s="83"/>
       <c r="H22" s="84"/>
       <c r="I22" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G22, $P$16:$P$22, 0)), "soft", IF(EXACT(F22, G22), "none", "hard"))</f>
+        <f t="shared" ref="I22:I53" si="4">IF(ISNUMBER(MATCH(G22, $P$16:$P$22, 0)), "soft", IF(EXACT(F22, G22), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J22"/>
@@ -3951,7 +3948,7 @@
         <v>197</v>
       </c>
       <c r="C23" s="73">
-        <f t="shared" ref="C23:C86" si="4">B23*0.0015625</f>
+        <f t="shared" ref="C23:C86" si="5">B23*0.0015625</f>
         <v>0.30781250000000004</v>
       </c>
       <c r="D23" s="74" t="s">
@@ -3966,7 +3963,7 @@
       <c r="G23" s="83"/>
       <c r="H23" s="84"/>
       <c r="I23" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G23, $P$16:$P$22, 0)), "soft", IF(EXACT(F23, G23), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J23"/>
@@ -4060,7 +4057,7 @@
         <v>87.9</v>
       </c>
       <c r="C24" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13734375000000001</v>
       </c>
       <c r="D24" s="74" t="s">
@@ -4075,14 +4072,14 @@
       <c r="G24" s="83"/>
       <c r="H24" s="84"/>
       <c r="I24" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G24, $P$16:$P$22, 0)), "soft", IF(EXACT(F24, G24), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J24"/>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24" s="100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q24" s="101"/>
       <c r="R24" s="66" t="s">
@@ -4173,7 +4170,7 @@
         <v>1291.7</v>
       </c>
       <c r="C25" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0182812500000002</v>
       </c>
       <c r="D25" s="74" t="s">
@@ -4188,7 +4185,7 @@
       <c r="G25" s="83"/>
       <c r="H25" s="84"/>
       <c r="I25" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G25, $P$16:$P$22, 0)), "soft", IF(EXACT(F25, G25), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J25"/>
@@ -4201,10 +4198,10 @@
         <v>34</v>
       </c>
       <c r="Q25" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S25"/>
       <c r="T25"/>
@@ -4291,7 +4288,7 @@
         <v>447.9</v>
       </c>
       <c r="C26" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69984374999999999</v>
       </c>
       <c r="D26" s="74" t="s">
@@ -4306,7 +4303,7 @@
       <c r="G26" s="83"/>
       <c r="H26" s="84"/>
       <c r="I26" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G26, $P$16:$P$22, 0)), "soft", IF(EXACT(F26, G26), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J26"/>
@@ -4319,10 +4316,10 @@
         <v>26</v>
       </c>
       <c r="Q26" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S26"/>
       <c r="T26"/>
@@ -4409,7 +4406,7 @@
         <v>201</v>
       </c>
       <c r="C27" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31406250000000002</v>
       </c>
       <c r="D27" s="74" t="s">
@@ -4424,7 +4421,7 @@
       <c r="G27" s="83"/>
       <c r="H27" s="84"/>
       <c r="I27" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G27, $P$16:$P$22, 0)), "soft", IF(EXACT(F27, G27), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J27"/>
@@ -4434,10 +4431,10 @@
         <v>38</v>
       </c>
       <c r="Q27" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S27"/>
       <c r="T27"/>
@@ -4524,7 +4521,7 @@
         <v>698</v>
       </c>
       <c r="C28" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.090625</v>
       </c>
       <c r="D28" s="74" t="s">
@@ -4539,7 +4536,7 @@
       <c r="G28" s="83"/>
       <c r="H28" s="84"/>
       <c r="I28" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G28, $P$16:$P$22, 0)), "soft", IF(EXACT(F28, G28), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J28"/>
@@ -4549,10 +4546,10 @@
         <v>63</v>
       </c>
       <c r="Q28" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S28"/>
       <c r="T28"/>
@@ -4639,7 +4636,7 @@
         <v>177.8</v>
       </c>
       <c r="C29" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27781250000000002</v>
       </c>
       <c r="D29" s="74" t="s">
@@ -4654,7 +4651,7 @@
       <c r="G29" s="83"/>
       <c r="H29" s="84"/>
       <c r="I29" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G29, $P$16:$P$22, 0)), "soft", IF(EXACT(F29, G29), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J29"/>
@@ -4664,10 +4661,10 @@
         <v>58</v>
       </c>
       <c r="Q29" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S29"/>
       <c r="T29"/>
@@ -4754,7 +4751,7 @@
         <v>102.8</v>
       </c>
       <c r="C30" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16062500000000002</v>
       </c>
       <c r="D30" s="74" t="s">
@@ -4769,7 +4766,7 @@
       <c r="G30" s="83"/>
       <c r="H30" s="84"/>
       <c r="I30" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G30, $P$16:$P$22, 0)), "soft", IF(EXACT(F30, G30), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J30"/>
@@ -4863,7 +4860,7 @@
         <v>431</v>
       </c>
       <c r="C31" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.67343750000000002</v>
       </c>
       <c r="D31" s="74" t="s">
@@ -4878,7 +4875,7 @@
       <c r="G31" s="83"/>
       <c r="H31" s="84"/>
       <c r="I31" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G31, $P$16:$P$22, 0)), "soft", IF(EXACT(F31, G31), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J31"/>
@@ -4972,7 +4969,7 @@
         <v>152.4</v>
       </c>
       <c r="C32" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23812500000000003</v>
       </c>
       <c r="D32" s="74" t="s">
@@ -4987,7 +4984,7 @@
       <c r="G32" s="83"/>
       <c r="H32" s="84"/>
       <c r="I32" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G32, $P$16:$P$22, 0)), "soft", IF(EXACT(F32, G32), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J32"/>
@@ -5081,7 +5078,7 @@
         <v>215.7</v>
       </c>
       <c r="C33" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33703125</v>
       </c>
       <c r="D33" s="74" t="s">
@@ -5096,7 +5093,7 @@
       <c r="G33" s="83"/>
       <c r="H33" s="84"/>
       <c r="I33" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G33, $P$16:$P$22, 0)), "soft", IF(EXACT(F33, G33), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J33"/>
@@ -5193,7 +5190,7 @@
         <v>425.9</v>
       </c>
       <c r="C34" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66546875000000005</v>
       </c>
       <c r="D34" s="74" t="s">
@@ -5208,7 +5205,7 @@
       <c r="G34" s="83"/>
       <c r="H34" s="84"/>
       <c r="I34" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G34, $P$16:$P$22, 0)), "soft", IF(EXACT(F34, G34), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J34"/>
@@ -5305,7 +5302,7 @@
         <v>319.2</v>
       </c>
       <c r="C35" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.49875000000000003</v>
       </c>
       <c r="D35" s="74" t="s">
@@ -5320,7 +5317,7 @@
       <c r="G35" s="83"/>
       <c r="H35" s="84"/>
       <c r="I35" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G35, $P$16:$P$22, 0)), "soft", IF(EXACT(F35, G35), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J35"/>
@@ -5417,7 +5414,7 @@
         <v>79.7</v>
       </c>
       <c r="C36" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12453125000000001</v>
       </c>
       <c r="D36" s="74" t="s">
@@ -5432,7 +5429,7 @@
       <c r="G36" s="83"/>
       <c r="H36" s="84"/>
       <c r="I36" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G36, $P$16:$P$22, 0)), "soft", IF(EXACT(F36, G36), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J36"/>
@@ -5529,7 +5526,7 @@
         <v>251.6</v>
       </c>
       <c r="C37" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.393125</v>
       </c>
       <c r="D37" s="74" t="s">
@@ -5544,7 +5541,7 @@
       <c r="G37" s="83"/>
       <c r="H37" s="84"/>
       <c r="I37" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G37, $P$16:$P$22, 0)), "soft", IF(EXACT(F37, G37), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J37"/>
@@ -5641,7 +5638,7 @@
         <v>136.9</v>
       </c>
       <c r="C38" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21390625000000002</v>
       </c>
       <c r="D38" s="74" t="s">
@@ -5656,7 +5653,7 @@
       <c r="G38" s="83"/>
       <c r="H38" s="84"/>
       <c r="I38" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G38, $P$16:$P$22, 0)), "soft", IF(EXACT(F38, G38), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J38"/>
@@ -5753,7 +5750,7 @@
         <v>436.6</v>
       </c>
       <c r="C39" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.68218750000000006</v>
       </c>
       <c r="D39" s="74" t="s">
@@ -5768,7 +5765,7 @@
       <c r="G39" s="83"/>
       <c r="H39" s="84"/>
       <c r="I39" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G39, $P$16:$P$22, 0)), "soft", IF(EXACT(F39, G39), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J39"/>
@@ -5865,7 +5862,7 @@
         <v>1082.5</v>
       </c>
       <c r="C40" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.69140625</v>
       </c>
       <c r="D40" s="74" t="s">
@@ -5880,7 +5877,7 @@
       <c r="G40" s="83"/>
       <c r="H40" s="84"/>
       <c r="I40" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G40, $P$16:$P$22, 0)), "soft", IF(EXACT(F40, G40), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J40"/>
@@ -5977,7 +5974,7 @@
         <v>523.9</v>
       </c>
       <c r="C41" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81859375000000001</v>
       </c>
       <c r="D41" s="74" t="s">
@@ -5992,7 +5989,7 @@
       <c r="G41" s="83"/>
       <c r="H41" s="84"/>
       <c r="I41" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G41, $P$16:$P$22, 0)), "soft", IF(EXACT(F41, G41), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J41"/>
@@ -6089,7 +6086,7 @@
         <v>600.79999999999995</v>
       </c>
       <c r="C42" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93874999999999997</v>
       </c>
       <c r="D42" s="74" t="s">
@@ -6104,7 +6101,7 @@
       <c r="G42" s="83"/>
       <c r="H42" s="84"/>
       <c r="I42" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G42, $P$16:$P$22, 0)), "soft", IF(EXACT(F42, G42), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J42"/>
@@ -6201,7 +6198,7 @@
         <v>341.5</v>
       </c>
       <c r="C43" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.53359374999999998</v>
       </c>
       <c r="D43" s="74" t="s">
@@ -6216,7 +6213,7 @@
       <c r="G43" s="83"/>
       <c r="H43" s="84"/>
       <c r="I43" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G43, $P$16:$P$22, 0)), "soft", IF(EXACT(F43, G43), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J43"/>
@@ -6313,7 +6310,7 @@
         <v>544.70000000000005</v>
       </c>
       <c r="C44" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85109375000000009</v>
       </c>
       <c r="D44" s="74" t="s">
@@ -6328,7 +6325,7 @@
       <c r="G44" s="83"/>
       <c r="H44" s="84"/>
       <c r="I44" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G44, $P$16:$P$22, 0)), "soft", IF(EXACT(F44, G44), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J44"/>
@@ -6425,7 +6422,7 @@
         <v>21.3</v>
       </c>
       <c r="C45" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3281250000000005E-2</v>
       </c>
       <c r="D45" s="74" t="s">
@@ -6440,7 +6437,7 @@
       <c r="G45" s="83"/>
       <c r="H45" s="84"/>
       <c r="I45" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G45, $P$16:$P$22, 0)), "soft", IF(EXACT(F45, G45), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J45"/>
@@ -6537,7 +6534,7 @@
         <v>1161.7</v>
       </c>
       <c r="C46" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8151562500000002</v>
       </c>
       <c r="D46" s="74" t="s">
@@ -6552,7 +6549,7 @@
       <c r="G46" s="83"/>
       <c r="H46" s="84"/>
       <c r="I46" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G46, $P$16:$P$22, 0)), "soft", IF(EXACT(F46, G46), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J46"/>
@@ -6649,7 +6646,7 @@
         <v>248.4</v>
       </c>
       <c r="C47" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38812500000000005</v>
       </c>
       <c r="D47" s="74" t="s">
@@ -6664,7 +6661,7 @@
       <c r="G47" s="83"/>
       <c r="H47" s="84"/>
       <c r="I47" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G47, $P$16:$P$22, 0)), "soft", IF(EXACT(F47, G47), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J47"/>
@@ -6761,7 +6758,7 @@
         <v>701</v>
       </c>
       <c r="C48" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0953125000000001</v>
       </c>
       <c r="D48" s="74" t="s">
@@ -6776,7 +6773,7 @@
       <c r="G48" s="83"/>
       <c r="H48" s="84"/>
       <c r="I48" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G48, $P$16:$P$22, 0)), "soft", IF(EXACT(F48, G48), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J48"/>
@@ -6873,7 +6870,7 @@
         <v>506.2</v>
       </c>
       <c r="C49" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.79093750000000007</v>
       </c>
       <c r="D49" s="74" t="s">
@@ -6888,7 +6885,7 @@
       <c r="G49" s="83"/>
       <c r="H49" s="84"/>
       <c r="I49" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G49, $P$16:$P$22, 0)), "soft", IF(EXACT(F49, G49), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J49"/>
@@ -6985,7 +6982,7 @@
         <v>615.1</v>
       </c>
       <c r="C50" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.96109375000000008</v>
       </c>
       <c r="D50" s="74" t="s">
@@ -7000,7 +6997,7 @@
       <c r="G50" s="83"/>
       <c r="H50" s="84"/>
       <c r="I50" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G50, $P$16:$P$22, 0)), "soft", IF(EXACT(F50, G50), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J50"/>
@@ -7097,7 +7094,7 @@
         <v>332.6</v>
       </c>
       <c r="C51" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.51968750000000008</v>
       </c>
       <c r="D51" s="74" t="s">
@@ -7112,7 +7109,7 @@
       <c r="G51" s="83"/>
       <c r="H51" s="84"/>
       <c r="I51" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G51, $P$16:$P$22, 0)), "soft", IF(EXACT(F51, G51), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J51"/>
@@ -7209,7 +7206,7 @@
         <v>183.4</v>
       </c>
       <c r="C52" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2865625</v>
       </c>
       <c r="D52" s="74" t="s">
@@ -7224,7 +7221,7 @@
       <c r="G52" s="83"/>
       <c r="H52" s="84"/>
       <c r="I52" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G52, $P$16:$P$22, 0)), "soft", IF(EXACT(F52, G52), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J52"/>
@@ -7321,7 +7318,7 @@
         <v>275.39999999999998</v>
       </c>
       <c r="C53" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.43031249999999999</v>
       </c>
       <c r="D53" s="74" t="s">
@@ -7336,7 +7333,7 @@
       <c r="G53" s="83"/>
       <c r="H53" s="84"/>
       <c r="I53" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G53, $P$16:$P$22, 0)), "soft", IF(EXACT(F53, G53), "none", "hard"))</f>
+        <f t="shared" si="4"/>
         <v>hard</v>
       </c>
       <c r="J53"/>
@@ -7433,7 +7430,7 @@
         <v>43.2</v>
       </c>
       <c r="C54" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="D54" s="74" t="s">
@@ -7448,7 +7445,7 @@
       <c r="G54" s="83"/>
       <c r="H54" s="84"/>
       <c r="I54" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G54, $P$16:$P$22, 0)), "soft", IF(EXACT(F54, G54), "none", "hard"))</f>
+        <f t="shared" ref="I54:I85" si="6">IF(ISNUMBER(MATCH(G54, $P$16:$P$22, 0)), "soft", IF(EXACT(F54, G54), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J54"/>
@@ -7545,7 +7542,7 @@
         <v>133.30000000000001</v>
       </c>
       <c r="C55" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20828125000000003</v>
       </c>
       <c r="D55" s="74" t="s">
@@ -7560,7 +7557,7 @@
       <c r="G55" s="83"/>
       <c r="H55" s="84"/>
       <c r="I55" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G55, $P$16:$P$22, 0)), "soft", IF(EXACT(F55, G55), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J55"/>
@@ -7657,7 +7654,7 @@
         <v>74.7</v>
       </c>
       <c r="C56" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11671875000000001</v>
       </c>
       <c r="D56" s="74" t="s">
@@ -7672,7 +7669,7 @@
       <c r="G56" s="83"/>
       <c r="H56" s="84"/>
       <c r="I56" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G56, $P$16:$P$22, 0)), "soft", IF(EXACT(F56, G56), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J56"/>
@@ -7769,7 +7766,7 @@
         <v>199.2</v>
       </c>
       <c r="C57" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31125000000000003</v>
       </c>
       <c r="D57" s="74" t="s">
@@ -7784,7 +7781,7 @@
       <c r="G57" s="83"/>
       <c r="H57" s="84"/>
       <c r="I57" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G57, $P$16:$P$22, 0)), "soft", IF(EXACT(F57, G57), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J57"/>
@@ -7881,7 +7878,7 @@
         <v>251.4</v>
       </c>
       <c r="C58" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.39281250000000001</v>
       </c>
       <c r="D58" s="74" t="s">
@@ -7896,7 +7893,7 @@
       <c r="G58" s="83"/>
       <c r="H58" s="84"/>
       <c r="I58" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G58, $P$16:$P$22, 0)), "soft", IF(EXACT(F58, G58), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J58"/>
@@ -7993,7 +7990,7 @@
         <v>220.1</v>
       </c>
       <c r="C59" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.34390625000000002</v>
       </c>
       <c r="D59" s="74" t="s">
@@ -8008,7 +8005,7 @@
       <c r="G59" s="83"/>
       <c r="H59" s="84"/>
       <c r="I59" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G59, $P$16:$P$22, 0)), "soft", IF(EXACT(F59, G59), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J59"/>
@@ -8105,7 +8102,7 @@
         <v>475.8</v>
       </c>
       <c r="C60" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.74343750000000008</v>
       </c>
       <c r="D60" s="74" t="s">
@@ -8120,7 +8117,7 @@
       <c r="G60" s="83"/>
       <c r="H60" s="84"/>
       <c r="I60" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G60, $P$16:$P$22, 0)), "soft", IF(EXACT(F60, G60), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J60"/>
@@ -8217,7 +8214,7 @@
         <v>225.4</v>
       </c>
       <c r="C61" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35218750000000004</v>
       </c>
       <c r="D61" s="74" t="s">
@@ -8232,7 +8229,7 @@
       <c r="G61" s="83"/>
       <c r="H61" s="84"/>
       <c r="I61" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G61, $P$16:$P$22, 0)), "soft", IF(EXACT(F61, G61), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J61"/>
@@ -8329,7 +8326,7 @@
         <v>1099.7</v>
       </c>
       <c r="C62" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7182812500000002</v>
       </c>
       <c r="D62" s="74" t="s">
@@ -8344,7 +8341,7 @@
       <c r="G62" s="83"/>
       <c r="H62" s="84"/>
       <c r="I62" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G62, $P$16:$P$22, 0)), "soft", IF(EXACT(F62, G62), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J62"/>
@@ -8441,7 +8438,7 @@
         <v>180.3</v>
       </c>
       <c r="C63" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28171875000000002</v>
       </c>
       <c r="D63" s="74" t="s">
@@ -8456,7 +8453,7 @@
       <c r="G63" s="83"/>
       <c r="H63" s="84"/>
       <c r="I63" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G63, $P$16:$P$22, 0)), "soft", IF(EXACT(F63, G63), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J63"/>
@@ -8553,7 +8550,7 @@
         <v>42.3</v>
       </c>
       <c r="C64" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6093749999999993E-2</v>
       </c>
       <c r="D64" s="74" t="s">
@@ -8568,7 +8565,7 @@
       <c r="G64" s="83"/>
       <c r="H64" s="84"/>
       <c r="I64" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G64, $P$16:$P$22, 0)), "soft", IF(EXACT(F64, G64), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J64"/>
@@ -8665,7 +8662,7 @@
         <v>65.2</v>
       </c>
       <c r="C65" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10187500000000001</v>
       </c>
       <c r="D65" s="74" t="s">
@@ -8680,7 +8677,7 @@
       <c r="G65" s="83"/>
       <c r="H65" s="84"/>
       <c r="I65" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G65, $P$16:$P$22, 0)), "soft", IF(EXACT(F65, G65), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J65"/>
@@ -8777,7 +8774,7 @@
         <v>170.2</v>
       </c>
       <c r="C66" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26593749999999999</v>
       </c>
       <c r="D66" s="74" t="s">
@@ -8792,7 +8789,7 @@
       <c r="G66" s="83"/>
       <c r="H66" s="84"/>
       <c r="I66" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G66, $P$16:$P$22, 0)), "soft", IF(EXACT(F66, G66), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J66"/>
@@ -8889,7 +8886,7 @@
         <v>257.3</v>
       </c>
       <c r="C67" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40203125000000006</v>
       </c>
       <c r="D67" s="74" t="s">
@@ -8904,7 +8901,7 @@
       <c r="G67" s="83"/>
       <c r="H67" s="84"/>
       <c r="I67" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G67, $P$16:$P$22, 0)), "soft", IF(EXACT(F67, G67), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J67"/>
@@ -9001,7 +8998,7 @@
         <v>818.3</v>
       </c>
       <c r="C68" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.27859375</v>
       </c>
       <c r="D68" s="74" t="s">
@@ -9016,7 +9013,7 @@
       <c r="G68" s="83"/>
       <c r="H68" s="84"/>
       <c r="I68" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G68, $P$16:$P$22, 0)), "soft", IF(EXACT(F68, G68), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J68"/>
@@ -9113,7 +9110,7 @@
         <v>851.2</v>
       </c>
       <c r="C69" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.33</v>
       </c>
       <c r="D69" s="74" t="s">
@@ -9128,7 +9125,7 @@
       <c r="G69" s="83"/>
       <c r="H69" s="84"/>
       <c r="I69" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G69, $P$16:$P$22, 0)), "soft", IF(EXACT(F69, G69), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J69"/>
@@ -9225,7 +9222,7 @@
         <v>50.4</v>
       </c>
       <c r="C70" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8750000000000001E-2</v>
       </c>
       <c r="D70" s="74" t="s">
@@ -9240,7 +9237,7 @@
       <c r="G70" s="83"/>
       <c r="H70" s="84"/>
       <c r="I70" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G70, $P$16:$P$22, 0)), "soft", IF(EXACT(F70, G70), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J70"/>
@@ -9337,7 +9334,7 @@
         <v>547.6</v>
       </c>
       <c r="C71" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85562500000000008</v>
       </c>
       <c r="D71" s="74" t="s">
@@ -9352,7 +9349,7 @@
       <c r="G71" s="83"/>
       <c r="H71" s="84"/>
       <c r="I71" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G71, $P$16:$P$22, 0)), "soft", IF(EXACT(F71, G71), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J71"/>
@@ -9449,7 +9446,7 @@
         <v>545.29999999999995</v>
       </c>
       <c r="C72" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85203125000000002</v>
       </c>
       <c r="D72" s="74" t="s">
@@ -9464,7 +9461,7 @@
       <c r="G72" s="83"/>
       <c r="H72" s="84"/>
       <c r="I72" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G72, $P$16:$P$22, 0)), "soft", IF(EXACT(F72, G72), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J72"/>
@@ -9561,7 +9558,7 @@
         <v>453</v>
       </c>
       <c r="C73" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.70781250000000007</v>
       </c>
       <c r="D73" s="74" t="s">
@@ -9576,7 +9573,7 @@
       <c r="G73" s="83"/>
       <c r="H73" s="84"/>
       <c r="I73" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G73, $P$16:$P$22, 0)), "soft", IF(EXACT(F73, G73), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J73"/>
@@ -9673,7 +9670,7 @@
         <v>300</v>
       </c>
       <c r="C74" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.46875</v>
       </c>
       <c r="D74" s="74" t="s">
@@ -9688,7 +9685,7 @@
       <c r="G74" s="83"/>
       <c r="H74" s="84"/>
       <c r="I74" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G74, $P$16:$P$22, 0)), "soft", IF(EXACT(F74, G74), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J74"/>
@@ -9785,7 +9782,7 @@
         <v>219.8</v>
       </c>
       <c r="C75" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.34343750000000006</v>
       </c>
       <c r="D75" s="74" t="s">
@@ -9800,7 +9797,7 @@
       <c r="G75" s="83"/>
       <c r="H75" s="84"/>
       <c r="I75" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G75, $P$16:$P$22, 0)), "soft", IF(EXACT(F75, G75), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J75"/>
@@ -9897,7 +9894,7 @@
         <v>479.5</v>
       </c>
       <c r="C76" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.74921875000000004</v>
       </c>
       <c r="D76" s="74" t="s">
@@ -9912,7 +9909,7 @@
       <c r="G76" s="83"/>
       <c r="H76" s="84"/>
       <c r="I76" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G76, $P$16:$P$22, 0)), "soft", IF(EXACT(F76, G76), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J76"/>
@@ -10009,7 +10006,7 @@
         <v>258.10000000000002</v>
       </c>
       <c r="C77" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40328125000000004</v>
       </c>
       <c r="D77" s="74" t="s">
@@ -10024,7 +10021,7 @@
       <c r="G77" s="83"/>
       <c r="H77" s="84"/>
       <c r="I77" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G77, $P$16:$P$22, 0)), "soft", IF(EXACT(F77, G77), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J77"/>
@@ -10121,7 +10118,7 @@
         <v>163.30000000000001</v>
       </c>
       <c r="C78" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25515625000000003</v>
       </c>
       <c r="D78" s="74" t="s">
@@ -10136,7 +10133,7 @@
       <c r="G78" s="83"/>
       <c r="H78" s="84"/>
       <c r="I78" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G78, $P$16:$P$22, 0)), "soft", IF(EXACT(F78, G78), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J78"/>
@@ -10233,7 +10230,7 @@
         <v>689.3</v>
       </c>
       <c r="C79" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0770312499999999</v>
       </c>
       <c r="D79" s="74" t="s">
@@ -10248,7 +10245,7 @@
       <c r="G79" s="83"/>
       <c r="H79" s="84"/>
       <c r="I79" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G79, $P$16:$P$22, 0)), "soft", IF(EXACT(F79, G79), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J79"/>
@@ -10345,7 +10342,7 @@
         <v>316.89999999999998</v>
       </c>
       <c r="C80" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.49515624999999996</v>
       </c>
       <c r="D80" s="74" t="s">
@@ -10360,7 +10357,7 @@
       <c r="G80" s="83"/>
       <c r="H80" s="84"/>
       <c r="I80" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G80, $P$16:$P$22, 0)), "soft", IF(EXACT(F80, G80), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J80"/>
@@ -10457,7 +10454,7 @@
         <v>172.8</v>
       </c>
       <c r="C81" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27</v>
       </c>
       <c r="D81" s="74" t="s">
@@ -10472,7 +10469,7 @@
       <c r="G81" s="83"/>
       <c r="H81" s="84"/>
       <c r="I81" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G81, $P$16:$P$22, 0)), "soft", IF(EXACT(F81, G81), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J81"/>
@@ -10569,7 +10566,7 @@
         <v>112.2</v>
       </c>
       <c r="C82" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17531250000000001</v>
       </c>
       <c r="D82" s="74" t="s">
@@ -10584,7 +10581,7 @@
       <c r="G82" s="83"/>
       <c r="H82" s="84"/>
       <c r="I82" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G82, $P$16:$P$22, 0)), "soft", IF(EXACT(F82, G82), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J82"/>
@@ -10681,7 +10678,7 @@
         <v>67.3</v>
       </c>
       <c r="C83" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10515625000000001</v>
       </c>
       <c r="D83" s="74" t="s">
@@ -10696,7 +10693,7 @@
       <c r="G83" s="83"/>
       <c r="H83" s="84"/>
       <c r="I83" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G83, $P$16:$P$22, 0)), "soft", IF(EXACT(F83, G83), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J83"/>
@@ -10793,7 +10790,7 @@
         <v>91.6</v>
       </c>
       <c r="C84" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.143125</v>
       </c>
       <c r="D84" s="74" t="s">
@@ -10808,7 +10805,7 @@
       <c r="G84" s="83"/>
       <c r="H84" s="84"/>
       <c r="I84" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G84, $P$16:$P$22, 0)), "soft", IF(EXACT(F84, G84), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J84"/>
@@ -10905,7 +10902,7 @@
         <v>288.39999999999998</v>
       </c>
       <c r="C85" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.450625</v>
       </c>
       <c r="D85" s="74" t="s">
@@ -10920,7 +10917,7 @@
       <c r="G85" s="83"/>
       <c r="H85" s="84"/>
       <c r="I85" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G85, $P$16:$P$22, 0)), "soft", IF(EXACT(F85, G85), "none", "hard"))</f>
+        <f t="shared" si="6"/>
         <v>hard</v>
       </c>
       <c r="J85"/>
@@ -11017,7 +11014,7 @@
         <v>357.2</v>
       </c>
       <c r="C86" s="73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55812499999999998</v>
       </c>
       <c r="D86" s="74" t="s">
@@ -11032,7 +11029,7 @@
       <c r="G86" s="83"/>
       <c r="H86" s="84"/>
       <c r="I86" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G86, $P$16:$P$22, 0)), "soft", IF(EXACT(F86, G86), "none", "hard"))</f>
+        <f t="shared" ref="I86:I117" si="7">IF(ISNUMBER(MATCH(G86, $P$16:$P$22, 0)), "soft", IF(EXACT(F86, G86), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J86"/>
@@ -11129,7 +11126,7 @@
         <v>275.8</v>
       </c>
       <c r="C87" s="73">
-        <f t="shared" ref="C87:C150" si="5">B87*0.0015625</f>
+        <f t="shared" ref="C87:C150" si="8">B87*0.0015625</f>
         <v>0.43093750000000003</v>
       </c>
       <c r="D87" s="74" t="s">
@@ -11144,7 +11141,7 @@
       <c r="G87" s="83"/>
       <c r="H87" s="84"/>
       <c r="I87" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G87, $P$16:$P$22, 0)), "soft", IF(EXACT(F87, G87), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J87"/>
@@ -11241,7 +11238,7 @@
         <v>391.6</v>
       </c>
       <c r="C88" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.61187500000000006</v>
       </c>
       <c r="D88" s="74" t="s">
@@ -11256,7 +11253,7 @@
       <c r="G88" s="83"/>
       <c r="H88" s="84"/>
       <c r="I88" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G88, $P$16:$P$22, 0)), "soft", IF(EXACT(F88, G88), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J88"/>
@@ -11353,7 +11350,7 @@
         <v>21.4</v>
       </c>
       <c r="C89" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.3437500000000002E-2</v>
       </c>
       <c r="D89" s="74" t="s">
@@ -11368,7 +11365,7 @@
       <c r="G89" s="83"/>
       <c r="H89" s="84"/>
       <c r="I89" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G89, $P$16:$P$22, 0)), "soft", IF(EXACT(F89, G89), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J89"/>
@@ -11465,7 +11462,7 @@
         <v>143.1</v>
       </c>
       <c r="C90" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.22359375000000001</v>
       </c>
       <c r="D90" s="74" t="s">
@@ -11480,7 +11477,7 @@
       <c r="G90" s="83"/>
       <c r="H90" s="84"/>
       <c r="I90" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G90, $P$16:$P$22, 0)), "soft", IF(EXACT(F90, G90), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J90"/>
@@ -11577,7 +11574,7 @@
         <v>82.6</v>
       </c>
       <c r="C91" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.1290625</v>
       </c>
       <c r="D91" s="74" t="s">
@@ -11592,7 +11589,7 @@
       <c r="G91" s="83"/>
       <c r="H91" s="84"/>
       <c r="I91" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G91, $P$16:$P$22, 0)), "soft", IF(EXACT(F91, G91), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J91"/>
@@ -11689,7 +11686,7 @@
         <v>377.8</v>
       </c>
       <c r="C92" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.59031250000000002</v>
       </c>
       <c r="D92" s="74" t="s">
@@ -11704,7 +11701,7 @@
       <c r="G92" s="83"/>
       <c r="H92" s="84"/>
       <c r="I92" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G92, $P$16:$P$22, 0)), "soft", IF(EXACT(F92, G92), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J92"/>
@@ -11801,7 +11798,7 @@
         <v>149.19999999999999</v>
       </c>
       <c r="C93" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.233125</v>
       </c>
       <c r="D93" s="74" t="s">
@@ -11816,7 +11813,7 @@
       <c r="G93" s="83"/>
       <c r="H93" s="84"/>
       <c r="I93" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G93, $P$16:$P$22, 0)), "soft", IF(EXACT(F93, G93), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J93"/>
@@ -11913,7 +11910,7 @@
         <v>318.7</v>
       </c>
       <c r="C94" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.49796875000000002</v>
       </c>
       <c r="D94" s="74" t="s">
@@ -11928,7 +11925,7 @@
       <c r="G94" s="83"/>
       <c r="H94" s="84"/>
       <c r="I94" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G94, $P$16:$P$22, 0)), "soft", IF(EXACT(F94, G94), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J94"/>
@@ -12025,7 +12022,7 @@
         <v>77.5</v>
       </c>
       <c r="C95" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.12109375</v>
       </c>
       <c r="D95" s="74" t="s">
@@ -12040,7 +12037,7 @@
       <c r="G95" s="83"/>
       <c r="H95" s="84"/>
       <c r="I95" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G95, $P$16:$P$22, 0)), "soft", IF(EXACT(F95, G95), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J95"/>
@@ -12137,7 +12134,7 @@
         <v>386.5</v>
       </c>
       <c r="C96" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.60390625000000009</v>
       </c>
       <c r="D96" s="74" t="s">
@@ -12152,7 +12149,7 @@
       <c r="G96" s="83"/>
       <c r="H96" s="84"/>
       <c r="I96" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G96, $P$16:$P$22, 0)), "soft", IF(EXACT(F96, G96), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J96"/>
@@ -12249,7 +12246,7 @@
         <v>149.4</v>
       </c>
       <c r="C97" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.23343750000000002</v>
       </c>
       <c r="D97" s="74" t="s">
@@ -12264,7 +12261,7 @@
       <c r="G97" s="83"/>
       <c r="H97" s="84"/>
       <c r="I97" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G97, $P$16:$P$22, 0)), "soft", IF(EXACT(F97, G97), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J97"/>
@@ -12361,7 +12358,7 @@
         <v>87.4</v>
       </c>
       <c r="C98" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.1365625</v>
       </c>
       <c r="D98" s="74" t="s">
@@ -12376,7 +12373,7 @@
       <c r="G98" s="83"/>
       <c r="H98" s="84"/>
       <c r="I98" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G98, $P$16:$P$22, 0)), "soft", IF(EXACT(F98, G98), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J98"/>
@@ -12473,7 +12470,7 @@
         <v>161.5</v>
       </c>
       <c r="C99" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.25234375000000003</v>
       </c>
       <c r="D99" s="74" t="s">
@@ -12488,7 +12485,7 @@
       <c r="G99" s="83"/>
       <c r="H99" s="84"/>
       <c r="I99" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G99, $P$16:$P$22, 0)), "soft", IF(EXACT(F99, G99), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J99"/>
@@ -12585,7 +12582,7 @@
         <v>67.2</v>
       </c>
       <c r="C100" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.10500000000000001</v>
       </c>
       <c r="D100" s="74" t="s">
@@ -12600,7 +12597,7 @@
       <c r="G100" s="83"/>
       <c r="H100" s="84"/>
       <c r="I100" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G100, $P$16:$P$22, 0)), "soft", IF(EXACT(F100, G100), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J100"/>
@@ -12697,7 +12694,7 @@
         <v>86.4</v>
       </c>
       <c r="C101" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="D101" s="74" t="s">
@@ -12712,7 +12709,7 @@
       <c r="G101" s="83"/>
       <c r="H101" s="84"/>
       <c r="I101" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G101, $P$16:$P$22, 0)), "soft", IF(EXACT(F101, G101), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J101"/>
@@ -12809,7 +12806,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="C102" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.109375E-2</v>
       </c>
       <c r="D102" s="74" t="s">
@@ -12824,7 +12821,7 @@
       <c r="G102" s="83"/>
       <c r="H102" s="84"/>
       <c r="I102" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G102, $P$16:$P$22, 0)), "soft", IF(EXACT(F102, G102), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J102"/>
@@ -12921,7 +12918,7 @@
         <v>19.8</v>
       </c>
       <c r="C103" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.0937500000000003E-2</v>
       </c>
       <c r="D103" s="74" t="s">
@@ -12936,7 +12933,7 @@
       <c r="G103" s="83"/>
       <c r="H103" s="84"/>
       <c r="I103" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G103, $P$16:$P$22, 0)), "soft", IF(EXACT(F103, G103), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J103"/>
@@ -13033,7 +13030,7 @@
         <v>139.19999999999999</v>
       </c>
       <c r="C104" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.2175</v>
       </c>
       <c r="D104" s="74" t="s">
@@ -13048,7 +13045,7 @@
       <c r="G104" s="83"/>
       <c r="H104" s="84"/>
       <c r="I104" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G104, $P$16:$P$22, 0)), "soft", IF(EXACT(F104, G104), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J104"/>
@@ -13145,7 +13142,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="C105" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.12593750000000001</v>
       </c>
       <c r="D105" s="74" t="s">
@@ -13160,7 +13157,7 @@
       <c r="G105" s="83"/>
       <c r="H105" s="84"/>
       <c r="I105" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G105, $P$16:$P$22, 0)), "soft", IF(EXACT(F105, G105), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J105"/>
@@ -13257,7 +13254,7 @@
         <v>40</v>
       </c>
       <c r="C106" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D106" s="74" t="s">
@@ -13272,7 +13269,7 @@
       <c r="G106" s="83"/>
       <c r="H106" s="84"/>
       <c r="I106" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G106, $P$16:$P$22, 0)), "soft", IF(EXACT(F106, G106), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J106"/>
@@ -13369,7 +13366,7 @@
         <v>19.7</v>
       </c>
       <c r="C107" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.078125E-2</v>
       </c>
       <c r="D107" s="74" t="s">
@@ -13384,7 +13381,7 @@
       <c r="G107" s="83"/>
       <c r="H107" s="84"/>
       <c r="I107" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G107, $P$16:$P$22, 0)), "soft", IF(EXACT(F107, G107), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J107"/>
@@ -13481,7 +13478,7 @@
         <v>43.4</v>
       </c>
       <c r="C108" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.7812499999999998E-2</v>
       </c>
       <c r="D108" s="74" t="s">
@@ -13496,7 +13493,7 @@
       <c r="G108" s="83"/>
       <c r="H108" s="84"/>
       <c r="I108" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G108, $P$16:$P$22, 0)), "soft", IF(EXACT(F108, G108), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J108"/>
@@ -13593,7 +13590,7 @@
         <v>40</v>
       </c>
       <c r="C109" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D109" s="74" t="s">
@@ -13608,7 +13605,7 @@
       <c r="G109" s="83"/>
       <c r="H109" s="84"/>
       <c r="I109" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G109, $P$16:$P$22, 0)), "soft", IF(EXACT(F109, G109), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J109"/>
@@ -13705,7 +13702,7 @@
         <v>40</v>
       </c>
       <c r="C110" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D110" s="74" t="s">
@@ -13720,7 +13717,7 @@
       <c r="G110" s="83"/>
       <c r="H110" s="84"/>
       <c r="I110" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G110, $P$16:$P$22, 0)), "soft", IF(EXACT(F110, G110), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J110"/>
@@ -13817,7 +13814,7 @@
         <v>40</v>
       </c>
       <c r="C111" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D111" s="74" t="s">
@@ -13832,7 +13829,7 @@
       <c r="G111" s="83"/>
       <c r="H111" s="84"/>
       <c r="I111" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G111, $P$16:$P$22, 0)), "soft", IF(EXACT(F111, G111), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J111"/>
@@ -13929,7 +13926,7 @@
         <v>40</v>
       </c>
       <c r="C112" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D112" s="74" t="s">
@@ -13944,7 +13941,7 @@
       <c r="G112" s="83"/>
       <c r="H112" s="84"/>
       <c r="I112" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G112, $P$16:$P$22, 0)), "soft", IF(EXACT(F112, G112), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J112"/>
@@ -14041,7 +14038,7 @@
         <v>40</v>
       </c>
       <c r="C113" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D113" s="74" t="s">
@@ -14056,7 +14053,7 @@
       <c r="G113" s="83"/>
       <c r="H113" s="84"/>
       <c r="I113" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G113, $P$16:$P$22, 0)), "soft", IF(EXACT(F113, G113), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J113"/>
@@ -14153,7 +14150,7 @@
         <v>40</v>
       </c>
       <c r="C114" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D114" s="74" t="s">
@@ -14168,7 +14165,7 @@
       <c r="G114" s="83"/>
       <c r="H114" s="84"/>
       <c r="I114" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G114, $P$16:$P$22, 0)), "soft", IF(EXACT(F114, G114), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J114"/>
@@ -14265,7 +14262,7 @@
         <v>40</v>
       </c>
       <c r="C115" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D115" s="74" t="s">
@@ -14280,7 +14277,7 @@
       <c r="G115" s="83"/>
       <c r="H115" s="84"/>
       <c r="I115" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G115, $P$16:$P$22, 0)), "soft", IF(EXACT(F115, G115), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J115"/>
@@ -14377,7 +14374,7 @@
         <v>40</v>
       </c>
       <c r="C116" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D116" s="74" t="s">
@@ -14392,7 +14389,7 @@
       <c r="G116" s="83"/>
       <c r="H116" s="84"/>
       <c r="I116" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G116, $P$16:$P$22, 0)), "soft", IF(EXACT(F116, G116), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J116"/>
@@ -14489,7 +14486,7 @@
         <v>40</v>
       </c>
       <c r="C117" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D117" s="74" t="s">
@@ -14504,7 +14501,7 @@
       <c r="G117" s="83"/>
       <c r="H117" s="84"/>
       <c r="I117" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G117, $P$16:$P$22, 0)), "soft", IF(EXACT(F117, G117), "none", "hard"))</f>
+        <f t="shared" si="7"/>
         <v>hard</v>
       </c>
       <c r="J117"/>
@@ -14601,7 +14598,7 @@
         <v>40</v>
       </c>
       <c r="C118" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D118" s="74" t="s">
@@ -14616,7 +14613,7 @@
       <c r="G118" s="83"/>
       <c r="H118" s="84"/>
       <c r="I118" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G118, $P$16:$P$22, 0)), "soft", IF(EXACT(F118, G118), "none", "hard"))</f>
+        <f t="shared" ref="I118:I149" si="9">IF(ISNUMBER(MATCH(G118, $P$16:$P$22, 0)), "soft", IF(EXACT(F118, G118), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J118"/>
@@ -14713,7 +14710,7 @@
         <v>40</v>
       </c>
       <c r="C119" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D119" s="74" t="s">
@@ -14728,7 +14725,7 @@
       <c r="G119" s="83"/>
       <c r="H119" s="84"/>
       <c r="I119" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G119, $P$16:$P$22, 0)), "soft", IF(EXACT(F119, G119), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J119"/>
@@ -14825,7 +14822,7 @@
         <v>40</v>
       </c>
       <c r="C120" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D120" s="74" t="s">
@@ -14840,7 +14837,7 @@
       <c r="G120" s="83"/>
       <c r="H120" s="84"/>
       <c r="I120" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G120, $P$16:$P$22, 0)), "soft", IF(EXACT(F120, G120), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J120"/>
@@ -14937,7 +14934,7 @@
         <v>40</v>
       </c>
       <c r="C121" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D121" s="74" t="s">
@@ -14952,7 +14949,7 @@
       <c r="G121" s="83"/>
       <c r="H121" s="84"/>
       <c r="I121" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G121, $P$16:$P$22, 0)), "soft", IF(EXACT(F121, G121), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J121"/>
@@ -15049,7 +15046,7 @@
         <v>40</v>
       </c>
       <c r="C122" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D122" s="74" t="s">
@@ -15064,7 +15061,7 @@
       <c r="G122" s="83"/>
       <c r="H122" s="84"/>
       <c r="I122" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G122, $P$16:$P$22, 0)), "soft", IF(EXACT(F122, G122), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J122"/>
@@ -15161,7 +15158,7 @@
         <v>40</v>
       </c>
       <c r="C123" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D123" s="74" t="s">
@@ -15176,7 +15173,7 @@
       <c r="G123" s="83"/>
       <c r="H123" s="84"/>
       <c r="I123" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G123, $P$16:$P$22, 0)), "soft", IF(EXACT(F123, G123), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J123"/>
@@ -15273,7 +15270,7 @@
         <v>40</v>
       </c>
       <c r="C124" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D124" s="74" t="s">
@@ -15288,7 +15285,7 @@
       <c r="G124" s="83"/>
       <c r="H124" s="84"/>
       <c r="I124" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G124, $P$16:$P$22, 0)), "soft", IF(EXACT(F124, G124), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J124"/>
@@ -15385,7 +15382,7 @@
         <v>40</v>
       </c>
       <c r="C125" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D125" s="74" t="s">
@@ -15400,7 +15397,7 @@
       <c r="G125" s="83"/>
       <c r="H125" s="84"/>
       <c r="I125" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G125, $P$16:$P$22, 0)), "soft", IF(EXACT(F125, G125), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J125"/>
@@ -15497,7 +15494,7 @@
         <v>40</v>
       </c>
       <c r="C126" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D126" s="74" t="s">
@@ -15512,7 +15509,7 @@
       <c r="G126" s="83"/>
       <c r="H126" s="84"/>
       <c r="I126" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G126, $P$16:$P$22, 0)), "soft", IF(EXACT(F126, G126), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J126"/>
@@ -15609,7 +15606,7 @@
         <v>40</v>
       </c>
       <c r="C127" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D127" s="74" t="s">
@@ -15624,7 +15621,7 @@
       <c r="G127" s="83"/>
       <c r="H127" s="84"/>
       <c r="I127" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G127, $P$16:$P$22, 0)), "soft", IF(EXACT(F127, G127), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J127"/>
@@ -15721,7 +15718,7 @@
         <v>40</v>
       </c>
       <c r="C128" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D128" s="74" t="s">
@@ -15736,7 +15733,7 @@
       <c r="G128" s="83"/>
       <c r="H128" s="84"/>
       <c r="I128" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G128, $P$16:$P$22, 0)), "soft", IF(EXACT(F128, G128), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J128"/>
@@ -15833,7 +15830,7 @@
         <v>40</v>
       </c>
       <c r="C129" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D129" s="74" t="s">
@@ -15848,7 +15845,7 @@
       <c r="G129" s="83"/>
       <c r="H129" s="84"/>
       <c r="I129" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G129, $P$16:$P$22, 0)), "soft", IF(EXACT(F129, G129), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J129"/>
@@ -15945,7 +15942,7 @@
         <v>40</v>
       </c>
       <c r="C130" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D130" s="74" t="s">
@@ -15960,7 +15957,7 @@
       <c r="G130" s="83"/>
       <c r="H130" s="84"/>
       <c r="I130" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G130, $P$16:$P$22, 0)), "soft", IF(EXACT(F130, G130), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J130"/>
@@ -16057,7 +16054,7 @@
         <v>40</v>
       </c>
       <c r="C131" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D131" s="74" t="s">
@@ -16072,7 +16069,7 @@
       <c r="G131" s="83"/>
       <c r="H131" s="84"/>
       <c r="I131" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G131, $P$16:$P$22, 0)), "soft", IF(EXACT(F131, G131), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J131"/>
@@ -16169,7 +16166,7 @@
         <v>40</v>
       </c>
       <c r="C132" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D132" s="74" t="s">
@@ -16184,7 +16181,7 @@
       <c r="G132" s="83"/>
       <c r="H132" s="84"/>
       <c r="I132" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G132, $P$16:$P$22, 0)), "soft", IF(EXACT(F132, G132), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J132"/>
@@ -16281,7 +16278,7 @@
         <v>40</v>
       </c>
       <c r="C133" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D133" s="74" t="s">
@@ -16296,7 +16293,7 @@
       <c r="G133" s="83"/>
       <c r="H133" s="84"/>
       <c r="I133" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G133, $P$16:$P$22, 0)), "soft", IF(EXACT(F133, G133), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J133"/>
@@ -16393,7 +16390,7 @@
         <v>40</v>
       </c>
       <c r="C134" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D134" s="74" t="s">
@@ -16408,7 +16405,7 @@
       <c r="G134" s="83"/>
       <c r="H134" s="84"/>
       <c r="I134" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G134, $P$16:$P$22, 0)), "soft", IF(EXACT(F134, G134), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J134"/>
@@ -16505,7 +16502,7 @@
         <v>40</v>
       </c>
       <c r="C135" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D135" s="74" t="s">
@@ -16520,7 +16517,7 @@
       <c r="G135" s="83"/>
       <c r="H135" s="84"/>
       <c r="I135" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G135, $P$16:$P$22, 0)), "soft", IF(EXACT(F135, G135), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J135"/>
@@ -16617,7 +16614,7 @@
         <v>40</v>
       </c>
       <c r="C136" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D136" s="74" t="s">
@@ -16632,7 +16629,7 @@
       <c r="G136" s="83"/>
       <c r="H136" s="84"/>
       <c r="I136" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G136, $P$16:$P$22, 0)), "soft", IF(EXACT(F136, G136), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J136"/>
@@ -16729,7 +16726,7 @@
         <v>40</v>
       </c>
       <c r="C137" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D137" s="74" t="s">
@@ -16744,7 +16741,7 @@
       <c r="G137" s="83"/>
       <c r="H137" s="84"/>
       <c r="I137" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G137, $P$16:$P$22, 0)), "soft", IF(EXACT(F137, G137), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J137"/>
@@ -16841,7 +16838,7 @@
         <v>40</v>
       </c>
       <c r="C138" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D138" s="74" t="s">
@@ -16856,7 +16853,7 @@
       <c r="G138" s="83"/>
       <c r="H138" s="84"/>
       <c r="I138" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G138, $P$16:$P$22, 0)), "soft", IF(EXACT(F138, G138), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J138"/>
@@ -16953,7 +16950,7 @@
         <v>40</v>
       </c>
       <c r="C139" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D139" s="74" t="s">
@@ -16968,7 +16965,7 @@
       <c r="G139" s="83"/>
       <c r="H139" s="84"/>
       <c r="I139" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G139, $P$16:$P$22, 0)), "soft", IF(EXACT(F139, G139), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J139"/>
@@ -17065,7 +17062,7 @@
         <v>40</v>
       </c>
       <c r="C140" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D140" s="74" t="s">
@@ -17080,7 +17077,7 @@
       <c r="G140" s="83"/>
       <c r="H140" s="84"/>
       <c r="I140" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G140, $P$16:$P$22, 0)), "soft", IF(EXACT(F140, G140), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J140"/>
@@ -17177,7 +17174,7 @@
         <v>40</v>
       </c>
       <c r="C141" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D141" s="74" t="s">
@@ -17192,7 +17189,7 @@
       <c r="G141" s="83"/>
       <c r="H141" s="84"/>
       <c r="I141" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G141, $P$16:$P$22, 0)), "soft", IF(EXACT(F141, G141), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J141"/>
@@ -17289,7 +17286,7 @@
         <v>40</v>
       </c>
       <c r="C142" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D142" s="74" t="s">
@@ -17304,7 +17301,7 @@
       <c r="G142" s="83"/>
       <c r="H142" s="84"/>
       <c r="I142" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G142, $P$16:$P$22, 0)), "soft", IF(EXACT(F142, G142), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J142"/>
@@ -17401,7 +17398,7 @@
         <v>40</v>
       </c>
       <c r="C143" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D143" s="74" t="s">
@@ -17416,7 +17413,7 @@
       <c r="G143" s="83"/>
       <c r="H143" s="84"/>
       <c r="I143" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G143, $P$16:$P$22, 0)), "soft", IF(EXACT(F143, G143), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J143"/>
@@ -17513,7 +17510,7 @@
         <v>40</v>
       </c>
       <c r="C144" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D144" s="74" t="s">
@@ -17528,7 +17525,7 @@
       <c r="G144" s="83"/>
       <c r="H144" s="84"/>
       <c r="I144" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G144, $P$16:$P$22, 0)), "soft", IF(EXACT(F144, G144), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J144"/>
@@ -17625,7 +17622,7 @@
         <v>40</v>
       </c>
       <c r="C145" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D145" s="74" t="s">
@@ -17640,7 +17637,7 @@
       <c r="G145" s="83"/>
       <c r="H145" s="84"/>
       <c r="I145" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G145, $P$16:$P$22, 0)), "soft", IF(EXACT(F145, G145), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J145"/>
@@ -17737,7 +17734,7 @@
         <v>40</v>
       </c>
       <c r="C146" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D146" s="74" t="s">
@@ -17752,7 +17749,7 @@
       <c r="G146" s="83"/>
       <c r="H146" s="84"/>
       <c r="I146" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G146, $P$16:$P$22, 0)), "soft", IF(EXACT(F146, G146), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J146"/>
@@ -17849,7 +17846,7 @@
         <v>40</v>
       </c>
       <c r="C147" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D147" s="74" t="s">
@@ -17864,7 +17861,7 @@
       <c r="G147" s="83"/>
       <c r="H147" s="84"/>
       <c r="I147" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G147, $P$16:$P$22, 0)), "soft", IF(EXACT(F147, G147), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J147"/>
@@ -17961,7 +17958,7 @@
         <v>39.9</v>
       </c>
       <c r="C148" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.2343750000000003E-2</v>
       </c>
       <c r="D148" s="74" t="s">
@@ -17976,7 +17973,7 @@
       <c r="G148" s="83"/>
       <c r="H148" s="84"/>
       <c r="I148" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G148, $P$16:$P$22, 0)), "soft", IF(EXACT(F148, G148), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J148"/>
@@ -18073,7 +18070,7 @@
         <v>40</v>
       </c>
       <c r="C149" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D149" s="74" t="s">
@@ -18088,7 +18085,7 @@
       <c r="G149" s="83"/>
       <c r="H149" s="84"/>
       <c r="I149" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G149, $P$16:$P$22, 0)), "soft", IF(EXACT(F149, G149), "none", "hard"))</f>
+        <f t="shared" si="9"/>
         <v>hard</v>
       </c>
       <c r="J149"/>
@@ -18185,7 +18182,7 @@
         <v>40</v>
       </c>
       <c r="C150" s="73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="D150" s="74" t="s">
@@ -18200,7 +18197,7 @@
       <c r="G150" s="83"/>
       <c r="H150" s="84"/>
       <c r="I150" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G150, $P$16:$P$22, 0)), "soft", IF(EXACT(F150, G150), "none", "hard"))</f>
+        <f t="shared" ref="I150:I181" si="10">IF(ISNUMBER(MATCH(G150, $P$16:$P$22, 0)), "soft", IF(EXACT(F150, G150), "none", "hard"))</f>
         <v>hard</v>
       </c>
       <c r="J150"/>
@@ -18297,7 +18294,7 @@
         <v>39.700000000000003</v>
       </c>
       <c r="C151" s="73">
-        <f t="shared" ref="C151:C181" si="6">B151*0.0015625</f>
+        <f t="shared" ref="C151:C181" si="11">B151*0.0015625</f>
         <v>6.203125000000001E-2</v>
       </c>
       <c r="D151" s="74" t="s">
@@ -18312,7 +18309,7 @@
       <c r="G151" s="83"/>
       <c r="H151" s="84"/>
       <c r="I151" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G151, $P$16:$P$22, 0)), "soft", IF(EXACT(F151, G151), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J151"/>
@@ -18409,7 +18406,7 @@
         <v>40</v>
       </c>
       <c r="C152" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D152" s="74" t="s">
@@ -18424,7 +18421,7 @@
       <c r="G152" s="83"/>
       <c r="H152" s="84"/>
       <c r="I152" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G152, $P$16:$P$22, 0)), "soft", IF(EXACT(F152, G152), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J152"/>
@@ -18521,7 +18518,7 @@
         <v>40</v>
       </c>
       <c r="C153" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D153" s="74" t="s">
@@ -18536,7 +18533,7 @@
       <c r="G153" s="83"/>
       <c r="H153" s="84"/>
       <c r="I153" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G153, $P$16:$P$22, 0)), "soft", IF(EXACT(F153, G153), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J153"/>
@@ -18633,7 +18630,7 @@
         <v>40</v>
       </c>
       <c r="C154" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D154" s="74" t="s">
@@ -18648,7 +18645,7 @@
       <c r="G154" s="83"/>
       <c r="H154" s="84"/>
       <c r="I154" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G154, $P$16:$P$22, 0)), "soft", IF(EXACT(F154, G154), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J154"/>
@@ -18745,7 +18742,7 @@
         <v>40.4</v>
       </c>
       <c r="C155" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.3125000000000001E-2</v>
       </c>
       <c r="D155" s="74" t="s">
@@ -18760,7 +18757,7 @@
       <c r="G155" s="83"/>
       <c r="H155" s="84"/>
       <c r="I155" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G155, $P$16:$P$22, 0)), "soft", IF(EXACT(F155, G155), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J155"/>
@@ -18857,7 +18854,7 @@
         <v>39.700000000000003</v>
       </c>
       <c r="C156" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.203125000000001E-2</v>
       </c>
       <c r="D156" s="74" t="s">
@@ -18872,7 +18869,7 @@
       <c r="G156" s="83"/>
       <c r="H156" s="84"/>
       <c r="I156" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G156, $P$16:$P$22, 0)), "soft", IF(EXACT(F156, G156), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J156"/>
@@ -18969,7 +18966,7 @@
         <v>40</v>
       </c>
       <c r="C157" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D157" s="74" t="s">
@@ -18984,7 +18981,7 @@
       <c r="G157" s="83"/>
       <c r="H157" s="84"/>
       <c r="I157" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G157, $P$16:$P$22, 0)), "soft", IF(EXACT(F157, G157), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J157"/>
@@ -19081,7 +19078,7 @@
         <v>40</v>
       </c>
       <c r="C158" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D158" s="74" t="s">
@@ -19096,7 +19093,7 @@
       <c r="G158" s="83"/>
       <c r="H158" s="84"/>
       <c r="I158" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G158, $P$16:$P$22, 0)), "soft", IF(EXACT(F158, G158), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J158"/>
@@ -19193,7 +19190,7 @@
         <v>40</v>
       </c>
       <c r="C159" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D159" s="74" t="s">
@@ -19208,7 +19205,7 @@
       <c r="G159" s="83"/>
       <c r="H159" s="84"/>
       <c r="I159" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G159, $P$16:$P$22, 0)), "soft", IF(EXACT(F159, G159), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J159"/>
@@ -19305,7 +19302,7 @@
         <v>40</v>
       </c>
       <c r="C160" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D160" s="74" t="s">
@@ -19320,7 +19317,7 @@
       <c r="G160" s="83"/>
       <c r="H160" s="84"/>
       <c r="I160" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G160, $P$16:$P$22, 0)), "soft", IF(EXACT(F160, G160), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J160"/>
@@ -19417,7 +19414,7 @@
         <v>40</v>
       </c>
       <c r="C161" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="D161" s="74" t="s">
@@ -19432,7 +19429,7 @@
       <c r="G161" s="83"/>
       <c r="H161" s="84"/>
       <c r="I161" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G161, $P$16:$P$22, 0)), "soft", IF(EXACT(F161, G161), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J161"/>
@@ -19529,7 +19526,7 @@
         <v>41.5</v>
       </c>
       <c r="C162" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.4843750000000006E-2</v>
       </c>
       <c r="D162" s="74" t="s">
@@ -19544,7 +19541,7 @@
       <c r="G162" s="83"/>
       <c r="H162" s="84"/>
       <c r="I162" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G162, $P$16:$P$22, 0)), "soft", IF(EXACT(F162, G162), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J162"/>
@@ -19641,7 +19638,7 @@
         <v>43</v>
       </c>
       <c r="C163" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.7187499999999997E-2</v>
       </c>
       <c r="D163" s="74" t="s">
@@ -19656,7 +19653,7 @@
       <c r="G163" s="83"/>
       <c r="H163" s="84"/>
       <c r="I163" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G163, $P$16:$P$22, 0)), "soft", IF(EXACT(F163, G163), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J163"/>
@@ -19753,7 +19750,7 @@
         <v>124.6</v>
       </c>
       <c r="C164" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.19468750000000001</v>
       </c>
       <c r="D164" s="74" t="s">
@@ -19768,7 +19765,7 @@
       <c r="G164" s="83"/>
       <c r="H164" s="84"/>
       <c r="I164" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G164, $P$16:$P$22, 0)), "soft", IF(EXACT(F164, G164), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J164"/>
@@ -19865,7 +19862,7 @@
         <v>292.8</v>
       </c>
       <c r="C165" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.45750000000000002</v>
       </c>
       <c r="D165" s="74" t="s">
@@ -19880,7 +19877,7 @@
       <c r="G165" s="83"/>
       <c r="H165" s="84"/>
       <c r="I165" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G165, $P$16:$P$22, 0)), "soft", IF(EXACT(F165, G165), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J165"/>
@@ -19977,7 +19974,7 @@
         <v>50.171183999999997</v>
       </c>
       <c r="C166" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.8392475000000003E-2</v>
       </c>
       <c r="D166" s="74" t="s">
@@ -19992,7 +19989,7 @@
       <c r="G166" s="83"/>
       <c r="H166" s="84"/>
       <c r="I166" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G166, $P$16:$P$22, 0)), "soft", IF(EXACT(F166, G166), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J166"/>
@@ -20089,7 +20086,7 @@
         <v>110.435041</v>
       </c>
       <c r="C167" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.1725547515625</v>
       </c>
       <c r="D167" s="74" t="s">
@@ -20104,7 +20101,7 @@
       <c r="G167" s="83"/>
       <c r="H167" s="84"/>
       <c r="I167" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G167, $P$16:$P$22, 0)), "soft", IF(EXACT(F167, G167), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J167"/>
@@ -20201,7 +20198,7 @@
         <v>41.073974</v>
       </c>
       <c r="C168" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.4178084375E-2</v>
       </c>
       <c r="D168" s="74" t="s">
@@ -20216,7 +20213,7 @@
       <c r="G168" s="83"/>
       <c r="H168" s="84"/>
       <c r="I168" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G168, $P$16:$P$22, 0)), "soft", IF(EXACT(F168, G168), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J168"/>
@@ -20313,7 +20310,7 @@
         <v>76.115142000000006</v>
       </c>
       <c r="C169" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.11892990937500002</v>
       </c>
       <c r="D169" s="74" t="s">
@@ -20328,7 +20325,7 @@
       <c r="G169" s="83"/>
       <c r="H169" s="84"/>
       <c r="I169" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G169, $P$16:$P$22, 0)), "soft", IF(EXACT(F169, G169), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J169"/>
@@ -20425,7 +20422,7 @@
         <v>366.048768</v>
       </c>
       <c r="C170" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.57195119999999999</v>
       </c>
       <c r="D170" s="74" t="s">
@@ -20440,7 +20437,7 @@
       <c r="G170" s="83"/>
       <c r="H170" s="84"/>
       <c r="I170" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G170, $P$16:$P$22, 0)), "soft", IF(EXACT(F170, G170), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J170"/>
@@ -20537,7 +20534,7 @@
         <v>138.452519</v>
       </c>
       <c r="C171" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.21633206093750001</v>
       </c>
       <c r="D171" s="74" t="s">
@@ -20552,7 +20549,7 @@
       <c r="G171" s="83"/>
       <c r="H171" s="84"/>
       <c r="I171" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G171, $P$16:$P$22, 0)), "soft", IF(EXACT(F171, G171), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J171"/>
@@ -20649,7 +20646,7 @@
         <v>601.16265199999998</v>
       </c>
       <c r="C172" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.93931664375000001</v>
       </c>
       <c r="D172" s="74" t="s">
@@ -20664,7 +20661,7 @@
       <c r="G172" s="83"/>
       <c r="H172" s="84"/>
       <c r="I172" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G172, $P$16:$P$22, 0)), "soft", IF(EXACT(F172, G172), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J172"/>
@@ -20761,7 +20758,7 @@
         <v>30.981491999999999</v>
       </c>
       <c r="C173" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.8408581249999999E-2</v>
       </c>
       <c r="D173" s="74" t="s">
@@ -20776,7 +20773,7 @@
       <c r="G173" s="83"/>
       <c r="H173" s="84"/>
       <c r="I173" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G173, $P$16:$P$22, 0)), "soft", IF(EXACT(F173, G173), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J173"/>
@@ -20873,7 +20870,7 @@
         <v>115.6</v>
       </c>
       <c r="C174" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.18062500000000001</v>
       </c>
       <c r="D174" s="74" t="s">
@@ -20888,7 +20885,7 @@
       <c r="G174" s="83"/>
       <c r="H174" s="84"/>
       <c r="I174" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G174, $P$16:$P$22, 0)), "soft", IF(EXACT(F174, G174), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J174"/>
@@ -20985,7 +20982,7 @@
         <v>116.251661</v>
       </c>
       <c r="C175" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.18164322031250002</v>
       </c>
       <c r="D175" s="74" t="s">
@@ -21000,7 +20997,7 @@
       <c r="G175" s="83"/>
       <c r="H175" s="84"/>
       <c r="I175" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G175, $P$16:$P$22, 0)), "soft", IF(EXACT(F175, G175), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J175"/>
@@ -21097,7 +21094,7 @@
         <v>41.566608000000002</v>
       </c>
       <c r="C176" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.4947825000000001E-2</v>
       </c>
       <c r="D176" s="74" t="s">
@@ -21112,7 +21109,7 @@
       <c r="G176" s="83"/>
       <c r="H176" s="84"/>
       <c r="I176" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G176, $P$16:$P$22, 0)), "soft", IF(EXACT(F176, G176), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J176"/>
@@ -21209,7 +21206,7 @@
         <v>31.267749999999999</v>
       </c>
       <c r="C177" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.8855859375000005E-2</v>
       </c>
       <c r="D177" s="74" t="s">
@@ -21224,7 +21221,7 @@
       <c r="G177" s="83"/>
       <c r="H177" s="84"/>
       <c r="I177" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G177, $P$16:$P$22, 0)), "soft", IF(EXACT(F177, G177), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J177"/>
@@ -21321,7 +21318,7 @@
         <v>120.05146499999999</v>
       </c>
       <c r="C178" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.18758041406250001</v>
       </c>
       <c r="D178" s="74" t="s">
@@ -21336,7 +21333,7 @@
       <c r="G178" s="83"/>
       <c r="H178" s="84"/>
       <c r="I178" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G178, $P$16:$P$22, 0)), "soft", IF(EXACT(F178, G178), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J178"/>
@@ -21433,7 +21430,7 @@
         <v>315.03304400000002</v>
       </c>
       <c r="C179" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.49223913125000007</v>
       </c>
       <c r="D179" s="74" t="s">
@@ -21448,7 +21445,7 @@
       <c r="G179" s="83"/>
       <c r="H179" s="84"/>
       <c r="I179" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G179, $P$16:$P$22, 0)), "soft", IF(EXACT(F179, G179), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J179"/>
@@ -21545,7 +21542,7 @@
         <v>103.825344</v>
       </c>
       <c r="C180" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.16222710000000001</v>
       </c>
       <c r="D180" s="74" t="s">
@@ -21560,7 +21557,7 @@
       <c r="G180" s="83"/>
       <c r="H180" s="84"/>
       <c r="I180" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G180, $P$16:$P$22, 0)), "soft", IF(EXACT(F180, G180), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J180"/>
@@ -21657,7 +21654,7 @@
         <v>55.579112000000002</v>
       </c>
       <c r="C181" s="73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.6842362500000006E-2</v>
       </c>
       <c r="D181" s="74" t="s">
@@ -21672,7 +21669,7 @@
       <c r="G181" s="83"/>
       <c r="H181" s="84"/>
       <c r="I181" s="79" t="str">
-        <f>IF(ISNUMBER(MATCH(G181, $P$16:$P$22, 0)), "soft", IF(EXACT(F181, G181), "none", "hard"))</f>
+        <f t="shared" si="10"/>
         <v>hard</v>
       </c>
       <c r="J181"/>
@@ -22211,7 +22208,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D2" s="1">
         <v>0.1619548872180451</v>
@@ -22248,7 +22245,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D3" s="1">
         <v>0.24035532994923858</v>
@@ -22284,7 +22281,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -22320,7 +22317,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -22356,7 +22353,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -22392,7 +22389,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -22428,7 +22425,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -22464,7 +22461,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -22500,7 +22497,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -22536,7 +22533,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -22572,7 +22569,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -22608,7 +22605,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -22639,7 +22636,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -22670,7 +22667,7 @@
         <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -22701,7 +22698,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -22732,7 +22729,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -22763,7 +22760,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -22794,7 +22791,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -22825,7 +22822,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -22856,7 +22853,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -22887,7 +22884,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -22918,7 +22915,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -22949,7 +22946,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -22980,7 +22977,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -23011,7 +23008,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -23042,7 +23039,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -23073,7 +23070,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -23104,7 +23101,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -23135,7 +23132,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -23166,7 +23163,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -23197,7 +23194,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -23228,7 +23225,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -23259,7 +23256,7 @@
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -23290,7 +23287,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -23321,7 +23318,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -23352,7 +23349,7 @@
         <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -23383,7 +23380,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -23414,7 +23411,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D39" s="1">
         <v>0.17260904187551165</v>
@@ -23445,7 +23442,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D40" s="1">
         <v>0.14497210174440919</v>
@@ -23476,7 +23473,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -23507,7 +23504,7 @@
         <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -23538,7 +23535,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -23569,7 +23566,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -23600,7 +23597,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -23631,7 +23628,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -23662,7 +23659,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -23693,7 +23690,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -23724,7 +23721,7 @@
         <v>36</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -23755,7 +23752,7 @@
         <v>36</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -23786,7 +23783,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -23817,7 +23814,7 @@
         <v>36</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -23848,7 +23845,7 @@
         <v>36</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -23879,7 +23876,7 @@
         <v>38</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -23910,7 +23907,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -23941,7 +23938,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -23972,7 +23969,7 @@
         <v>36</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -24003,7 +24000,7 @@
         <v>36</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -24034,7 +24031,7 @@
         <v>36</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -24065,7 +24062,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -24096,7 +24093,7 @@
         <v>36</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -24127,7 +24124,7 @@
         <v>36</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D62" s="1">
         <v>0.16832229580573951</v>
@@ -24158,7 +24155,7 @@
         <v>36</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D63" s="1">
         <v>0.16576666666666665</v>
@@ -24189,7 +24186,7 @@
         <v>29</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -24220,7 +24217,7 @@
         <v>29</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
@@ -24251,7 +24248,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -24282,7 +24279,7 @@
         <v>36</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -24317,7 +24314,7 @@
         <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D68" s="1">
         <v>0.34571304221674165</v>
@@ -24348,7 +24345,7 @@
         <v>29</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -24379,7 +24376,7 @@
         <v>29</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -24410,7 +24407,7 @@
         <v>43</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D71" s="1">
         <v>5.7664884135472369E-2</v>
@@ -24441,7 +24438,7 @@
         <v>43</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D72" s="1">
         <v>2.9393043531919214E-2</v>
@@ -24472,7 +24469,7 @@
         <v>29</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -24503,7 +24500,7 @@
         <v>29</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -24534,7 +24531,7 @@
         <v>43</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -24565,7 +24562,7 @@
         <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D76" s="1">
         <v>0.34112343966712899</v>
@@ -24596,7 +24593,7 @@
         <v>36</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -24627,7 +24624,7 @@
         <v>29</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -24658,7 +24655,7 @@
         <v>29</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -24689,7 +24686,7 @@
         <v>38</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -24720,7 +24717,7 @@
         <v>38</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -24751,7 +24748,7 @@
         <v>38</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -24782,7 +24779,7 @@
         <v>43</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D83" s="1">
         <v>6.7301038062283741E-2</v>
@@ -24813,7 +24810,7 @@
         <v>43</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -24844,7 +24841,7 @@
         <v>43</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D85" s="1">
         <v>2.9418934495912277E-2</v>
@@ -24875,7 +24872,7 @@
         <v>43</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -24906,7 +24903,7 @@
         <v>43</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -24937,7 +24934,7 @@
         <v>43</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -24968,7 +24965,7 @@
         <v>36</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
@@ -24999,7 +24996,7 @@
         <v>36</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
@@ -25030,7 +25027,7 @@
         <v>36</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -25061,7 +25058,7 @@
         <v>36</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
@@ -25092,7 +25089,7 @@
         <v>36</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -25123,7 +25120,7 @@
         <v>36</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="1">
         <v>0</v>
@@ -25154,7 +25151,7 @@
         <v>29</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -25185,7 +25182,7 @@
         <v>29</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -25216,7 +25213,7 @@
         <v>36</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D97" s="1">
         <v>0.33217592592592587</v>
@@ -25247,7 +25244,7 @@
         <v>124</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -25278,7 +25275,7 @@
         <v>36</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
@@ -25309,7 +25306,7 @@
         <v>36</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D100" s="1">
         <v>0.36257183908045981</v>
@@ -25340,7 +25337,7 @@
         <v>29</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D101" s="1">
         <v>0.3681141439205956</v>
@@ -25371,7 +25368,7 @@
         <v>129</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D102" s="1">
         <v>0.16350000000000001</v>
@@ -25402,7 +25399,7 @@
         <v>129</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D103" s="1">
         <v>0.20609137055837562</v>
@@ -25433,7 +25430,7 @@
         <v>29</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -25464,7 +25461,7 @@
         <v>129</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D105" s="1">
         <v>0.16350000000000001</v>
@@ -25495,7 +25492,7 @@
         <v>129</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D106" s="1">
         <v>0.16350000000000001</v>
@@ -25526,7 +25523,7 @@
         <v>129</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D107" s="1">
         <v>0.16350000000000001</v>
@@ -25557,7 +25554,7 @@
         <v>129</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D108" s="1">
         <v>0.16350000000000001</v>
@@ -25588,7 +25585,7 @@
         <v>129</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D109" s="1">
         <v>0.22174999999999997</v>
@@ -25619,7 +25616,7 @@
         <v>129</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D110" s="1">
         <v>0.16350000000000001</v>
@@ -25650,7 +25647,7 @@
         <v>129</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D111" s="1">
         <v>0.16350000000000001</v>
@@ -25681,7 +25678,7 @@
         <v>129</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D112" s="1">
         <v>0.16350000000000001</v>
@@ -25712,7 +25709,7 @@
         <v>129</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D113" s="1">
         <v>0.16350000000000001</v>
@@ -25743,7 +25740,7 @@
         <v>129</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D114" s="1">
         <v>0.16350000000000001</v>
@@ -25774,7 +25771,7 @@
         <v>129</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D115" s="1">
         <v>0.16350000000000001</v>
@@ -25805,7 +25802,7 @@
         <v>129</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D116" s="1">
         <v>0.16350000000000001</v>
@@ -25836,7 +25833,7 @@
         <v>129</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D117" s="1">
         <v>0.16350000000000001</v>
@@ -25867,7 +25864,7 @@
         <v>129</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D118" s="1">
         <v>0.16350000000000001</v>
@@ -25898,7 +25895,7 @@
         <v>129</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D119" s="1">
         <v>0.16350000000000001</v>
@@ -25929,7 +25926,7 @@
         <v>129</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D120" s="1">
         <v>0.16350000000000001</v>
@@ -25960,7 +25957,7 @@
         <v>129</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D121" s="1">
         <v>0.16350000000000001</v>
@@ -25991,7 +25988,7 @@
         <v>129</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D122" s="1">
         <v>0.16350000000000001</v>
@@ -26022,7 +26019,7 @@
         <v>129</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D123" s="1">
         <v>0.16350000000000001</v>
@@ -26053,7 +26050,7 @@
         <v>129</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D124" s="1">
         <v>0.16350000000000001</v>
@@ -26084,7 +26081,7 @@
         <v>129</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D125" s="1">
         <v>0.16350000000000001</v>
@@ -26115,7 +26112,7 @@
         <v>129</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D126" s="1">
         <v>0.16350000000000001</v>
@@ -26146,7 +26143,7 @@
         <v>129</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D127" s="1">
         <v>0.16350000000000001</v>
@@ -26177,7 +26174,7 @@
         <v>129</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D128" s="1">
         <v>0.22174999999999997</v>
@@ -26208,7 +26205,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D129" s="1">
         <v>0.22174999999999997</v>
@@ -26239,7 +26236,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D130" s="1">
         <v>0.22174999999999997</v>
@@ -26270,7 +26267,7 @@
         <v>129</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D131" s="1">
         <v>0.16350000000000001</v>
@@ -26301,7 +26298,7 @@
         <v>129</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D132" s="1">
         <v>0.16350000000000001</v>
@@ -26332,7 +26329,7 @@
         <v>129</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D133" s="1">
         <v>0.16350000000000001</v>
@@ -26363,7 +26360,7 @@
         <v>129</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D134" s="1">
         <v>0.16350000000000001</v>
@@ -26394,7 +26391,7 @@
         <v>129</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D135" s="1">
         <v>0.16350000000000001</v>
@@ -26425,7 +26422,7 @@
         <v>129</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D136" s="1">
         <v>0.16350000000000001</v>
@@ -26456,7 +26453,7 @@
         <v>129</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D137" s="1">
         <v>0.16350000000000001</v>
@@ -26487,7 +26484,7 @@
         <v>129</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D138" s="1">
         <v>0.16350000000000001</v>
@@ -26518,7 +26515,7 @@
         <v>129</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D139" s="1">
         <v>0.16350000000000001</v>
@@ -26549,7 +26546,7 @@
         <v>129</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D140" s="1">
         <v>0.16350000000000001</v>
@@ -26580,7 +26577,7 @@
         <v>129</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D141" s="1">
         <v>0.16350000000000001</v>
@@ -26611,7 +26608,7 @@
         <v>129</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D142" s="1">
         <v>0.16350000000000001</v>
@@ -26642,7 +26639,7 @@
         <v>129</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D143" s="1">
         <v>0.16350000000000001</v>
@@ -26673,7 +26670,7 @@
         <v>129</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D144" s="1">
         <v>0.16340852130325814</v>
@@ -26704,7 +26701,7 @@
         <v>129</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D145" s="1">
         <v>0.16350000000000001</v>
@@ -26735,7 +26732,7 @@
         <v>129</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D146" s="1">
         <v>0.16350000000000001</v>
@@ -26766,7 +26763,7 @@
         <v>129</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D147" s="1">
         <v>0.16347607052896726</v>
@@ -26797,7 +26794,7 @@
         <v>129</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D148" s="1">
         <v>0.16350000000000001</v>
@@ -26828,7 +26825,7 @@
         <v>129</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D149" s="1">
         <v>0.16350000000000001</v>
@@ -26859,7 +26856,7 @@
         <v>129</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D150" s="1">
         <v>0.16350000000000001</v>
@@ -26890,7 +26887,7 @@
         <v>129</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D151" s="1">
         <v>0.16336633663366337</v>
@@ -26921,7 +26918,7 @@
         <v>129</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D152" s="1">
         <v>0.16347607052896726</v>
@@ -26952,7 +26949,7 @@
         <v>129</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D153" s="1">
         <v>0.16350000000000001</v>
@@ -26983,7 +26980,7 @@
         <v>129</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D154" s="1">
         <v>0.16350000000000001</v>
@@ -27014,7 +27011,7 @@
         <v>129</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D155" s="1">
         <v>0.16350000000000001</v>
@@ -27045,7 +27042,7 @@
         <v>129</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D156" s="1">
         <v>0.16350000000000001</v>
@@ -27076,7 +27073,7 @@
         <v>129</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D157" s="1">
         <v>0.16350000000000001</v>
@@ -27107,7 +27104,7 @@
         <v>129</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D158" s="1">
         <v>0.16337349397590362</v>
@@ -27138,7 +27135,7 @@
         <v>129</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D159" s="1">
         <v>0.16348837209302325</v>
@@ -27169,7 +27166,7 @@
         <v>38</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D160" s="1">
         <v>0</v>
@@ -27200,7 +27197,7 @@
         <v>29</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -27231,7 +27228,7 @@
         <v>30</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D162" s="22">
         <v>0</v>
@@ -27271,7 +27268,7 @@
         <v>33</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D163" s="22">
         <v>0</v>
@@ -27309,7 +27306,7 @@
         <v>33</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D164" s="22">
         <v>0</v>
@@ -27347,7 +27344,7 @@
         <v>33</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D165" s="22">
         <v>0</v>
@@ -27385,7 +27382,7 @@
         <v>38</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D166" s="22">
         <v>0</v>
@@ -27423,7 +27420,7 @@
         <v>30</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D167" s="22">
         <v>0</v>
@@ -27461,7 +27458,7 @@
         <v>33</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D168" s="22">
         <v>0</v>
@@ -27499,7 +27496,7 @@
         <v>36</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D169" s="22">
         <v>0</v>
@@ -27537,7 +27534,7 @@
         <v>36</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D170" s="22">
         <v>0</v>
@@ -27575,7 +27572,7 @@
         <v>33</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D171" s="22">
         <v>0</v>
@@ -27613,7 +27610,7 @@
         <v>54</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D172" s="22">
         <v>0</v>
@@ -27651,7 +27648,7 @@
         <v>54</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D173" s="22">
         <v>0</v>
@@ -27689,7 +27686,7 @@
         <v>33</v>
       </c>
       <c r="C174" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D174" s="22">
         <v>0</v>
@@ -27727,7 +27724,7 @@
         <v>33</v>
       </c>
       <c r="C175" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D175" s="22">
         <v>0</v>
@@ -27765,7 +27762,7 @@
         <v>29</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D176" s="22">
         <v>0</v>
@@ -27803,7 +27800,7 @@
         <v>33</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D177" s="22">
         <v>0</v>
@@ -27836,7 +27833,7 @@
         <v>36</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D178" s="22">
         <v>0</v>
@@ -27869,7 +27866,7 @@
         <v>36</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D179" s="22">
         <v>0</v>
@@ -27902,7 +27899,7 @@
         <v>29</v>
       </c>
       <c r="C180" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D180" s="22">
         <v>0</v>
@@ -27935,7 +27932,7 @@
         <v>29</v>
       </c>
       <c r="C181" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D181" s="22">
         <v>0</v>
@@ -27968,7 +27965,7 @@
         <v>29</v>
       </c>
       <c r="C182" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D182" s="22">
         <v>0</v>
@@ -28001,7 +27998,7 @@
         <v>29</v>
       </c>
       <c r="C183" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D183" s="22">
         <v>0</v>
@@ -28034,7 +28031,7 @@
         <v>43</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D184" s="22">
         <v>0</v>
@@ -28067,7 +28064,7 @@
         <v>36</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D185" s="22">
         <v>0.25623790594558404</v>
@@ -28100,7 +28097,7 @@
         <v>29</v>
       </c>
       <c r="C186" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D186" s="22">
         <v>0.3072719469000792</v>
@@ -28133,7 +28130,7 @@
         <v>30</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D187" s="22">
         <v>0</v>
@@ -28166,7 +28163,7 @@
         <v>30</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D188" s="1">
         <v>0</v>
@@ -28199,7 +28196,7 @@
         <v>26</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
@@ -28232,7 +28229,7 @@
         <v>34</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D190" s="1">
         <v>0</v>
@@ -28265,7 +28262,7 @@
         <v>26</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D191" s="1">
         <v>0</v>
@@ -28298,7 +28295,7 @@
         <v>199</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D192" s="1">
         <v>0.61348618826838841</v>
@@ -28331,7 +28328,7 @@
         <v>26</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D193" s="1">
         <v>0</v>
@@ -28364,7 +28361,7 @@
         <v>36</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D194" s="1">
         <v>0</v>
@@ -28397,7 +28394,7 @@
         <v>26</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D195" s="1">
         <v>0</v>
@@ -28430,7 +28427,7 @@
         <v>26</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D196" s="1">
         <v>0</v>
@@ -28463,7 +28460,7 @@
         <v>26</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -28496,7 +28493,7 @@
         <v>124</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D198" s="1">
         <v>0.22579427120177961</v>
@@ -28529,7 +28526,7 @@
         <v>124</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D199" s="1">
         <v>0.27712907665452824</v>
@@ -28562,7 +28559,7 @@
         <v>26</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -28595,7 +28592,7 @@
         <v>34</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
@@ -28628,7 +28625,7 @@
         <v>34</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D202" s="1">
         <v>0</v>
@@ -28661,7 +28658,7 @@
         <v>34</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D203" s="1">
         <v>0</v>
@@ -28694,7 +28691,7 @@
         <v>5</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D204" s="1">
         <v>0.5938570581787751</v>
@@ -28727,7 +28724,7 @@
         <v>5</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D205" s="1">
         <v>0.4280920212459568</v>
@@ -28760,7 +28757,7 @@
         <v>38</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -28793,7 +28790,7 @@
         <v>124</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D207" s="1">
         <v>0.70311614561032765</v>
@@ -28826,7 +28823,7 @@
         <v>26</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D208" s="1">
         <v>2.939815783088038E-2</v>
@@ -28859,7 +28856,7 @@
         <v>26</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D209" s="1">
         <v>0</v>
@@ -28892,7 +28889,7 @@
         <v>26</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D210" s="1">
         <v>0</v>
@@ -28925,7 +28922,7 @@
         <v>26</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -28958,7 +28955,7 @@
         <v>5</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D212" s="1">
         <v>0.57999672167082694</v>
@@ -28991,7 +28988,7 @@
         <v>5</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D213" s="1">
         <v>0.53473837997478868</v>
@@ -29024,7 +29021,7 @@
         <v>26</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D214" s="1">
         <v>6.7304979947679047E-2</v>
@@ -29057,7 +29054,7 @@
         <v>68</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D215" s="1">
         <v>0</v>
@@ -29090,7 +29087,7 @@
         <v>33</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D216" s="1">
         <v>0</v>
@@ -29123,7 +29120,7 @@
         <v>33</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D217" s="1">
         <v>0</v>
@@ -29156,7 +29153,7 @@
         <v>33</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D218" s="1">
         <v>0</v>
@@ -29189,7 +29186,7 @@
         <v>33</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D219" s="1">
         <v>0</v>
@@ -29222,7 +29219,7 @@
         <v>34</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -29255,7 +29252,7 @@
         <v>34</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D221" s="1">
         <v>0</v>
@@ -29288,7 +29285,7 @@
         <v>34</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D222" s="1">
         <v>0</v>
@@ -29321,7 +29318,7 @@
         <v>34</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D223" s="1">
         <v>0</v>
@@ -29354,7 +29351,7 @@
         <v>38</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D224" s="1">
         <v>0</v>
@@ -29387,7 +29384,7 @@
         <v>1</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D225" s="20" t="e">
         <f>NA()</f>
@@ -29426,7 +29423,7 @@
         <v>2</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D226" s="20" t="e">
         <f>NA()</f>
@@ -29465,7 +29462,7 @@
         <v>45</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D227" s="20" t="e">
         <f>NA()</f>
@@ -29504,7 +29501,7 @@
         <v>82</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D228" s="20" t="e">
         <f>NA()</f>
@@ -29547,7 +29544,7 @@
         <v>4</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D229" s="20" t="e">
         <f>NA()</f>
@@ -29583,7 +29580,7 @@
         <v>49</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D230" s="20" t="e">
         <f>NA()</f>
@@ -29619,7 +29616,7 @@
         <v>31</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D231" s="20" t="e">
         <f>NA()</f>
@@ -29655,7 +29652,7 @@
         <v>65</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D232" s="20" t="e">
         <f>NA()</f>
@@ -29691,7 +29688,7 @@
         <v>79</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D233" s="20" t="e">
         <f>NA()</f>
@@ -29727,7 +29724,7 @@
         <v>55</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D234" s="20" t="e">
         <f>NA()</f>
@@ -29763,7 +29760,7 @@
         <v>210</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D235" s="20" t="e">
         <f>NA()</f>
@@ -29799,7 +29796,7 @@
         <v>100</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D236" s="20" t="e">
         <f>NA()</f>
@@ -29835,7 +29832,7 @@
         <v>1</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D237" s="20" t="e">
         <f>NA()</f>
@@ -29884,7 +29881,7 @@
         <v>2</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D238" s="20" t="e">
         <f>NA()</f>
@@ -29919,7 +29916,7 @@
         <v>45</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D239" s="20" t="e">
         <f>NA()</f>
@@ -29954,7 +29951,7 @@
         <v>82</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D240" s="20" t="e">
         <f>NA()</f>
@@ -29989,7 +29986,7 @@
         <v>4</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D241" s="20" t="e">
         <f>NA()</f>
@@ -30024,7 +30021,7 @@
         <v>49</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D242" s="20" t="e">
         <f>NA()</f>
@@ -30059,7 +30056,7 @@
         <v>31</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D243" s="20" t="e">
         <f>NA()</f>
@@ -30094,7 +30091,7 @@
         <v>65</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D244" s="20" t="e">
         <f>NA()</f>
@@ -30129,7 +30126,7 @@
         <v>79</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D245" s="20" t="e">
         <f>NA()</f>
@@ -30164,7 +30161,7 @@
         <v>55</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D246" s="20" t="e">
         <f>NA()</f>
@@ -30199,7 +30196,7 @@
         <v>210</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D247" s="20" t="e">
         <f>NA()</f>
@@ -30234,7 +30231,7 @@
         <v>100</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D248" s="20" t="e">
         <f>NA()</f>
@@ -32403,7 +32400,7 @@
     <row r="35" spans="1:20" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="R36"/>
       <c r="S36"/>
@@ -32430,8 +32427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI171"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32898,7 +32895,7 @@
         <v>2</v>
       </c>
       <c r="AI11" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33210,7 +33207,7 @@
         <v>5</v>
       </c>
       <c r="AI14" s="45" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33314,7 +33311,7 @@
         <v>6</v>
       </c>
       <c r="AI15" s="45" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33418,7 +33415,7 @@
         <v>7</v>
       </c>
       <c r="AI16" s="45" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33522,7 +33519,7 @@
         <v>8</v>
       </c>
       <c r="AI17" s="45" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33626,7 +33623,7 @@
         <v>9</v>
       </c>
       <c r="AI18" s="45" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33730,7 +33727,7 @@
         <v>10</v>
       </c>
       <c r="AI19" s="45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33834,7 +33831,7 @@
         <v>11</v>
       </c>
       <c r="AI20" s="45" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33938,7 +33935,7 @@
         <v>12</v>
       </c>
       <c r="AI21" s="45" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34042,7 +34039,7 @@
         <v>13</v>
       </c>
       <c r="AI22" s="45" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34146,7 +34143,7 @@
         <v>14</v>
       </c>
       <c r="AI23" s="45" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34154,76 +34151,76 @@
         <v>47</v>
       </c>
       <c r="B24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="44">
         <v>0</v>
       </c>
       <c r="F24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="44">
         <v>1</v>
@@ -34241,7 +34238,7 @@
         <v>1</v>
       </c>
       <c r="AE24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" s="44">
         <v>0</v>
@@ -34250,7 +34247,7 @@
         <v>15</v>
       </c>
       <c r="AI24" s="45" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34354,7 +34351,7 @@
         <v>16</v>
       </c>
       <c r="AI25" s="45" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34562,7 +34559,7 @@
         <v>18</v>
       </c>
       <c r="AI27" s="45" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34665,9 +34662,6 @@
       <c r="AH28" s="46">
         <v>19</v>
       </c>
-      <c r="AI28" s="45" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="29" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
@@ -36563,7 +36557,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="44">
         <v>1</v>
@@ -39788,94 +39782,94 @@
         <v>114</v>
       </c>
       <c r="B81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="44">
         <v>0</v>
       </c>
       <c r="F81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA81" s="41">
         <v>1</v>
       </c>
       <c r="AB81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE81" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF81" s="41">
         <v>0</v>
@@ -39886,94 +39880,94 @@
         <v>115</v>
       </c>
       <c r="B82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="44">
         <v>0</v>
       </c>
       <c r="F82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA82" s="41">
         <v>1</v>
       </c>
       <c r="AB82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE82" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF82" s="41">
         <v>0</v>

--- a/MP Workbook LAUNCHPAD.xlsx
+++ b/MP Workbook LAUNCHPAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="360" windowWidth="14430" windowHeight="11355" tabRatio="779" activeTab="3"/>
+    <workbookView xWindow="1995" yWindow="360" windowWidth="14430" windowHeight="11355" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="MP_new" sheetId="4" r:id="rId1"/>
@@ -1806,11 +1806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="274920512"/>
-        <c:axId val="274921088"/>
+        <c:axId val="278512768"/>
+        <c:axId val="278513344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="274920512"/>
+        <c:axId val="278512768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1840,12 +1840,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="274921088"/>
+        <c:crossAx val="278513344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="274921088"/>
+        <c:axId val="278513344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +1875,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="274920512"/>
+        <c:crossAx val="278512768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2270,11 +2270,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="274922816"/>
-        <c:axId val="268550144"/>
+        <c:axId val="278515072"/>
+        <c:axId val="278515648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="274922816"/>
+        <c:axId val="278515072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2304,12 +2304,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268550144"/>
+        <c:crossAx val="278515648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268550144"/>
+        <c:axId val="278515648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,7 +2344,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="274922816"/>
+        <c:crossAx val="278515072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2769,8 +2769,8 @@
   </sheetPr>
   <dimension ref="A1:CP200"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3312,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="Q11" s="87">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="R11" s="99"/>
       <c r="AI11" s="63"/>
@@ -32427,7 +32427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>

--- a/MP Workbook LAUNCHPAD.xlsx
+++ b/MP Workbook LAUNCHPAD.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="319">
   <si>
     <t>Scenario</t>
   </si>
@@ -964,6 +964,30 @@
   <si>
     <t xml:space="preserve"> T4-3, T4-3 Addition no ponds</t>
   </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Step Lockouts:</t>
+  </si>
+  <si>
+    <t>1 = DCA allowed to be changed in step</t>
+  </si>
+  <si>
+    <t>0 = No changes to DCA allowed in step</t>
+  </si>
 </sst>
 </file>
 
@@ -1140,7 +1164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1301,6 +1325,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1389,7 +1456,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1613,6 +1680,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -1806,11 +1882,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="278512768"/>
-        <c:axId val="278513344"/>
+        <c:axId val="191933248"/>
+        <c:axId val="191933824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278512768"/>
+        <c:axId val="191933248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1840,12 +1916,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="278513344"/>
+        <c:crossAx val="191933824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278513344"/>
+        <c:axId val="191933824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +1951,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="278512768"/>
+        <c:crossAx val="191933248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2270,11 +2346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="278515072"/>
-        <c:axId val="278515648"/>
+        <c:axId val="191935552"/>
+        <c:axId val="191936128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="278515072"/>
+        <c:axId val="191935552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2304,12 +2380,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="278515648"/>
+        <c:crossAx val="191936128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="278515648"/>
+        <c:axId val="191936128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,7 +2420,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="278515072"/>
+        <c:crossAx val="191935552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2770,7 +2846,7 @@
   <dimension ref="A1:CP200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32425,10 +32501,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI171"/>
+  <dimension ref="A1:AN171"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32436,22 +32512,22 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>222</v>
       </c>
@@ -32476,8 +32552,13 @@
       <c r="AD4" s="35"/>
       <c r="AE4" s="35"/>
       <c r="AF4" s="35"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L5" s="35"/>
       <c r="M5" s="35"/>
       <c r="N5" s="35"/>
@@ -32499,8 +32580,15 @@
       <c r="AD5" s="35"/>
       <c r="AE5" s="35"/>
       <c r="AF5" s="35"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AG5" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
       <c r="N6" s="35"/>
@@ -32522,8 +32610,15 @@
       <c r="AD6" s="35"/>
       <c r="AE6" s="35"/>
       <c r="AF6" s="35"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AG6" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -32556,8 +32651,15 @@
       <c r="AD7" s="35"/>
       <c r="AE7" s="35"/>
       <c r="AF7" s="35"/>
-    </row>
-    <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG7" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+    </row>
+    <row r="8" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -32590,8 +32692,13 @@
       <c r="AD8" s="37"/>
       <c r="AE8" s="37"/>
       <c r="AF8" s="37"/>
-    </row>
-    <row r="9" spans="1:35" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+    </row>
+    <row r="9" spans="1:40" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38"/>
       <c r="B9" s="39" t="s">
         <v>29</v>
@@ -32683,14 +32790,29 @@
       <c r="AE9" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="AF9" s="39" t="s">
+      <c r="AF9" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AH9" s="42" t="s">
+      <c r="AG9" s="114" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH9" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="AI9" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ9" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="AK9" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM9" s="42" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>22</v>
       </c>
@@ -32784,17 +32906,32 @@
       <c r="AE10" s="41">
         <v>0</v>
       </c>
-      <c r="AF10" s="41">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="42">
-        <v>1</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AF10" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>24</v>
       </c>
@@ -32888,17 +33025,32 @@
       <c r="AE11" s="44">
         <v>0</v>
       </c>
-      <c r="AF11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="46">
+      <c r="AF11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="46">
         <v>2</v>
       </c>
-      <c r="AI11" s="45" t="s">
+      <c r="AN11" s="45" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>25</v>
       </c>
@@ -32992,17 +33144,32 @@
       <c r="AE12" s="44">
         <v>0</v>
       </c>
-      <c r="AF12" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="46">
+      <c r="AF12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="46">
         <v>3</v>
       </c>
-      <c r="AI12" s="45" t="s">
+      <c r="AN12" s="45" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>27</v>
       </c>
@@ -33096,17 +33263,32 @@
       <c r="AE13" s="44">
         <v>0</v>
       </c>
-      <c r="AF13" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="46">
+      <c r="AF13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="46">
         <v>4</v>
       </c>
-      <c r="AI13" s="45" t="s">
+      <c r="AN13" s="45" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>28</v>
       </c>
@@ -33200,17 +33382,32 @@
       <c r="AE14" s="44">
         <v>1</v>
       </c>
-      <c r="AF14" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="46">
+      <c r="AF14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="46">
         <v>5</v>
       </c>
-      <c r="AI14" s="45" t="s">
+      <c r="AN14" s="45" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>32</v>
       </c>
@@ -33304,17 +33501,32 @@
       <c r="AE15" s="44">
         <v>1</v>
       </c>
-      <c r="AF15" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="46">
+      <c r="AF15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="46">
         <v>6</v>
       </c>
-      <c r="AI15" s="45" t="s">
+      <c r="AN15" s="45" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>35</v>
       </c>
@@ -33408,17 +33620,32 @@
       <c r="AE16" s="44">
         <v>1</v>
       </c>
-      <c r="AF16" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="46">
+      <c r="AF16" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="46">
         <v>7</v>
       </c>
-      <c r="AI16" s="45" t="s">
+      <c r="AN16" s="45" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>37</v>
       </c>
@@ -33512,17 +33739,32 @@
       <c r="AE17" s="44">
         <v>1</v>
       </c>
-      <c r="AF17" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="46">
+      <c r="AF17" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="46">
         <v>8</v>
       </c>
-      <c r="AI17" s="45" t="s">
+      <c r="AN17" s="45" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>39</v>
       </c>
@@ -33616,17 +33858,32 @@
       <c r="AE18" s="44">
         <v>0</v>
       </c>
-      <c r="AF18" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="46">
+      <c r="AF18" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="46">
         <v>9</v>
       </c>
-      <c r="AI18" s="45" t="s">
+      <c r="AN18" s="45" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>40</v>
       </c>
@@ -33720,17 +33977,32 @@
       <c r="AE19" s="44">
         <v>0</v>
       </c>
-      <c r="AF19" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="46">
+      <c r="AF19" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="46">
         <v>10</v>
       </c>
-      <c r="AI19" s="45" t="s">
+      <c r="AN19" s="45" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>41</v>
       </c>
@@ -33824,17 +34096,32 @@
       <c r="AE20" s="44">
         <v>1</v>
       </c>
-      <c r="AF20" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="46">
+      <c r="AF20" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="46">
         <v>11</v>
       </c>
-      <c r="AI20" s="45" t="s">
+      <c r="AN20" s="45" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>42</v>
       </c>
@@ -33928,17 +34215,32 @@
       <c r="AE21" s="41">
         <v>0</v>
       </c>
-      <c r="AF21" s="41">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="46">
+      <c r="AF21" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="46">
         <v>12</v>
       </c>
-      <c r="AI21" s="45" t="s">
+      <c r="AN21" s="45" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
         <v>44</v>
       </c>
@@ -34032,17 +34334,32 @@
       <c r="AE22" s="44">
         <v>1</v>
       </c>
-      <c r="AF22" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="46">
+      <c r="AF22" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="46">
         <v>13</v>
       </c>
-      <c r="AI22" s="45" t="s">
+      <c r="AN22" s="45" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>46</v>
       </c>
@@ -34136,17 +34453,32 @@
       <c r="AE23" s="44">
         <v>1</v>
       </c>
-      <c r="AF23" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="46">
+      <c r="AF23" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="46">
         <v>14</v>
       </c>
-      <c r="AI23" s="45" t="s">
+      <c r="AN23" s="45" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>47</v>
       </c>
@@ -34240,17 +34572,32 @@
       <c r="AE24" s="44">
         <v>1</v>
       </c>
-      <c r="AF24" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="46">
+      <c r="AF24" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="46">
         <v>15</v>
       </c>
-      <c r="AI24" s="45" t="s">
+      <c r="AN24" s="45" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>48</v>
       </c>
@@ -34344,17 +34691,32 @@
       <c r="AE25" s="44">
         <v>1</v>
       </c>
-      <c r="AF25" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="46">
+      <c r="AF25" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="46">
         <v>16</v>
       </c>
-      <c r="AI25" s="45" t="s">
+      <c r="AN25" s="45" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>50</v>
       </c>
@@ -34448,17 +34810,32 @@
       <c r="AE26" s="44">
         <v>1</v>
       </c>
-      <c r="AF26" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="46">
+      <c r="AF26" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="46">
         <v>17</v>
       </c>
-      <c r="AI26" s="45" t="s">
+      <c r="AN26" s="45" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>51</v>
       </c>
@@ -34552,17 +34929,32 @@
       <c r="AE27" s="44">
         <v>1</v>
       </c>
-      <c r="AF27" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="46">
+      <c r="AF27" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="46">
         <v>18</v>
       </c>
-      <c r="AI27" s="45" t="s">
+      <c r="AN27" s="45" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>52</v>
       </c>
@@ -34656,14 +35048,29 @@
       <c r="AE28" s="44">
         <v>0</v>
       </c>
-      <c r="AF28" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="46">
+      <c r="AF28" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="46">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>53</v>
       </c>
@@ -34757,14 +35164,29 @@
       <c r="AE29" s="44">
         <v>1</v>
       </c>
-      <c r="AF29" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="46">
+      <c r="AF29" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="46">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>56</v>
       </c>
@@ -34858,14 +35280,29 @@
       <c r="AE30" s="44">
         <v>1</v>
       </c>
-      <c r="AF30" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="46">
+      <c r="AF30" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="46">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
         <v>57</v>
       </c>
@@ -34959,14 +35396,29 @@
       <c r="AE31" s="44">
         <v>1</v>
       </c>
-      <c r="AF31" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="46">
+      <c r="AF31" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="46">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:35" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>59</v>
       </c>
@@ -35060,14 +35512,29 @@
       <c r="AE32" s="44">
         <v>1</v>
       </c>
-      <c r="AF32" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="46">
+      <c r="AF32" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="46">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
         <v>60</v>
       </c>
@@ -35161,14 +35628,29 @@
       <c r="AE33" s="44">
         <v>1</v>
       </c>
-      <c r="AF33" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="46">
+      <c r="AF33" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="41">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="46">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>61</v>
       </c>
@@ -35262,14 +35744,29 @@
       <c r="AE34" s="44">
         <v>1</v>
       </c>
-      <c r="AF34" s="44">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="46">
+      <c r="AF34" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="41">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="41">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="46">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
         <v>62</v>
       </c>
@@ -35363,11 +35860,26 @@
       <c r="AE35" s="44">
         <v>0</v>
       </c>
-      <c r="AF35" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF35" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>64</v>
       </c>
@@ -35461,11 +35973,26 @@
       <c r="AE36" s="44">
         <v>0</v>
       </c>
-      <c r="AF36" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF36" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
         <v>66</v>
       </c>
@@ -35559,11 +36086,26 @@
       <c r="AE37" s="44">
         <v>0</v>
       </c>
-      <c r="AF37" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF37" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>67</v>
       </c>
@@ -35657,11 +36199,26 @@
       <c r="AE38" s="41">
         <v>1</v>
       </c>
-      <c r="AF38" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF38" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
         <v>69</v>
       </c>
@@ -35755,11 +36312,26 @@
       <c r="AE39" s="44">
         <v>1</v>
       </c>
-      <c r="AF39" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF39" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
         <v>70</v>
       </c>
@@ -35853,11 +36425,26 @@
       <c r="AE40" s="44">
         <v>1</v>
       </c>
-      <c r="AF40" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF40" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
         <v>71</v>
       </c>
@@ -35951,11 +36538,26 @@
       <c r="AE41" s="44">
         <v>1</v>
       </c>
-      <c r="AF41" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF41" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
         <v>72</v>
       </c>
@@ -36049,11 +36651,26 @@
       <c r="AE42" s="44">
         <v>1</v>
       </c>
-      <c r="AF42" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF42" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
         <v>73</v>
       </c>
@@ -36147,11 +36764,26 @@
       <c r="AE43" s="44">
         <v>1</v>
       </c>
-      <c r="AF43" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF43" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
         <v>74</v>
       </c>
@@ -36245,11 +36877,26 @@
       <c r="AE44" s="41">
         <v>0</v>
       </c>
-      <c r="AF44" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF44" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
         <v>75</v>
       </c>
@@ -36343,11 +36990,26 @@
       <c r="AE45" s="44">
         <v>1</v>
       </c>
-      <c r="AF45" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF45" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
         <v>76</v>
       </c>
@@ -36441,11 +37103,26 @@
       <c r="AE46" s="44">
         <v>0</v>
       </c>
-      <c r="AF46" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF46" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="43" t="s">
         <v>77</v>
       </c>
@@ -36539,11 +37216,26 @@
       <c r="AE47" s="44">
         <v>1</v>
       </c>
-      <c r="AF47" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF47" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="43" t="s">
         <v>78</v>
       </c>
@@ -36637,11 +37329,26 @@
       <c r="AE48" s="44">
         <v>1</v>
       </c>
-      <c r="AF48" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF48" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
         <v>80</v>
       </c>
@@ -36735,11 +37442,26 @@
       <c r="AE49" s="44">
         <v>1</v>
       </c>
-      <c r="AF49" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF49" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI49" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ49" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK49" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="43" t="s">
         <v>81</v>
       </c>
@@ -36833,11 +37555,26 @@
       <c r="AE50" s="44">
         <v>1</v>
       </c>
-      <c r="AF50" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF50" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ50" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK50" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
         <v>83</v>
       </c>
@@ -36931,11 +37668,26 @@
       <c r="AE51" s="41">
         <v>0</v>
       </c>
-      <c r="AF51" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF51" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ51" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="43" t="s">
         <v>84</v>
       </c>
@@ -37029,11 +37781,26 @@
       <c r="AE52" s="41">
         <v>0</v>
       </c>
-      <c r="AF52" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF52" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="43" t="s">
         <v>85</v>
       </c>
@@ -37127,11 +37894,26 @@
       <c r="AE53" s="44">
         <v>0</v>
       </c>
-      <c r="AF53" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF53" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI53" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ53" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="43" t="s">
         <v>86</v>
       </c>
@@ -37225,11 +38007,26 @@
       <c r="AE54" s="44">
         <v>1</v>
       </c>
-      <c r="AF54" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF54" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI54" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ54" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
         <v>87</v>
       </c>
@@ -37323,11 +38120,26 @@
       <c r="AE55" s="44">
         <v>1</v>
       </c>
-      <c r="AF55" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF55" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI55" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ55" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
         <v>88</v>
       </c>
@@ -37421,11 +38233,26 @@
       <c r="AE56" s="44">
         <v>1</v>
       </c>
-      <c r="AF56" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF56" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
         <v>89</v>
       </c>
@@ -37519,11 +38346,26 @@
       <c r="AE57" s="44">
         <v>1</v>
       </c>
-      <c r="AF57" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF57" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ57" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
         <v>90</v>
       </c>
@@ -37617,11 +38459,26 @@
       <c r="AE58" s="44">
         <v>0</v>
       </c>
-      <c r="AF58" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF58" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ58" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK58" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
         <v>91</v>
       </c>
@@ -37715,11 +38572,26 @@
       <c r="AE59" s="44">
         <v>1</v>
       </c>
-      <c r="AF59" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF59" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ59" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
         <v>92</v>
       </c>
@@ -37813,11 +38685,26 @@
       <c r="AE60" s="44">
         <v>1</v>
       </c>
-      <c r="AF60" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF60" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ60" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK60" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="43" t="s">
         <v>93</v>
       </c>
@@ -37911,11 +38798,26 @@
       <c r="AE61" s="41">
         <v>0</v>
       </c>
-      <c r="AF61" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF61" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH61" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI61" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ61" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43" t="s">
         <v>94</v>
       </c>
@@ -38009,11 +38911,26 @@
       <c r="AE62" s="41">
         <v>0</v>
       </c>
-      <c r="AF62" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF62" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI62" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ62" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="43" t="s">
         <v>95</v>
       </c>
@@ -38107,11 +39024,26 @@
       <c r="AE63" s="44">
         <v>1</v>
       </c>
-      <c r="AF63" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF63" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH63" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI63" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ63" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK63" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
         <v>96</v>
       </c>
@@ -38205,11 +39137,26 @@
       <c r="AE64" s="44">
         <v>1</v>
       </c>
-      <c r="AF64" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF64" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH64" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI64" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ64" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK64" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="43" t="s">
         <v>97</v>
       </c>
@@ -38303,11 +39250,26 @@
       <c r="AE65" s="44">
         <v>0</v>
       </c>
-      <c r="AF65" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF65" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH65" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI65" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ65" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK65" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="43" t="s">
         <v>98</v>
       </c>
@@ -38401,11 +39363,26 @@
       <c r="AE66" s="44">
         <v>0</v>
       </c>
-      <c r="AF66" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF66" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH66" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI66" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ66" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK66" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="43" t="s">
         <v>99</v>
       </c>
@@ -38499,11 +39476,26 @@
       <c r="AE67" s="44">
         <v>1</v>
       </c>
-      <c r="AF67" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF67" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ67" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK67" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="43" t="s">
         <v>101</v>
       </c>
@@ -38597,11 +39589,26 @@
       <c r="AE68" s="44">
         <v>1</v>
       </c>
-      <c r="AF68" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF68" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ68" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK68" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="43" t="s">
         <v>102</v>
       </c>
@@ -38695,11 +39702,26 @@
       <c r="AE69" s="44">
         <v>1</v>
       </c>
-      <c r="AF69" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF69" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ69" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK69" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="43" t="s">
         <v>103</v>
       </c>
@@ -38793,11 +39815,26 @@
       <c r="AE70" s="44">
         <v>0</v>
       </c>
-      <c r="AF70" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF70" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ70" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK70" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="43" t="s">
         <v>104</v>
       </c>
@@ -38891,11 +39928,26 @@
       <c r="AE71" s="44">
         <v>0</v>
       </c>
-      <c r="AF71" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF71" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ71" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK71" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="43" t="s">
         <v>105</v>
       </c>
@@ -38989,11 +40041,26 @@
       <c r="AE72" s="44">
         <v>0</v>
       </c>
-      <c r="AF72" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF72" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH72" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI72" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ72" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="43" t="s">
         <v>106</v>
       </c>
@@ -39087,11 +40154,26 @@
       <c r="AE73" s="44">
         <v>0</v>
       </c>
-      <c r="AF73" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF73" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH73" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI73" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ73" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK73" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="43" t="s">
         <v>107</v>
       </c>
@@ -39185,11 +40267,26 @@
       <c r="AE74" s="44">
         <v>0</v>
       </c>
-      <c r="AF74" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF74" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH74" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ74" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK74" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
         <v>108</v>
       </c>
@@ -39283,11 +40380,26 @@
       <c r="AE75" s="44">
         <v>1</v>
       </c>
-      <c r="AF75" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF75" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH75" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI75" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ75" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK75" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="43" t="s">
         <v>109</v>
       </c>
@@ -39381,11 +40493,26 @@
       <c r="AE76" s="44">
         <v>1</v>
       </c>
-      <c r="AF76" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF76" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH76" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI76" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ76" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK76" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="43" t="s">
         <v>110</v>
       </c>
@@ -39479,11 +40606,26 @@
       <c r="AE77" s="44">
         <v>0</v>
       </c>
-      <c r="AF77" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF77" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH77" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI77" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ77" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK77" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="43" t="s">
         <v>111</v>
       </c>
@@ -39577,11 +40719,26 @@
       <c r="AE78" s="44">
         <v>0</v>
       </c>
-      <c r="AF78" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF78" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH78" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI78" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ78" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK78" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="43" t="s">
         <v>112</v>
       </c>
@@ -39675,11 +40832,26 @@
       <c r="AE79" s="44">
         <v>0</v>
       </c>
-      <c r="AF79" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF79" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH79" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI79" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ79" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK79" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="43" t="s">
         <v>113</v>
       </c>
@@ -39773,11 +40945,26 @@
       <c r="AE80" s="41">
         <v>1</v>
       </c>
-      <c r="AF80" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF80" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH80" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI80" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ80" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK80" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="43" t="s">
         <v>114</v>
       </c>
@@ -39871,11 +41058,26 @@
       <c r="AE81" s="41">
         <v>1</v>
       </c>
-      <c r="AF81" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF81" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH81" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI81" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ81" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK81" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="43" t="s">
         <v>115</v>
       </c>
@@ -39969,11 +41171,26 @@
       <c r="AE82" s="41">
         <v>1</v>
       </c>
-      <c r="AF82" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF82" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH82" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI82" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ82" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK82" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="43" t="s">
         <v>116</v>
       </c>
@@ -40067,11 +41284,26 @@
       <c r="AE83" s="44">
         <v>1</v>
       </c>
-      <c r="AF83" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF83" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH83" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI83" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ83" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK83" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="43" t="s">
         <v>117</v>
       </c>
@@ -40165,11 +41397,26 @@
       <c r="AE84" s="41">
         <v>0</v>
       </c>
-      <c r="AF84" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF84" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH84" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI84" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ84" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK84" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="43" t="s">
         <v>118</v>
       </c>
@@ -40263,11 +41510,26 @@
       <c r="AE85" s="41">
         <v>0</v>
       </c>
-      <c r="AF85" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF85" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH85" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI85" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ85" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK85" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="43" t="s">
         <v>119</v>
       </c>
@@ -40361,11 +41623,26 @@
       <c r="AE86" s="41">
         <v>0</v>
       </c>
-      <c r="AF86" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF86" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH86" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI86" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ86" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK86" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="43" t="s">
         <v>120</v>
       </c>
@@ -40459,11 +41736,26 @@
       <c r="AE87" s="44">
         <v>1</v>
       </c>
-      <c r="AF87" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF87" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH87" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI87" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ87" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK87" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="43" t="s">
         <v>121</v>
       </c>
@@ -40557,11 +41849,26 @@
       <c r="AE88" s="44">
         <v>1</v>
       </c>
-      <c r="AF88" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF88" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH88" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI88" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ88" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK88" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="43" t="s">
         <v>122</v>
       </c>
@@ -40655,11 +41962,26 @@
       <c r="AE89" s="44">
         <v>1</v>
       </c>
-      <c r="AF89" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF89" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH89" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI89" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ89" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK89" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="43" t="s">
         <v>123</v>
       </c>
@@ -40753,11 +42075,26 @@
       <c r="AE90" s="44">
         <v>1</v>
       </c>
-      <c r="AF90" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF90" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH90" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI90" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ90" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK90" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="43" t="s">
         <v>125</v>
       </c>
@@ -40851,11 +42188,26 @@
       <c r="AE91" s="44">
         <v>1</v>
       </c>
-      <c r="AF91" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF91" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH91" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI91" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ91" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK91" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="43" t="s">
         <v>126</v>
       </c>
@@ -40949,11 +42301,26 @@
       <c r="AE92" s="44">
         <v>1</v>
       </c>
-      <c r="AF92" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF92" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH92" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI92" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ92" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK92" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="43" t="s">
         <v>127</v>
       </c>
@@ -41047,11 +42414,26 @@
       <c r="AE93" s="44">
         <v>1</v>
       </c>
-      <c r="AF93" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF93" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH93" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI93" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ93" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK93" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="43" t="s">
         <v>128</v>
       </c>
@@ -41145,11 +42527,26 @@
       <c r="AE94" s="44">
         <v>1</v>
       </c>
-      <c r="AF94" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF94" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH94" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ94" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK94" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="43" t="s">
         <v>130</v>
       </c>
@@ -41243,11 +42640,26 @@
       <c r="AE95" s="44">
         <v>1</v>
       </c>
-      <c r="AF95" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF95" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH95" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI95" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ95" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK95" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="43" t="s">
         <v>131</v>
       </c>
@@ -41341,11 +42753,26 @@
       <c r="AE96" s="44">
         <v>0</v>
       </c>
-      <c r="AF96" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF96" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH96" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI96" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ96" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK96" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="43" t="s">
         <v>132</v>
       </c>
@@ -41439,11 +42866,26 @@
       <c r="AE97" s="44">
         <v>1</v>
       </c>
-      <c r="AF97" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF97" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH97" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI97" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ97" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK97" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="43" t="s">
         <v>133</v>
       </c>
@@ -41537,11 +42979,26 @@
       <c r="AE98" s="44">
         <v>1</v>
       </c>
-      <c r="AF98" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF98" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH98" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI98" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ98" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK98" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="43" t="s">
         <v>134</v>
       </c>
@@ -41635,11 +43092,26 @@
       <c r="AE99" s="44">
         <v>1</v>
       </c>
-      <c r="AF99" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF99" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH99" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI99" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ99" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK99" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="43" t="s">
         <v>135</v>
       </c>
@@ -41733,11 +43205,26 @@
       <c r="AE100" s="44">
         <v>1</v>
       </c>
-      <c r="AF100" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF100" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH100" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI100" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ100" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK100" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="43" t="s">
         <v>136</v>
       </c>
@@ -41831,11 +43318,26 @@
       <c r="AE101" s="44">
         <v>1</v>
       </c>
-      <c r="AF101" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF101" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH101" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI101" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ101" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK101" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="43" t="s">
         <v>137</v>
       </c>
@@ -41929,11 +43431,26 @@
       <c r="AE102" s="44">
         <v>1</v>
       </c>
-      <c r="AF102" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF102" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH102" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI102" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ102" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK102" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="43" t="s">
         <v>138</v>
       </c>
@@ -42027,11 +43544,26 @@
       <c r="AE103" s="44">
         <v>1</v>
       </c>
-      <c r="AF103" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF103" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH103" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI103" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ103" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK103" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="43" t="s">
         <v>139</v>
       </c>
@@ -42125,11 +43657,26 @@
       <c r="AE104" s="44">
         <v>1</v>
       </c>
-      <c r="AF104" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF104" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH104" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI104" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ104" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK104" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="43" t="s">
         <v>140</v>
       </c>
@@ -42223,11 +43770,26 @@
       <c r="AE105" s="44">
         <v>1</v>
       </c>
-      <c r="AF105" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF105" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH105" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI105" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ105" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK105" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43" t="s">
         <v>141</v>
       </c>
@@ -42321,11 +43883,26 @@
       <c r="AE106" s="44">
         <v>1</v>
       </c>
-      <c r="AF106" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF106" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG106" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH106" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI106" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ106" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK106" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="43" t="s">
         <v>142</v>
       </c>
@@ -42419,11 +43996,26 @@
       <c r="AE107" s="44">
         <v>1</v>
       </c>
-      <c r="AF107" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF107" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG107" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH107" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI107" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ107" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK107" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="43" t="s">
         <v>143</v>
       </c>
@@ -42517,11 +44109,26 @@
       <c r="AE108" s="44">
         <v>1</v>
       </c>
-      <c r="AF108" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF108" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH108" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI108" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ108" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK108" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="43" t="s">
         <v>144</v>
       </c>
@@ -42615,11 +44222,26 @@
       <c r="AE109" s="44">
         <v>1</v>
       </c>
-      <c r="AF109" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF109" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG109" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH109" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI109" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ109" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK109" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="43" t="s">
         <v>145</v>
       </c>
@@ -42713,11 +44335,26 @@
       <c r="AE110" s="44">
         <v>1</v>
       </c>
-      <c r="AF110" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF110" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH110" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI110" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ110" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK110" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="43" t="s">
         <v>146</v>
       </c>
@@ -42811,11 +44448,26 @@
       <c r="AE111" s="44">
         <v>1</v>
       </c>
-      <c r="AF111" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF111" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH111" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI111" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ111" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK111" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="43" t="s">
         <v>147</v>
       </c>
@@ -42909,11 +44561,26 @@
       <c r="AE112" s="44">
         <v>1</v>
       </c>
-      <c r="AF112" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF112" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG112" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH112" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI112" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ112" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK112" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="43" t="s">
         <v>148</v>
       </c>
@@ -43007,11 +44674,26 @@
       <c r="AE113" s="44">
         <v>1</v>
       </c>
-      <c r="AF113" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF113" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG113" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH113" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI113" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ113" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK113" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="43" t="s">
         <v>149</v>
       </c>
@@ -43105,11 +44787,26 @@
       <c r="AE114" s="44">
         <v>1</v>
       </c>
-      <c r="AF114" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF114" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG114" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH114" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI114" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ114" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK114" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="43" t="s">
         <v>150</v>
       </c>
@@ -43203,11 +44900,26 @@
       <c r="AE115" s="44">
         <v>1</v>
       </c>
-      <c r="AF115" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF115" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG115" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH115" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI115" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ115" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK115" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="43" t="s">
         <v>151</v>
       </c>
@@ -43301,11 +45013,26 @@
       <c r="AE116" s="44">
         <v>1</v>
       </c>
-      <c r="AF116" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF116" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG116" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH116" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI116" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ116" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK116" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="43" t="s">
         <v>152</v>
       </c>
@@ -43399,11 +45126,26 @@
       <c r="AE117" s="44">
         <v>1</v>
       </c>
-      <c r="AF117" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF117" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG117" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH117" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI117" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ117" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK117" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="43" t="s">
         <v>153</v>
       </c>
@@ -43497,11 +45239,26 @@
       <c r="AE118" s="44">
         <v>1</v>
       </c>
-      <c r="AF118" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF118" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG118" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH118" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI118" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ118" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK118" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="43" t="s">
         <v>154</v>
       </c>
@@ -43595,11 +45352,26 @@
       <c r="AE119" s="44">
         <v>1</v>
       </c>
-      <c r="AF119" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF119" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG119" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH119" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI119" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ119" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK119" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="43" t="s">
         <v>155</v>
       </c>
@@ -43693,11 +45465,26 @@
       <c r="AE120" s="44">
         <v>1</v>
       </c>
-      <c r="AF120" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF120" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG120" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH120" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI120" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ120" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK120" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="43" t="s">
         <v>156</v>
       </c>
@@ -43791,11 +45578,26 @@
       <c r="AE121" s="44">
         <v>1</v>
       </c>
-      <c r="AF121" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF121" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG121" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH121" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI121" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ121" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK121" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="43" t="s">
         <v>157</v>
       </c>
@@ -43889,11 +45691,26 @@
       <c r="AE122" s="44">
         <v>1</v>
       </c>
-      <c r="AF122" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF122" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG122" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH122" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI122" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ122" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK122" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="43" t="s">
         <v>158</v>
       </c>
@@ -43987,11 +45804,26 @@
       <c r="AE123" s="44">
         <v>1</v>
       </c>
-      <c r="AF123" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF123" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG123" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH123" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI123" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ123" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK123" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="43" t="s">
         <v>159</v>
       </c>
@@ -44085,11 +45917,26 @@
       <c r="AE124" s="44">
         <v>1</v>
       </c>
-      <c r="AF124" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF124" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG124" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH124" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI124" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ124" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK124" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="43" t="s">
         <v>160</v>
       </c>
@@ -44183,11 +46030,26 @@
       <c r="AE125" s="44">
         <v>1</v>
       </c>
-      <c r="AF125" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF125" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG125" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH125" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI125" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ125" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK125" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="43" t="s">
         <v>161</v>
       </c>
@@ -44281,11 +46143,26 @@
       <c r="AE126" s="44">
         <v>1</v>
       </c>
-      <c r="AF126" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF126" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG126" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH126" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI126" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ126" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK126" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="43" t="s">
         <v>162</v>
       </c>
@@ -44379,11 +46256,26 @@
       <c r="AE127" s="44">
         <v>1</v>
       </c>
-      <c r="AF127" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF127" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG127" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH127" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI127" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ127" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK127" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="43" t="s">
         <v>163</v>
       </c>
@@ -44477,11 +46369,26 @@
       <c r="AE128" s="44">
         <v>1</v>
       </c>
-      <c r="AF128" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF128" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG128" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH128" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ128" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK128" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="43" t="s">
         <v>164</v>
       </c>
@@ -44575,11 +46482,26 @@
       <c r="AE129" s="44">
         <v>1</v>
       </c>
-      <c r="AF129" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF129" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG129" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH129" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ129" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK129" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="43" t="s">
         <v>165</v>
       </c>
@@ -44673,11 +46595,26 @@
       <c r="AE130" s="44">
         <v>1</v>
       </c>
-      <c r="AF130" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF130" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG130" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH130" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI130" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ130" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK130" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="43" t="s">
         <v>166</v>
       </c>
@@ -44771,11 +46708,26 @@
       <c r="AE131" s="44">
         <v>1</v>
       </c>
-      <c r="AF131" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF131" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG131" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH131" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI131" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ131" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK131" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="43" t="s">
         <v>167</v>
       </c>
@@ -44869,11 +46821,26 @@
       <c r="AE132" s="44">
         <v>1</v>
       </c>
-      <c r="AF132" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF132" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG132" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH132" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI132" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ132" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK132" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="43" t="s">
         <v>168</v>
       </c>
@@ -44967,11 +46934,26 @@
       <c r="AE133" s="44">
         <v>1</v>
       </c>
-      <c r="AF133" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF133" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG133" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH133" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI133" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ133" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK133" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="43" t="s">
         <v>169</v>
       </c>
@@ -45065,11 +47047,26 @@
       <c r="AE134" s="44">
         <v>1</v>
       </c>
-      <c r="AF134" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF134" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG134" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH134" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI134" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ134" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK134" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="43" t="s">
         <v>170</v>
       </c>
@@ -45163,11 +47160,26 @@
       <c r="AE135" s="44">
         <v>1</v>
       </c>
-      <c r="AF135" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF135" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG135" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH135" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI135" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ135" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK135" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="43" t="s">
         <v>171</v>
       </c>
@@ -45261,11 +47273,26 @@
       <c r="AE136" s="44">
         <v>1</v>
       </c>
-      <c r="AF136" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF136" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG136" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH136" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI136" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ136" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK136" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="43" t="s">
         <v>172</v>
       </c>
@@ -45359,11 +47386,26 @@
       <c r="AE137" s="44">
         <v>1</v>
       </c>
-      <c r="AF137" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF137" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG137" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH137" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI137" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ137" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK137" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="43" t="s">
         <v>173</v>
       </c>
@@ -45457,11 +47499,26 @@
       <c r="AE138" s="44">
         <v>1</v>
       </c>
-      <c r="AF138" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF138" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG138" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH138" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI138" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ138" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK138" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="43" t="s">
         <v>174</v>
       </c>
@@ -45555,11 +47612,26 @@
       <c r="AE139" s="44">
         <v>1</v>
       </c>
-      <c r="AF139" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF139" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG139" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH139" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI139" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ139" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK139" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="43" t="s">
         <v>175</v>
       </c>
@@ -45653,11 +47725,26 @@
       <c r="AE140" s="44">
         <v>1</v>
       </c>
-      <c r="AF140" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF140" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG140" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH140" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI140" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ140" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK140" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="43" t="s">
         <v>176</v>
       </c>
@@ -45751,11 +47838,26 @@
       <c r="AE141" s="44">
         <v>1</v>
       </c>
-      <c r="AF141" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF141" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG141" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH141" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI141" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ141" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK141" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="43" t="s">
         <v>177</v>
       </c>
@@ -45849,11 +47951,26 @@
       <c r="AE142" s="44">
         <v>1</v>
       </c>
-      <c r="AF142" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF142" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG142" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH142" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI142" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ142" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK142" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="43" t="s">
         <v>178</v>
       </c>
@@ -45947,11 +48064,26 @@
       <c r="AE143" s="44">
         <v>1</v>
       </c>
-      <c r="AF143" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF143" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG143" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH143" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI143" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ143" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK143" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="43" t="s">
         <v>179</v>
       </c>
@@ -46045,11 +48177,26 @@
       <c r="AE144" s="44">
         <v>1</v>
       </c>
-      <c r="AF144" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF144" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG144" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH144" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI144" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ144" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK144" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="43" t="s">
         <v>180</v>
       </c>
@@ -46143,11 +48290,26 @@
       <c r="AE145" s="44">
         <v>1</v>
       </c>
-      <c r="AF145" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF145" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG145" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH145" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI145" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ145" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK145" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="43" t="s">
         <v>181</v>
       </c>
@@ -46241,11 +48403,26 @@
       <c r="AE146" s="44">
         <v>1</v>
       </c>
-      <c r="AF146" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF146" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG146" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH146" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI146" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ146" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK146" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="43" t="s">
         <v>182</v>
       </c>
@@ -46339,11 +48516,26 @@
       <c r="AE147" s="44">
         <v>1</v>
       </c>
-      <c r="AF147" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF147" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG147" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH147" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI147" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ147" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK147" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="43" t="s">
         <v>183</v>
       </c>
@@ -46437,11 +48629,26 @@
       <c r="AE148" s="44">
         <v>1</v>
       </c>
-      <c r="AF148" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF148" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG148" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH148" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI148" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ148" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK148" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="43" t="s">
         <v>184</v>
       </c>
@@ -46535,11 +48742,26 @@
       <c r="AE149" s="44">
         <v>1</v>
       </c>
-      <c r="AF149" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF149" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG149" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH149" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI149" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ149" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK149" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="43" t="s">
         <v>185</v>
       </c>
@@ -46633,11 +48855,26 @@
       <c r="AE150" s="44">
         <v>1</v>
       </c>
-      <c r="AF150" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF150" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG150" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH150" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI150" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ150" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK150" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="43" t="s">
         <v>186</v>
       </c>
@@ -46731,11 +48968,26 @@
       <c r="AE151" s="44">
         <v>1</v>
       </c>
-      <c r="AF151" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF151" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG151" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH151" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI151" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ151" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK151" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="43" t="s">
         <v>187</v>
       </c>
@@ -46829,11 +49081,26 @@
       <c r="AE152" s="44">
         <v>0</v>
       </c>
-      <c r="AF152" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF152" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG152" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH152" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI152" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ152" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK152" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="43" t="s">
         <v>188</v>
       </c>
@@ -46927,11 +49194,26 @@
       <c r="AE153" s="44">
         <v>1</v>
       </c>
-      <c r="AF153" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF153" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG153" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH153" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI153" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ153" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK153" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="43" t="s">
         <v>189</v>
       </c>
@@ -47025,11 +49307,26 @@
       <c r="AE154" s="41">
         <v>1</v>
       </c>
-      <c r="AF154" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF154" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG154" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH154" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI154" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ154" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK154" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="43" t="s">
         <v>190</v>
       </c>
@@ -47123,11 +49420,26 @@
       <c r="AE155" s="41">
         <v>1</v>
       </c>
-      <c r="AF155" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF155" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG155" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH155" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI155" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ155" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK155" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="43" t="s">
         <v>191</v>
       </c>
@@ -47221,11 +49533,26 @@
       <c r="AE156" s="41">
         <v>0</v>
       </c>
-      <c r="AF156" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF156" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG156" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH156" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI156" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ156" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK156" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="43" t="s">
         <v>192</v>
       </c>
@@ -47319,11 +49646,26 @@
       <c r="AE157" s="44">
         <v>0</v>
       </c>
-      <c r="AF157" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF157" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG157" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH157" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI157" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ157" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK157" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="43" t="s">
         <v>193</v>
       </c>
@@ -47417,11 +49759,26 @@
       <c r="AE158" s="44">
         <v>0</v>
       </c>
-      <c r="AF158" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF158" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG158" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH158" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI158" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ158" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK158" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="43" t="s">
         <v>194</v>
       </c>
@@ -47515,11 +49872,26 @@
       <c r="AE159" s="44">
         <v>0</v>
       </c>
-      <c r="AF159" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF159" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG159" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH159" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI159" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ159" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK159" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="43" t="s">
         <v>195</v>
       </c>
@@ -47613,11 +49985,26 @@
       <c r="AE160" s="44">
         <v>0</v>
       </c>
-      <c r="AF160" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF160" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG160" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH160" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI160" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ160" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK160" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="43" t="s">
         <v>196</v>
       </c>
@@ -47711,11 +50098,26 @@
       <c r="AE161" s="44">
         <v>0</v>
       </c>
-      <c r="AF161" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF161" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG161" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH161" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI161" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ161" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK161" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="43" t="s">
         <v>197</v>
       </c>
@@ -47809,11 +50211,26 @@
       <c r="AE162" s="44">
         <v>0</v>
       </c>
-      <c r="AF162" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF162" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG162" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH162" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI162" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ162" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK162" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="43" t="s">
         <v>198</v>
       </c>
@@ -47907,11 +50324,26 @@
       <c r="AE163" s="41">
         <v>1</v>
       </c>
-      <c r="AF163" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF163" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG163" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH163" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI163" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ163" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK163" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="43" t="s">
         <v>200</v>
       </c>
@@ -48005,11 +50437,26 @@
       <c r="AE164" s="41">
         <v>1</v>
       </c>
-      <c r="AF164" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF164" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG164" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH164" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI164" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ164" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK164" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="43" t="s">
         <v>201</v>
       </c>
@@ -48103,11 +50550,26 @@
       <c r="AE165" s="41">
         <v>1</v>
       </c>
-      <c r="AF165" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF165" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG165" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH165" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI165" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ165" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK165" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="43" t="s">
         <v>202</v>
       </c>
@@ -48201,11 +50663,26 @@
       <c r="AE166" s="41">
         <v>1</v>
       </c>
-      <c r="AF166" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF166" s="112">
+        <v>0</v>
+      </c>
+      <c r="AG166" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH166" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI166" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ166" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK166" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="43" t="s">
         <v>203</v>
       </c>
@@ -48299,11 +50776,26 @@
       <c r="AE167" s="44">
         <v>0</v>
       </c>
-      <c r="AF167" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF167" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG167" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH167" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI167" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ167" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK167" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="43" t="s">
         <v>204</v>
       </c>
@@ -48397,11 +50889,26 @@
       <c r="AE168" s="44">
         <v>0</v>
       </c>
-      <c r="AF168" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF168" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG168" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH168" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI168" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ168" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK168" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:37" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="47" t="s">
         <v>205</v>
       </c>
@@ -48495,14 +51002,29 @@
       <c r="AE169" s="44">
         <v>0</v>
       </c>
-      <c r="AF169" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:32" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:32" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="AF169" s="113">
+        <v>0</v>
+      </c>
+      <c r="AG169" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH169" s="41">
+        <v>1</v>
+      </c>
+      <c r="AI169" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ169" s="41">
+        <v>1</v>
+      </c>
+      <c r="AK169" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B10:AF169">
+  <conditionalFormatting sqref="B10:AK169">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -48513,5 +51035,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>